--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{60E66C40-4F07-1A4A-8C0F-970721A7FFDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF7EE4E-CC0C-484B-9978-8398BD2DE522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>About This Template</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Adam, Tumaris</t>
+  </si>
+  <si>
+    <t>Jeffer, Brandin</t>
+  </si>
+  <si>
+    <t>Aparna, Siddharth</t>
+  </si>
+  <si>
+    <t>Aparna, Brandin</t>
   </si>
 </sst>
 </file>
@@ -750,6 +762,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,28 +793,13 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,6 +818,79 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -893,46 +978,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
@@ -995,39 +1040,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1291,15 +1303,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>23854</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>63610</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>84</xdr:col>
-          <xdr:colOff>75052</xdr:colOff>
+          <xdr:colOff>127221</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238539</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1351,12 +1363,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="10" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="0" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1636,24 +1648,24 @@
   </sheetPr>
   <dimension ref="A1:CA127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="139" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="83" width="2.5" customWidth="1"/>
+    <col min="10" max="83" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -1693,7 +1705,7 @@
       <c r="AG1" s="20"/>
       <c r="AH1" s="20"/>
     </row>
-    <row r="2" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -1704,80 +1716,80 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="Q2" s="55" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="Q2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="X2" s="56" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="X2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AE2" s="47" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AE2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AL2" s="48" t="s">
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AL2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
       <c r="AR2" s="20"/>
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
     </row>
-    <row r="3" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="52">
+      <c r="E3" s="55"/>
+      <c r="F3" s="57">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>44096</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="53"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="39">
         <v>0</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="47"/>
       <c r="J4" s="38" t="str">
         <f ca="1">TEXT(J5,"mmmm")</f>
         <v>September</v>
@@ -1873,18 +1885,18 @@
       <c r="BZ4" s="38"/>
       <c r="CA4" s="38"/>
     </row>
-    <row r="5" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="43">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>44096</v>
@@ -2166,7 +2178,7 @@
         <v>44165</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
@@ -2249,7 +2261,7 @@
       <c r="BZ6" s="42"/>
       <c r="CA6" s="42"/>
     </row>
-    <row r="7" spans="1:79" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -2556,16 +2568,14 @@
         <v>M</v>
       </c>
     </row>
-    <row r="8" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>57</v>
-      </c>
+      <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="29">
         <v>0</v>
@@ -2862,7 +2872,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="36" t="s">
         <v>27</v>
@@ -3168,7 +3178,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="36" t="s">
         <v>28</v>
@@ -3180,7 +3190,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="30">
         <v>44108</v>
@@ -3474,7 +3484,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="37" t="s">
         <v>40</v>
@@ -3767,7 +3777,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="36" t="s">
         <v>36</v>
@@ -3775,7 +3785,9 @@
       <c r="C12" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="49" t="s">
+        <v>63</v>
+      </c>
       <c r="E12" s="29">
         <v>0.15</v>
       </c>
@@ -4071,7 +4083,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="36" t="s">
         <v>37</v>
@@ -4079,7 +4091,7 @@
       <c r="C13" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="29">
         <v>0</v>
       </c>
@@ -4095,227 +4107,227 @@
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",J$5&gt;=$F13,J$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",J$5&gt;=$F13,J$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ref="J13:S17" ca="1" si="30">IF(AND($C13="Goal",J$5&gt;=$F13,J$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",J$5&gt;=$F13,J$5&lt;=$F13+$H13-1),1,""))</f>
         <v/>
       </c>
       <c r="K13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",K$5&gt;=$F13,K$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",K$5&gt;=$F13,K$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="L13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",L$5&gt;=$F13,L$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",L$5&gt;=$F13,L$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",M$5&gt;=$F13,M$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",M$5&gt;=$F13,M$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="N13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",N$5&gt;=$F13,N$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",N$5&gt;=$F13,N$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="O13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",O$5&gt;=$F13,O$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",O$5&gt;=$F13,O$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="P13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",P$5&gt;=$F13,P$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",P$5&gt;=$F13,P$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Q13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",Q$5&gt;=$F13,Q$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",Q$5&gt;=$F13,Q$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="R13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",R$5&gt;=$F13,R$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",R$5&gt;=$F13,R$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",S$5&gt;=$F13,S$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",S$5&gt;=$F13,S$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="T13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",T$5&gt;=$F13,T$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",T$5&gt;=$F13,T$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",U$5&gt;=$F13,U$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",U$5&gt;=$F13,U$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",V$5&gt;=$F13,V$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",V$5&gt;=$F13,V$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",W$5&gt;=$F13,W$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",W$5&gt;=$F13,W$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",X$5&gt;=$F13,X$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",X$5&gt;=$F13,X$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",Y$5&gt;=$F13,Y$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",Y$5&gt;=$F13,Y$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Z13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",Z$5&gt;=$F13,Z$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",Z$5&gt;=$F13,Z$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AA13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AA$5&gt;=$F13,AA$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AA$5&gt;=$F13,AA$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AB13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AB$5&gt;=$F13,AB$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AB$5&gt;=$F13,AB$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AC13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AC$5&gt;=$F13,AC$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AC$5&gt;=$F13,AC$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AD13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AD$5&gt;=$F13,AD$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AD$5&gt;=$F13,AD$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AE13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AE$5&gt;=$F13,AE$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AE$5&gt;=$F13,AE$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AF13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AF$5&gt;=$F13,AF$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AF$5&gt;=$F13,AF$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AG13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AG$5&gt;=$F13,AG$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AG$5&gt;=$F13,AG$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AH13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AH$5&gt;=$F13,AH$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AH$5&gt;=$F13,AH$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AI13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AI$5&gt;=$F13,AI$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AI$5&gt;=$F13,AI$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AJ13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AJ$5&gt;=$F13,AJ$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AJ$5&gt;=$F13,AJ$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AK13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AK$5&gt;=$F13,AK$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AK$5&gt;=$F13,AK$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AL13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AL$5&gt;=$F13,AL$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AL$5&gt;=$F13,AL$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AM13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AM$5&gt;=$F13,AM$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AM$5&gt;=$F13,AM$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AN13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AN$5&gt;=$F13,AN$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AN$5&gt;=$F13,AN$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AO13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AO$5&gt;=$F13,AO$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AO$5&gt;=$F13,AO$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AP13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AP$5&gt;=$F13,AP$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AP$5&gt;=$F13,AP$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AQ13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AQ$5&gt;=$F13,AQ$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AQ$5&gt;=$F13,AQ$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AR13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AR$5&gt;=$F13,AR$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AR$5&gt;=$F13,AR$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AS13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AS$5&gt;=$F13,AS$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AS$5&gt;=$F13,AS$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AT13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AT$5&gt;=$F13,AT$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AT$5&gt;=$F13,AT$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AU13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AU$5&gt;=$F13,AU$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AU$5&gt;=$F13,AU$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AV13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AV$5&gt;=$F13,AV$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AV$5&gt;=$F13,AV$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AW13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AW$5&gt;=$F13,AW$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AW$5&gt;=$F13,AW$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AX13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AX$5&gt;=$F13,AX$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AX$5&gt;=$F13,AX$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AY13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AY$5&gt;=$F13,AY$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AY$5&gt;=$F13,AY$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AZ13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",AZ$5&gt;=$F13,AZ$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",AZ$5&gt;=$F13,AZ$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BA13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BA$5&gt;=$F13,BA$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BA$5&gt;=$F13,BA$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BB13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BB$5&gt;=$F13,BB$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BB$5&gt;=$F13,BB$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BC13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BC$5&gt;=$F13,BC$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BC$5&gt;=$F13,BC$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BD13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BD$5&gt;=$F13,BD$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BD$5&gt;=$F13,BD$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BE13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BE$5&gt;=$F13,BE$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BE$5&gt;=$F13,BE$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BF13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BF$5&gt;=$F13,BF$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BF$5&gt;=$F13,BF$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BG13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BG$5&gt;=$F13,BG$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BG$5&gt;=$F13,BG$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BH13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BH$5&gt;=$F13,BH$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BH$5&gt;=$F13,BH$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BI13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BI$5&gt;=$F13,BI$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BI$5&gt;=$F13,BI$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BJ13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BJ$5&gt;=$F13,BJ$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BJ$5&gt;=$F13,BJ$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BK13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BK$5&gt;=$F13,BK$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BK$5&gt;=$F13,BK$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BL13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BL$5&gt;=$F13,BL$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BL$5&gt;=$F13,BL$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BM13" s="34" t="str">
-        <f ca="1">IF(AND($C13="Goal",BM$5&gt;=$F13,BM$5&lt;=$F13+$H13-1),2,IF(AND($C13="Milestone",BM$5&gt;=$F13,BM$5&lt;=$F13+$H13-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BN13" s="34" t="str">
@@ -4375,7 +4387,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="37" t="s">
         <v>30</v>
@@ -4391,287 +4403,287 @@
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",J$5&gt;=$F14,J$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",J$5&gt;=$F14,J$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",K$5&gt;=$F14,K$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",K$5&gt;=$F14,K$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="L14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",L$5&gt;=$F14,L$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",L$5&gt;=$F14,L$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",M$5&gt;=$F14,M$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",M$5&gt;=$F14,M$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="N14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",N$5&gt;=$F14,N$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",N$5&gt;=$F14,N$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="O14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",O$5&gt;=$F14,O$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",O$5&gt;=$F14,O$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="P14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",P$5&gt;=$F14,P$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",P$5&gt;=$F14,P$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Q14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",Q$5&gt;=$F14,Q$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",Q$5&gt;=$F14,Q$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="R14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",R$5&gt;=$F14,R$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",R$5&gt;=$F14,R$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",S$5&gt;=$F14,S$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",S$5&gt;=$F14,S$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="T14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",T$5&gt;=$F14,T$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",T$5&gt;=$F14,T$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",U$5&gt;=$F14,U$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",U$5&gt;=$F14,U$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",V$5&gt;=$F14,V$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",V$5&gt;=$F14,V$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",W$5&gt;=$F14,W$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",W$5&gt;=$F14,W$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",X$5&gt;=$F14,X$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",X$5&gt;=$F14,X$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",Y$5&gt;=$F14,Y$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",Y$5&gt;=$F14,Y$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Z14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",Z$5&gt;=$F14,Z$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",Z$5&gt;=$F14,Z$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AA14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AA$5&gt;=$F14,AA$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AA$5&gt;=$F14,AA$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AB14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AB$5&gt;=$F14,AB$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AB$5&gt;=$F14,AB$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AC14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AC$5&gt;=$F14,AC$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AC$5&gt;=$F14,AC$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AD14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AD$5&gt;=$F14,AD$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AD$5&gt;=$F14,AD$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AE14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AE$5&gt;=$F14,AE$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AE$5&gt;=$F14,AE$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AF14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AF$5&gt;=$F14,AF$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AF$5&gt;=$F14,AF$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AG14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AG$5&gt;=$F14,AG$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AG$5&gt;=$F14,AG$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AH14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AH$5&gt;=$F14,AH$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AH$5&gt;=$F14,AH$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AI14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AI$5&gt;=$F14,AI$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AI$5&gt;=$F14,AI$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AJ14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AJ$5&gt;=$F14,AJ$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AJ$5&gt;=$F14,AJ$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AK14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AK$5&gt;=$F14,AK$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AK$5&gt;=$F14,AK$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AL14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AL$5&gt;=$F14,AL$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AL$5&gt;=$F14,AL$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AM14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AM$5&gt;=$F14,AM$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AM$5&gt;=$F14,AM$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AN14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AN$5&gt;=$F14,AN$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AN$5&gt;=$F14,AN$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AO14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AO$5&gt;=$F14,AO$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AO$5&gt;=$F14,AO$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AP14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AP$5&gt;=$F14,AP$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AP$5&gt;=$F14,AP$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AQ14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AQ$5&gt;=$F14,AQ$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AQ$5&gt;=$F14,AQ$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AR14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AR$5&gt;=$F14,AR$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AR$5&gt;=$F14,AR$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AS14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AS$5&gt;=$F14,AS$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AS$5&gt;=$F14,AS$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AT14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AT$5&gt;=$F14,AT$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AT$5&gt;=$F14,AT$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AU14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AU$5&gt;=$F14,AU$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AU$5&gt;=$F14,AU$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AV14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AV$5&gt;=$F14,AV$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AV$5&gt;=$F14,AV$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AW14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AW$5&gt;=$F14,AW$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AW$5&gt;=$F14,AW$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AX14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AX$5&gt;=$F14,AX$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AX$5&gt;=$F14,AX$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AY14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AY$5&gt;=$F14,AY$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AY$5&gt;=$F14,AY$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AZ14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",AZ$5&gt;=$F14,AZ$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",AZ$5&gt;=$F14,AZ$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BA14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BA$5&gt;=$F14,BA$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BA$5&gt;=$F14,BA$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BB14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BB$5&gt;=$F14,BB$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BB$5&gt;=$F14,BB$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BC14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BC$5&gt;=$F14,BC$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BC$5&gt;=$F14,BC$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BD14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BD$5&gt;=$F14,BD$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BD$5&gt;=$F14,BD$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BE14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BE$5&gt;=$F14,BE$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BE$5&gt;=$F14,BE$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BF14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BF$5&gt;=$F14,BF$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BF$5&gt;=$F14,BF$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BG14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BG$5&gt;=$F14,BG$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BG$5&gt;=$F14,BG$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BH14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BH$5&gt;=$F14,BH$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BH$5&gt;=$F14,BH$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BI14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BI$5&gt;=$F14,BI$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BI$5&gt;=$F14,BI$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BJ14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BJ$5&gt;=$F14,BJ$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BJ$5&gt;=$F14,BJ$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BK14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BK$5&gt;=$F14,BK$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BK$5&gt;=$F14,BK$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BL14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BL$5&gt;=$F14,BL$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BL$5&gt;=$F14,BL$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BM14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BM$5&gt;=$F14,BM$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BM$5&gt;=$F14,BM$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BN14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BN$5&gt;=$F14,BN$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BN$5&gt;=$F14,BN$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ref="BN14:CA17" ca="1" si="31">IF(AND($C14="Goal",BN$5&gt;=$F14,BN$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BN$5&gt;=$F14,BN$5&lt;=$F14+$H14-1),1,""))</f>
         <v/>
       </c>
       <c r="BO14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BO$5&gt;=$F14,BO$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BO$5&gt;=$F14,BO$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BP14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BP$5&gt;=$F14,BP$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BP$5&gt;=$F14,BP$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BQ14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BQ$5&gt;=$F14,BQ$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BQ$5&gt;=$F14,BQ$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BR14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BR$5&gt;=$F14,BR$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BR$5&gt;=$F14,BR$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BS14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BS$5&gt;=$F14,BS$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BS$5&gt;=$F14,BS$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BT14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BT$5&gt;=$F14,BT$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BT$5&gt;=$F14,BT$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BU14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BU$5&gt;=$F14,BU$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BU$5&gt;=$F14,BU$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BV14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BV$5&gt;=$F14,BV$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BV$5&gt;=$F14,BV$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BW14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BW$5&gt;=$F14,BW$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BW$5&gt;=$F14,BW$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BX14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BX$5&gt;=$F14,BX$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BX$5&gt;=$F14,BX$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BY14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BY$5&gt;=$F14,BY$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BY$5&gt;=$F14,BY$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BZ14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",BZ$5&gt;=$F14,BZ$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",BZ$5&gt;=$F14,BZ$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="CA14" s="34" t="str">
-        <f ca="1">IF(AND($C14="Goal",CA$5&gt;=$F14,CA$5&lt;=$F14+$H14-1),2,IF(AND($C14="Milestone",CA$5&gt;=$F14,CA$5&lt;=$F14+$H14-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="36" t="s">
         <v>47</v>
@@ -4679,303 +4691,305 @@
       <c r="C15" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="49" t="s">
+        <v>62</v>
+      </c>
       <c r="E15" s="29">
         <v>0</v>
       </c>
       <c r="F15" s="30">
-        <v>44103</v>
+        <v>44110</v>
       </c>
       <c r="G15" s="30">
         <v>44131</v>
       </c>
       <c r="H15" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",J$5&gt;=$F15,J$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",J$5&gt;=$F15,J$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",K$5&gt;=$F15,K$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",K$5&gt;=$F15,K$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="L15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",L$5&gt;=$F15,L$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",L$5&gt;=$F15,L$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",M$5&gt;=$F15,M$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",M$5&gt;=$F15,M$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="N15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",N$5&gt;=$F15,N$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",N$5&gt;=$F15,N$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="O15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",O$5&gt;=$F15,O$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",O$5&gt;=$F15,O$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="P15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",P$5&gt;=$F15,P$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",P$5&gt;=$F15,P$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Q15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",Q$5&gt;=$F15,Q$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",Q$5&gt;=$F15,Q$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="R15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",R$5&gt;=$F15,R$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",R$5&gt;=$F15,R$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",S$5&gt;=$F15,S$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",S$5&gt;=$F15,S$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="T15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",T$5&gt;=$F15,T$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",T$5&gt;=$F15,T$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",U$5&gt;=$F15,U$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",U$5&gt;=$F15,U$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",V$5&gt;=$F15,V$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",V$5&gt;=$F15,V$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",W$5&gt;=$F15,W$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",W$5&gt;=$F15,W$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",X$5&gt;=$F15,X$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",X$5&gt;=$F15,X$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",Y$5&gt;=$F15,Y$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",Y$5&gt;=$F15,Y$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Z15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",Z$5&gt;=$F15,Z$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",Z$5&gt;=$F15,Z$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AA15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AA$5&gt;=$F15,AA$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AA$5&gt;=$F15,AA$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AB15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AB$5&gt;=$F15,AB$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AB$5&gt;=$F15,AB$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AC15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AC$5&gt;=$F15,AC$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AC$5&gt;=$F15,AC$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AD15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AD$5&gt;=$F15,AD$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AD$5&gt;=$F15,AD$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AE15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AE$5&gt;=$F15,AE$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AE$5&gt;=$F15,AE$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AF15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AF$5&gt;=$F15,AF$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AF$5&gt;=$F15,AF$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AG15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AG$5&gt;=$F15,AG$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AG$5&gt;=$F15,AG$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AH15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AH$5&gt;=$F15,AH$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AH$5&gt;=$F15,AH$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AI15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AI$5&gt;=$F15,AI$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AI$5&gt;=$F15,AI$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AJ15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AJ$5&gt;=$F15,AJ$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AJ$5&gt;=$F15,AJ$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AK15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AK$5&gt;=$F15,AK$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AK$5&gt;=$F15,AK$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AL15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AL$5&gt;=$F15,AL$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AL$5&gt;=$F15,AL$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AM15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AM$5&gt;=$F15,AM$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AM$5&gt;=$F15,AM$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AN15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AN$5&gt;=$F15,AN$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AN$5&gt;=$F15,AN$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AO15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AO$5&gt;=$F15,AO$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AO$5&gt;=$F15,AO$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AP15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AP$5&gt;=$F15,AP$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AP$5&gt;=$F15,AP$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AQ15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AQ$5&gt;=$F15,AQ$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AQ$5&gt;=$F15,AQ$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AR15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AR$5&gt;=$F15,AR$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AR$5&gt;=$F15,AR$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AS15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AS$5&gt;=$F15,AS$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AS$5&gt;=$F15,AS$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AT15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AT$5&gt;=$F15,AT$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AT$5&gt;=$F15,AT$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AU15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AU$5&gt;=$F15,AU$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AU$5&gt;=$F15,AU$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AV15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AV$5&gt;=$F15,AV$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AV$5&gt;=$F15,AV$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AW15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AW$5&gt;=$F15,AW$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AW$5&gt;=$F15,AW$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AX15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AX$5&gt;=$F15,AX$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AX$5&gt;=$F15,AX$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AY15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AY$5&gt;=$F15,AY$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AY$5&gt;=$F15,AY$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AZ15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",AZ$5&gt;=$F15,AZ$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",AZ$5&gt;=$F15,AZ$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BA15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BA$5&gt;=$F15,BA$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BA$5&gt;=$F15,BA$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BB15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BB$5&gt;=$F15,BB$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BB$5&gt;=$F15,BB$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BC15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BC$5&gt;=$F15,BC$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BC$5&gt;=$F15,BC$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BD15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BD$5&gt;=$F15,BD$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BD$5&gt;=$F15,BD$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BE15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BE$5&gt;=$F15,BE$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BE$5&gt;=$F15,BE$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BF15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BF$5&gt;=$F15,BF$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BF$5&gt;=$F15,BF$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BG15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BG$5&gt;=$F15,BG$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BG$5&gt;=$F15,BG$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BH15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BH$5&gt;=$F15,BH$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BH$5&gt;=$F15,BH$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BI15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BI$5&gt;=$F15,BI$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BI$5&gt;=$F15,BI$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BJ15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BJ$5&gt;=$F15,BJ$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BJ$5&gt;=$F15,BJ$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BK15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BK$5&gt;=$F15,BK$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BK$5&gt;=$F15,BK$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BL15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BL$5&gt;=$F15,BL$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BL$5&gt;=$F15,BL$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BM15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BM$5&gt;=$F15,BM$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BM$5&gt;=$F15,BM$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BN15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BN$5&gt;=$F15,BN$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BN$5&gt;=$F15,BN$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BO15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BO$5&gt;=$F15,BO$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BO$5&gt;=$F15,BO$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BP15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BP$5&gt;=$F15,BP$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BP$5&gt;=$F15,BP$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BQ15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BQ$5&gt;=$F15,BQ$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BQ$5&gt;=$F15,BQ$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BR15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BR$5&gt;=$F15,BR$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BR$5&gt;=$F15,BR$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BS15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BS$5&gt;=$F15,BS$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BS$5&gt;=$F15,BS$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BT15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BT$5&gt;=$F15,BT$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BT$5&gt;=$F15,BT$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BU15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BU$5&gt;=$F15,BU$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BU$5&gt;=$F15,BU$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BV15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BV$5&gt;=$F15,BV$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BV$5&gt;=$F15,BV$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BW15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BW$5&gt;=$F15,BW$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BW$5&gt;=$F15,BW$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BX15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BX$5&gt;=$F15,BX$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BX$5&gt;=$F15,BX$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BY15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BY$5&gt;=$F15,BY$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BY$5&gt;=$F15,BY$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BZ15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",BZ$5&gt;=$F15,BZ$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",BZ$5&gt;=$F15,BZ$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="CA15" s="34" t="str">
-        <f ca="1">IF(AND($C15="Goal",CA$5&gt;=$F15,CA$5&lt;=$F15+$H15-1),2,IF(AND($C15="Milestone",CA$5&gt;=$F15,CA$5&lt;=$F15+$H15-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="36" t="s">
         <v>38</v>
@@ -4983,7 +4997,7 @@
       <c r="C16" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="29">
         <v>0</v>
       </c>
@@ -4999,287 +5013,287 @@
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",J$5&gt;=$F16,J$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",J$5&gt;=$F16,J$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",K$5&gt;=$F16,K$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",K$5&gt;=$F16,K$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="L16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",L$5&gt;=$F16,L$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",L$5&gt;=$F16,L$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",M$5&gt;=$F16,M$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",M$5&gt;=$F16,M$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="N16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",N$5&gt;=$F16,N$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",N$5&gt;=$F16,N$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="O16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",O$5&gt;=$F16,O$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",O$5&gt;=$F16,O$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="P16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",P$5&gt;=$F16,P$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",P$5&gt;=$F16,P$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Q16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",Q$5&gt;=$F16,Q$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",Q$5&gt;=$F16,Q$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="R16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",R$5&gt;=$F16,R$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",R$5&gt;=$F16,R$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",S$5&gt;=$F16,S$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",S$5&gt;=$F16,S$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="T16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",T$5&gt;=$F16,T$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",T$5&gt;=$F16,T$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",U$5&gt;=$F16,U$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",U$5&gt;=$F16,U$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",V$5&gt;=$F16,V$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",V$5&gt;=$F16,V$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",W$5&gt;=$F16,W$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",W$5&gt;=$F16,W$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",X$5&gt;=$F16,X$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",X$5&gt;=$F16,X$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",Y$5&gt;=$F16,Y$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",Y$5&gt;=$F16,Y$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Z16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",Z$5&gt;=$F16,Z$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",Z$5&gt;=$F16,Z$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AA16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AA$5&gt;=$F16,AA$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AA$5&gt;=$F16,AA$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AB16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AB$5&gt;=$F16,AB$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AB$5&gt;=$F16,AB$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AC16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AC$5&gt;=$F16,AC$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AC$5&gt;=$F16,AC$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AD16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AD$5&gt;=$F16,AD$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AD$5&gt;=$F16,AD$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AE16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AE$5&gt;=$F16,AE$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AE$5&gt;=$F16,AE$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AF16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AF$5&gt;=$F16,AF$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AF$5&gt;=$F16,AF$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AG16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AG$5&gt;=$F16,AG$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AG$5&gt;=$F16,AG$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AH16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AH$5&gt;=$F16,AH$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AH$5&gt;=$F16,AH$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AI16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AI$5&gt;=$F16,AI$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AI$5&gt;=$F16,AI$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AJ16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AJ$5&gt;=$F16,AJ$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AJ$5&gt;=$F16,AJ$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AK16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AK$5&gt;=$F16,AK$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AK$5&gt;=$F16,AK$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AL16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AL$5&gt;=$F16,AL$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AL$5&gt;=$F16,AL$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AM16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AM$5&gt;=$F16,AM$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AM$5&gt;=$F16,AM$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AN16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AN$5&gt;=$F16,AN$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AN$5&gt;=$F16,AN$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AO16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AO$5&gt;=$F16,AO$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AO$5&gt;=$F16,AO$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AP16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AP$5&gt;=$F16,AP$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AP$5&gt;=$F16,AP$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AQ16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AQ$5&gt;=$F16,AQ$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AQ$5&gt;=$F16,AQ$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AR16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AR$5&gt;=$F16,AR$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AR$5&gt;=$F16,AR$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AS16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AS$5&gt;=$F16,AS$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AS$5&gt;=$F16,AS$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AT16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AT$5&gt;=$F16,AT$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AT$5&gt;=$F16,AT$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AU16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AU$5&gt;=$F16,AU$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AU$5&gt;=$F16,AU$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AV16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AV$5&gt;=$F16,AV$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AV$5&gt;=$F16,AV$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AW16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AW$5&gt;=$F16,AW$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AW$5&gt;=$F16,AW$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AX16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AX$5&gt;=$F16,AX$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AX$5&gt;=$F16,AX$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AY16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AY$5&gt;=$F16,AY$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AY$5&gt;=$F16,AY$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AZ16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",AZ$5&gt;=$F16,AZ$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",AZ$5&gt;=$F16,AZ$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BA16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BA$5&gt;=$F16,BA$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BA$5&gt;=$F16,BA$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BB16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BB$5&gt;=$F16,BB$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BB$5&gt;=$F16,BB$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BC16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BC$5&gt;=$F16,BC$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BC$5&gt;=$F16,BC$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BD16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BD$5&gt;=$F16,BD$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BD$5&gt;=$F16,BD$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BE16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BE$5&gt;=$F16,BE$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BE$5&gt;=$F16,BE$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BF16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BF$5&gt;=$F16,BF$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BF$5&gt;=$F16,BF$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BG16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BG$5&gt;=$F16,BG$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BG$5&gt;=$F16,BG$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BH16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BH$5&gt;=$F16,BH$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BH$5&gt;=$F16,BH$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BI16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BI$5&gt;=$F16,BI$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BI$5&gt;=$F16,BI$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BJ16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BJ$5&gt;=$F16,BJ$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BJ$5&gt;=$F16,BJ$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BK16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BK$5&gt;=$F16,BK$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BK$5&gt;=$F16,BK$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BL16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BL$5&gt;=$F16,BL$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BL$5&gt;=$F16,BL$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BM16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BM$5&gt;=$F16,BM$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BM$5&gt;=$F16,BM$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BN16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BN$5&gt;=$F16,BN$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BN$5&gt;=$F16,BN$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BO16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BO$5&gt;=$F16,BO$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BO$5&gt;=$F16,BO$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BP16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BP$5&gt;=$F16,BP$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BP$5&gt;=$F16,BP$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BQ16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BQ$5&gt;=$F16,BQ$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BQ$5&gt;=$F16,BQ$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BR16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BR$5&gt;=$F16,BR$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BR$5&gt;=$F16,BR$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BS16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BS$5&gt;=$F16,BS$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BS$5&gt;=$F16,BS$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BT16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BT$5&gt;=$F16,BT$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BT$5&gt;=$F16,BT$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BU16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BU$5&gt;=$F16,BU$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BU$5&gt;=$F16,BU$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BV16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BV$5&gt;=$F16,BV$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BV$5&gt;=$F16,BV$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BW16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BW$5&gt;=$F16,BW$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BW$5&gt;=$F16,BW$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BX16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BX$5&gt;=$F16,BX$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BX$5&gt;=$F16,BX$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BY16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BY$5&gt;=$F16,BY$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BY$5&gt;=$F16,BY$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BZ16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",BZ$5&gt;=$F16,BZ$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",BZ$5&gt;=$F16,BZ$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="CA16" s="34" t="str">
-        <f ca="1">IF(AND($C16="Goal",CA$5&gt;=$F16,CA$5&lt;=$F16+$H16-1),2,IF(AND($C16="Milestone",CA$5&gt;=$F16,CA$5&lt;=$F16+$H16-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="36" t="s">
         <v>48</v>
@@ -5287,7 +5301,7 @@
       <c r="C17" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="29">
         <v>0</v>
       </c>
@@ -5303,287 +5317,287 @@
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",J$5&gt;=$F17,J$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",J$5&gt;=$F17,J$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",K$5&gt;=$F17,K$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",K$5&gt;=$F17,K$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="L17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",M$5&gt;=$F17,M$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",M$5&gt;=$F17,M$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="N17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",N$5&gt;=$F17,N$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",N$5&gt;=$F17,N$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="O17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",O$5&gt;=$F17,O$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",O$5&gt;=$F17,O$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="P17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",P$5&gt;=$F17,P$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",P$5&gt;=$F17,P$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Q17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",Q$5&gt;=$F17,Q$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",Q$5&gt;=$F17,Q$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="R17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",R$5&gt;=$F17,R$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",R$5&gt;=$F17,R$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",S$5&gt;=$F17,S$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",S$5&gt;=$F17,S$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="T17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",T$5&gt;=$F17,T$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",T$5&gt;=$F17,T$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",U$5&gt;=$F17,U$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",U$5&gt;=$F17,U$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",V$5&gt;=$F17,V$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",V$5&gt;=$F17,V$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",W$5&gt;=$F17,W$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",W$5&gt;=$F17,W$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",X$5&gt;=$F17,X$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",X$5&gt;=$F17,X$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",Y$5&gt;=$F17,Y$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",Y$5&gt;=$F17,Y$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Z17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",Z$5&gt;=$F17,Z$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",Z$5&gt;=$F17,Z$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AA17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AA$5&gt;=$F17,AA$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AA$5&gt;=$F17,AA$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AB17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AB$5&gt;=$F17,AB$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AB$5&gt;=$F17,AB$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AC17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AC$5&gt;=$F17,AC$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AC$5&gt;=$F17,AC$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AD17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AD$5&gt;=$F17,AD$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AD$5&gt;=$F17,AD$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AE17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AE$5&gt;=$F17,AE$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AE$5&gt;=$F17,AE$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AF17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AF$5&gt;=$F17,AF$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AF$5&gt;=$F17,AF$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AG17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AG$5&gt;=$F17,AG$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AG$5&gt;=$F17,AG$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AH17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AH$5&gt;=$F17,AH$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AH$5&gt;=$F17,AH$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AI17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AI$5&gt;=$F17,AI$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AI$5&gt;=$F17,AI$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AJ17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AK17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AK$5&gt;=$F17,AK$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AK$5&gt;=$F17,AK$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AL17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AL$5&gt;=$F17,AL$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AL$5&gt;=$F17,AL$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AM17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AM$5&gt;=$F17,AM$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AM$5&gt;=$F17,AM$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AN17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AN$5&gt;=$F17,AN$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AN$5&gt;=$F17,AN$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AO17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AO$5&gt;=$F17,AO$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AO$5&gt;=$F17,AO$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AP17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AP$5&gt;=$F17,AP$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AP$5&gt;=$F17,AP$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AQ17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AR17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AS17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AS$5&gt;=$F17,AS$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AS$5&gt;=$F17,AS$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AT17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AT$5&gt;=$F17,AT$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AT$5&gt;=$F17,AT$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AU17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AU$5&gt;=$F17,AU$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AU$5&gt;=$F17,AU$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AV17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AV$5&gt;=$F17,AV$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AV$5&gt;=$F17,AV$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AW17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AW$5&gt;=$F17,AW$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AW$5&gt;=$F17,AW$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AX17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AX$5&gt;=$F17,AX$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AX$5&gt;=$F17,AX$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AY17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AY$5&gt;=$F17,AY$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AY$5&gt;=$F17,AY$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AZ17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BA17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BA$5&gt;=$F17,BA$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BA$5&gt;=$F17,BA$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BB17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BB$5&gt;=$F17,BB$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BB$5&gt;=$F17,BB$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BC17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BC$5&gt;=$F17,BC$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BC$5&gt;=$F17,BC$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BD17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BD$5&gt;=$F17,BD$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BD$5&gt;=$F17,BD$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BE17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BE$5&gt;=$F17,BE$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BE$5&gt;=$F17,BE$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BF17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BF$5&gt;=$F17,BF$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BF$5&gt;=$F17,BF$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BG17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BG$5&gt;=$F17,BG$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BG$5&gt;=$F17,BG$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BH17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BH$5&gt;=$F17,BH$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BH$5&gt;=$F17,BH$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BI17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BI$5&gt;=$F17,BI$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BI$5&gt;=$F17,BI$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BJ17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BK17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BK$5&gt;=$F17,BK$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BK$5&gt;=$F17,BK$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BL17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BL$5&gt;=$F17,BL$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BL$5&gt;=$F17,BL$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BM17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BM$5&gt;=$F17,BM$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BM$5&gt;=$F17,BM$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BN17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BN$5&gt;=$F17,BN$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BN$5&gt;=$F17,BN$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BO17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BO$5&gt;=$F17,BO$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BO$5&gt;=$F17,BO$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BP17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BP$5&gt;=$F17,BP$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BP$5&gt;=$F17,BP$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BQ17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BQ$5&gt;=$F17,BQ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BQ$5&gt;=$F17,BQ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BR17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BR$5&gt;=$F17,BR$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BR$5&gt;=$F17,BR$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BS17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BS$5&gt;=$F17,BS$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BS$5&gt;=$F17,BS$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BT17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BT$5&gt;=$F17,BT$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BT$5&gt;=$F17,BT$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BU17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BU$5&gt;=$F17,BU$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BU$5&gt;=$F17,BU$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BV17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BV$5&gt;=$F17,BV$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BV$5&gt;=$F17,BV$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BW17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BW$5&gt;=$F17,BW$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BW$5&gt;=$F17,BW$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BX17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BX$5&gt;=$F17,BX$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BX$5&gt;=$F17,BX$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BY17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BY$5&gt;=$F17,BY$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BY$5&gt;=$F17,BY$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BZ17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",BZ$5&gt;=$F17,BZ$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",BZ$5&gt;=$F17,BZ$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="CA17" s="34" t="str">
-        <f ca="1">IF(AND($C17="Goal",CA$5&gt;=$F17,CA$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",CA$5&gt;=$F17,CA$5&lt;=$F17+$H17-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="37" t="s">
         <v>46</v>
@@ -5876,7 +5890,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="36" t="s">
         <v>41</v>
@@ -5884,7 +5898,7 @@
       <c r="C19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="29">
         <v>0</v>
       </c>
@@ -6180,7 +6194,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="36" t="s">
         <v>43</v>
@@ -6484,7 +6498,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="36" t="s">
         <v>44</v>
@@ -6578,7 +6592,7 @@
       <c r="BZ21" s="34"/>
       <c r="CA21" s="34"/>
     </row>
-    <row r="22" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="37" t="s">
         <v>50</v>
@@ -6871,7 +6885,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="36" t="s">
         <v>49</v>
@@ -6879,7 +6893,9 @@
       <c r="C23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="E23" s="29">
         <v>0</v>
       </c>
@@ -6965,7 +6981,7 @@
       <c r="BZ23" s="34"/>
       <c r="CA23" s="34"/>
     </row>
-    <row r="24" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="37" t="s">
         <v>51</v>
@@ -6978,287 +6994,287 @@
       <c r="H24" s="31"/>
       <c r="I24" s="25"/>
       <c r="J24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",J$5&gt;=$F24,J$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",J$5&gt;=$F24,J$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ref="J24:AO24" ca="1" si="32">IF(AND($C24="Goal",J$5&gt;=$F24,J$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",J$5&gt;=$F24,J$5&lt;=$F24+$H24-1),1,""))</f>
         <v/>
       </c>
       <c r="K24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",K$5&gt;=$F24,K$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",K$5&gt;=$F24,K$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="L24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",L$5&gt;=$F24,L$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="M24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",M$5&gt;=$F24,M$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",M$5&gt;=$F24,M$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="N24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",N$5&gt;=$F24,N$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",N$5&gt;=$F24,N$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="O24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",O$5&gt;=$F24,O$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",O$5&gt;=$F24,O$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="P24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",P$5&gt;=$F24,P$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",P$5&gt;=$F24,P$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="Q24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",Q$5&gt;=$F24,Q$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",Q$5&gt;=$F24,Q$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="R24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",R$5&gt;=$F24,R$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",R$5&gt;=$F24,R$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="S24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",S$5&gt;=$F24,S$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",S$5&gt;=$F24,S$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="T24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",T$5&gt;=$F24,T$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",T$5&gt;=$F24,T$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",U$5&gt;=$F24,U$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",U$5&gt;=$F24,U$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="V24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",V$5&gt;=$F24,V$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",V$5&gt;=$F24,V$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="W24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",W$5&gt;=$F24,W$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",W$5&gt;=$F24,W$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="X24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",X$5&gt;=$F24,X$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",X$5&gt;=$F24,X$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="Y24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",Y$5&gt;=$F24,Y$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",Y$5&gt;=$F24,Y$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="Z24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",Z$5&gt;=$F24,Z$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",Z$5&gt;=$F24,Z$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AA24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AA$5&gt;=$F24,AA$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AA$5&gt;=$F24,AA$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AB24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AB$5&gt;=$F24,AB$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AB$5&gt;=$F24,AB$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AC$5&gt;=$F24,AC$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AC$5&gt;=$F24,AC$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AD24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AD$5&gt;=$F24,AD$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AD$5&gt;=$F24,AD$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AE24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AE$5&gt;=$F24,AE$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AE$5&gt;=$F24,AE$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AF24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AF$5&gt;=$F24,AF$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AF$5&gt;=$F24,AF$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AG24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AG$5&gt;=$F24,AG$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AG$5&gt;=$F24,AG$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AH24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AH$5&gt;=$F24,AH$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AH$5&gt;=$F24,AH$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AI24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AI$5&gt;=$F24,AI$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AI$5&gt;=$F24,AI$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AJ24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AK24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AK$5&gt;=$F24,AK$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AK$5&gt;=$F24,AK$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AL24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AL$5&gt;=$F24,AL$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AL$5&gt;=$F24,AL$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AM24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AM$5&gt;=$F24,AM$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AM$5&gt;=$F24,AM$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AN24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AN$5&gt;=$F24,AN$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AN$5&gt;=$F24,AN$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AO24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AO$5&gt;=$F24,AO$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AO$5&gt;=$F24,AO$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AP24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AP$5&gt;=$F24,AP$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AP$5&gt;=$F24,AP$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ref="AP24:BU24" ca="1" si="33">IF(AND($C24="Goal",AP$5&gt;=$F24,AP$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AP$5&gt;=$F24,AP$5&lt;=$F24+$H24-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AR24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AR$5&gt;=$F24,AR$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AR$5&gt;=$F24,AR$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AS24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AS$5&gt;=$F24,AS$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AS$5&gt;=$F24,AS$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AT24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AT$5&gt;=$F24,AT$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AT$5&gt;=$F24,AT$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AU24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AU$5&gt;=$F24,AU$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AU$5&gt;=$F24,AU$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AV24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AV$5&gt;=$F24,AV$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AV$5&gt;=$F24,AV$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AW24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AW$5&gt;=$F24,AW$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AW$5&gt;=$F24,AW$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AX24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AX$5&gt;=$F24,AX$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AX$5&gt;=$F24,AX$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AY24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AY$5&gt;=$F24,AY$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AY$5&gt;=$F24,AY$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AZ24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BA24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BA$5&gt;=$F24,BA$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BA$5&gt;=$F24,BA$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BB24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BB$5&gt;=$F24,BB$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BB$5&gt;=$F24,BB$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BC24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BC$5&gt;=$F24,BC$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BC$5&gt;=$F24,BC$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BD24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BD$5&gt;=$F24,BD$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BD$5&gt;=$F24,BD$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BE24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BE$5&gt;=$F24,BE$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BE$5&gt;=$F24,BE$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BF24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BF$5&gt;=$F24,BF$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BF$5&gt;=$F24,BF$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BG24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BG$5&gt;=$F24,BG$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BG$5&gt;=$F24,BG$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BH24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BH$5&gt;=$F24,BH$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BH$5&gt;=$F24,BH$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BI24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BI$5&gt;=$F24,BI$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BI$5&gt;=$F24,BI$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BJ24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BK24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BK$5&gt;=$F24,BK$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BK$5&gt;=$F24,BK$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BL24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BL$5&gt;=$F24,BL$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BL$5&gt;=$F24,BL$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BM24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BM$5&gt;=$F24,BM$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BM$5&gt;=$F24,BM$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BN24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BN$5&gt;=$F24,BN$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BN$5&gt;=$F24,BN$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BO24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BO$5&gt;=$F24,BO$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BO$5&gt;=$F24,BO$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BP24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BP$5&gt;=$F24,BP$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BP$5&gt;=$F24,BP$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BQ24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BQ$5&gt;=$F24,BQ$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BQ$5&gt;=$F24,BQ$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BR24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BR$5&gt;=$F24,BR$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BR$5&gt;=$F24,BR$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BS24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BS$5&gt;=$F24,BS$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BS$5&gt;=$F24,BS$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BT24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BT$5&gt;=$F24,BT$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BT$5&gt;=$F24,BT$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BU24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BU$5&gt;=$F24,BU$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BU$5&gt;=$F24,BU$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BV24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BV$5&gt;=$F24,BV$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BV$5&gt;=$F24,BV$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ref="BV24:CA24" ca="1" si="34">IF(AND($C24="Goal",BV$5&gt;=$F24,BV$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BV$5&gt;=$F24,BV$5&lt;=$F24+$H24-1),1,""))</f>
         <v/>
       </c>
       <c r="BW24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BW$5&gt;=$F24,BW$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BW$5&gt;=$F24,BW$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BX24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BX$5&gt;=$F24,BX$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BX$5&gt;=$F24,BX$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BY24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BY$5&gt;=$F24,BY$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BY$5&gt;=$F24,BY$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BZ24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",BZ$5&gt;=$F24,BZ$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",BZ$5&gt;=$F24,BZ$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="CA24" s="34" t="str">
-        <f ca="1">IF(AND($C24="Goal",CA$5&gt;=$F24,CA$5&lt;=$F24+$H24-1),2,IF(AND($C24="Milestone",CA$5&gt;=$F24,CA$5&lt;=$F24+$H24-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="36" t="s">
         <v>54</v>
@@ -7266,7 +7282,9 @@
       <c r="C25" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="E25" s="29">
         <v>0</v>
       </c>
@@ -7352,7 +7370,7 @@
       <c r="BZ25" s="34"/>
       <c r="CA25" s="34"/>
     </row>
-    <row r="26" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="36" t="s">
         <v>52</v>
@@ -7446,7 +7464,7 @@
       <c r="BZ26" s="34"/>
       <c r="CA26" s="34"/>
     </row>
-    <row r="27" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="36" t="s">
         <v>53</v>
@@ -7540,7 +7558,7 @@
       <c r="BZ27" s="34"/>
       <c r="CA27" s="34"/>
     </row>
-    <row r="28" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="36" t="s">
         <v>55</v>
@@ -7634,7 +7652,7 @@
       <c r="BZ28" s="34"/>
       <c r="CA28" s="34"/>
     </row>
-    <row r="29" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="37" t="s">
         <v>31</v>
@@ -7883,51 +7901,51 @@
         <v/>
       </c>
       <c r="BQ29" s="34" t="str">
-        <f t="shared" ref="BQ29:CA34" ca="1" si="30">IF(AND($C29="Goal",BQ$5&gt;=$F29,BQ$5&lt;=$F29+$H29-1),2,IF(AND($C29="Milestone",BQ$5&gt;=$F29,BQ$5&lt;=$F29+$H29-1),1,""))</f>
+        <f t="shared" ref="BQ29:CA34" ca="1" si="35">IF(AND($C29="Goal",BQ$5&gt;=$F29,BQ$5&lt;=$F29+$H29-1),2,IF(AND($C29="Milestone",BQ$5&gt;=$F29,BQ$5&lt;=$F29+$H29-1),1,""))</f>
         <v/>
       </c>
       <c r="BR29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BS29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BT29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BU29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BV29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BW29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BX29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BY29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BZ29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="CA29" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="36" t="s">
         <v>45</v>
@@ -8189,51 +8207,51 @@
         <v/>
       </c>
       <c r="BQ30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BR30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BS30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BT30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BU30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BV30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BW30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BX30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BY30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BZ30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="CA30" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="37" t="s">
         <v>32</v>
@@ -8246,287 +8264,287 @@
       <c r="H31" s="31"/>
       <c r="I31" s="25"/>
       <c r="J31" s="34" t="str">
-        <f t="shared" ref="J31:Y34" ca="1" si="31">IF(AND($C31="Goal",J$5&gt;=$F31,J$5&lt;=$F31+$H31-1),2,IF(AND($C31="Milestone",J$5&gt;=$F31,J$5&lt;=$F31+$H31-1),1,""))</f>
+        <f t="shared" ref="J31:Y34" ca="1" si="36">IF(AND($C31="Goal",J$5&gt;=$F31,J$5&lt;=$F31+$H31-1),2,IF(AND($C31="Milestone",J$5&gt;=$F31,J$5&lt;=$F31+$H31-1),1,""))</f>
         <v/>
       </c>
       <c r="K31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="L31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="M31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="N31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="O31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="P31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Q31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="R31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="T31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="U31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="V31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="W31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="X31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Y31" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Z31" s="34" t="str">
-        <f t="shared" ref="Z31:AN34" ca="1" si="32">IF(AND($C31="Goal",Z$5&gt;=$F31,Z$5&lt;=$F31+$H31-1),2,IF(AND($C31="Milestone",Z$5&gt;=$F31,Z$5&lt;=$F31+$H31-1),1,""))</f>
+        <f t="shared" ref="Z31:AN34" ca="1" si="37">IF(AND($C31="Goal",Z$5&gt;=$F31,Z$5&lt;=$F31+$H31-1),2,IF(AND($C31="Milestone",Z$5&gt;=$F31,Z$5&lt;=$F31+$H31-1),1,""))</f>
         <v/>
       </c>
       <c r="AA31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AB31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AC31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AD31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AE31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AF31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AG31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AH31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AI31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AJ31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AK31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AL31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AM31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AN31" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AO31" s="34" t="str">
-        <f t="shared" ref="AO31:BD34" ca="1" si="33">IF(AND($C31="Goal",AO$5&gt;=$F31,AO$5&lt;=$F31+$H31-1),2,IF(AND($C31="Milestone",AO$5&gt;=$F31,AO$5&lt;=$F31+$H31-1),1,""))</f>
+        <f t="shared" ref="AO31:BD34" ca="1" si="38">IF(AND($C31="Goal",AO$5&gt;=$F31,AO$5&lt;=$F31+$H31-1),2,IF(AND($C31="Milestone",AO$5&gt;=$F31,AO$5&lt;=$F31+$H31-1),1,""))</f>
         <v/>
       </c>
       <c r="AP31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AQ31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AR31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AS31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AT31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AU31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AV31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AW31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AX31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AY31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AZ31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BA31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BB31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BC31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BD31" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BE31" s="34" t="str">
-        <f t="shared" ref="BE31:BT34" ca="1" si="34">IF(AND($C31="Goal",BE$5&gt;=$F31,BE$5&lt;=$F31+$H31-1),2,IF(AND($C31="Milestone",BE$5&gt;=$F31,BE$5&lt;=$F31+$H31-1),1,""))</f>
+        <f t="shared" ref="BE31:BT34" ca="1" si="39">IF(AND($C31="Goal",BE$5&gt;=$F31,BE$5&lt;=$F31+$H31-1),2,IF(AND($C31="Milestone",BE$5&gt;=$F31,BE$5&lt;=$F31+$H31-1),1,""))</f>
         <v/>
       </c>
       <c r="BF31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BG31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BH31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BI31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BJ31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BK31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BL31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BM31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BN31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BO31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BP31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BQ31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BR31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BS31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BT31" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BU31" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BV31" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BW31" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BX31" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BY31" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BZ31" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="CA31" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="36" t="s">
         <v>42</v>
@@ -8552,289 +8570,289 @@
       </c>
       <c r="I32" s="25"/>
       <c r="J32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="K32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="L32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="M32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="N32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="O32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="P32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Q32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="R32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="T32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="U32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="V32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="W32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="X32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Y32" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Z32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AA32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AB32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AC32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AD32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AE32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AF32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AG32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AH32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AI32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AJ32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AK32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AL32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AM32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AN32" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AO32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AP32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AQ32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AR32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AS32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AT32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AU32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AV32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AW32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AX32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AY32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AZ32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BA32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BB32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BC32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BD32" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BE32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BF32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BG32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BH32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BI32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BJ32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BK32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BL32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BM32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BN32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BO32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BP32" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BQ32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BR32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BS32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BT32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BU32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BV32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BW32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BX32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BY32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BZ32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="CA32" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="59"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="29"/>
@@ -8913,7 +8931,7 @@
       <c r="BZ33" s="34"/>
       <c r="CA33" s="34"/>
     </row>
-    <row r="34" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>2</v>
       </c>
@@ -8926,388 +8944,387 @@
       <c r="H34" s="31"/>
       <c r="I34" s="25"/>
       <c r="J34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="K34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="L34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="M34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="N34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="O34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="P34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Q34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="R34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="T34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="U34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="V34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="W34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="X34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Y34" s="34" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Z34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AA34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AB34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AC34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AD34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AE34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AF34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AG34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AH34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AI34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AJ34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AK34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AL34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AM34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AN34" s="34" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AO34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AP34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AQ34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AR34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AS34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AT34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AU34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AV34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AW34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AX34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AY34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AZ34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BA34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BB34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BC34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BD34" s="34" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BE34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BF34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BG34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BH34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BI34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BJ34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BK34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BL34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BM34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BN34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BO34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BP34" s="34" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BQ34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BR34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BS34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BT34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BU34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BV34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BW34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BX34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BY34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BZ34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="CA34" s="34" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="5"/>
       <c r="H35" s="16"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="F3:H3"/>
@@ -9316,6 +9333,7 @@
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="E24:E34 E19 E7:E17">
     <cfRule type="dataBar" priority="89">
@@ -9332,36 +9350,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BZ34">
-    <cfRule type="expression" dxfId="9" priority="82">
+    <cfRule type="expression" dxfId="13" priority="82">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="8" priority="88">
+    <cfRule type="expression" dxfId="12" priority="88">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="7" priority="84">
+    <cfRule type="expression" dxfId="11" priority="84">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="6" priority="83">
+    <cfRule type="expression" dxfId="10" priority="83">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:CA34">
-    <cfRule type="expression" dxfId="3" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="105" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="124" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="142" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="143" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="144" stopIfTrue="1">
@@ -9531,15 +9549,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>23854</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
+                    <xdr:rowOff>63610</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>84</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:colOff>127221</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238539</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -9909,33 +9927,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.3" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="84.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA2BB54-B9DE-234B-AA03-354FCC44214D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE0B93-3833-154D-B8D8-8554CBDEF742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20440" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -921,16 +921,13 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
@@ -952,13 +949,16 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,23 +976,39 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="145">
+  <dxfs count="109">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color theme="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1043,697 +1059,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3503,39 +2828,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3680,20 +2972,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="144"/>
-      <tableStyleElement type="headerRow" dxfId="143"/>
-      <tableStyleElement type="firstRowStripe" dxfId="142"/>
+      <tableStyleElement type="wholeTable" dxfId="108"/>
+      <tableStyleElement type="headerRow" dxfId="107"/>
+      <tableStyleElement type="firstRowStripe" dxfId="106"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="141"/>
-      <tableStyleElement type="headerRow" dxfId="140"/>
-      <tableStyleElement type="totalRow" dxfId="139"/>
-      <tableStyleElement type="firstColumn" dxfId="138"/>
-      <tableStyleElement type="lastColumn" dxfId="137"/>
-      <tableStyleElement type="firstRowStripe" dxfId="136"/>
-      <tableStyleElement type="secondRowStripe" dxfId="135"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="134"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="133"/>
+      <tableStyleElement type="wholeTable" dxfId="105"/>
+      <tableStyleElement type="headerRow" dxfId="104"/>
+      <tableStyleElement type="totalRow" dxfId="103"/>
+      <tableStyleElement type="firstColumn" dxfId="102"/>
+      <tableStyleElement type="lastColumn" dxfId="101"/>
+      <tableStyleElement type="firstRowStripe" dxfId="100"/>
+      <tableStyleElement type="secondRowStripe" dxfId="99"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="98"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="97"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3787,7 +3079,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$F$4" horiz="1" max="365" page="2" val="14"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$F$4" horiz="1" max="365" page="2" val="21"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3857,12 +3149,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="130"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="129" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="0" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4142,8 +3434,8 @@
   </sheetPr>
   <dimension ref="A1:CA165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4210,46 +3502,46 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="Q2" s="58" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="Q2" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="X2" s="59" t="s">
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="X2" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AE2" s="60" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AE2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AL2" s="61" t="s">
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AL2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
       <c r="AR2" s="20"/>
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
@@ -4260,28 +3552,28 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="65">
+      <c r="E3" s="62"/>
+      <c r="F3" s="64">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>44096</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="39">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="47"/>
       <c r="J4" s="38" t="str">
@@ -4316,7 +3608,7 @@
       <c r="AD4" s="38"/>
       <c r="AE4" s="38" t="str">
         <f ca="1">IF(OR(TEXT(AE5,"mmmm")=X4,TEXT(AE5,"mmmm")=Q4,TEXT(AE5,"mmmm")=J4),"",TEXT(AE5,"mmmm"))</f>
-        <v/>
+        <v>November</v>
       </c>
       <c r="AF4" s="38"/>
       <c r="AG4" s="38"/>
@@ -4326,7 +3618,7 @@
       <c r="AK4" s="38"/>
       <c r="AL4" s="38" t="str">
         <f ca="1">IF(OR(TEXT(AL5,"mmmm")=AE4,TEXT(AL5,"mmmm")=X4,TEXT(AL5,"mmmm")=Q4,TEXT(AL5,"mmmm")=J4),"",TEXT(AL5,"mmmm"))</f>
-        <v>November</v>
+        <v/>
       </c>
       <c r="AM4" s="38"/>
       <c r="AN4" s="38"/>
@@ -4356,7 +3648,7 @@
       <c r="BF4" s="38"/>
       <c r="BG4" s="38" t="str">
         <f ca="1">IF(OR(TEXT(BG5,"mmmm")=AZ4,TEXT(BG5,"mmmm")=AS4,TEXT(BG5,"mmmm")=AL4,TEXT(BG5,"mmmm")=AE4),"",TEXT(BG5,"mmmm"))</f>
-        <v/>
+        <v>December</v>
       </c>
       <c r="BH4" s="38"/>
       <c r="BI4" s="38"/>
@@ -4383,293 +3675,293 @@
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="43">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44110</v>
+        <v>44117</v>
       </c>
       <c r="K5" s="44">
         <f ca="1">J5+1</f>
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="L5" s="44">
         <f t="shared" ref="L5:AY5" ca="1" si="0">K5+1</f>
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="M5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44113</v>
+        <v>44120</v>
       </c>
       <c r="N5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44114</v>
+        <v>44121</v>
       </c>
       <c r="O5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44115</v>
+        <v>44122</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44116</v>
+        <v>44123</v>
       </c>
       <c r="Q5" s="43">
         <f ca="1">P5+1</f>
-        <v>44117</v>
+        <v>44124</v>
       </c>
       <c r="R5" s="44">
         <f ca="1">Q5+1</f>
-        <v>44118</v>
+        <v>44125</v>
       </c>
       <c r="S5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44119</v>
+        <v>44126</v>
       </c>
       <c r="T5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44120</v>
+        <v>44127</v>
       </c>
       <c r="U5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44121</v>
+        <v>44128</v>
       </c>
       <c r="V5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="X5" s="43">
         <f ca="1">W5+1</f>
-        <v>44124</v>
+        <v>44131</v>
       </c>
       <c r="Y5" s="44">
         <f ca="1">X5+1</f>
-        <v>44125</v>
+        <v>44132</v>
       </c>
       <c r="Z5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44126</v>
+        <v>44133</v>
       </c>
       <c r="AA5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44127</v>
+        <v>44134</v>
       </c>
       <c r="AB5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44128</v>
+        <v>44135</v>
       </c>
       <c r="AC5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44129</v>
+        <v>44136</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44130</v>
+        <v>44137</v>
       </c>
       <c r="AE5" s="43">
         <f ca="1">AD5+1</f>
-        <v>44131</v>
+        <v>44138</v>
       </c>
       <c r="AF5" s="44">
         <f ca="1">AE5+1</f>
-        <v>44132</v>
+        <v>44139</v>
       </c>
       <c r="AG5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44133</v>
+        <v>44140</v>
       </c>
       <c r="AH5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44134</v>
+        <v>44141</v>
       </c>
       <c r="AI5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44135</v>
+        <v>44142</v>
       </c>
       <c r="AJ5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44136</v>
+        <v>44143</v>
       </c>
       <c r="AK5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44137</v>
+        <v>44144</v>
       </c>
       <c r="AL5" s="43">
         <f ca="1">AK5+1</f>
-        <v>44138</v>
+        <v>44145</v>
       </c>
       <c r="AM5" s="44">
         <f ca="1">AL5+1</f>
-        <v>44139</v>
+        <v>44146</v>
       </c>
       <c r="AN5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44140</v>
+        <v>44147</v>
       </c>
       <c r="AO5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44141</v>
+        <v>44148</v>
       </c>
       <c r="AP5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44142</v>
+        <v>44149</v>
       </c>
       <c r="AQ5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44143</v>
+        <v>44150</v>
       </c>
       <c r="AR5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="AS5" s="43">
         <f ca="1">AR5+1</f>
-        <v>44145</v>
+        <v>44152</v>
       </c>
       <c r="AT5" s="44">
         <f ca="1">AS5+1</f>
-        <v>44146</v>
+        <v>44153</v>
       </c>
       <c r="AU5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44147</v>
+        <v>44154</v>
       </c>
       <c r="AV5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44148</v>
+        <v>44155</v>
       </c>
       <c r="AW5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44149</v>
+        <v>44156</v>
       </c>
       <c r="AX5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="AY5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>44151</v>
+        <v>44158</v>
       </c>
       <c r="AZ5" s="43">
         <f ca="1">AY5+1</f>
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="BA5" s="44">
         <f ca="1">AZ5+1</f>
-        <v>44153</v>
+        <v>44160</v>
       </c>
       <c r="BB5" s="44">
         <f t="shared" ref="BB5:BF5" ca="1" si="1">BA5+1</f>
-        <v>44154</v>
+        <v>44161</v>
       </c>
       <c r="BC5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>44155</v>
+        <v>44162</v>
       </c>
       <c r="BD5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>44156</v>
+        <v>44163</v>
       </c>
       <c r="BE5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>44157</v>
+        <v>44164</v>
       </c>
       <c r="BF5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="BG5" s="43">
         <f ca="1">BF5+1</f>
-        <v>44159</v>
+        <v>44166</v>
       </c>
       <c r="BH5" s="44">
         <f ca="1">BG5+1</f>
-        <v>44160</v>
+        <v>44167</v>
       </c>
       <c r="BI5" s="44">
         <f t="shared" ref="BI5:BM5" ca="1" si="2">BH5+1</f>
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="BJ5" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>44162</v>
+        <v>44169</v>
       </c>
       <c r="BK5" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>44163</v>
+        <v>44170</v>
       </c>
       <c r="BL5" s="44">
         <f t="shared" ca="1" si="2"/>
-        <v>44164</v>
+        <v>44171</v>
       </c>
       <c r="BM5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="BN5" s="45">
         <f t="shared" ref="BN5" ca="1" si="3">BM5+1</f>
-        <v>44166</v>
+        <v>44173</v>
       </c>
       <c r="BO5" s="45">
         <f t="shared" ref="BO5" ca="1" si="4">BN5+1</f>
-        <v>44167</v>
+        <v>44174</v>
       </c>
       <c r="BP5" s="45">
         <f t="shared" ref="BP5" ca="1" si="5">BO5+1</f>
-        <v>44168</v>
+        <v>44175</v>
       </c>
       <c r="BQ5" s="45">
         <f t="shared" ref="BQ5" ca="1" si="6">BP5+1</f>
-        <v>44169</v>
+        <v>44176</v>
       </c>
       <c r="BR5" s="45">
         <f t="shared" ref="BR5" ca="1" si="7">BQ5+1</f>
-        <v>44170</v>
+        <v>44177</v>
       </c>
       <c r="BS5" s="45">
         <f t="shared" ref="BS5" ca="1" si="8">BR5+1</f>
-        <v>44171</v>
+        <v>44178</v>
       </c>
       <c r="BT5" s="45">
         <f t="shared" ref="BT5" ca="1" si="9">BS5+1</f>
-        <v>44172</v>
+        <v>44179</v>
       </c>
       <c r="BU5" s="45">
         <f t="shared" ref="BU5" ca="1" si="10">BT5+1</f>
-        <v>44173</v>
+        <v>44180</v>
       </c>
       <c r="BV5" s="45">
         <f t="shared" ref="BV5" ca="1" si="11">BU5+1</f>
-        <v>44174</v>
+        <v>44181</v>
       </c>
       <c r="BW5" s="45">
         <f t="shared" ref="BW5" ca="1" si="12">BV5+1</f>
-        <v>44175</v>
+        <v>44182</v>
       </c>
       <c r="BX5" s="45">
         <f t="shared" ref="BX5" ca="1" si="13">BW5+1</f>
-        <v>44176</v>
+        <v>44183</v>
       </c>
       <c r="BY5" s="45">
         <f t="shared" ref="BY5" ca="1" si="14">BX5+1</f>
-        <v>44177</v>
+        <v>44184</v>
       </c>
       <c r="BZ5" s="45">
         <f t="shared" ref="BZ5" ca="1" si="15">BY5+1</f>
-        <v>44178</v>
+        <v>44185</v>
       </c>
       <c r="CA5" s="45">
         <f t="shared" ref="CA5" ca="1" si="16">BZ5+1</f>
-        <v>44179</v>
+        <v>44186</v>
       </c>
     </row>
     <row r="6" spans="1:79" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14911,33 +14203,33 @@
         <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
-      <c r="AM66" s="34" t="str">
+      <c r="AM66" s="34">
         <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AN66" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AN66" s="34">
         <f t="shared" ref="AN66:AW72" ca="1" si="67">IF(AND($C66="Goal",AN$5&gt;=$F66,AN$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",AN$5&gt;=$F66,AN$5&lt;=$F66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO66" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AO66" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AP66" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AP66" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AQ66" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AQ66" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AR66" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR66" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AS66" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AS66" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AT66" s="34">
         <f t="shared" ca="1" si="67"/>
@@ -14995,33 +14287,33 @@
         <f t="shared" ca="1" si="68"/>
         <v>2</v>
       </c>
-      <c r="BH66" s="34">
+      <c r="BH66" s="34" t="str">
         <f t="shared" ref="BH66:BQ72" ca="1" si="69">IF(AND($C66="Goal",BH$5&gt;=$F66,BH$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",BH$5&gt;=$F66,BH$5&lt;=$F66+$H66-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BI66" s="34">
+        <v/>
+      </c>
+      <c r="BI66" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BJ66" s="34">
+        <v/>
+      </c>
+      <c r="BJ66" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BK66" s="34">
+        <v/>
+      </c>
+      <c r="BK66" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BL66" s="34">
+        <v/>
+      </c>
+      <c r="BL66" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BM66" s="34">
+        <v/>
+      </c>
+      <c r="BM66" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BN66" s="34">
+        <v/>
+      </c>
+      <c r="BN66" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="BO66" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
@@ -16116,33 +15408,33 @@
         <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
-      <c r="AM70" s="34" t="str">
+      <c r="AM70" s="34">
         <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AN70" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AN70" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AO70" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AO70" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AP70" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AP70" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AQ70" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AQ70" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AR70" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR70" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AS70" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AS70" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="AT70" s="34">
         <f t="shared" ca="1" si="67"/>
@@ -16200,33 +15492,33 @@
         <f t="shared" ca="1" si="68"/>
         <v>2</v>
       </c>
-      <c r="BH70" s="34">
+      <c r="BH70" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BI70" s="34">
+        <v/>
+      </c>
+      <c r="BI70" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BJ70" s="34">
+        <v/>
+      </c>
+      <c r="BJ70" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BK70" s="34">
+        <v/>
+      </c>
+      <c r="BK70" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BL70" s="34">
+        <v/>
+      </c>
+      <c r="BL70" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BM70" s="34">
+        <v/>
+      </c>
+      <c r="BM70" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
-      </c>
-      <c r="BN70" s="34">
+        <v/>
+      </c>
+      <c r="BN70" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="BO70" s="34" t="str">
         <f t="shared" ca="1" si="69"/>
@@ -16283,11 +15575,11 @@
     </row>
     <row r="71" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
-      <c r="B71" s="70"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="54"/>
       <c r="D71" s="54"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="71"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="60"/>
       <c r="G71" s="30"/>
       <c r="H71" s="31"/>
       <c r="I71" s="25"/>
@@ -16966,15 +16258,15 @@
     <row r="165" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AE2:AJ2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E11 E16 E13:E14 E53 E23:E24 E64:E65 E72 E33 E69">
     <cfRule type="dataBar" priority="339">
@@ -16991,39 +16283,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BZ11 J13:BZ16 J53:BZ53 J44:BZ44 J23:BZ24 J64:BZ65 J26:BZ33">
-    <cfRule type="expression" dxfId="128" priority="332">
+    <cfRule type="expression" dxfId="96" priority="332">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="127" priority="338">
+    <cfRule type="expression" dxfId="95" priority="338">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="126" priority="334">
+    <cfRule type="expression" dxfId="94" priority="334">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="125" priority="333">
+    <cfRule type="expression" dxfId="93" priority="333">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:CA11 J26:CA33 J38:CA39 J44:CA44 J50:CA51 J53:CA53 J56:CA56 J64:CA65 J13:CA24">
-    <cfRule type="expression" dxfId="124" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="355" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="374" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="392" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="393" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="394" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17070,7 +16362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CA11 CA13:CA16 CA53 CA44 CA23:CA24 CA64:CA65 CA33">
-    <cfRule type="expression" dxfId="119" priority="453">
+    <cfRule type="expression" dxfId="87" priority="453">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17089,12 +16381,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BZ18">
-    <cfRule type="expression" dxfId="118" priority="242">
+    <cfRule type="expression" dxfId="86" priority="242">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA17:CA18 CA26:CA32">
-    <cfRule type="expression" dxfId="117" priority="249">
+    <cfRule type="expression" dxfId="85" priority="249">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17113,12 +16405,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BZ22">
-    <cfRule type="expression" dxfId="116" priority="233">
+    <cfRule type="expression" dxfId="84" priority="233">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA19:CA22">
-    <cfRule type="expression" dxfId="115" priority="240">
+    <cfRule type="expression" dxfId="83" priority="240">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17151,29 +16443,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="114" priority="223">
+    <cfRule type="expression" dxfId="82" priority="223">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="113" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="225" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="226" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="227" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="228" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="229" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="108" priority="230">
+    <cfRule type="expression" dxfId="76" priority="230">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17192,12 +16484,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="107" priority="214">
+    <cfRule type="expression" dxfId="75" priority="214">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="106" priority="220">
+    <cfRule type="expression" dxfId="74" priority="220">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17216,12 +16508,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50:BZ50 J53:BZ53">
-    <cfRule type="expression" dxfId="105" priority="205">
+    <cfRule type="expression" dxfId="73" priority="205">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA50 CA53">
-    <cfRule type="expression" dxfId="104" priority="211">
+    <cfRule type="expression" dxfId="72" priority="211">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17240,22 +16532,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:BZ39">
-    <cfRule type="expression" dxfId="103" priority="194">
+    <cfRule type="expression" dxfId="71" priority="194">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA39">
-    <cfRule type="expression" dxfId="102" priority="200">
+    <cfRule type="expression" dxfId="70" priority="200">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:BZ56">
-    <cfRule type="expression" dxfId="101" priority="185">
+    <cfRule type="expression" dxfId="69" priority="185">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA56">
-    <cfRule type="expression" dxfId="100" priority="186">
+    <cfRule type="expression" dxfId="68" priority="186">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17288,22 +16580,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:BZ51">
-    <cfRule type="expression" dxfId="99" priority="175">
+    <cfRule type="expression" dxfId="67" priority="175">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA51">
-    <cfRule type="expression" dxfId="98" priority="182">
+    <cfRule type="expression" dxfId="66" priority="182">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51:BZ51">
-    <cfRule type="expression" dxfId="97" priority="173">
+    <cfRule type="expression" dxfId="65" priority="173">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA51">
-    <cfRule type="expression" dxfId="96" priority="174">
+    <cfRule type="expression" dxfId="64" priority="174">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17364,238 +16656,238 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="95" priority="131">
+    <cfRule type="expression" dxfId="63" priority="131">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:CA25">
-    <cfRule type="expression" dxfId="94" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="134" stopIfTrue="1">
       <formula>AND($C25="Low",J$5&gt;=$F25,J$5&lt;=$F25+$H25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="135" stopIfTrue="1">
       <formula>AND($C25="High",J$5&gt;=$F25,J$5&lt;=$F25+$H25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="136" stopIfTrue="1">
       <formula>AND($C25="On Track",J$5&gt;=$F25,J$5&lt;=$F25+$H25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="137" stopIfTrue="1">
       <formula>AND($C25="Med",J$5&gt;=$F25,J$5&lt;=$F25+$H25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="138" stopIfTrue="1">
       <formula>AND(LEN($C25)=0,J$5&gt;=$F25,J$5&lt;=$F25+$H25-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="89" priority="132">
+    <cfRule type="expression" dxfId="57" priority="132">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="88" priority="108">
+    <cfRule type="expression" dxfId="56" priority="108">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:CA37">
-    <cfRule type="expression" dxfId="87" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="109" stopIfTrue="1">
       <formula>AND($C34="Low",J$5&gt;=$F34,J$5&lt;=$F34+$H34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="110" stopIfTrue="1">
       <formula>AND($C34="High",J$5&gt;=$F34,J$5&lt;=$F34+$H34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="111" stopIfTrue="1">
       <formula>AND($C34="On Track",J$5&gt;=$F34,J$5&lt;=$F34+$H34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="112" stopIfTrue="1">
       <formula>AND($C34="Med",J$5&gt;=$F34,J$5&lt;=$F34+$H34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="113" stopIfTrue="1">
       <formula>AND(LEN($C34)=0,J$5&gt;=$F34,J$5&lt;=$F34+$H34-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="82" priority="107">
+    <cfRule type="expression" dxfId="50" priority="107">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:BZ43">
-    <cfRule type="expression" dxfId="81" priority="100">
+    <cfRule type="expression" dxfId="49" priority="100">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:CA43">
-    <cfRule type="expression" dxfId="80" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="101" stopIfTrue="1">
       <formula>AND($C40="Low",J$5&gt;=$F40,J$5&lt;=$F40+$H40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="102" stopIfTrue="1">
       <formula>AND($C40="High",J$5&gt;=$F40,J$5&lt;=$F40+$H40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="103" stopIfTrue="1">
       <formula>AND($C40="On Track",J$5&gt;=$F40,J$5&lt;=$F40+$H40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="104" stopIfTrue="1">
       <formula>AND($C40="Med",J$5&gt;=$F40,J$5&lt;=$F40+$H40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="105" stopIfTrue="1">
       <formula>AND(LEN($C40)=0,J$5&gt;=$F40,J$5&lt;=$F40+$H40-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA40:CA43">
-    <cfRule type="expression" dxfId="75" priority="99">
+    <cfRule type="expression" dxfId="43" priority="99">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:BZ49">
-    <cfRule type="expression" dxfId="74" priority="92">
+    <cfRule type="expression" dxfId="42" priority="92">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:CA49">
-    <cfRule type="expression" dxfId="73" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="93" stopIfTrue="1">
       <formula>AND($C45="Low",J$5&gt;=$F45,J$5&lt;=$F45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="94" stopIfTrue="1">
       <formula>AND($C45="High",J$5&gt;=$F45,J$5&lt;=$F45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="95" stopIfTrue="1">
       <formula>AND($C45="On Track",J$5&gt;=$F45,J$5&lt;=$F45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="96" stopIfTrue="1">
       <formula>AND($C45="Med",J$5&gt;=$F45,J$5&lt;=$F45+$H45-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="97" stopIfTrue="1">
       <formula>AND(LEN($C45)=0,J$5&gt;=$F45,J$5&lt;=$F45+$H45-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA45:CA49">
-    <cfRule type="expression" dxfId="68" priority="91">
+    <cfRule type="expression" dxfId="36" priority="91">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:BZ52">
-    <cfRule type="expression" dxfId="67" priority="84">
+    <cfRule type="expression" dxfId="35" priority="84">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:CA52">
-    <cfRule type="expression" dxfId="66" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="85" stopIfTrue="1">
       <formula>AND($C52="Low",J$5&gt;=$F52,J$5&lt;=$F52+$H52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="86" stopIfTrue="1">
       <formula>AND($C52="High",J$5&gt;=$F52,J$5&lt;=$F52+$H52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="87" stopIfTrue="1">
       <formula>AND($C52="On Track",J$5&gt;=$F52,J$5&lt;=$F52+$H52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="88" stopIfTrue="1">
       <formula>AND($C52="Med",J$5&gt;=$F52,J$5&lt;=$F52+$H52-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="89" stopIfTrue="1">
       <formula>AND(LEN($C52)=0,J$5&gt;=$F52,J$5&lt;=$F52+$H52-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA52">
-    <cfRule type="expression" dxfId="61" priority="83">
+    <cfRule type="expression" dxfId="29" priority="83">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:BZ55">
-    <cfRule type="expression" dxfId="60" priority="76">
+    <cfRule type="expression" dxfId="28" priority="76">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:CA55">
-    <cfRule type="expression" dxfId="59" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="77" stopIfTrue="1">
       <formula>AND($C54="Low",J$5&gt;=$F54,J$5&lt;=$F54+$H54-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="78" stopIfTrue="1">
       <formula>AND($C54="High",J$5&gt;=$F54,J$5&lt;=$F54+$H54-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="79" stopIfTrue="1">
       <formula>AND($C54="On Track",J$5&gt;=$F54,J$5&lt;=$F54+$H54-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="80" stopIfTrue="1">
       <formula>AND($C54="Med",J$5&gt;=$F54,J$5&lt;=$F54+$H54-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="81" stopIfTrue="1">
       <formula>AND(LEN($C54)=0,J$5&gt;=$F54,J$5&lt;=$F54+$H54-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA54:CA55">
-    <cfRule type="expression" dxfId="54" priority="75">
+    <cfRule type="expression" dxfId="22" priority="75">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:BZ63">
-    <cfRule type="expression" dxfId="53" priority="68">
+    <cfRule type="expression" dxfId="21" priority="68">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:CA63">
-    <cfRule type="expression" dxfId="52" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="69" stopIfTrue="1">
       <formula>AND($C57="Low",J$5&gt;=$F57,J$5&lt;=$F57+$H57-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="70" stopIfTrue="1">
       <formula>AND($C57="High",J$5&gt;=$F57,J$5&lt;=$F57+$H57-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="71" stopIfTrue="1">
       <formula>AND($C57="On Track",J$5&gt;=$F57,J$5&lt;=$F57+$H57-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="72" stopIfTrue="1">
       <formula>AND($C57="Med",J$5&gt;=$F57,J$5&lt;=$F57+$H57-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="73" stopIfTrue="1">
       <formula>AND(LEN($C57)=0,J$5&gt;=$F57,J$5&lt;=$F57+$H57-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA57:CA63">
-    <cfRule type="expression" dxfId="47" priority="67">
+    <cfRule type="expression" dxfId="15" priority="67">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66:BZ72">
-    <cfRule type="expression" dxfId="46" priority="60">
+    <cfRule type="expression" dxfId="14" priority="60">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66:CA72">
-    <cfRule type="expression" dxfId="45" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="61" stopIfTrue="1">
       <formula>AND($C66="Low",J$5&gt;=$F66,J$5&lt;=$F66+$H66-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="62" stopIfTrue="1">
       <formula>AND($C66="High",J$5&gt;=$F66,J$5&lt;=$F66+$H66-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="63" stopIfTrue="1">
       <formula>AND($C66="On Track",J$5&gt;=$F66,J$5&lt;=$F66+$H66-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="64" stopIfTrue="1">
       <formula>AND($C66="Med",J$5&gt;=$F66,J$5&lt;=$F66+$H66-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="65" stopIfTrue="1">
       <formula>AND(LEN($C66)=0,J$5&gt;=$F66,J$5&lt;=$F66+$H66-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA66:CA72">
-    <cfRule type="expression" dxfId="40" priority="59">
+    <cfRule type="expression" dxfId="8" priority="59">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ18">
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="7" priority="32">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA18">
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="6" priority="33">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BZ17">
-    <cfRule type="expression" dxfId="23" priority="29">
+    <cfRule type="expression" dxfId="5" priority="29">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA17">
-    <cfRule type="expression" dxfId="22" priority="30">
+    <cfRule type="expression" dxfId="4" priority="30">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE0B93-3833-154D-B8D8-8554CBDEF742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C52D5B-9F50-5447-8D54-EE02D0953B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20440" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>About This Template</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>Brandin/Aparna</t>
+  </si>
+  <si>
+    <t>Aparna/Tumaris</t>
+  </si>
+  <si>
+    <t>Adam/Siddharth</t>
   </si>
 </sst>
 </file>
@@ -930,6 +936,15 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -950,15 +965,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3434,8 +3440,8 @@
   </sheetPr>
   <dimension ref="A1:CA165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3502,46 +3508,46 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="Q2" s="68" t="s">
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="Q2" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="X2" s="69" t="s">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="X2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AE2" s="70" t="s">
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AE2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AL2" s="71" t="s">
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AL2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
       <c r="AR2" s="20"/>
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
@@ -3552,26 +3558,26 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="64">
+      <c r="E3" s="65"/>
+      <c r="F3" s="67">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>44096</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="39">
         <v>21</v>
       </c>
@@ -3675,14 +3681,14 @@
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="43">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>44117</v>
@@ -6164,7 +6170,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E14" s="29">
         <v>0</v>
@@ -9997,7 +10003,9 @@
       <c r="C35" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="48"/>
+      <c r="D35" s="48" t="s">
+        <v>106</v>
+      </c>
       <c r="E35" s="56">
         <v>0</v>
       </c>
@@ -16258,15 +16266,15 @@
     <row r="165" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="Q2:V2"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="AE2:AJ2"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="Q2:V2"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E11 E16 E13:E14 E53 E23:E24 E64:E65 E72 E33 E69">
     <cfRule type="dataBar" priority="339">

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E865860B-0D7C-9F49-9571-98508BD6E803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D961B8-F322-DF41-B74B-EEE0A83E8CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20440" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -2160,8 +2160,8 @@
           <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>84</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:col>104</xdr:col>
+          <xdr:colOff>469900</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
@@ -2498,10 +2498,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CA164"/>
+  <dimension ref="A1:CE164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A30" zoomScale="140" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="CO23" sqref="CO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2513,8 +2513,8 @@
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="83" width="2.5" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="83" width="2.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5233,7 +5233,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="29">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="F14" s="30">
         <v>44118</v>
@@ -6509,7 +6509,7 @@
         <v>94</v>
       </c>
       <c r="E21" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="57">
         <v>44125</v>
@@ -6605,7 +6605,7 @@
         <v>97</v>
       </c>
       <c r="E22" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="30">
         <v>44103</v>
@@ -8861,7 +8861,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="29">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F35" s="57">
         <v>44125</v>
@@ -15598,8 +15598,8 @@
                     <xdr:rowOff>63500</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>84</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:col>104</xdr:col>
+                    <xdr:colOff>469900</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>241300</xdr:rowOff>
                   </to>
@@ -15871,6 +15871,66 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{366133D0-FF9F-A54A-B853-B640570739BE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E21:E31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AD077737-F813-4C4C-845C-20FA65C3D607}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E69</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C1D15CD-08F7-4E4C-AEF0-0399341BEE1B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E65:E67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{70BD8D54-5CD7-4341-8332-FE6663A466EA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E33:E36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="477" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
@@ -16271,66 +16331,6 @@
           </x14:cfRule>
           <xm:sqref>J20:CA21</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{366133D0-FF9F-A54A-B853-B640570739BE}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E21:E31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD077737-F813-4C4C-845C-20FA65C3D607}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E69</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8C1D15CD-08F7-4E4C-AEF0-0399341BEE1B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E65:E67</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{70BD8D54-5CD7-4341-8332-FE6663A466EA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E33:E36</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D961B8-F322-DF41-B74B-EEE0A83E8CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD9053-7BBF-794D-9E2C-8AB400AA0C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>About This Template</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Conduct Focus Groups</t>
+  </si>
+  <si>
+    <t>Jeffer</t>
   </si>
 </sst>
 </file>
@@ -2500,8 +2503,8 @@
   </sheetPr>
   <dimension ref="A1:CE164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A30" zoomScale="140" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="CO23" sqref="CO23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="140" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5233,7 +5236,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="29">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="F14" s="30">
         <v>44118</v>
@@ -7200,9 +7203,11 @@
       <c r="C24" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="48"/>
+      <c r="D24" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="E24" s="29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F24" s="57">
         <v>44132</v>
@@ -7294,9 +7299,11 @@
       <c r="C25" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="48" t="s">
+        <v>95</v>
+      </c>
       <c r="E25" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="57">
         <v>44132</v>
@@ -7388,9 +7395,11 @@
       <c r="C26" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="48"/>
+      <c r="D26" s="48" t="s">
+        <v>105</v>
+      </c>
       <c r="E26" s="29">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" s="57">
         <v>44132</v>
@@ -8861,17 +8870,17 @@
         <v>31</v>
       </c>
       <c r="E35" s="29">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F35" s="57">
         <v>44125</v>
       </c>
       <c r="G35" s="57">
-        <v>44145</v>
+        <v>44159</v>
       </c>
       <c r="H35" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="34"/>
@@ -8958,14 +8967,14 @@
         <v>0</v>
       </c>
       <c r="F36" s="57">
-        <v>44146</v>
+        <v>44160</v>
       </c>
       <c r="G36" s="57">
-        <v>44159</v>
+        <v>44176</v>
       </c>
       <c r="H36" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I36" s="25"/>
       <c r="J36" s="34"/>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD9053-7BBF-794D-9E2C-8AB400AA0C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEBAE47-997E-44CC-BBA4-8D876A5C637B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>About This Template</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Jeffer</t>
+  </si>
+  <si>
+    <t>Aparna</t>
   </si>
 </sst>
 </file>
@@ -2158,15 +2161,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>104</xdr:col>
-          <xdr:colOff>469900</xdr:colOff>
+          <xdr:colOff>472440</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>243840</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2503,24 +2506,25 @@
   </sheetPr>
   <dimension ref="A1:CE164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="140" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="140" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="CF33" sqref="CF33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="83" width="2.5" hidden="1" customWidth="1"/>
+    <col min="10" max="83" width="2.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2560,7 +2564,7 @@
       <c r="AG1" s="20"/>
       <c r="AH1" s="20"/>
     </row>
-    <row r="2" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2615,7 +2619,7 @@
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
     </row>
-    <row r="3" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2633,7 +2637,7 @@
       <c r="H3" s="70"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -2740,7 +2744,7 @@
       <c r="BZ4" s="38"/>
       <c r="CA4" s="38"/>
     </row>
-    <row r="5" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
@@ -3116,7 +3120,7 @@
       <c r="BZ6" s="42"/>
       <c r="CA6" s="42"/>
     </row>
-    <row r="7" spans="1:79" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3423,7 +3427,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="8" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="49" t="s">
         <v>38</v>
@@ -3716,7 +3720,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="36" t="s">
         <v>27</v>
@@ -4317,7 +4321,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="36" t="s">
         <v>28</v>
@@ -4623,7 +4627,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -4918,7 +4922,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="36" t="s">
         <v>34</v>
@@ -5224,7 +5228,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="36" t="s">
         <v>35</v>
@@ -5530,7 +5534,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="49" t="s">
         <v>57</v>
@@ -5613,7 +5617,7 @@
       <c r="BZ15" s="34"/>
       <c r="CA15" s="34"/>
     </row>
-    <row r="16" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="37" t="s">
         <v>98</v>
@@ -5696,7 +5700,7 @@
       <c r="BZ16" s="34"/>
       <c r="CA16" s="34"/>
     </row>
-    <row r="17" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="36" t="s">
         <v>56</v>
@@ -6002,7 +6006,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
         <v>102</v>
@@ -6098,7 +6102,7 @@
       <c r="BZ18" s="34"/>
       <c r="CA18" s="34"/>
     </row>
-    <row r="19" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="62" t="s">
         <v>103</v>
@@ -6194,7 +6198,7 @@
       <c r="BZ19" s="34"/>
       <c r="CA19" s="34"/>
     </row>
-    <row r="20" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="36" t="s">
         <v>104</v>
@@ -6500,7 +6504,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="55" t="s">
         <v>65</v>
@@ -6596,7 +6600,7 @@
       <c r="BZ21" s="34"/>
       <c r="CA21" s="34"/>
     </row>
-    <row r="22" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="36" t="s">
         <v>43</v>
@@ -6902,7 +6906,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="37" t="s">
         <v>36</v>
@@ -7195,7 +7199,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="55" t="s">
         <v>36</v>
@@ -7207,7 +7211,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="29">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="57">
         <v>44132</v>
@@ -7291,7 +7295,7 @@
       <c r="BZ24" s="34"/>
       <c r="CA24" s="34"/>
     </row>
-    <row r="25" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="55" t="s">
         <v>60</v>
@@ -7387,7 +7391,7 @@
       <c r="BZ25" s="34"/>
       <c r="CA25" s="34"/>
     </row>
-    <row r="26" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="55" t="s">
         <v>61</v>
@@ -7399,7 +7403,7 @@
         <v>105</v>
       </c>
       <c r="E26" s="29">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F26" s="57">
         <v>44132</v>
@@ -7693,7 +7697,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:79" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="55" t="s">
         <v>62</v>
@@ -7701,19 +7705,21 @@
       <c r="C27" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="48" t="s">
+        <v>106</v>
+      </c>
       <c r="E27" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="57">
-        <v>44146</v>
+        <v>44139</v>
       </c>
       <c r="G27" s="57">
-        <v>44166</v>
+        <v>44152</v>
       </c>
       <c r="H27" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="34"/>
@@ -7787,7 +7793,7 @@
       <c r="BZ27" s="34"/>
       <c r="CA27" s="34"/>
     </row>
-    <row r="28" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="55" t="s">
         <v>63</v>
@@ -7800,14 +7806,14 @@
         <v>0</v>
       </c>
       <c r="F28" s="57">
-        <v>44167</v>
+        <v>44152</v>
       </c>
       <c r="G28" s="57">
-        <v>44173</v>
+        <v>44159</v>
       </c>
       <c r="H28" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="34"/>
@@ -7881,7 +7887,7 @@
       <c r="BZ28" s="34"/>
       <c r="CA28" s="34"/>
     </row>
-    <row r="29" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="55" t="s">
         <v>64</v>
@@ -7894,14 +7900,14 @@
         <v>0</v>
       </c>
       <c r="F29" s="57">
-        <v>44167</v>
+        <v>44152</v>
       </c>
       <c r="G29" s="57">
-        <v>44173</v>
+        <v>44159</v>
       </c>
       <c r="H29" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="34"/>
@@ -7975,7 +7981,7 @@
       <c r="BZ29" s="34"/>
       <c r="CA29" s="34"/>
     </row>
-    <row r="30" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="55" t="s">
         <v>44</v>
@@ -8069,7 +8075,7 @@
       <c r="BZ30" s="34"/>
       <c r="CA30" s="34"/>
     </row>
-    <row r="31" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="55" t="s">
         <v>66</v>
@@ -8373,7 +8379,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="49" t="s">
         <v>45</v>
@@ -8666,7 +8672,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="55" t="s">
         <v>48</v>
@@ -8762,7 +8768,7 @@
       <c r="BZ33" s="34"/>
       <c r="CA33" s="34"/>
     </row>
-    <row r="34" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="55" t="s">
         <v>46</v>
@@ -8858,7 +8864,7 @@
       <c r="BZ34" s="34"/>
       <c r="CA34" s="34"/>
     </row>
-    <row r="35" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="55" t="s">
         <v>47</v>
@@ -8876,11 +8882,11 @@
         <v>44125</v>
       </c>
       <c r="G35" s="57">
-        <v>44159</v>
+        <v>44176</v>
       </c>
       <c r="H35" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="34"/>
@@ -8954,7 +8960,7 @@
       <c r="BZ35" s="34"/>
       <c r="CA35" s="34"/>
     </row>
-    <row r="36" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="55" t="s">
         <v>49</v>
@@ -8967,14 +8973,14 @@
         <v>0</v>
       </c>
       <c r="F36" s="57">
-        <v>44160</v>
+        <v>44176</v>
       </c>
       <c r="G36" s="57">
-        <v>44176</v>
+        <v>44207</v>
       </c>
       <c r="H36" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I36" s="25"/>
       <c r="J36" s="34"/>
@@ -9048,7 +9054,7 @@
       <c r="BZ36" s="34"/>
       <c r="CA36" s="34"/>
     </row>
-    <row r="37" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="49" t="s">
         <v>67</v>
@@ -9131,7 +9137,7 @@
       <c r="BZ37" s="34"/>
       <c r="CA37" s="34"/>
     </row>
-    <row r="38" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="37" t="s">
         <v>75</v>
@@ -9214,7 +9220,7 @@
       <c r="BZ38" s="34"/>
       <c r="CA38" s="34"/>
     </row>
-    <row r="39" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="55" t="s">
         <v>76</v>
@@ -9308,7 +9314,7 @@
       <c r="BZ39" s="34"/>
       <c r="CA39" s="34"/>
     </row>
-    <row r="40" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="55" t="s">
         <v>77</v>
@@ -9402,7 +9408,7 @@
       <c r="BZ40" s="34"/>
       <c r="CA40" s="34"/>
     </row>
-    <row r="41" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="55" t="s">
         <v>79</v>
@@ -9496,7 +9502,7 @@
       <c r="BZ41" s="34"/>
       <c r="CA41" s="34"/>
     </row>
-    <row r="42" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="55" t="s">
         <v>78</v>
@@ -9590,7 +9596,7 @@
       <c r="BZ42" s="34"/>
       <c r="CA42" s="34"/>
     </row>
-    <row r="43" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="37" t="s">
         <v>69</v>
@@ -9673,7 +9679,7 @@
       <c r="BZ43" s="34"/>
       <c r="CA43" s="34"/>
     </row>
-    <row r="44" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="55" t="s">
         <v>70</v>
@@ -9767,7 +9773,7 @@
       <c r="BZ44" s="34"/>
       <c r="CA44" s="34"/>
     </row>
-    <row r="45" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="55" t="s">
         <v>71</v>
@@ -9861,7 +9867,7 @@
       <c r="BZ45" s="34"/>
       <c r="CA45" s="34"/>
     </row>
-    <row r="46" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
         <v>73</v>
@@ -9955,7 +9961,7 @@
       <c r="BZ46" s="34"/>
       <c r="CA46" s="34"/>
     </row>
-    <row r="47" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="55" t="s">
         <v>72</v>
@@ -10049,7 +10055,7 @@
       <c r="BZ47" s="34"/>
       <c r="CA47" s="34"/>
     </row>
-    <row r="48" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="55" t="s">
         <v>74</v>
@@ -10143,7 +10149,7 @@
       <c r="BZ48" s="34"/>
       <c r="CA48" s="34"/>
     </row>
-    <row r="49" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="49" t="s">
         <v>68</v>
@@ -10226,7 +10232,7 @@
       <c r="BZ49" s="34"/>
       <c r="CA49" s="34"/>
     </row>
-    <row r="50" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="37" t="s">
         <v>81</v>
@@ -10519,7 +10525,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="55" t="s">
         <v>85</v>
@@ -10823,7 +10829,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="37" t="s">
         <v>82</v>
@@ -11116,7 +11122,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="55" t="s">
         <v>83</v>
@@ -11420,7 +11426,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="55" t="s">
         <v>84</v>
@@ -11514,7 +11520,7 @@
       <c r="BZ54" s="34"/>
       <c r="CA54" s="34"/>
     </row>
-    <row r="55" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="49" t="s">
         <v>80</v>
@@ -11597,7 +11603,7 @@
       <c r="BZ55" s="34"/>
       <c r="CA55" s="34"/>
     </row>
-    <row r="56" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="55" t="s">
         <v>88</v>
@@ -11901,7 +11907,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="55" t="s">
         <v>87</v>
@@ -11995,7 +12001,7 @@
       <c r="BZ57" s="34"/>
       <c r="CA57" s="34"/>
     </row>
-    <row r="58" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="55" t="s">
         <v>89</v>
@@ -12089,7 +12095,7 @@
       <c r="BZ58" s="34"/>
       <c r="CA58" s="34"/>
     </row>
-    <row r="59" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="55" t="s">
         <v>90</v>
@@ -12183,7 +12189,7 @@
       <c r="BZ59" s="34"/>
       <c r="CA59" s="34"/>
     </row>
-    <row r="60" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="55" t="s">
         <v>91</v>
@@ -12277,7 +12283,7 @@
       <c r="BZ60" s="34"/>
       <c r="CA60" s="34"/>
     </row>
-    <row r="61" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="55" t="s">
         <v>92</v>
@@ -12371,7 +12377,7 @@
       <c r="BZ61" s="34"/>
       <c r="CA61" s="34"/>
     </row>
-    <row r="62" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="55" t="s">
         <v>93</v>
@@ -12465,7 +12471,7 @@
       <c r="BZ62" s="34"/>
       <c r="CA62" s="34"/>
     </row>
-    <row r="63" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="49" t="s">
         <v>58</v>
@@ -12758,7 +12764,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="37" t="s">
         <v>42</v>
@@ -12841,7 +12847,7 @@
       <c r="BZ64" s="34"/>
       <c r="CA64" s="34"/>
     </row>
-    <row r="65" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="55" t="s">
         <v>39</v>
@@ -13145,7 +13151,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="55" t="s">
         <v>40</v>
@@ -13449,7 +13455,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="55" t="s">
         <v>41</v>
@@ -13753,7 +13759,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="37" t="s">
         <v>59</v>
@@ -14046,7 +14052,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="55" t="s">
         <v>86</v>
@@ -14352,7 +14358,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="59"/>
       <c r="C70" s="54"/>
@@ -14643,7 +14649,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>2</v>
       </c>
@@ -14936,105 +14942,105 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="5"/>
       <c r="H72" s="16"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AE2:AJ2"/>
@@ -15602,15 +15608,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>104</xdr:col>
-                    <xdr:colOff>469900</xdr:colOff>
+                    <xdr:colOff>472440</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>243840</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16354,33 +16360,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEBAE47-997E-44CC-BBA4-8D876A5C637B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A14E52-8F2E-49B7-ACEE-E96ACAA67723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
   <si>
     <t>About This Template</t>
   </si>
@@ -2161,15 +2161,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>23854</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>63610</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>104</xdr:col>
-          <xdr:colOff>472440</xdr:colOff>
+          <xdr:colOff>469127</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>243840</xdr:rowOff>
+          <xdr:rowOff>246490</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2506,11 +2506,11 @@
   </sheetPr>
   <dimension ref="A1:CE164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="140" zoomScaleNormal="150" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="CF33" sqref="CF33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="34.109375" customWidth="1"/>
@@ -2524,7 +2524,7 @@
     <col min="10" max="83" width="2.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="AG1" s="20"/>
       <c r="AH1" s="20"/>
     </row>
-    <row r="2" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
     </row>
-    <row r="3" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2637,7 +2637,7 @@
       <c r="H3" s="70"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="BZ4" s="38"/>
       <c r="CA4" s="38"/>
     </row>
-    <row r="5" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:79" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="BZ6" s="42"/>
       <c r="CA6" s="42"/>
     </row>
-    <row r="7" spans="1:79" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:79" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="8" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="49" t="s">
         <v>38</v>
@@ -3720,7 +3720,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="36" t="s">
         <v>27</v>
@@ -4321,7 +4321,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="36" t="s">
         <v>28</v>
@@ -4627,7 +4627,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="36" t="s">
         <v>34</v>
@@ -5228,7 +5228,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="36" t="s">
         <v>35</v>
@@ -5534,7 +5534,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="49" t="s">
         <v>57</v>
@@ -5617,7 +5617,7 @@
       <c r="BZ15" s="34"/>
       <c r="CA15" s="34"/>
     </row>
-    <row r="16" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="37" t="s">
         <v>98</v>
@@ -5700,7 +5700,7 @@
       <c r="BZ16" s="34"/>
       <c r="CA16" s="34"/>
     </row>
-    <row r="17" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="36" t="s">
         <v>56</v>
@@ -6006,7 +6006,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
         <v>102</v>
@@ -6102,7 +6102,7 @@
       <c r="BZ18" s="34"/>
       <c r="CA18" s="34"/>
     </row>
-    <row r="19" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="62" t="s">
         <v>103</v>
@@ -6198,7 +6198,7 @@
       <c r="BZ19" s="34"/>
       <c r="CA19" s="34"/>
     </row>
-    <row r="20" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="36" t="s">
         <v>104</v>
@@ -6504,7 +6504,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="55" t="s">
         <v>65</v>
@@ -6600,7 +6600,7 @@
       <c r="BZ21" s="34"/>
       <c r="CA21" s="34"/>
     </row>
-    <row r="22" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="36" t="s">
         <v>43</v>
@@ -6906,7 +6906,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="37" t="s">
         <v>36</v>
@@ -7199,7 +7199,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="55" t="s">
         <v>36</v>
@@ -7295,7 +7295,7 @@
       <c r="BZ24" s="34"/>
       <c r="CA24" s="34"/>
     </row>
-    <row r="25" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="55" t="s">
         <v>60</v>
@@ -7391,7 +7391,7 @@
       <c r="BZ25" s="34"/>
       <c r="CA25" s="34"/>
     </row>
-    <row r="26" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="55" t="s">
         <v>61</v>
@@ -7697,7 +7697,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:79" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:79" s="2" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="55" t="s">
         <v>62</v>
@@ -7793,7 +7793,7 @@
       <c r="BZ27" s="34"/>
       <c r="CA27" s="34"/>
     </row>
-    <row r="28" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="55" t="s">
         <v>63</v>
@@ -7887,7 +7887,7 @@
       <c r="BZ28" s="34"/>
       <c r="CA28" s="34"/>
     </row>
-    <row r="29" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="55" t="s">
         <v>64</v>
@@ -7981,7 +7981,7 @@
       <c r="BZ29" s="34"/>
       <c r="CA29" s="34"/>
     </row>
-    <row r="30" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="55" t="s">
         <v>44</v>
@@ -8075,7 +8075,7 @@
       <c r="BZ30" s="34"/>
       <c r="CA30" s="34"/>
     </row>
-    <row r="31" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="55" t="s">
         <v>66</v>
@@ -8379,7 +8379,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="49" t="s">
         <v>45</v>
@@ -8672,7 +8672,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="55" t="s">
         <v>48</v>
@@ -8768,7 +8768,7 @@
       <c r="BZ33" s="34"/>
       <c r="CA33" s="34"/>
     </row>
-    <row r="34" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="55" t="s">
         <v>46</v>
@@ -8864,7 +8864,7 @@
       <c r="BZ34" s="34"/>
       <c r="CA34" s="34"/>
     </row>
-    <row r="35" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="55" t="s">
         <v>47</v>
@@ -8960,7 +8960,7 @@
       <c r="BZ35" s="34"/>
       <c r="CA35" s="34"/>
     </row>
-    <row r="36" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="55" t="s">
         <v>49</v>
@@ -9054,7 +9054,7 @@
       <c r="BZ36" s="34"/>
       <c r="CA36" s="34"/>
     </row>
-    <row r="37" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="49" t="s">
         <v>67</v>
@@ -9137,7 +9137,7 @@
       <c r="BZ37" s="34"/>
       <c r="CA37" s="34"/>
     </row>
-    <row r="38" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="37" t="s">
         <v>75</v>
@@ -9220,7 +9220,7 @@
       <c r="BZ38" s="34"/>
       <c r="CA38" s="34"/>
     </row>
-    <row r="39" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="55" t="s">
         <v>76</v>
@@ -9314,7 +9314,7 @@
       <c r="BZ39" s="34"/>
       <c r="CA39" s="34"/>
     </row>
-    <row r="40" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="55" t="s">
         <v>77</v>
@@ -9408,7 +9408,7 @@
       <c r="BZ40" s="34"/>
       <c r="CA40" s="34"/>
     </row>
-    <row r="41" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="55" t="s">
         <v>79</v>
@@ -9502,7 +9502,7 @@
       <c r="BZ41" s="34"/>
       <c r="CA41" s="34"/>
     </row>
-    <row r="42" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="55" t="s">
         <v>78</v>
@@ -9596,7 +9596,7 @@
       <c r="BZ42" s="34"/>
       <c r="CA42" s="34"/>
     </row>
-    <row r="43" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="37" t="s">
         <v>69</v>
@@ -9679,7 +9679,7 @@
       <c r="BZ43" s="34"/>
       <c r="CA43" s="34"/>
     </row>
-    <row r="44" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="55" t="s">
         <v>70</v>
@@ -9773,7 +9773,7 @@
       <c r="BZ44" s="34"/>
       <c r="CA44" s="34"/>
     </row>
-    <row r="45" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="55" t="s">
         <v>71</v>
@@ -9867,7 +9867,7 @@
       <c r="BZ45" s="34"/>
       <c r="CA45" s="34"/>
     </row>
-    <row r="46" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
         <v>73</v>
@@ -9961,7 +9961,7 @@
       <c r="BZ46" s="34"/>
       <c r="CA46" s="34"/>
     </row>
-    <row r="47" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="55" t="s">
         <v>72</v>
@@ -10055,7 +10055,7 @@
       <c r="BZ47" s="34"/>
       <c r="CA47" s="34"/>
     </row>
-    <row r="48" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="55" t="s">
         <v>74</v>
@@ -10149,7 +10149,7 @@
       <c r="BZ48" s="34"/>
       <c r="CA48" s="34"/>
     </row>
-    <row r="49" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="49" t="s">
         <v>68</v>
@@ -10232,7 +10232,7 @@
       <c r="BZ49" s="34"/>
       <c r="CA49" s="34"/>
     </row>
-    <row r="50" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="37" t="s">
         <v>81</v>
@@ -10525,7 +10525,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="55" t="s">
         <v>85</v>
@@ -10829,7 +10829,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="37" t="s">
         <v>82</v>
@@ -11122,7 +11122,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="55" t="s">
         <v>83</v>
@@ -11426,7 +11426,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="55" t="s">
         <v>84</v>
@@ -11520,7 +11520,7 @@
       <c r="BZ54" s="34"/>
       <c r="CA54" s="34"/>
     </row>
-    <row r="55" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="49" t="s">
         <v>80</v>
@@ -11603,7 +11603,7 @@
       <c r="BZ55" s="34"/>
       <c r="CA55" s="34"/>
     </row>
-    <row r="56" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="55" t="s">
         <v>88</v>
@@ -11907,7 +11907,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="55" t="s">
         <v>87</v>
@@ -12001,7 +12001,7 @@
       <c r="BZ57" s="34"/>
       <c r="CA57" s="34"/>
     </row>
-    <row r="58" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="55" t="s">
         <v>89</v>
@@ -12095,7 +12095,7 @@
       <c r="BZ58" s="34"/>
       <c r="CA58" s="34"/>
     </row>
-    <row r="59" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="55" t="s">
         <v>90</v>
@@ -12189,7 +12189,7 @@
       <c r="BZ59" s="34"/>
       <c r="CA59" s="34"/>
     </row>
-    <row r="60" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="55" t="s">
         <v>91</v>
@@ -12283,7 +12283,7 @@
       <c r="BZ60" s="34"/>
       <c r="CA60" s="34"/>
     </row>
-    <row r="61" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="55" t="s">
         <v>92</v>
@@ -12377,7 +12377,7 @@
       <c r="BZ61" s="34"/>
       <c r="CA61" s="34"/>
     </row>
-    <row r="62" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="55" t="s">
         <v>93</v>
@@ -12471,7 +12471,7 @@
       <c r="BZ62" s="34"/>
       <c r="CA62" s="34"/>
     </row>
-    <row r="63" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="49" t="s">
         <v>58</v>
@@ -12764,7 +12764,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="37" t="s">
         <v>42</v>
@@ -12847,7 +12847,7 @@
       <c r="BZ64" s="34"/>
       <c r="CA64" s="34"/>
     </row>
-    <row r="65" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="55" t="s">
         <v>39</v>
@@ -12855,7 +12855,9 @@
       <c r="C65" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="48"/>
+      <c r="D65" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="E65" s="29">
         <v>0</v>
       </c>
@@ -13151,7 +13153,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="55" t="s">
         <v>40</v>
@@ -13455,7 +13457,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="55" t="s">
         <v>41</v>
@@ -13759,7 +13761,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="37" t="s">
         <v>59</v>
@@ -14052,7 +14054,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="55" t="s">
         <v>86</v>
@@ -14358,7 +14360,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="59"/>
       <c r="C70" s="54"/>
@@ -14649,7 +14651,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:79" s="2" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>2</v>
       </c>
@@ -14942,105 +14944,105 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="5"/>
       <c r="H72" s="16"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:79" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AE2:AJ2"/>
@@ -15608,15 +15610,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>23854</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>63610</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>104</xdr:col>
-                    <xdr:colOff>472440</xdr:colOff>
+                    <xdr:colOff>469127</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>243840</xdr:rowOff>
+                    <xdr:rowOff>246490</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16360,23 +16362,23 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
     <col min="2" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.3" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="84.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -16386,7 +16388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A14E52-8F2E-49B7-ACEE-E96ACAA67723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10C093-CC9E-46DE-ACDA-2AE392E15117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t>About This Template</t>
   </si>
@@ -375,10 +375,7 @@
     <t>Conduct Focus Groups</t>
   </si>
   <si>
-    <t>Jeffer</t>
-  </si>
-  <si>
-    <t>Aparna</t>
+    <t>Jeffer/Tumaris</t>
   </si>
 </sst>
 </file>
@@ -2506,8 +2503,8 @@
   </sheetPr>
   <dimension ref="A1:CE164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7211,7 +7208,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="29">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F24" s="57">
         <v>44132</v>
@@ -7403,17 +7400,17 @@
         <v>105</v>
       </c>
       <c r="E26" s="29">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F26" s="57">
         <v>44132</v>
       </c>
       <c r="G26" s="57">
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="H26" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="34" t="str">
@@ -7706,20 +7703,20 @@
         <v>52</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E27" s="29">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="F27" s="57">
         <v>44139</v>
       </c>
       <c r="G27" s="57">
-        <v>44152</v>
+        <v>44159</v>
       </c>
       <c r="H27" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="34"/>
@@ -7801,19 +7798,21 @@
       <c r="C28" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="48" t="s">
+        <v>105</v>
+      </c>
       <c r="E28" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="57">
-        <v>44152</v>
+        <v>44146</v>
       </c>
       <c r="G28" s="57">
         <v>44159</v>
       </c>
       <c r="H28" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="34"/>
@@ -12859,7 +12858,7 @@
         <v>94</v>
       </c>
       <c r="E65" s="29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F65" s="57">
         <v>44146</v>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E10C093-CC9E-46DE-ACDA-2AE392E15117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C21A21-F5B0-4BD3-88C1-7292E7F3AA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2503,8 +2503,8 @@
   </sheetPr>
   <dimension ref="A1:CE164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C21A21-F5B0-4BD3-88C1-7292E7F3AA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13A35AA-E44C-448A-BA09-17D0D5DFE919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="106">
   <si>
     <t>About This Template</t>
   </si>
@@ -2503,8 +2503,8 @@
   </sheetPr>
   <dimension ref="A1:CE164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="CF36" sqref="CF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7208,7 +7208,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F24" s="57">
         <v>44132</v>
@@ -7400,7 +7400,7 @@
         <v>105</v>
       </c>
       <c r="E26" s="29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F26" s="57">
         <v>44132</v>
@@ -7706,7 +7706,7 @@
         <v>94</v>
       </c>
       <c r="E27" s="29">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="F27" s="57">
         <v>44139</v>
@@ -7802,7 +7802,7 @@
         <v>105</v>
       </c>
       <c r="E28" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F28" s="57">
         <v>44146</v>
@@ -7894,9 +7894,11 @@
       <c r="C29" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="48"/>
+      <c r="D29" s="48" t="s">
+        <v>95</v>
+      </c>
       <c r="E29" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="57">
         <v>44152</v>
@@ -7988,7 +7990,9 @@
       <c r="C30" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="48"/>
+      <c r="D30" s="48" t="s">
+        <v>105</v>
+      </c>
       <c r="E30" s="29">
         <v>0</v>
       </c>
@@ -8872,10 +8876,10 @@
         <v>53</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="E35" s="29">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F35" s="57">
         <v>44125</v>
@@ -12858,7 +12862,7 @@
         <v>94</v>
       </c>
       <c r="E65" s="29">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F65" s="57">
         <v>44146</v>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F4B4D5-E608-4AE2-826A-E42C7BDC0E03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B87BB-6F60-4B6A-AF04-9C3A95D71ED2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="2605" windowWidth="4720" windowHeight="7462" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
   <si>
     <t>About This Template</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Revise and Update from Feedback</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>Prototyping</t>
   </si>
   <si>
@@ -283,15 +280,6 @@
   </si>
   <si>
     <t>System Architecture</t>
-  </si>
-  <si>
-    <t>Systems Overview</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Technologies Design</t>
   </si>
   <si>
     <t>Verification &amp; Validation</t>
@@ -382,6 +370,18 @@
   </si>
   <si>
     <t>Software Implementation</t>
+  </si>
+  <si>
+    <t>Design Overview Section</t>
+  </si>
+  <si>
+    <t>UML Sections</t>
+  </si>
+  <si>
+    <t>Data Handling Section</t>
+  </si>
+  <si>
+    <t>System Design</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -976,6 +976,9 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -991,41 +994,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <font>
         <b/>
@@ -2047,20 +2016,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="64"/>
-      <tableStyleElement type="headerRow" dxfId="63"/>
-      <tableStyleElement type="firstRowStripe" dxfId="62"/>
+      <tableStyleElement type="wholeTable" dxfId="62"/>
+      <tableStyleElement type="headerRow" dxfId="61"/>
+      <tableStyleElement type="firstRowStripe" dxfId="60"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="61"/>
-      <tableStyleElement type="headerRow" dxfId="60"/>
-      <tableStyleElement type="totalRow" dxfId="59"/>
-      <tableStyleElement type="firstColumn" dxfId="58"/>
-      <tableStyleElement type="lastColumn" dxfId="57"/>
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="54"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="53"/>
+      <tableStyleElement type="wholeTable" dxfId="59"/>
+      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="totalRow" dxfId="57"/>
+      <tableStyleElement type="firstColumn" dxfId="56"/>
+      <tableStyleElement type="lastColumn" dxfId="55"/>
+      <tableStyleElement type="firstRowStripe" dxfId="54"/>
+      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="52"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="51"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2212,9 +2181,13 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H72" totalsRowShown="0">
-  <autoFilter ref="B7:H72" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H73" totalsRowShown="0">
+  <autoFilter ref="B7:H73" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2224,12 +2197,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="48"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="49" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="47" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2507,10 +2480,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE165"/>
+  <dimension ref="A1:CE166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A40" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4934,7 +4907,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E13" s="29">
         <v>1</v>
@@ -5240,7 +5213,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E14" s="29">
         <v>1</v>
@@ -5330,16 +5303,16 @@
     <row r="15" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E15" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="30">
         <v>44209</v>
@@ -5719,7 +5692,7 @@
     <row r="17" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="54"/>
@@ -5808,7 +5781,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E18" s="29">
         <v>1</v>
@@ -6108,13 +6081,13 @@
     <row r="19" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="61" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E19" s="29">
         <v>1</v>
@@ -6204,13 +6177,13 @@
     <row r="20" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="62" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
@@ -6300,13 +6273,13 @@
     <row r="21" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E21" s="29">
         <v>1</v>
@@ -6612,7 +6585,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E22" s="29">
         <v>1</v>
@@ -6708,7 +6681,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E23" s="29">
         <v>1</v>
@@ -7403,7 +7376,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E26" s="29">
         <v>1</v>
@@ -7499,7 +7472,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E27" s="29">
         <v>1</v>
@@ -7805,7 +7778,7 @@
         <v>52</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E28" s="29">
         <v>1</v>
@@ -7901,7 +7874,7 @@
         <v>52</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E29" s="29">
         <v>1</v>
@@ -7997,7 +7970,7 @@
         <v>52</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E30" s="29">
         <v>1</v>
@@ -8093,7 +8066,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E31" s="29">
         <v>1</v>
@@ -8788,7 +8761,7 @@
         <v>53</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E34" s="29">
         <v>1</v>
@@ -8884,7 +8857,7 @@
         <v>53</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
@@ -8980,7 +8953,7 @@
         <v>53</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E36" s="29">
         <v>0.75</v>
@@ -9076,7 +9049,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E37" s="29">
         <v>0.5</v>
@@ -9166,7 +9139,7 @@
     <row r="38" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="49" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
@@ -9249,7 +9222,7 @@
     <row r="39" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -9332,7 +9305,7 @@
     <row r="40" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C40" s="48" t="s">
         <v>52</v>
@@ -9426,7 +9399,7 @@
     <row r="41" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="55" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C41" s="48" t="s">
         <v>52</v>
@@ -9435,15 +9408,15 @@
       <c r="E41" s="56">
         <v>0</v>
       </c>
-      <c r="F41" s="57">
-        <v>44215</v>
+      <c r="F41" s="74">
+        <v>44209</v>
       </c>
       <c r="G41" s="57">
-        <v>44236</v>
+        <v>44218</v>
       </c>
       <c r="H41" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="34"/>
@@ -9520,7 +9493,7 @@
     <row r="42" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="55" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>52</v>
@@ -9533,11 +9506,11 @@
         <v>44215</v>
       </c>
       <c r="G42" s="57">
-        <v>44236</v>
+        <v>44222</v>
       </c>
       <c r="H42" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="34"/>
@@ -9614,7 +9587,7 @@
     <row r="43" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="55" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>52</v>
@@ -9624,14 +9597,14 @@
         <v>0</v>
       </c>
       <c r="F43" s="57">
-        <v>44215</v>
+        <v>44223</v>
       </c>
       <c r="G43" s="57">
         <v>44236</v>
       </c>
       <c r="H43" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="34"/>
@@ -9707,15 +9680,26 @@
     </row>
     <row r="44" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
+      <c r="B44" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="E44" s="56">
+        <v>0</v>
+      </c>
+      <c r="F44" s="57">
+        <v>44230</v>
+      </c>
+      <c r="G44" s="57">
+        <v>44236</v>
+      </c>
+      <c r="H44" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>7</v>
+      </c>
       <c r="I44" s="25"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
@@ -9790,26 +9774,15 @@
     </row>
     <row r="45" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="56">
-        <v>0</v>
-      </c>
-      <c r="F45" s="57">
-        <v>44215</v>
-      </c>
-      <c r="G45" s="57">
-        <v>44236</v>
-      </c>
-      <c r="H45" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>22</v>
-      </c>
+      <c r="B45" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
       <c r="I45" s="25"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
@@ -9885,10 +9858,10 @@
     <row r="46" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="56">
@@ -9979,10 +9952,10 @@
     <row r="47" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="48"/>
       <c r="E47" s="56">
@@ -10076,7 +10049,7 @@
         <v>71</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" s="48"/>
       <c r="E48" s="56">
@@ -10167,10 +10140,10 @@
     <row r="49" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="48"/>
       <c r="E49" s="56">
@@ -10260,15 +10233,26 @@
     </row>
     <row r="50" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
-      <c r="B50" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="53"/>
+      <c r="B50" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="48"/>
+      <c r="E50" s="56">
+        <v>0</v>
+      </c>
+      <c r="F50" s="57">
+        <v>44215</v>
+      </c>
+      <c r="G50" s="57">
+        <v>44236</v>
+      </c>
+      <c r="H50" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>22</v>
+      </c>
       <c r="I50" s="25"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
@@ -10343,322 +10327,101 @@
     </row>
     <row r="51" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
-      <c r="B51" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="B51" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="53"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="34" t="str">
-        <f t="shared" ref="J51:S54" ca="1" si="51">IF(AND($C51="Goal",J$5&gt;=$F51,J$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",J$5&gt;=$F51,J$5&lt;=$F51+$H51-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="L51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="M51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="O51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="P51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="Q51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="R51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="S51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="T51" s="34" t="str">
-        <f t="shared" ref="T51:AC54" ca="1" si="52">IF(AND($C51="Goal",T$5&gt;=$F51,T$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",T$5&gt;=$F51,T$5&lt;=$F51+$H51-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="V51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="W51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="X51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Y51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Z51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AA51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AB51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AC51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AD51" s="34" t="str">
-        <f t="shared" ref="AD51:AM54" ca="1" si="53">IF(AND($C51="Goal",AD$5&gt;=$F51,AD$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AD$5&gt;=$F51,AD$5&lt;=$F51+$H51-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AF51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AG51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AH51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AI51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AJ51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AK51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AL51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AM51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AN51" s="34" t="str">
-        <f t="shared" ref="AN51:AW54" ca="1" si="54">IF(AND($C51="Goal",AN$5&gt;=$F51,AN$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AN$5&gt;=$F51,AN$5&lt;=$F51+$H51-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AQ51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AR51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AS51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AT51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AU51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AV51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AW51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AX51" s="34" t="str">
-        <f t="shared" ref="AX51:BG54" ca="1" si="55">IF(AND($C51="Goal",AX$5&gt;=$F51,AX$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AX$5&gt;=$F51,AX$5&lt;=$F51+$H51-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH51" s="34" t="str">
-        <f t="shared" ref="BH51:BQ54" ca="1" si="56">IF(AND($C51="Goal",BH$5&gt;=$F51,BH$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BH$5&gt;=$F51,BH$5&lt;=$F51+$H51-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BJ51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BK51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BL51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BM51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BN51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BO51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BP51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BQ51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BR51" s="34" t="str">
-        <f t="shared" ref="BR51:CA54" ca="1" si="57">IF(AND($C51="Goal",BR$5&gt;=$F51,BR$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BR$5&gt;=$F51,BR$5&lt;=$F51+$H51-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BS51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BT51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BU51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BV51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BW51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BX51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BY51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BZ51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="CA51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="34"/>
+      <c r="AN51" s="34"/>
+      <c r="AO51" s="34"/>
+      <c r="AP51" s="34"/>
+      <c r="AQ51" s="34"/>
+      <c r="AR51" s="34"/>
+      <c r="AS51" s="34"/>
+      <c r="AT51" s="34"/>
+      <c r="AU51" s="34"/>
+      <c r="AV51" s="34"/>
+      <c r="AW51" s="34"/>
+      <c r="AX51" s="34"/>
+      <c r="AY51" s="34"/>
+      <c r="AZ51" s="34"/>
+      <c r="BA51" s="34"/>
+      <c r="BB51" s="34"/>
+      <c r="BC51" s="34"/>
+      <c r="BD51" s="34"/>
+      <c r="BE51" s="34"/>
+      <c r="BF51" s="34"/>
+      <c r="BG51" s="34"/>
+      <c r="BH51" s="34"/>
+      <c r="BI51" s="34"/>
+      <c r="BJ51" s="34"/>
+      <c r="BK51" s="34"/>
+      <c r="BL51" s="34"/>
+      <c r="BM51" s="34"/>
+      <c r="BN51" s="34"/>
+      <c r="BO51" s="34"/>
+      <c r="BP51" s="34"/>
+      <c r="BQ51" s="34"/>
+      <c r="BR51" s="34"/>
+      <c r="BS51" s="34"/>
+      <c r="BT51" s="34"/>
+      <c r="BU51" s="34"/>
+      <c r="BV51" s="34"/>
+      <c r="BW51" s="34"/>
+      <c r="BX51" s="34"/>
+      <c r="BY51" s="34"/>
+      <c r="BZ51" s="34"/>
+      <c r="CA51" s="34"/>
     </row>
     <row r="52" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
-      <c r="B52" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="56">
-        <v>0</v>
-      </c>
-      <c r="F52" s="57">
-        <v>44237</v>
-      </c>
-      <c r="G52" s="57">
-        <v>44271</v>
-      </c>
-      <c r="H52" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>35</v>
-      </c>
+      <c r="B52" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="25"/>
       <c r="J52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ref="J52:S55" ca="1" si="51">IF(AND($C52="Goal",J$5&gt;=$F52,J$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",J$5&gt;=$F52,J$5&lt;=$F52+$H52-1),1,""))</f>
         <v/>
       </c>
       <c r="K52" s="34" t="str">
@@ -10698,7 +10461,7 @@
         <v/>
       </c>
       <c r="T52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ref="T52:AC55" ca="1" si="52">IF(AND($C52="Goal",T$5&gt;=$F52,T$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",T$5&gt;=$F52,T$5&lt;=$F52+$H52-1),1,""))</f>
         <v/>
       </c>
       <c r="U52" s="34" t="str">
@@ -10738,7 +10501,7 @@
         <v/>
       </c>
       <c r="AD52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ref="AD52:AM55" ca="1" si="53">IF(AND($C52="Goal",AD$5&gt;=$F52,AD$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",AD$5&gt;=$F52,AD$5&lt;=$F52+$H52-1),1,""))</f>
         <v/>
       </c>
       <c r="AE52" s="34" t="str">
@@ -10778,7 +10541,7 @@
         <v/>
       </c>
       <c r="AN52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ref="AN52:AW55" ca="1" si="54">IF(AND($C52="Goal",AN$5&gt;=$F52,AN$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",AN$5&gt;=$F52,AN$5&lt;=$F52+$H52-1),1,""))</f>
         <v/>
       </c>
       <c r="AO52" s="34" t="str">
@@ -10818,7 +10581,7 @@
         <v/>
       </c>
       <c r="AX52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ref="AX52:BG55" ca="1" si="55">IF(AND($C52="Goal",AX$5&gt;=$F52,AX$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",AX$5&gt;=$F52,AX$5&lt;=$F52+$H52-1),1,""))</f>
         <v/>
       </c>
       <c r="AY52" s="34" t="str">
@@ -10858,7 +10621,7 @@
         <v/>
       </c>
       <c r="BH52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ref="BH52:BQ55" ca="1" si="56">IF(AND($C52="Goal",BH$5&gt;=$F52,BH$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",BH$5&gt;=$F52,BH$5&lt;=$F52+$H52-1),1,""))</f>
         <v/>
       </c>
       <c r="BI52" s="34" t="str">
@@ -10898,7 +10661,7 @@
         <v/>
       </c>
       <c r="BR52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ref="BR52:CA55" ca="1" si="57">IF(AND($C52="Goal",BR$5&gt;=$F52,BR$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",BR$5&gt;=$F52,BR$5&lt;=$F52+$H52-1),1,""))</f>
         <v/>
       </c>
       <c r="BS52" s="34" t="str">
@@ -10940,15 +10703,26 @@
     </row>
     <row r="53" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
-      <c r="B53" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="31"/>
+      <c r="B53" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="48"/>
+      <c r="E53" s="56">
+        <v>0</v>
+      </c>
+      <c r="F53" s="57">
+        <v>44237</v>
+      </c>
+      <c r="G53" s="57">
+        <v>44271</v>
+      </c>
+      <c r="H53" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>35</v>
+      </c>
       <c r="I53" s="25"/>
       <c r="J53" s="34" t="str">
         <f t="shared" ca="1" si="51"/>
@@ -11233,26 +11007,15 @@
     </row>
     <row r="54" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
-      <c r="B54" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="56">
-        <v>0</v>
-      </c>
-      <c r="F54" s="57">
-        <v>44237</v>
-      </c>
-      <c r="G54" s="57">
-        <v>44271</v>
-      </c>
-      <c r="H54" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>35</v>
-      </c>
+      <c r="B54" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
       <c r="I54" s="25"/>
       <c r="J54" s="34" t="str">
         <f t="shared" ca="1" si="51"/>
@@ -11538,7 +11301,7 @@
     <row r="55" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="55" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C55" s="48" t="s">
         <v>52</v>
@@ -11558,88 +11321,309 @@
         <v>35</v>
       </c>
       <c r="I55" s="25"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="34"/>
-      <c r="AD55" s="34"/>
-      <c r="AE55" s="34"/>
-      <c r="AF55" s="34"/>
-      <c r="AG55" s="34"/>
-      <c r="AH55" s="34"/>
-      <c r="AI55" s="34"/>
-      <c r="AJ55" s="34"/>
-      <c r="AK55" s="34"/>
-      <c r="AL55" s="34"/>
-      <c r="AM55" s="34"/>
-      <c r="AN55" s="34"/>
-      <c r="AO55" s="34"/>
-      <c r="AP55" s="34"/>
-      <c r="AQ55" s="34"/>
-      <c r="AR55" s="34"/>
-      <c r="AS55" s="34"/>
-      <c r="AT55" s="34"/>
-      <c r="AU55" s="34"/>
-      <c r="AV55" s="34"/>
-      <c r="AW55" s="34"/>
-      <c r="AX55" s="34"/>
-      <c r="AY55" s="34"/>
-      <c r="AZ55" s="34"/>
-      <c r="BA55" s="34"/>
-      <c r="BB55" s="34"/>
-      <c r="BC55" s="34"/>
-      <c r="BD55" s="34"/>
-      <c r="BE55" s="34"/>
-      <c r="BF55" s="34"/>
-      <c r="BG55" s="34"/>
-      <c r="BH55" s="34"/>
-      <c r="BI55" s="34"/>
-      <c r="BJ55" s="34"/>
-      <c r="BK55" s="34"/>
-      <c r="BL55" s="34"/>
-      <c r="BM55" s="34"/>
-      <c r="BN55" s="34"/>
-      <c r="BO55" s="34"/>
-      <c r="BP55" s="34"/>
-      <c r="BQ55" s="34"/>
-      <c r="BR55" s="34"/>
-      <c r="BS55" s="34"/>
-      <c r="BT55" s="34"/>
-      <c r="BU55" s="34"/>
-      <c r="BV55" s="34"/>
-      <c r="BW55" s="34"/>
-      <c r="BX55" s="34"/>
-      <c r="BY55" s="34"/>
-      <c r="BZ55" s="34"/>
-      <c r="CA55" s="34"/>
+      <c r="J55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="K55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="L55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="M55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="O55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="P55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="Q55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="R55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="S55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="T55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="U55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="V55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="W55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="X55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Y55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Z55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AA55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AB55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AC55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AD55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AE55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AF55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AG55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AH55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AI55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AJ55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AK55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AL55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AM55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AN55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AQ55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AR55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AS55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AT55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AU55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AV55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AW55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AX55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BI55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BJ55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BK55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BL55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BM55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BN55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BO55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BP55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BQ55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BR55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BS55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BT55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BU55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BV55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BW55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BX55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BY55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BZ55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="CA55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
     </row>
     <row r="56" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
+      <c r="C56" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="48"/>
+      <c r="E56" s="56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="57">
+        <v>44237</v>
+      </c>
+      <c r="G56" s="57">
+        <v>44271</v>
+      </c>
+      <c r="H56" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>35</v>
+      </c>
       <c r="I56" s="25"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
@@ -11714,312 +11698,91 @@
     </row>
     <row r="57" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
-      <c r="B57" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="56">
-        <v>0</v>
-      </c>
-      <c r="F57" s="57">
-        <v>44287</v>
-      </c>
-      <c r="G57" s="57">
-        <v>44348</v>
-      </c>
-      <c r="H57" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
-      </c>
+      <c r="B57" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="53"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="34" t="str">
-        <f t="shared" ref="J57:AO57" ca="1" si="58">IF(AND($C57="Goal",J$5&gt;=$F57,J$5&lt;=$F57+$H57-1),2,IF(AND($C57="Milestone",J$5&gt;=$F57,J$5&lt;=$F57+$H57-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="L57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="M57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="N57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="O57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="P57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="Q57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="R57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="S57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="T57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="U57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="V57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="W57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="X57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="Y57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="Z57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AA57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AB57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AC57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AD57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AE57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AF57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AG57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AH57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AI57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AJ57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AK57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AL57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AM57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AN57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AO57" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AP57" s="34" t="str">
-        <f t="shared" ref="AP57:BU57" ca="1" si="59">IF(AND($C57="Goal",AP$5&gt;=$F57,AP$5&lt;=$F57+$H57-1),2,IF(AND($C57="Milestone",AP$5&gt;=$F57,AP$5&lt;=$F57+$H57-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AR57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AS57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AT57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AU57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AV57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AW57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AX57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AY57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AZ57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BA57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BB57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BC57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BD57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BE57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BF57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BG57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BH57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BI57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BJ57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BK57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BL57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BM57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BN57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BO57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BP57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BQ57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BR57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BS57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BT57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BU57" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BV57" s="34" t="str">
-        <f t="shared" ref="BV57:CA57" ca="1" si="60">IF(AND($C57="Goal",BV$5&gt;=$F57,BV$5&lt;=$F57+$H57-1),2,IF(AND($C57="Milestone",BV$5&gt;=$F57,BV$5&lt;=$F57+$H57-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BW57" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BX57" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BY57" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BZ57" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="CA57" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="34"/>
+      <c r="AF57" s="34"/>
+      <c r="AG57" s="34"/>
+      <c r="AH57" s="34"/>
+      <c r="AI57" s="34"/>
+      <c r="AJ57" s="34"/>
+      <c r="AK57" s="34"/>
+      <c r="AL57" s="34"/>
+      <c r="AM57" s="34"/>
+      <c r="AN57" s="34"/>
+      <c r="AO57" s="34"/>
+      <c r="AP57" s="34"/>
+      <c r="AQ57" s="34"/>
+      <c r="AR57" s="34"/>
+      <c r="AS57" s="34"/>
+      <c r="AT57" s="34"/>
+      <c r="AU57" s="34"/>
+      <c r="AV57" s="34"/>
+      <c r="AW57" s="34"/>
+      <c r="AX57" s="34"/>
+      <c r="AY57" s="34"/>
+      <c r="AZ57" s="34"/>
+      <c r="BA57" s="34"/>
+      <c r="BB57" s="34"/>
+      <c r="BC57" s="34"/>
+      <c r="BD57" s="34"/>
+      <c r="BE57" s="34"/>
+      <c r="BF57" s="34"/>
+      <c r="BG57" s="34"/>
+      <c r="BH57" s="34"/>
+      <c r="BI57" s="34"/>
+      <c r="BJ57" s="34"/>
+      <c r="BK57" s="34"/>
+      <c r="BL57" s="34"/>
+      <c r="BM57" s="34"/>
+      <c r="BN57" s="34"/>
+      <c r="BO57" s="34"/>
+      <c r="BP57" s="34"/>
+      <c r="BQ57" s="34"/>
+      <c r="BR57" s="34"/>
+      <c r="BS57" s="34"/>
+      <c r="BT57" s="34"/>
+      <c r="BU57" s="34"/>
+      <c r="BV57" s="34"/>
+      <c r="BW57" s="34"/>
+      <c r="BX57" s="34"/>
+      <c r="BY57" s="34"/>
+      <c r="BZ57" s="34"/>
+      <c r="CA57" s="34"/>
     </row>
     <row r="58" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="55" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C58" s="48" t="s">
         <v>52</v>
@@ -12039,81 +11802,291 @@
         <v>62</v>
       </c>
       <c r="I58" s="25"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
-      <c r="AD58" s="34"/>
-      <c r="AE58" s="34"/>
-      <c r="AF58" s="34"/>
-      <c r="AG58" s="34"/>
-      <c r="AH58" s="34"/>
-      <c r="AI58" s="34"/>
-      <c r="AJ58" s="34"/>
-      <c r="AK58" s="34"/>
-      <c r="AL58" s="34"/>
-      <c r="AM58" s="34"/>
-      <c r="AN58" s="34"/>
-      <c r="AO58" s="34"/>
-      <c r="AP58" s="34"/>
-      <c r="AQ58" s="34"/>
-      <c r="AR58" s="34"/>
-      <c r="AS58" s="34"/>
-      <c r="AT58" s="34"/>
-      <c r="AU58" s="34"/>
-      <c r="AV58" s="34"/>
-      <c r="AW58" s="34"/>
-      <c r="AX58" s="34"/>
-      <c r="AY58" s="34"/>
-      <c r="AZ58" s="34"/>
-      <c r="BA58" s="34"/>
-      <c r="BB58" s="34"/>
-      <c r="BC58" s="34"/>
-      <c r="BD58" s="34"/>
-      <c r="BE58" s="34"/>
-      <c r="BF58" s="34"/>
-      <c r="BG58" s="34"/>
-      <c r="BH58" s="34"/>
-      <c r="BI58" s="34"/>
-      <c r="BJ58" s="34"/>
-      <c r="BK58" s="34"/>
-      <c r="BL58" s="34"/>
-      <c r="BM58" s="34"/>
-      <c r="BN58" s="34"/>
-      <c r="BO58" s="34"/>
-      <c r="BP58" s="34"/>
-      <c r="BQ58" s="34"/>
-      <c r="BR58" s="34"/>
-      <c r="BS58" s="34"/>
-      <c r="BT58" s="34"/>
-      <c r="BU58" s="34"/>
-      <c r="BV58" s="34"/>
-      <c r="BW58" s="34"/>
-      <c r="BX58" s="34"/>
-      <c r="BY58" s="34"/>
-      <c r="BZ58" s="34"/>
-      <c r="CA58" s="34"/>
+      <c r="J58" s="34" t="str">
+        <f t="shared" ref="J58:AO58" ca="1" si="58">IF(AND($C58="Goal",J$5&gt;=$F58,J$5&lt;=$F58+$H58-1),2,IF(AND($C58="Milestone",J$5&gt;=$F58,J$5&lt;=$F58+$H58-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="L58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="M58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="N58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="O58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="P58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="Q58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="R58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="S58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="T58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="U58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="V58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="W58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="X58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="Y58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="Z58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AA58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AB58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AC58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AD58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AE58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AF58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AG58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AH58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AI58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AJ58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AK58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AL58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AM58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AN58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AO58" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AP58" s="34" t="str">
+        <f t="shared" ref="AP58:BU58" ca="1" si="59">IF(AND($C58="Goal",AP$5&gt;=$F58,AP$5&lt;=$F58+$H58-1),2,IF(AND($C58="Milestone",AP$5&gt;=$F58,AP$5&lt;=$F58+$H58-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AR58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AS58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AT58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AU58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AV58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AW58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AX58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AY58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AZ58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BA58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BB58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BC58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BD58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BE58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BF58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BG58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BH58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BI58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BJ58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BK58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BL58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BM58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BN58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BO58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BP58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BQ58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BR58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BS58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BT58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BU58" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BV58" s="34" t="str">
+        <f t="shared" ref="BV58:CA58" ca="1" si="60">IF(AND($C58="Goal",BV$5&gt;=$F58,BV$5&lt;=$F58+$H58-1),2,IF(AND($C58="Milestone",BV$5&gt;=$F58,BV$5&lt;=$F58+$H58-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BW58" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BX58" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BY58" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BZ58" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="CA58" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="55" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C59" s="48" t="s">
         <v>52</v>
@@ -12207,10 +12180,10 @@
     <row r="60" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="55" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D60" s="48"/>
       <c r="E60" s="56">
@@ -12301,10 +12274,10 @@
     <row r="61" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D61" s="48"/>
       <c r="E61" s="56">
@@ -12395,7 +12368,7 @@
     <row r="62" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="55" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C62" s="48" t="s">
         <v>52</v>
@@ -12489,10 +12462,10 @@
     <row r="63" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="48"/>
       <c r="E63" s="56">
@@ -12581,712 +12554,502 @@
       <c r="CA63" s="34"/>
     </row>
     <row r="64" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="53"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="48"/>
+      <c r="E64" s="56">
+        <v>0</v>
+      </c>
+      <c r="F64" s="57">
+        <v>44287</v>
+      </c>
+      <c r="G64" s="57">
+        <v>44348</v>
+      </c>
+      <c r="H64" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>62</v>
+      </c>
       <c r="I64" s="25"/>
-      <c r="J64" s="34" t="str">
-        <f t="shared" ref="J64:AO64" ca="1" si="61">IF(AND($C64="Goal",J$5&gt;=$F64,J$5&lt;=$F64+$H64-1),2,IF(AND($C64="Milestone",J$5&gt;=$F64,J$5&lt;=$F64+$H64-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="L64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="M64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="N64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="O64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="P64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Q64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="R64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="S64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="T64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="U64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="V64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="W64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="X64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Y64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Z64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AA64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AB64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AC64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AD64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AE64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AF64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AG64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AH64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AI64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AJ64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AK64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AL64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AM64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AN64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AO64" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AP64" s="34" t="str">
-        <f t="shared" ref="AP64:BU64" ca="1" si="62">IF(AND($C64="Goal",AP$5&gt;=$F64,AP$5&lt;=$F64+$H64-1),2,IF(AND($C64="Milestone",AP$5&gt;=$F64,AP$5&lt;=$F64+$H64-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AR64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AS64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AT64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AU64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AV64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AW64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AX64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AY64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AZ64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BA64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BB64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BC64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BD64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BE64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BF64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BG64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BH64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BI64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BJ64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BK64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BL64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BM64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BN64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BO64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BP64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BQ64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BR64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BS64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BT64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BU64" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BV64" s="34" t="str">
-        <f t="shared" ref="BV64:CA64" ca="1" si="63">IF(AND($C64="Goal",BV$5&gt;=$F64,BV$5&lt;=$F64+$H64-1),2,IF(AND($C64="Milestone",BV$5&gt;=$F64,BV$5&lt;=$F64+$H64-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BW64" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="BX64" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="BY64" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="BZ64" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="CA64" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="34"/>
+      <c r="AC64" s="34"/>
+      <c r="AD64" s="34"/>
+      <c r="AE64" s="34"/>
+      <c r="AF64" s="34"/>
+      <c r="AG64" s="34"/>
+      <c r="AH64" s="34"/>
+      <c r="AI64" s="34"/>
+      <c r="AJ64" s="34"/>
+      <c r="AK64" s="34"/>
+      <c r="AL64" s="34"/>
+      <c r="AM64" s="34"/>
+      <c r="AN64" s="34"/>
+      <c r="AO64" s="34"/>
+      <c r="AP64" s="34"/>
+      <c r="AQ64" s="34"/>
+      <c r="AR64" s="34"/>
+      <c r="AS64" s="34"/>
+      <c r="AT64" s="34"/>
+      <c r="AU64" s="34"/>
+      <c r="AV64" s="34"/>
+      <c r="AW64" s="34"/>
+      <c r="AX64" s="34"/>
+      <c r="AY64" s="34"/>
+      <c r="AZ64" s="34"/>
+      <c r="BA64" s="34"/>
+      <c r="BB64" s="34"/>
+      <c r="BC64" s="34"/>
+      <c r="BD64" s="34"/>
+      <c r="BE64" s="34"/>
+      <c r="BF64" s="34"/>
+      <c r="BG64" s="34"/>
+      <c r="BH64" s="34"/>
+      <c r="BI64" s="34"/>
+      <c r="BJ64" s="34"/>
+      <c r="BK64" s="34"/>
+      <c r="BL64" s="34"/>
+      <c r="BM64" s="34"/>
+      <c r="BN64" s="34"/>
+      <c r="BO64" s="34"/>
+      <c r="BP64" s="34"/>
+      <c r="BQ64" s="34"/>
+      <c r="BR64" s="34"/>
+      <c r="BS64" s="34"/>
+      <c r="BT64" s="34"/>
+      <c r="BU64" s="34"/>
+      <c r="BV64" s="34"/>
+      <c r="BW64" s="34"/>
+      <c r="BX64" s="34"/>
+      <c r="BY64" s="34"/>
+      <c r="BZ64" s="34"/>
+      <c r="CA64" s="34"/>
     </row>
     <row r="65" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
-      <c r="B65" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="31"/>
+      <c r="B65" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="53"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
-      <c r="P65" s="34"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="34"/>
-      <c r="W65" s="34"/>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34"/>
-      <c r="Z65" s="34"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="34"/>
-      <c r="AC65" s="34"/>
-      <c r="AD65" s="34"/>
-      <c r="AE65" s="34"/>
-      <c r="AF65" s="34"/>
-      <c r="AG65" s="34"/>
-      <c r="AH65" s="34"/>
-      <c r="AI65" s="34"/>
-      <c r="AJ65" s="34"/>
-      <c r="AK65" s="34"/>
-      <c r="AL65" s="34"/>
-      <c r="AM65" s="34"/>
-      <c r="AN65" s="34"/>
-      <c r="AO65" s="34"/>
-      <c r="AP65" s="34"/>
-      <c r="AQ65" s="34"/>
-      <c r="AR65" s="34"/>
-      <c r="AS65" s="34"/>
-      <c r="AT65" s="34"/>
-      <c r="AU65" s="34"/>
-      <c r="AV65" s="34"/>
-      <c r="AW65" s="34"/>
-      <c r="AX65" s="34"/>
-      <c r="AY65" s="34"/>
-      <c r="AZ65" s="34"/>
-      <c r="BA65" s="34"/>
-      <c r="BB65" s="34"/>
-      <c r="BC65" s="34"/>
-      <c r="BD65" s="34"/>
-      <c r="BE65" s="34"/>
-      <c r="BF65" s="34"/>
-      <c r="BG65" s="34"/>
-      <c r="BH65" s="34"/>
-      <c r="BI65" s="34"/>
-      <c r="BJ65" s="34"/>
-      <c r="BK65" s="34"/>
-      <c r="BL65" s="34"/>
-      <c r="BM65" s="34"/>
-      <c r="BN65" s="34"/>
-      <c r="BO65" s="34"/>
-      <c r="BP65" s="34"/>
-      <c r="BQ65" s="34"/>
-      <c r="BR65" s="34"/>
-      <c r="BS65" s="34"/>
-      <c r="BT65" s="34"/>
-      <c r="BU65" s="34"/>
-      <c r="BV65" s="34"/>
-      <c r="BW65" s="34"/>
-      <c r="BX65" s="34"/>
-      <c r="BY65" s="34"/>
-      <c r="BZ65" s="34"/>
-      <c r="CA65" s="34"/>
+      <c r="J65" s="34" t="str">
+        <f t="shared" ref="J65:AO65" ca="1" si="61">IF(AND($C65="Goal",J$5&gt;=$F65,J$5&lt;=$F65+$H65-1),2,IF(AND($C65="Milestone",J$5&gt;=$F65,J$5&lt;=$F65+$H65-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="L65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="M65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="N65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="O65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="P65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Q65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="R65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="S65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="T65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="U65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="V65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="W65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="X65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Y65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Z65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AA65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AB65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AC65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AD65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AE65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AF65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AG65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AH65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AI65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AJ65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AK65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AL65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AM65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AN65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AO65" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AP65" s="34" t="str">
+        <f t="shared" ref="AP65:BU65" ca="1" si="62">IF(AND($C65="Goal",AP$5&gt;=$F65,AP$5&lt;=$F65+$H65-1),2,IF(AND($C65="Milestone",AP$5&gt;=$F65,AP$5&lt;=$F65+$H65-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AR65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AS65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AT65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AU65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AV65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AW65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AX65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AY65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AZ65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BA65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BB65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BC65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BD65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BE65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BF65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BG65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BH65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BI65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BJ65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BK65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BL65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BM65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BN65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BO65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BP65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BQ65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BR65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BS65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BT65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BU65" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="BV65" s="34" t="str">
+        <f t="shared" ref="BV65:CA65" ca="1" si="63">IF(AND($C65="Goal",BV$5&gt;=$F65,BV$5&lt;=$F65+$H65-1),2,IF(AND($C65="Milestone",BV$5&gt;=$F65,BV$5&lt;=$F65+$H65-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BW65" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="BX65" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="BY65" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="BZ65" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="CA65" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
     </row>
     <row r="66" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="29">
-        <v>1</v>
-      </c>
-      <c r="F66" s="57">
-        <v>44146</v>
-      </c>
-      <c r="G66" s="57">
-        <v>44166</v>
-      </c>
-      <c r="H66" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
-      </c>
+      <c r="A66" s="15"/>
+      <c r="B66" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="34" t="str">
-        <f t="shared" ref="J66:S72" ca="1" si="64">IF(AND($C66="Goal",J$5&gt;=$F66,J$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",J$5&gt;=$F66,J$5&lt;=$F66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K66" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="L66" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="M66" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="N66" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="O66" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="P66" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="Q66" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="R66" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="S66" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="T66" s="34" t="str">
-        <f t="shared" ref="T66:AC72" ca="1" si="65">IF(AND($C66="Goal",T$5&gt;=$F66,T$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",T$5&gt;=$F66,T$5&lt;=$F66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U66" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="V66" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="W66" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="X66" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="Y66" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="Z66" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AA66" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AB66" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AC66" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AD66" s="34" t="str">
-        <f t="shared" ref="AD66:AM72" ca="1" si="66">IF(AND($C66="Goal",AD$5&gt;=$F66,AD$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",AD$5&gt;=$F66,AD$5&lt;=$F66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE66" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AF66" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AG66" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AH66" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AI66" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AJ66" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AK66" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AL66" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AM66" s="34">
-        <f t="shared" ca="1" si="66"/>
-        <v>2</v>
-      </c>
-      <c r="AN66" s="34">
-        <f t="shared" ref="AN66:AW72" ca="1" si="67">IF(AND($C66="Goal",AN$5&gt;=$F66,AN$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",AN$5&gt;=$F66,AN$5&lt;=$F66+$H66-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AO66" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AP66" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AQ66" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AR66" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AS66" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AT66" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AU66" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AV66" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AW66" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AX66" s="34">
-        <f t="shared" ref="AX66:BG72" ca="1" si="68">IF(AND($C66="Goal",AX$5&gt;=$F66,AX$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",AX$5&gt;=$F66,AX$5&lt;=$F66+$H66-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AY66" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="AZ66" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BA66" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BB66" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BC66" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BD66" s="34">
-        <f ca="1">IF(AND($C66="Goal",BD$5&gt;=$F66,BD$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",BD$5&gt;=$F66,BD$5&lt;=$F66+$H66-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BE66" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BF66" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BG66" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BH66" s="34" t="str">
-        <f t="shared" ref="BH66:BQ72" ca="1" si="69">IF(AND($C66="Goal",BH$5&gt;=$F66,BH$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",BH$5&gt;=$F66,BH$5&lt;=$F66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI66" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BJ66" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BK66" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BL66" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BM66" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BN66" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BO66" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BP66" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BQ66" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BR66" s="34" t="str">
-        <f t="shared" ref="BR66:CA72" ca="1" si="70">IF(AND($C66="Goal",BR$5&gt;=$F66,BR$5&lt;=$F66+$H66-1),2,IF(AND($C66="Milestone",BR$5&gt;=$F66,BR$5&lt;=$F66+$H66-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BS66" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BT66" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BU66" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BV66" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BW66" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BX66" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BY66" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BZ66" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="CA66" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="34"/>
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="34"/>
+      <c r="AI66" s="34"/>
+      <c r="AJ66" s="34"/>
+      <c r="AK66" s="34"/>
+      <c r="AL66" s="34"/>
+      <c r="AM66" s="34"/>
+      <c r="AN66" s="34"/>
+      <c r="AO66" s="34"/>
+      <c r="AP66" s="34"/>
+      <c r="AQ66" s="34"/>
+      <c r="AR66" s="34"/>
+      <c r="AS66" s="34"/>
+      <c r="AT66" s="34"/>
+      <c r="AU66" s="34"/>
+      <c r="AV66" s="34"/>
+      <c r="AW66" s="34"/>
+      <c r="AX66" s="34"/>
+      <c r="AY66" s="34"/>
+      <c r="AZ66" s="34"/>
+      <c r="BA66" s="34"/>
+      <c r="BB66" s="34"/>
+      <c r="BC66" s="34"/>
+      <c r="BD66" s="34"/>
+      <c r="BE66" s="34"/>
+      <c r="BF66" s="34"/>
+      <c r="BG66" s="34"/>
+      <c r="BH66" s="34"/>
+      <c r="BI66" s="34"/>
+      <c r="BJ66" s="34"/>
+      <c r="BK66" s="34"/>
+      <c r="BL66" s="34"/>
+      <c r="BM66" s="34"/>
+      <c r="BN66" s="34"/>
+      <c r="BO66" s="34"/>
+      <c r="BP66" s="34"/>
+      <c r="BQ66" s="34"/>
+      <c r="BR66" s="34"/>
+      <c r="BS66" s="34"/>
+      <c r="BT66" s="34"/>
+      <c r="BU66" s="34"/>
+      <c r="BV66" s="34"/>
+      <c r="BW66" s="34"/>
+      <c r="BX66" s="34"/>
+      <c r="BY66" s="34"/>
+      <c r="BZ66" s="34"/>
+      <c r="CA66" s="34"/>
     </row>
     <row r="67" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="48"/>
+      <c r="D67" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="E67" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="57">
-        <v>44256</v>
+        <v>44146</v>
       </c>
       <c r="G67" s="57">
-        <v>44271</v>
+        <v>44166</v>
       </c>
       <c r="H67" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I67" s="25"/>
       <c r="J67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ref="J67:S73" ca="1" si="64">IF(AND($C67="Goal",J$5&gt;=$F67,J$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",J$5&gt;=$F67,J$5&lt;=$F67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="K67" s="34" t="str">
@@ -13326,7 +13089,7 @@
         <v/>
       </c>
       <c r="T67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ref="T67:AC73" ca="1" si="65">IF(AND($C67="Goal",T$5&gt;=$F67,T$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",T$5&gt;=$F67,T$5&lt;=$F67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="U67" s="34" t="str">
@@ -13366,7 +13129,7 @@
         <v/>
       </c>
       <c r="AD67" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ref="AD67:AM73" ca="1" si="66">IF(AND($C67="Goal",AD$5&gt;=$F67,AD$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",AD$5&gt;=$F67,AD$5&lt;=$F67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="AE67" s="34" t="str">
@@ -13401,92 +13164,92 @@
         <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
-      <c r="AM67" s="34" t="str">
+      <c r="AM67" s="34">
         <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AN67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AN67" s="34">
+        <f t="shared" ref="AN67:AW73" ca="1" si="67">IF(AND($C67="Goal",AN$5&gt;=$F67,AN$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",AN$5&gt;=$F67,AN$5&lt;=$F67+$H67-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AO67" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AO67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AP67" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AP67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AQ67" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AQ67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR67" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AR67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AS67" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AS67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AT67" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AT67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AU67" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AU67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV67" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AV67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AW67" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AW67" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AX67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AX67" s="34">
+        <f t="shared" ref="AX67:BG73" ca="1" si="68">IF(AND($C67="Goal",AX$5&gt;=$F67,AX$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",AX$5&gt;=$F67,AX$5&lt;=$F67+$H67-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AY67" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="AY67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AZ67" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="AZ67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BA67" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BA67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BB67" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BB67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BC67" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BC67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BD67" s="34">
+        <f ca="1">IF(AND($C67="Goal",BD$5&gt;=$F67,BD$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",BD$5&gt;=$F67,BD$5&lt;=$F67+$H67-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="BE67" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BD67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BF67" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BE67" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BG67" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BF67" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BG67" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BH67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ref="BH67:BQ73" ca="1" si="69">IF(AND($C67="Goal",BH$5&gt;=$F67,BH$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",BH$5&gt;=$F67,BH$5&lt;=$F67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="BI67" s="34" t="str">
@@ -13526,7 +13289,7 @@
         <v/>
       </c>
       <c r="BR67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ref="BR67:CA73" ca="1" si="70">IF(AND($C67="Goal",BR$5&gt;=$F67,BR$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",BR$5&gt;=$F67,BR$5&lt;=$F67+$H67-1),1,""))</f>
         <v/>
       </c>
       <c r="BS67" s="34" t="str">
@@ -13569,7 +13332,7 @@
     <row r="68" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" s="48" t="s">
         <v>5</v>
@@ -13579,14 +13342,14 @@
         <v>0</v>
       </c>
       <c r="F68" s="57">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="G68" s="57">
-        <v>44348</v>
+        <v>44271</v>
       </c>
       <c r="H68" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I68" s="25"/>
       <c r="J68" s="34" t="str">
@@ -13872,15 +13635,26 @@
     </row>
     <row r="69" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
-      <c r="B69" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
+      <c r="B69" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="48"/>
+      <c r="E69" s="29">
+        <v>0</v>
+      </c>
+      <c r="F69" s="57">
+        <v>44317</v>
+      </c>
+      <c r="G69" s="57">
+        <v>44348</v>
+      </c>
+      <c r="H69" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>32</v>
+      </c>
       <c r="I69" s="25"/>
       <c r="J69" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
@@ -14165,32 +13939,19 @@
     </row>
     <row r="70" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
-      <c r="B70" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="29">
-        <v>1</v>
-      </c>
-      <c r="F70" s="57">
-        <v>44117</v>
-      </c>
-      <c r="G70" s="57">
-        <v>44117</v>
-      </c>
-      <c r="H70" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
+      <c r="B70" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="31"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="34">
+      <c r="J70" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K70" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
@@ -14471,17 +14232,32 @@
     </row>
     <row r="71" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="31"/>
+      <c r="B71" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="29">
+        <v>1</v>
+      </c>
+      <c r="F71" s="57">
+        <v>44117</v>
+      </c>
+      <c r="G71" s="57">
+        <v>44117</v>
+      </c>
+      <c r="H71" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>1</v>
+      </c>
       <c r="I71" s="25"/>
-      <c r="J71" s="34" t="str">
+      <c r="J71" s="34">
         <f t="shared" ca="1" si="64"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K71" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
@@ -14761,14 +14537,12 @@
       </c>
     </row>
     <row r="72" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="60"/>
       <c r="G72" s="30"/>
       <c r="H72" s="31"/>
       <c r="I72" s="25"/>
@@ -15053,15 +14827,307 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="5"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="4"/>
+    <row r="73" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="K73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="L73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="M73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="N73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="O73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="P73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="Q73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="R73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="S73" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="T73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="U73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="V73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="W73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="X73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Y73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Z73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AA73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AB73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AC73" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AD73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AE73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AF73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AG73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AH73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AI73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AJ73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AK73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AL73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AM73" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AN73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AO73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AP73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AQ73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AR73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AS73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AT73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AU73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AV73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AW73" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AX73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AY73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AZ73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BA73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BB73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BC73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BD73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BE73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BF73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BG73" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BH73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BI73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BJ73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BK73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BL73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BM73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BN73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BO73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BP73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BQ73" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BR73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BS73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BT73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BU73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BV73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BW73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BX73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BY73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BZ73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="CA73" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
     </row>
     <row r="74" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="6"/>
+    </row>
     <row r="76" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15152,6 +15218,7 @@
     <row r="163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AE2:AJ2"/>
@@ -15164,7 +15231,7 @@
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="X2:AC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E11 E17 E13 E53 E64:E65 E72 E33 E69 E15">
+  <conditionalFormatting sqref="E7:E11 E17 E13 E54 E65:E66 E73 E33 E70 E15">
     <cfRule type="dataBar" priority="344">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15178,44 +15245,44 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J53:BZ53 J44:BZ44 J64:BZ65 J26:BZ33 J21:BZ24">
-    <cfRule type="expression" dxfId="48" priority="337">
+  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J54:BZ54 J65:BZ66 J26:BZ33 J21:BZ24 J40:BZ45">
+    <cfRule type="expression" dxfId="46" priority="337">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="47" priority="343">
+    <cfRule type="expression" dxfId="45" priority="343">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="46" priority="339">
+    <cfRule type="expression" dxfId="44" priority="339">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="45" priority="338">
+    <cfRule type="expression" dxfId="43" priority="338">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:CA11 J13:CA72">
-    <cfRule type="expression" dxfId="44" priority="360" stopIfTrue="1">
+  <conditionalFormatting sqref="J8:CA11 J13:CA73">
+    <cfRule type="expression" dxfId="42" priority="360" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="379" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="397" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="398" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="399" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
+  <conditionalFormatting sqref="E65">
     <cfRule type="dataBar" priority="313">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15229,7 +15296,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E70">
     <cfRule type="dataBar" priority="305">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15257,8 +15324,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA53 CA44 CA23:CA24 CA64:CA65 CA33">
-    <cfRule type="expression" dxfId="39" priority="458">
+  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA54 CA45 CA23:CA24 CA65:CA66 CA33">
+    <cfRule type="expression" dxfId="37" priority="458">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15277,12 +15344,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="38" priority="247">
+    <cfRule type="expression" dxfId="36" priority="247">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA26:CA32 CA18:CA22">
-    <cfRule type="expression" dxfId="37" priority="254">
+  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA40:CA44">
+    <cfRule type="expression" dxfId="35" priority="254">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15329,33 +15396,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="36" priority="228">
+    <cfRule type="expression" dxfId="34" priority="228">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="35" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="230" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="231" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="232" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="233" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="234" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="30" priority="235">
+    <cfRule type="expression" dxfId="28" priority="235">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
+  <conditionalFormatting sqref="E66">
     <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15370,12 +15437,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="29" priority="219">
+    <cfRule type="expression" dxfId="27" priority="219">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="28" priority="225">
+    <cfRule type="expression" dxfId="26" priority="225">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15393,17 +15460,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50:BZ50 J53:BZ53">
-    <cfRule type="expression" dxfId="27" priority="210">
+  <conditionalFormatting sqref="J51:BZ51 J54:BZ54">
+    <cfRule type="expression" dxfId="25" priority="210">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA50 CA53">
-    <cfRule type="expression" dxfId="26" priority="216">
+  <conditionalFormatting sqref="CA51 CA54">
+    <cfRule type="expression" dxfId="24" priority="216">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53 E50">
+  <conditionalFormatting sqref="E51 E54">
     <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15418,26 +15485,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:BZ39">
-    <cfRule type="expression" dxfId="25" priority="199">
+    <cfRule type="expression" dxfId="23" priority="199">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA39">
-    <cfRule type="expression" dxfId="24" priority="205">
+    <cfRule type="expression" dxfId="22" priority="205">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56:BZ56">
-    <cfRule type="expression" dxfId="23" priority="190">
+  <conditionalFormatting sqref="J57:BZ57">
+    <cfRule type="expression" dxfId="21" priority="190">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA56">
-    <cfRule type="expression" dxfId="22" priority="191">
+  <conditionalFormatting sqref="CA57">
+    <cfRule type="expression" dxfId="20" priority="191">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
+  <conditionalFormatting sqref="E57">
     <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15451,7 +15518,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15465,27 +15532,27 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:BZ51">
-    <cfRule type="expression" dxfId="21" priority="180">
+  <conditionalFormatting sqref="J52:BZ52">
+    <cfRule type="expression" dxfId="19" priority="180">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA51">
-    <cfRule type="expression" dxfId="20" priority="187">
+  <conditionalFormatting sqref="CA52">
+    <cfRule type="expression" dxfId="18" priority="187">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:BZ51">
-    <cfRule type="expression" dxfId="19" priority="178">
+  <conditionalFormatting sqref="J52:BZ52">
+    <cfRule type="expression" dxfId="17" priority="178">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA51">
-    <cfRule type="expression" dxfId="18" priority="179">
+  <conditionalFormatting sqref="CA52">
+    <cfRule type="expression" dxfId="16" priority="179">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15499,7 +15566,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39 E44">
+  <conditionalFormatting sqref="E39 E45">
     <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15527,7 +15594,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15542,81 +15609,71 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="17" priority="136">
+    <cfRule type="expression" dxfId="15" priority="136">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="16" priority="137">
+    <cfRule type="expression" dxfId="14" priority="137">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="15" priority="113">
+    <cfRule type="expression" dxfId="13" priority="113">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="14" priority="112">
+    <cfRule type="expression" dxfId="12" priority="112">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:BZ43">
-    <cfRule type="expression" dxfId="13" priority="105">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CA40:CA43">
-    <cfRule type="expression" dxfId="12" priority="104">
-      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45:BZ49">
+  <conditionalFormatting sqref="J46:BZ50">
     <cfRule type="expression" dxfId="11" priority="97">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA45:CA49">
+  <conditionalFormatting sqref="CA46:CA50">
     <cfRule type="expression" dxfId="10" priority="96">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:BZ52">
+  <conditionalFormatting sqref="J53:BZ53">
     <cfRule type="expression" dxfId="9" priority="89">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA52">
+  <conditionalFormatting sqref="CA53">
     <cfRule type="expression" dxfId="8" priority="88">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54:BZ55">
+  <conditionalFormatting sqref="J55:BZ56">
     <cfRule type="expression" dxfId="7" priority="81">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA54:CA55">
+  <conditionalFormatting sqref="CA55:CA56">
     <cfRule type="expression" dxfId="6" priority="80">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:BZ63">
+  <conditionalFormatting sqref="J58:BZ64">
     <cfRule type="expression" dxfId="5" priority="73">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA57:CA63">
+  <conditionalFormatting sqref="CA58:CA64">
     <cfRule type="expression" dxfId="4" priority="72">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66:BZ72">
+  <conditionalFormatting sqref="J67:BZ73">
     <cfRule type="expression" dxfId="3" priority="65">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA66:CA72">
+  <conditionalFormatting sqref="CA67:CA73">
     <cfRule type="expression" dxfId="2" priority="64">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -15645,7 +15702,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
+  <conditionalFormatting sqref="E71">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15659,7 +15716,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E68">
+  <conditionalFormatting sqref="E67:E69">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15708,10 +15765,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9 C12" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
       <formula1>"Goal,Milestone,On Track, Low Priority, Med Priority High Risk, High Priority"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C64:C72" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C65:C73" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C23:C71 C13:C21" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C72" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
       <formula1>"Goal,Milestone,On Track, Low, Med, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15770,7 +15827,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E11 E17 E13 E53 E64:E65 E72 E33 E69 E15</xm:sqref>
+          <xm:sqref>E7:E11 E17 E13 E54 E65:E66 E73 E33 E70 E15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36922C6F-F55A-8F49-86CD-B382086C6C9E}">
@@ -15785,7 +15842,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E64</xm:sqref>
+          <xm:sqref>E65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CFA0F17-6347-3E4A-87FC-DD2694821F83}">
@@ -15800,7 +15857,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E69</xm:sqref>
+          <xm:sqref>E70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2D0729C-0866-8942-B08E-D5C757399A18}">
@@ -15890,7 +15947,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E65</xm:sqref>
+          <xm:sqref>E66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D79EBD87-5F64-3440-B8E6-BE18D3A97878}">
@@ -15920,7 +15977,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E53 E50</xm:sqref>
+          <xm:sqref>E51 E54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8BD350D1-54BB-EC4E-B65C-91DE52823EAF}">
@@ -15935,7 +15992,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E56</xm:sqref>
+          <xm:sqref>E57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7C0065E-A256-2447-9ED2-0C72A0C11D0A}">
@@ -15950,7 +16007,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E51</xm:sqref>
+          <xm:sqref>E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{02C01D26-133B-854D-B421-480FB3FF5B41}">
@@ -15965,7 +16022,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E51</xm:sqref>
+          <xm:sqref>E52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1AE0E490-4459-4045-A452-F6EB3F34E9F7}">
@@ -15980,7 +16037,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E39 E44</xm:sqref>
+          <xm:sqref>E39 E45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{883DDAE7-1A13-CA40-A9AE-1DDB228615A2}">
@@ -16010,7 +16067,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E44</xm:sqref>
+          <xm:sqref>E45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{366133D0-FF9F-A54A-B853-B640570739BE}">
@@ -16040,7 +16097,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E70</xm:sqref>
+          <xm:sqref>E71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C1D15CD-08F7-4E4C-AEF0-0399341BEE1B}">
@@ -16055,7 +16112,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E66:E68</xm:sqref>
+          <xm:sqref>E67:E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70BD8D54-5CD7-4341-8332-FE6663A466EA}">
@@ -16071,6 +16128,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E34:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{70168540-3AD3-492D-95ED-686804B6D0E7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="478" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
@@ -16108,7 +16180,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J64:CA65</xm:sqref>
+          <xm:sqref>J65:CA66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="498" id="{82FEFA3B-0957-5746-B989-0137642BE052}">
@@ -16146,7 +16218,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J23:CA23 J8:CA11 J13:CA17 J53:CA53</xm:sqref>
+          <xm:sqref>J54:CA54 J23:CA23 J8:CA11 J13:CA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="236" id="{480D9390-1284-8F4E-81C3-076195976C87}">
@@ -16184,7 +16256,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J50:CA50</xm:sqref>
+          <xm:sqref>J51:CA51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="206" id="{30820069-80DC-584D-ACEC-47D7076F2CDE}">
@@ -16222,7 +16294,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J44:CA44 J38:CA38</xm:sqref>
+          <xm:sqref>J45:CA45 J38:CA38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="192" id="{CA248EBF-FA81-2845-83C1-432BD56BCD91}">
@@ -16241,7 +16313,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J56:CA56</xm:sqref>
+          <xm:sqref>J57:CA57</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="188" id="{CA09624F-599C-3949-9CA9-085FA102749E}">
@@ -16260,7 +16332,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J51:CA51</xm:sqref>
+          <xm:sqref>J52:CA52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="138" id="{C3E335A3-845A-8149-8FBF-06975DBEFFEA}">
@@ -16320,25 +16392,6 @@
           <xm:sqref>J34:CA37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="111" id="{18426B84-97F7-A84C-A50B-414C27DFC764}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J40:CA43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="103" id="{CBCDE9B5-53CF-D54B-8C62-E3B71D30EB77}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -16355,7 +16408,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J45:CA49</xm:sqref>
+          <xm:sqref>J46:CA50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="95" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
@@ -16374,7 +16427,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J52:CA52</xm:sqref>
+          <xm:sqref>J53:CA53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="87" id="{A47E4274-CF1C-0D44-B1B9-E7AA50A018A2}">
@@ -16393,7 +16446,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J54:CA55</xm:sqref>
+          <xm:sqref>J55:CA56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="79" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
@@ -16412,7 +16465,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J57:CA63</xm:sqref>
+          <xm:sqref>J58:CA64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="71" id="{EE280A5C-AAE2-BA43-A153-612158E3BF59}">
@@ -16431,7 +16484,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J66:CA72</xm:sqref>
+          <xm:sqref>J67:CA73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="36" id="{FAD2EEE5-A059-C248-816C-8DFF237F9CAC}">
@@ -16472,19 +16525,23 @@
           <xm:sqref>J21:CA22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{70168540-3AD3-492D-95ED-686804B6D0E7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
+          <x14:cfRule type="iconSet" priority="699" id="{18426B84-97F7-A84C-A50B-414C27DFC764}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
               </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E14</xm:sqref>
+          <xm:sqref>J40:CA44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B87BB-6F60-4B6A-AF04-9C3A95D71ED2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A75B7-E6DD-47B4-8F5B-84DBA7E5EECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29376" yWindow="1853" windowWidth="7501" windowHeight="5998" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
   <si>
     <t>About This Template</t>
   </si>
@@ -261,27 +261,6 @@
     <t>Revise and Update from Feedback</t>
   </si>
   <si>
-    <t>Prototyping</t>
-  </si>
-  <si>
-    <t>Research Wireframes</t>
-  </si>
-  <si>
-    <t>Low-Fidelity Prototype</t>
-  </si>
-  <si>
-    <t>High-Fidelity Prototype</t>
-  </si>
-  <si>
-    <t>Review of Low-Fidelity Prototype</t>
-  </si>
-  <si>
-    <t>Heuristic Evaluation</t>
-  </si>
-  <si>
-    <t>System Architecture</t>
-  </si>
-  <si>
     <t>Verification &amp; Validation</t>
   </si>
   <si>
@@ -295,9 +274,6 @@
   </si>
   <si>
     <t>Communication with Front-End</t>
-  </si>
-  <si>
-    <t>Replicate Mock-Up Interface</t>
   </si>
   <si>
     <t>Creation of Project Website</t>
@@ -382,6 +358,33 @@
   </si>
   <si>
     <t>System Design</t>
+  </si>
+  <si>
+    <t>Aparna</t>
+  </si>
+  <si>
+    <t>Application Log-In Page</t>
+  </si>
+  <si>
+    <t>User Handling</t>
+  </si>
+  <si>
+    <t>Application Dashboard</t>
+  </si>
+  <si>
+    <t>Position Tracking</t>
+  </si>
+  <si>
+    <t>Uploading Documents/Events/Etc.</t>
+  </si>
+  <si>
+    <t>Viewing Documents/Events/Etc.</t>
+  </si>
+  <si>
+    <t>Send/Receive Feedback</t>
+  </si>
+  <si>
+    <t>Tracking Visualization</t>
   </si>
 </sst>
 </file>
@@ -945,6 +948,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,9 +982,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -994,177 +997,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <font>
         <b/>
@@ -2016,20 +1849,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="62"/>
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="firstRowStripe" dxfId="60"/>
+      <tableStyleElement type="wholeTable" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="firstRowStripe" dxfId="50"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
-      <tableStyleElement type="totalRow" dxfId="57"/>
-      <tableStyleElement type="firstColumn" dxfId="56"/>
-      <tableStyleElement type="lastColumn" dxfId="55"/>
-      <tableStyleElement type="firstRowStripe" dxfId="54"/>
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="52"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="51"/>
+      <tableStyleElement type="wholeTable" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="48"/>
+      <tableStyleElement type="totalRow" dxfId="47"/>
+      <tableStyleElement type="firstColumn" dxfId="46"/>
+      <tableStyleElement type="lastColumn" dxfId="45"/>
+      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+      <tableStyleElement type="secondRowStripe" dxfId="43"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="42"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="41"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2181,10 +2014,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H73" totalsRowShown="0">
   <autoFilter ref="B7:H73" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
@@ -2197,12 +2026,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="38"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="47" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="37" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2482,8 +2311,8 @@
   </sheetPr>
   <dimension ref="A1:CE166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="CL39" sqref="CL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2551,46 +2380,46 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="Q2" s="72" t="s">
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="Q2" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="X2" s="73" t="s">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="X2" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AE2" s="63" t="s">
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AE2" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AL2" s="64" t="s">
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AL2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
       <c r="AR2" s="20"/>
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
@@ -2601,26 +2430,26 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="68">
+      <c r="E3" s="67"/>
+      <c r="F3" s="69">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>44096</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="39">
         <v>21</v>
       </c>
@@ -2724,14 +2553,14 @@
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="43">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>44117</v>
@@ -4907,7 +4736,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E13" s="29">
         <v>1</v>
@@ -5213,7 +5042,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E14" s="29">
         <v>1</v>
@@ -5303,13 +5132,13 @@
     <row r="15" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="36" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E15" s="29">
         <v>1</v>
@@ -5692,7 +5521,7 @@
     <row r="17" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="37" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="54"/>
@@ -5781,7 +5610,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E18" s="29">
         <v>1</v>
@@ -6081,13 +5910,13 @@
     <row r="19" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="61" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E19" s="29">
         <v>1</v>
@@ -6177,13 +6006,13 @@
     <row r="20" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="62" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
@@ -6273,13 +6102,13 @@
     <row r="21" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="36" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E21" s="29">
         <v>1</v>
@@ -6585,7 +6414,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E22" s="29">
         <v>1</v>
@@ -6681,7 +6510,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E23" s="29">
         <v>1</v>
@@ -7376,7 +7205,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E26" s="29">
         <v>1</v>
@@ -7472,7 +7301,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E27" s="29">
         <v>1</v>
@@ -7778,7 +7607,7 @@
         <v>52</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E28" s="29">
         <v>1</v>
@@ -7874,7 +7703,7 @@
         <v>52</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E29" s="29">
         <v>1</v>
@@ -7970,7 +7799,7 @@
         <v>52</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E30" s="29">
         <v>1</v>
@@ -8066,7 +7895,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E31" s="29">
         <v>1</v>
@@ -8761,7 +8590,7 @@
         <v>53</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E34" s="29">
         <v>1</v>
@@ -8857,7 +8686,7 @@
         <v>53</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
@@ -8953,10 +8782,10 @@
         <v>53</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E36" s="29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F36" s="57">
         <v>44125</v>
@@ -9049,10 +8878,10 @@
         <v>53</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E37" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F37" s="57">
         <v>44176</v>
@@ -9139,7 +8968,7 @@
     <row r="38" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="49" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
@@ -9221,15 +9050,28 @@
     </row>
     <row r="39" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="31"/>
+      <c r="B39" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="56">
+        <v>0</v>
+      </c>
+      <c r="F39" s="57">
+        <v>44216</v>
+      </c>
+      <c r="G39" s="57">
+        <v>44236</v>
+      </c>
+      <c r="H39" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>21</v>
+      </c>
       <c r="I39" s="25"/>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -9305,24 +9147,26 @@
     <row r="40" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="55" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C40" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="48"/>
+      <c r="D40" s="48" t="s">
+        <v>100</v>
+      </c>
       <c r="E40" s="56">
         <v>0</v>
       </c>
-      <c r="F40" s="57">
-        <v>44209</v>
+      <c r="F40" s="63">
+        <v>44216</v>
       </c>
       <c r="G40" s="57">
-        <v>44236</v>
+        <v>44218</v>
       </c>
       <c r="H40" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="34"/>
@@ -9399,24 +9243,26 @@
     <row r="41" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="55" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C41" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="48"/>
+      <c r="D41" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="E41" s="56">
         <v>0</v>
       </c>
-      <c r="F41" s="74">
-        <v>44209</v>
+      <c r="F41" s="57">
+        <v>44216</v>
       </c>
       <c r="G41" s="57">
-        <v>44218</v>
+        <v>44222</v>
       </c>
       <c r="H41" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="34"/>
@@ -9493,7 +9339,7 @@
     <row r="42" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="55" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C42" s="48" t="s">
         <v>52</v>
@@ -9503,14 +9349,14 @@
         <v>0</v>
       </c>
       <c r="F42" s="57">
-        <v>44215</v>
+        <v>44223</v>
       </c>
       <c r="G42" s="57">
-        <v>44222</v>
+        <v>44236</v>
       </c>
       <c r="H42" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="34"/>
@@ -9587,7 +9433,7 @@
     <row r="43" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="55" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>52</v>
@@ -9597,14 +9443,14 @@
         <v>0</v>
       </c>
       <c r="F43" s="57">
-        <v>44223</v>
+        <v>44230</v>
       </c>
       <c r="G43" s="57">
         <v>44236</v>
       </c>
       <c r="H43" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="34"/>
@@ -9680,26 +9526,15 @@
     </row>
     <row r="44" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="56">
-        <v>0</v>
-      </c>
-      <c r="F44" s="57">
-        <v>44230</v>
-      </c>
-      <c r="G44" s="57">
-        <v>44236</v>
-      </c>
-      <c r="H44" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
-      </c>
+      <c r="B44" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="25"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
@@ -9775,7 +9610,7 @@
     <row r="45" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -9784,98 +9619,308 @@
       <c r="G45" s="30"/>
       <c r="H45" s="31"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="34"/>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="34"/>
-      <c r="AJ45" s="34"/>
-      <c r="AK45" s="34"/>
-      <c r="AL45" s="34"/>
-      <c r="AM45" s="34"/>
-      <c r="AN45" s="34"/>
-      <c r="AO45" s="34"/>
-      <c r="AP45" s="34"/>
-      <c r="AQ45" s="34"/>
-      <c r="AR45" s="34"/>
-      <c r="AS45" s="34"/>
-      <c r="AT45" s="34"/>
-      <c r="AU45" s="34"/>
-      <c r="AV45" s="34"/>
-      <c r="AW45" s="34"/>
-      <c r="AX45" s="34"/>
-      <c r="AY45" s="34"/>
-      <c r="AZ45" s="34"/>
-      <c r="BA45" s="34"/>
-      <c r="BB45" s="34"/>
-      <c r="BC45" s="34"/>
-      <c r="BD45" s="34"/>
-      <c r="BE45" s="34"/>
-      <c r="BF45" s="34"/>
-      <c r="BG45" s="34"/>
-      <c r="BH45" s="34"/>
-      <c r="BI45" s="34"/>
-      <c r="BJ45" s="34"/>
-      <c r="BK45" s="34"/>
-      <c r="BL45" s="34"/>
-      <c r="BM45" s="34"/>
-      <c r="BN45" s="34"/>
-      <c r="BO45" s="34"/>
-      <c r="BP45" s="34"/>
-      <c r="BQ45" s="34"/>
-      <c r="BR45" s="34"/>
-      <c r="BS45" s="34"/>
-      <c r="BT45" s="34"/>
-      <c r="BU45" s="34"/>
-      <c r="BV45" s="34"/>
-      <c r="BW45" s="34"/>
-      <c r="BX45" s="34"/>
-      <c r="BY45" s="34"/>
-      <c r="BZ45" s="34"/>
-      <c r="CA45" s="34"/>
+      <c r="J45" s="34" t="str">
+        <f t="shared" ref="J45:S52" ca="1" si="51">IF(AND($C45="Goal",J$5&gt;=$F45,J$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",J$5&gt;=$F45,J$5&lt;=$F45+$H45-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K45" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="L45" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="M45" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N45" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="O45" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="P45" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="Q45" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="R45" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="S45" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="T45" s="34" t="str">
+        <f t="shared" ref="T45:AC52" ca="1" si="52">IF(AND($C45="Goal",T$5&gt;=$F45,T$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",T$5&gt;=$F45,T$5&lt;=$F45+$H45-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U45" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="V45" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="W45" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="X45" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Y45" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Z45" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AA45" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AB45" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AC45" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AD45" s="34" t="str">
+        <f t="shared" ref="AD45:AM52" ca="1" si="53">IF(AND($C45="Goal",AD$5&gt;=$F45,AD$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",AD$5&gt;=$F45,AD$5&lt;=$F45+$H45-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE45" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AF45" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AG45" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AH45" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AI45" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AJ45" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AK45" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AL45" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AM45" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AN45" s="34" t="str">
+        <f t="shared" ref="AN45:AW52" ca="1" si="54">IF(AND($C45="Goal",AN$5&gt;=$F45,AN$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",AN$5&gt;=$F45,AN$5&lt;=$F45+$H45-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO45" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP45" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AQ45" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AR45" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AS45" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AT45" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AU45" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AV45" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AW45" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AX45" s="34" t="str">
+        <f t="shared" ref="AX45:BG52" ca="1" si="55">IF(AND($C45="Goal",AX$5&gt;=$F45,AX$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",AX$5&gt;=$F45,AX$5&lt;=$F45+$H45-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY45" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ45" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA45" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB45" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC45" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD45" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE45" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF45" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG45" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH45" s="34" t="str">
+        <f t="shared" ref="BH45:BQ52" ca="1" si="56">IF(AND($C45="Goal",BH$5&gt;=$F45,BH$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",BH$5&gt;=$F45,BH$5&lt;=$F45+$H45-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI45" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BJ45" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BK45" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BL45" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BM45" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BN45" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BO45" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BP45" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BQ45" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BR45" s="34" t="str">
+        <f t="shared" ref="BR45:CA52" ca="1" si="57">IF(AND($C45="Goal",BR$5&gt;=$F45,BR$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",BR$5&gt;=$F45,BR$5&lt;=$F45+$H45-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BS45" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BT45" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BU45" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BV45" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BW45" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BX45" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BY45" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BZ45" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="CA45" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
     </row>
     <row r="46" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="56">
         <v>0</v>
       </c>
       <c r="F46" s="57">
-        <v>44215</v>
+        <v>44237</v>
       </c>
       <c r="G46" s="57">
-        <v>44236</v>
+        <v>44264</v>
       </c>
       <c r="H46" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="34"/>
@@ -9952,7 +9997,7 @@
     <row r="47" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="55" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C47" s="48" t="s">
         <v>52</v>
@@ -9962,14 +10007,14 @@
         <v>0</v>
       </c>
       <c r="F47" s="57">
-        <v>44215</v>
+        <v>44237</v>
       </c>
       <c r="G47" s="57">
-        <v>44236</v>
+        <v>44264</v>
       </c>
       <c r="H47" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I47" s="25"/>
       <c r="J47" s="34"/>
@@ -10046,24 +10091,24 @@
     <row r="48" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="55" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="48"/>
       <c r="E48" s="56">
         <v>0</v>
       </c>
       <c r="F48" s="57">
-        <v>44215</v>
+        <v>44237</v>
       </c>
       <c r="G48" s="57">
-        <v>44236</v>
+        <v>44264</v>
       </c>
       <c r="H48" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I48" s="25"/>
       <c r="J48" s="34"/>
@@ -10140,7 +10185,7 @@
     <row r="49" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="55" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>52</v>
@@ -10150,14 +10195,14 @@
         <v>0</v>
       </c>
       <c r="F49" s="57">
-        <v>44215</v>
+        <v>44237</v>
       </c>
       <c r="G49" s="57">
-        <v>44236</v>
+        <v>44264</v>
       </c>
       <c r="H49" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I49" s="25"/>
       <c r="J49" s="34"/>
@@ -10234,24 +10279,24 @@
     <row r="50" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="55" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="48"/>
       <c r="E50" s="56">
         <v>0</v>
       </c>
       <c r="F50" s="57">
-        <v>44215</v>
+        <v>44237</v>
       </c>
       <c r="G50" s="57">
-        <v>44236</v>
+        <v>44264</v>
       </c>
       <c r="H50" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I50" s="25"/>
       <c r="J50" s="34"/>
@@ -10327,101 +10372,322 @@
     </row>
     <row r="51" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
-      <c r="B51" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="53"/>
+      <c r="B51" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="34"/>
-      <c r="AL51" s="34"/>
-      <c r="AM51" s="34"/>
-      <c r="AN51" s="34"/>
-      <c r="AO51" s="34"/>
-      <c r="AP51" s="34"/>
-      <c r="AQ51" s="34"/>
-      <c r="AR51" s="34"/>
-      <c r="AS51" s="34"/>
-      <c r="AT51" s="34"/>
-      <c r="AU51" s="34"/>
-      <c r="AV51" s="34"/>
-      <c r="AW51" s="34"/>
-      <c r="AX51" s="34"/>
-      <c r="AY51" s="34"/>
-      <c r="AZ51" s="34"/>
-      <c r="BA51" s="34"/>
-      <c r="BB51" s="34"/>
-      <c r="BC51" s="34"/>
-      <c r="BD51" s="34"/>
-      <c r="BE51" s="34"/>
-      <c r="BF51" s="34"/>
-      <c r="BG51" s="34"/>
-      <c r="BH51" s="34"/>
-      <c r="BI51" s="34"/>
-      <c r="BJ51" s="34"/>
-      <c r="BK51" s="34"/>
-      <c r="BL51" s="34"/>
-      <c r="BM51" s="34"/>
-      <c r="BN51" s="34"/>
-      <c r="BO51" s="34"/>
-      <c r="BP51" s="34"/>
-      <c r="BQ51" s="34"/>
-      <c r="BR51" s="34"/>
-      <c r="BS51" s="34"/>
-      <c r="BT51" s="34"/>
-      <c r="BU51" s="34"/>
-      <c r="BV51" s="34"/>
-      <c r="BW51" s="34"/>
-      <c r="BX51" s="34"/>
-      <c r="BY51" s="34"/>
-      <c r="BZ51" s="34"/>
-      <c r="CA51" s="34"/>
+      <c r="J51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="K51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="L51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="M51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="O51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="P51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="Q51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="R51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="S51" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="T51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="U51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="V51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="W51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="X51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Y51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Z51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AA51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AB51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AC51" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AD51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AE51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AF51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AG51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AH51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AI51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AJ51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AK51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AL51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AM51" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AN51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AQ51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AR51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AS51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AT51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AU51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AV51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AW51" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AX51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG51" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BI51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BJ51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BK51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BL51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BM51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BN51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BO51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BP51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BQ51" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BR51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BS51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BT51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BU51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BV51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BW51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BX51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BY51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BZ51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="CA51" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
     </row>
     <row r="52" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
-      <c r="B52" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
+      <c r="B52" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="48"/>
+      <c r="E52" s="56">
+        <v>0</v>
+      </c>
+      <c r="F52" s="57">
+        <v>44237</v>
+      </c>
+      <c r="G52" s="57">
+        <v>44264</v>
+      </c>
+      <c r="H52" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>28</v>
+      </c>
       <c r="I52" s="25"/>
       <c r="J52" s="34" t="str">
-        <f t="shared" ref="J52:S55" ca="1" si="51">IF(AND($C52="Goal",J$5&gt;=$F52,J$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",J$5&gt;=$F52,J$5&lt;=$F52+$H52-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="K52" s="34" t="str">
@@ -10461,7 +10727,7 @@
         <v/>
       </c>
       <c r="T52" s="34" t="str">
-        <f t="shared" ref="T52:AC55" ca="1" si="52">IF(AND($C52="Goal",T$5&gt;=$F52,T$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",T$5&gt;=$F52,T$5&lt;=$F52+$H52-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="U52" s="34" t="str">
@@ -10501,7 +10767,7 @@
         <v/>
       </c>
       <c r="AD52" s="34" t="str">
-        <f t="shared" ref="AD52:AM55" ca="1" si="53">IF(AND($C52="Goal",AD$5&gt;=$F52,AD$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",AD$5&gt;=$F52,AD$5&lt;=$F52+$H52-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="AE52" s="34" t="str">
@@ -10541,7 +10807,7 @@
         <v/>
       </c>
       <c r="AN52" s="34" t="str">
-        <f t="shared" ref="AN52:AW55" ca="1" si="54">IF(AND($C52="Goal",AN$5&gt;=$F52,AN$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",AN$5&gt;=$F52,AN$5&lt;=$F52+$H52-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AO52" s="34" t="str">
@@ -10581,7 +10847,7 @@
         <v/>
       </c>
       <c r="AX52" s="34" t="str">
-        <f t="shared" ref="AX52:BG55" ca="1" si="55">IF(AND($C52="Goal",AX$5&gt;=$F52,AX$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",AX$5&gt;=$F52,AX$5&lt;=$F52+$H52-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AY52" s="34" t="str">
@@ -10621,7 +10887,7 @@
         <v/>
       </c>
       <c r="BH52" s="34" t="str">
-        <f t="shared" ref="BH52:BQ55" ca="1" si="56">IF(AND($C52="Goal",BH$5&gt;=$F52,BH$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",BH$5&gt;=$F52,BH$5&lt;=$F52+$H52-1),1,""))</f>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BI52" s="34" t="str">
@@ -10661,7 +10927,7 @@
         <v/>
       </c>
       <c r="BR52" s="34" t="str">
-        <f t="shared" ref="BR52:CA55" ca="1" si="57">IF(AND($C52="Goal",BR$5&gt;=$F52,BR$5&lt;=$F52+$H52-1),2,IF(AND($C52="Milestone",BR$5&gt;=$F52,BR$5&lt;=$F52+$H52-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="BS52" s="34" t="str">
@@ -10704,7 +10970,7 @@
     <row r="53" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="55" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C53" s="48" t="s">
         <v>52</v>
@@ -10717,591 +10983,182 @@
         <v>44237</v>
       </c>
       <c r="G53" s="57">
-        <v>44271</v>
+        <v>44264</v>
       </c>
       <c r="H53" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I53" s="25"/>
-      <c r="J53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="K53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="L53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="M53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="O53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="P53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="Q53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="R53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="S53" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="T53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="U53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="V53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="W53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="X53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Y53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Z53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AA53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AB53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AC53" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AD53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AE53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AF53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AG53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AH53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AI53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AJ53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AK53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AL53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AM53" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AN53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AO53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AQ53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AR53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AS53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AT53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AU53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AV53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AW53" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AX53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AY53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG53" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BI53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BJ53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BK53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BL53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BM53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BN53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BO53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BP53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BQ53" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BR53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BS53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BT53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BU53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BV53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BW53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BX53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BY53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BZ53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="CA53" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
+      <c r="AD53" s="34"/>
+      <c r="AE53" s="34"/>
+      <c r="AF53" s="34"/>
+      <c r="AG53" s="34"/>
+      <c r="AH53" s="34"/>
+      <c r="AI53" s="34"/>
+      <c r="AJ53" s="34"/>
+      <c r="AK53" s="34"/>
+      <c r="AL53" s="34"/>
+      <c r="AM53" s="34"/>
+      <c r="AN53" s="34"/>
+      <c r="AO53" s="34"/>
+      <c r="AP53" s="34"/>
+      <c r="AQ53" s="34"/>
+      <c r="AR53" s="34"/>
+      <c r="AS53" s="34"/>
+      <c r="AT53" s="34"/>
+      <c r="AU53" s="34"/>
+      <c r="AV53" s="34"/>
+      <c r="AW53" s="34"/>
+      <c r="AX53" s="34"/>
+      <c r="AY53" s="34"/>
+      <c r="AZ53" s="34"/>
+      <c r="BA53" s="34"/>
+      <c r="BB53" s="34"/>
+      <c r="BC53" s="34"/>
+      <c r="BD53" s="34"/>
+      <c r="BE53" s="34"/>
+      <c r="BF53" s="34"/>
+      <c r="BG53" s="34"/>
+      <c r="BH53" s="34"/>
+      <c r="BI53" s="34"/>
+      <c r="BJ53" s="34"/>
+      <c r="BK53" s="34"/>
+      <c r="BL53" s="34"/>
+      <c r="BM53" s="34"/>
+      <c r="BN53" s="34"/>
+      <c r="BO53" s="34"/>
+      <c r="BP53" s="34"/>
+      <c r="BQ53" s="34"/>
+      <c r="BR53" s="34"/>
+      <c r="BS53" s="34"/>
+      <c r="BT53" s="34"/>
+      <c r="BU53" s="34"/>
+      <c r="BV53" s="34"/>
+      <c r="BW53" s="34"/>
+      <c r="BX53" s="34"/>
+      <c r="BY53" s="34"/>
+      <c r="BZ53" s="34"/>
+      <c r="CA53" s="34"/>
     </row>
     <row r="54" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
-      <c r="B54" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
+      <c r="B54" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="48"/>
+      <c r="E54" s="56">
+        <v>0</v>
+      </c>
+      <c r="F54" s="57">
+        <v>44237</v>
+      </c>
+      <c r="G54" s="57">
+        <v>44264</v>
+      </c>
+      <c r="H54" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>28</v>
+      </c>
       <c r="I54" s="25"/>
-      <c r="J54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="K54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="L54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="M54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="O54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="P54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="Q54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="R54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="S54" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="T54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="U54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="V54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="W54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="X54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Y54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Z54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AA54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AB54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AC54" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AD54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AE54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AF54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AG54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AH54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AI54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AJ54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AK54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AL54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AM54" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AN54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AO54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AQ54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AR54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AS54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AT54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AU54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AV54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AW54" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AX54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AY54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG54" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BI54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BJ54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BK54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BL54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BM54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BN54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BO54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BP54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BQ54" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BR54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BS54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BT54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BU54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BV54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BW54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BX54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BY54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BZ54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="CA54" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
+      <c r="AD54" s="34"/>
+      <c r="AE54" s="34"/>
+      <c r="AF54" s="34"/>
+      <c r="AG54" s="34"/>
+      <c r="AH54" s="34"/>
+      <c r="AI54" s="34"/>
+      <c r="AJ54" s="34"/>
+      <c r="AK54" s="34"/>
+      <c r="AL54" s="34"/>
+      <c r="AM54" s="34"/>
+      <c r="AN54" s="34"/>
+      <c r="AO54" s="34"/>
+      <c r="AP54" s="34"/>
+      <c r="AQ54" s="34"/>
+      <c r="AR54" s="34"/>
+      <c r="AS54" s="34"/>
+      <c r="AT54" s="34"/>
+      <c r="AU54" s="34"/>
+      <c r="AV54" s="34"/>
+      <c r="AW54" s="34"/>
+      <c r="AX54" s="34"/>
+      <c r="AY54" s="34"/>
+      <c r="AZ54" s="34"/>
+      <c r="BA54" s="34"/>
+      <c r="BB54" s="34"/>
+      <c r="BC54" s="34"/>
+      <c r="BD54" s="34"/>
+      <c r="BE54" s="34"/>
+      <c r="BF54" s="34"/>
+      <c r="BG54" s="34"/>
+      <c r="BH54" s="34"/>
+      <c r="BI54" s="34"/>
+      <c r="BJ54" s="34"/>
+      <c r="BK54" s="34"/>
+      <c r="BL54" s="34"/>
+      <c r="BM54" s="34"/>
+      <c r="BN54" s="34"/>
+      <c r="BO54" s="34"/>
+      <c r="BP54" s="34"/>
+      <c r="BQ54" s="34"/>
+      <c r="BR54" s="34"/>
+      <c r="BS54" s="34"/>
+      <c r="BT54" s="34"/>
+      <c r="BU54" s="34"/>
+      <c r="BV54" s="34"/>
+      <c r="BW54" s="34"/>
+      <c r="BX54" s="34"/>
+      <c r="BY54" s="34"/>
+      <c r="BZ54" s="34"/>
+      <c r="CA54" s="34"/>
     </row>
     <row r="55" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="55" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C55" s="48" t="s">
         <v>52</v>
@@ -11314,298 +11171,88 @@
         <v>44237</v>
       </c>
       <c r="G55" s="57">
-        <v>44271</v>
+        <v>44264</v>
       </c>
       <c r="H55" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I55" s="25"/>
-      <c r="J55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="K55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="L55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="M55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="O55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="P55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="Q55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="R55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="S55" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="T55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="U55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="V55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="W55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="X55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Y55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Z55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AA55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AB55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AC55" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AD55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AE55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AF55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AG55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AH55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AI55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AJ55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AK55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AL55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AM55" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AN55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AO55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AQ55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AR55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AS55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AT55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AU55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AV55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AW55" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AX55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AY55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG55" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BI55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BJ55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BK55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BL55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BM55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BN55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BO55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BP55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BQ55" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BR55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BS55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BT55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BU55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BV55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BW55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BX55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BY55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BZ55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="CA55" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="34"/>
+      <c r="AH55" s="34"/>
+      <c r="AI55" s="34"/>
+      <c r="AJ55" s="34"/>
+      <c r="AK55" s="34"/>
+      <c r="AL55" s="34"/>
+      <c r="AM55" s="34"/>
+      <c r="AN55" s="34"/>
+      <c r="AO55" s="34"/>
+      <c r="AP55" s="34"/>
+      <c r="AQ55" s="34"/>
+      <c r="AR55" s="34"/>
+      <c r="AS55" s="34"/>
+      <c r="AT55" s="34"/>
+      <c r="AU55" s="34"/>
+      <c r="AV55" s="34"/>
+      <c r="AW55" s="34"/>
+      <c r="AX55" s="34"/>
+      <c r="AY55" s="34"/>
+      <c r="AZ55" s="34"/>
+      <c r="BA55" s="34"/>
+      <c r="BB55" s="34"/>
+      <c r="BC55" s="34"/>
+      <c r="BD55" s="34"/>
+      <c r="BE55" s="34"/>
+      <c r="BF55" s="34"/>
+      <c r="BG55" s="34"/>
+      <c r="BH55" s="34"/>
+      <c r="BI55" s="34"/>
+      <c r="BJ55" s="34"/>
+      <c r="BK55" s="34"/>
+      <c r="BL55" s="34"/>
+      <c r="BM55" s="34"/>
+      <c r="BN55" s="34"/>
+      <c r="BO55" s="34"/>
+      <c r="BP55" s="34"/>
+      <c r="BQ55" s="34"/>
+      <c r="BR55" s="34"/>
+      <c r="BS55" s="34"/>
+      <c r="BT55" s="34"/>
+      <c r="BU55" s="34"/>
+      <c r="BV55" s="34"/>
+      <c r="BW55" s="34"/>
+      <c r="BX55" s="34"/>
+      <c r="BY55" s="34"/>
+      <c r="BZ55" s="34"/>
+      <c r="CA55" s="34"/>
     </row>
     <row r="56" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="55" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C56" s="48" t="s">
         <v>52</v>
@@ -11618,11 +11265,11 @@
         <v>44237</v>
       </c>
       <c r="G56" s="57">
-        <v>44271</v>
+        <v>44264</v>
       </c>
       <c r="H56" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="34"/>
@@ -11699,7 +11346,7 @@
     <row r="57" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="49" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
@@ -11782,7 +11429,7 @@
     <row r="58" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="55" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C58" s="48" t="s">
         <v>52</v>
@@ -12086,7 +11733,7 @@
     <row r="59" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="55" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C59" s="48" t="s">
         <v>52</v>
@@ -12180,7 +11827,7 @@
     <row r="60" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="55" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C60" s="48" t="s">
         <v>52</v>
@@ -12274,7 +11921,7 @@
     <row r="61" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="55" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C61" s="48" t="s">
         <v>54</v>
@@ -12368,7 +12015,7 @@
     <row r="62" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="55" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C62" s="48" t="s">
         <v>52</v>
@@ -12462,7 +12109,7 @@
     <row r="63" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="55" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C63" s="48" t="s">
         <v>52</v>
@@ -12556,7 +12203,7 @@
     <row r="64" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="55" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C64" s="48" t="s">
         <v>53</v>
@@ -13032,7 +12679,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E67" s="29">
         <v>1</v>
@@ -13342,14 +12989,14 @@
         <v>0</v>
       </c>
       <c r="F68" s="57">
-        <v>44256</v>
+        <v>44251</v>
       </c>
       <c r="G68" s="57">
-        <v>44271</v>
+        <v>44264</v>
       </c>
       <c r="H68" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I68" s="25"/>
       <c r="J68" s="34" t="str">
@@ -14233,13 +13880,13 @@
     <row r="71" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="55" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C71" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E71" s="29">
         <v>1</v>
@@ -15231,7 +14878,7 @@
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="X2:AC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E11 E17 E13 E54 E65:E66 E73 E33 E70 E15">
+  <conditionalFormatting sqref="E7:E11 E17 E13 E65:E66 E73 E33 E70 E15 E45:E51 E53:E55">
     <cfRule type="dataBar" priority="344">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15245,40 +14892,40 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J54:BZ54 J65:BZ66 J26:BZ33 J21:BZ24 J40:BZ45">
-    <cfRule type="expression" dxfId="46" priority="337">
+  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J65:BZ66 J26:BZ33 J21:BZ24 J39:BZ43 J45:BZ51 J53:BZ55">
+    <cfRule type="expression" dxfId="36" priority="337">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="45" priority="343">
+    <cfRule type="expression" dxfId="35" priority="343">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="44" priority="339">
+    <cfRule type="expression" dxfId="34" priority="339">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="43" priority="338">
+    <cfRule type="expression" dxfId="33" priority="338">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:CA11 J13:CA73">
-    <cfRule type="expression" dxfId="42" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="360" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="379" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="397" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="398" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="399" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15324,8 +14971,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA54 CA45 CA23:CA24 CA65:CA66 CA33">
-    <cfRule type="expression" dxfId="37" priority="458">
+  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA51 CA23:CA24 CA65:CA66 CA33">
+    <cfRule type="expression" dxfId="27" priority="458">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15344,12 +14991,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="36" priority="247">
+    <cfRule type="expression" dxfId="26" priority="247">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA40:CA44">
-    <cfRule type="expression" dxfId="35" priority="254">
+  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA43 CA45:CA50 CA53:CA55">
+    <cfRule type="expression" dxfId="25" priority="254">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15396,29 +15043,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="34" priority="228">
+    <cfRule type="expression" dxfId="24" priority="228">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="33" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="230" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="231" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="232" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="233" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="234" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="28" priority="235">
+    <cfRule type="expression" dxfId="18" priority="235">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15437,12 +15084,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="27" priority="219">
+    <cfRule type="expression" dxfId="17" priority="219">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="26" priority="225">
+    <cfRule type="expression" dxfId="16" priority="225">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15460,17 +15107,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:BZ51 J54:BZ54">
-    <cfRule type="expression" dxfId="25" priority="210">
+  <conditionalFormatting sqref="J44:BZ44 J51:BZ51">
+    <cfRule type="expression" dxfId="15" priority="210">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA51 CA54">
-    <cfRule type="expression" dxfId="24" priority="216">
+  <conditionalFormatting sqref="CA44 CA51">
+    <cfRule type="expression" dxfId="14" priority="216">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51 E54">
+  <conditionalFormatting sqref="E44 E51">
     <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15484,23 +15131,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39:BZ39">
-    <cfRule type="expression" dxfId="23" priority="199">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CA39">
-    <cfRule type="expression" dxfId="22" priority="205">
-      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J57:BZ57">
-    <cfRule type="expression" dxfId="21" priority="190">
+    <cfRule type="expression" dxfId="13" priority="190">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA57">
-    <cfRule type="expression" dxfId="20" priority="191">
+    <cfRule type="expression" dxfId="12" priority="191">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15518,142 +15155,32 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="dataBar" priority="181">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A7C0065E-A256-2447-9ED2-0C72A0C11D0A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:BZ52">
-    <cfRule type="expression" dxfId="19" priority="180">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CA52">
-    <cfRule type="expression" dxfId="18" priority="187">
-      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52:BZ52">
-    <cfRule type="expression" dxfId="17" priority="178">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CA52">
-    <cfRule type="expression" dxfId="16" priority="179">
-      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="dataBar" priority="177">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02C01D26-133B-854D-B421-480FB3FF5B41}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39 E45">
-    <cfRule type="dataBar" priority="164">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1AE0E490-4459-4045-A452-F6EB3F34E9F7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="dataBar" priority="163">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{883DDAE7-1A13-CA40-A9AE-1DDB228615A2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="dataBar" priority="161">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F7CF9D35-3B23-5847-B5F4-3EC767986F8A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="15" priority="136">
+    <cfRule type="expression" dxfId="11" priority="136">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="14" priority="137">
+    <cfRule type="expression" dxfId="10" priority="137">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="13" priority="113">
+    <cfRule type="expression" dxfId="9" priority="113">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="12" priority="112">
+    <cfRule type="expression" dxfId="8" priority="112">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:BZ50">
-    <cfRule type="expression" dxfId="11" priority="97">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CA46:CA50">
-    <cfRule type="expression" dxfId="10" priority="96">
-      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53:BZ53">
-    <cfRule type="expression" dxfId="9" priority="89">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CA53">
-    <cfRule type="expression" dxfId="8" priority="88">
-      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:BZ56">
+  <conditionalFormatting sqref="J52:BZ56">
     <cfRule type="expression" dxfId="7" priority="81">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA55:CA56">
+  <conditionalFormatting sqref="CA52:CA56">
     <cfRule type="expression" dxfId="6" priority="80">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
@@ -15827,7 +15354,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E11 E17 E13 E54 E65:E66 E73 E33 E70 E15</xm:sqref>
+          <xm:sqref>E7:E11 E17 E13 E65:E66 E73 E33 E70 E15 E45:E51 E53:E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36922C6F-F55A-8F49-86CD-B382086C6C9E}">
@@ -15977,7 +15504,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E51 E54</xm:sqref>
+          <xm:sqref>E44 E51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8BD350D1-54BB-EC4E-B65C-91DE52823EAF}">
@@ -15993,81 +15520,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A7C0065E-A256-2447-9ED2-0C72A0C11D0A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{02C01D26-133B-854D-B421-480FB3FF5B41}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E52</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1AE0E490-4459-4045-A452-F6EB3F34E9F7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E39 E45</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{883DDAE7-1A13-CA40-A9AE-1DDB228615A2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F7CF9D35-3B23-5847-B5F4-3EC767986F8A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{366133D0-FF9F-A54A-B853-B640570739BE}">
@@ -16218,7 +15670,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J54:CA54 J23:CA23 J8:CA11 J13:CA17</xm:sqref>
+          <xm:sqref>J51:CA51 J23:CA23 J8:CA11 J13:CA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="236" id="{480D9390-1284-8F4E-81C3-076195976C87}">
@@ -16256,45 +15708,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J51:CA51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="206" id="{30820069-80DC-584D-ACEC-47D7076F2CDE}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J39:CA39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="607" id="{445139A2-0E25-9B43-9EF0-2DABE3D5C767}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J45:CA45 J38:CA38</xm:sqref>
+          <xm:sqref>J44:CA44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="192" id="{CA248EBF-FA81-2845-83C1-432BD56BCD91}">
@@ -16314,25 +15728,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>J57:CA57</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="188" id="{CA09624F-599C-3949-9CA9-085FA102749E}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J52:CA52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="138" id="{C3E335A3-845A-8149-8FBF-06975DBEFFEA}">
@@ -16392,44 +15787,6 @@
           <xm:sqref>J34:CA37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="103" id="{CBCDE9B5-53CF-D54B-8C62-E3B71D30EB77}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J46:CA50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="95" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J53:CA53</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="87" id="{A47E4274-CF1C-0D44-B1B9-E7AA50A018A2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -16446,7 +15803,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J55:CA56</xm:sqref>
+          <xm:sqref>J52:CA52 J56:CA56</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="79" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
@@ -16541,7 +15898,64 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J40:CA44</xm:sqref>
+          <xm:sqref>J39:CA43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="713" id="{445139A2-0E25-9B43-9EF0-2DABE3D5C767}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J38:CA38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="727" id="{CA09624F-599C-3949-9CA9-085FA102749E}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J48:CA50 J54:CA54 J45:CA45</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="781" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J55:CA55 J46:CA47 J53:CA53</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A75B7-E6DD-47B4-8F5B-84DBA7E5EECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938BA623-994A-49C7-9ED7-00D76928C047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29376" yWindow="1853" windowWidth="7501" windowHeight="5998" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10756" yWindow="1803" windowWidth="7501" windowHeight="5998" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
   <si>
     <t>About This Template</t>
   </si>
@@ -360,9 +360,6 @@
     <t>System Design</t>
   </si>
   <si>
-    <t>Aparna</t>
-  </si>
-  <si>
     <t>Application Log-In Page</t>
   </si>
   <si>
@@ -385,6 +382,30 @@
   </si>
   <si>
     <t>Tracking Visualization</t>
+  </si>
+  <si>
+    <t>Brandin/Jeffer</t>
+  </si>
+  <si>
+    <t>Front End</t>
+  </si>
+  <si>
+    <t>Back End</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Front End Team</t>
+  </si>
+  <si>
+    <t>Back End Team</t>
+  </si>
+  <si>
+    <t>Integration Team</t>
+  </si>
+  <si>
+    <t>Joining a Band</t>
   </si>
 </sst>
 </file>
@@ -998,6 +1019,39 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="53">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1672,39 +1726,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2015,8 +2036,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H73" totalsRowShown="0">
-  <autoFilter ref="B7:H73" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H77" totalsRowShown="0">
+  <autoFilter ref="B7:H77" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2026,12 +2047,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="37" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="0" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2309,10 +2330,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE166"/>
+  <dimension ref="A1:CE170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="CL39" sqref="CL39"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9059,8 +9080,8 @@
       <c r="D39" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="56">
-        <v>0</v>
+      <c r="E39" s="29">
+        <v>0.33</v>
       </c>
       <c r="F39" s="57">
         <v>44216</v>
@@ -9153,10 +9174,10 @@
         <v>52</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="56">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="E40" s="29">
+        <v>1</v>
       </c>
       <c r="F40" s="63">
         <v>44216</v>
@@ -9249,20 +9270,20 @@
         <v>52</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="56">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="E41" s="29">
+        <v>0.6</v>
       </c>
       <c r="F41" s="57">
         <v>44216</v>
       </c>
       <c r="G41" s="57">
-        <v>44222</v>
+        <v>44225</v>
       </c>
       <c r="H41" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="34"/>
@@ -9344,8 +9365,10 @@
       <c r="C42" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="56">
+      <c r="D42" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="29">
         <v>0</v>
       </c>
       <c r="F42" s="57">
@@ -9433,24 +9456,26 @@
     <row r="43" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="55" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="56">
+      <c r="D43" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="29">
         <v>0</v>
       </c>
       <c r="F43" s="57">
-        <v>44230</v>
+        <v>44223</v>
       </c>
       <c r="G43" s="57">
         <v>44236</v>
       </c>
       <c r="H43" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="34"/>
@@ -9526,15 +9551,28 @@
     </row>
     <row r="44" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="53"/>
+      <c r="B44" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="29">
+        <v>0</v>
+      </c>
+      <c r="F44" s="57">
+        <v>44223</v>
+      </c>
+      <c r="G44" s="57">
+        <v>44236</v>
+      </c>
+      <c r="H44" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>14</v>
+      </c>
       <c r="I44" s="25"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
@@ -9609,318 +9647,123 @@
     </row>
     <row r="45" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
+      <c r="B45" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="29">
+        <v>0</v>
+      </c>
+      <c r="F45" s="57">
+        <v>44223</v>
+      </c>
+      <c r="G45" s="57">
+        <v>44236</v>
+      </c>
+      <c r="H45" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>14</v>
+      </c>
       <c r="I45" s="25"/>
-      <c r="J45" s="34" t="str">
-        <f t="shared" ref="J45:S52" ca="1" si="51">IF(AND($C45="Goal",J$5&gt;=$F45,J$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",J$5&gt;=$F45,J$5&lt;=$F45+$H45-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K45" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="L45" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="M45" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N45" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="O45" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="P45" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="Q45" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="R45" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="S45" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="T45" s="34" t="str">
-        <f t="shared" ref="T45:AC52" ca="1" si="52">IF(AND($C45="Goal",T$5&gt;=$F45,T$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",T$5&gt;=$F45,T$5&lt;=$F45+$H45-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U45" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="V45" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="W45" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="X45" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Y45" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Z45" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AA45" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AB45" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AC45" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AD45" s="34" t="str">
-        <f t="shared" ref="AD45:AM52" ca="1" si="53">IF(AND($C45="Goal",AD$5&gt;=$F45,AD$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",AD$5&gt;=$F45,AD$5&lt;=$F45+$H45-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE45" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AF45" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AG45" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AH45" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AI45" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AJ45" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AK45" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AL45" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AM45" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AN45" s="34" t="str">
-        <f t="shared" ref="AN45:AW52" ca="1" si="54">IF(AND($C45="Goal",AN$5&gt;=$F45,AN$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",AN$5&gt;=$F45,AN$5&lt;=$F45+$H45-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO45" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP45" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AQ45" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AR45" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AS45" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AT45" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AU45" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AV45" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AW45" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AX45" s="34" t="str">
-        <f t="shared" ref="AX45:BG52" ca="1" si="55">IF(AND($C45="Goal",AX$5&gt;=$F45,AX$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",AX$5&gt;=$F45,AX$5&lt;=$F45+$H45-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY45" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ45" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA45" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB45" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC45" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD45" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE45" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF45" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG45" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH45" s="34" t="str">
-        <f t="shared" ref="BH45:BQ52" ca="1" si="56">IF(AND($C45="Goal",BH$5&gt;=$F45,BH$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",BH$5&gt;=$F45,BH$5&lt;=$F45+$H45-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI45" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BJ45" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BK45" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BL45" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BM45" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BN45" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BO45" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BP45" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BQ45" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BR45" s="34" t="str">
-        <f t="shared" ref="BR45:CA52" ca="1" si="57">IF(AND($C45="Goal",BR$5&gt;=$F45,BR$5&lt;=$F45+$H45-1),2,IF(AND($C45="Milestone",BR$5&gt;=$F45,BR$5&lt;=$F45+$H45-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BS45" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BT45" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BU45" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BV45" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BW45" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BX45" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BY45" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BZ45" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="CA45" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="34"/>
+      <c r="AH45" s="34"/>
+      <c r="AI45" s="34"/>
+      <c r="AJ45" s="34"/>
+      <c r="AK45" s="34"/>
+      <c r="AL45" s="34"/>
+      <c r="AM45" s="34"/>
+      <c r="AN45" s="34"/>
+      <c r="AO45" s="34"/>
+      <c r="AP45" s="34"/>
+      <c r="AQ45" s="34"/>
+      <c r="AR45" s="34"/>
+      <c r="AS45" s="34"/>
+      <c r="AT45" s="34"/>
+      <c r="AU45" s="34"/>
+      <c r="AV45" s="34"/>
+      <c r="AW45" s="34"/>
+      <c r="AX45" s="34"/>
+      <c r="AY45" s="34"/>
+      <c r="AZ45" s="34"/>
+      <c r="BA45" s="34"/>
+      <c r="BB45" s="34"/>
+      <c r="BC45" s="34"/>
+      <c r="BD45" s="34"/>
+      <c r="BE45" s="34"/>
+      <c r="BF45" s="34"/>
+      <c r="BG45" s="34"/>
+      <c r="BH45" s="34"/>
+      <c r="BI45" s="34"/>
+      <c r="BJ45" s="34"/>
+      <c r="BK45" s="34"/>
+      <c r="BL45" s="34"/>
+      <c r="BM45" s="34"/>
+      <c r="BN45" s="34"/>
+      <c r="BO45" s="34"/>
+      <c r="BP45" s="34"/>
+      <c r="BQ45" s="34"/>
+      <c r="BR45" s="34"/>
+      <c r="BS45" s="34"/>
+      <c r="BT45" s="34"/>
+      <c r="BU45" s="34"/>
+      <c r="BV45" s="34"/>
+      <c r="BW45" s="34"/>
+      <c r="BX45" s="34"/>
+      <c r="BY45" s="34"/>
+      <c r="BZ45" s="34"/>
+      <c r="CA45" s="34"/>
     </row>
     <row r="46" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C46" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="56">
+      <c r="D46" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="29">
         <v>0</v>
       </c>
       <c r="F46" s="57">
-        <v>44237</v>
+        <v>44230</v>
       </c>
       <c r="G46" s="57">
-        <v>44264</v>
+        <v>44236</v>
       </c>
       <c r="H46" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="34"/>
@@ -9996,26 +9839,15 @@
     </row>
     <row r="47" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
-      <c r="B47" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="56">
-        <v>0</v>
-      </c>
-      <c r="F47" s="57">
-        <v>44237</v>
-      </c>
-      <c r="G47" s="57">
-        <v>44264</v>
-      </c>
-      <c r="H47" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>28</v>
-      </c>
+      <c r="B47" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="53"/>
       <c r="I47" s="25"/>
       <c r="J47" s="34"/>
       <c r="K47" s="34"/>
@@ -10090,102 +9922,301 @@
     </row>
     <row r="48" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
-      <c r="B48" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="56">
-        <v>0</v>
-      </c>
-      <c r="F48" s="57">
-        <v>44237</v>
-      </c>
-      <c r="G48" s="57">
-        <v>44264</v>
-      </c>
-      <c r="H48" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>28</v>
-      </c>
+      <c r="B48" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="34"/>
-      <c r="AL48" s="34"/>
-      <c r="AM48" s="34"/>
-      <c r="AN48" s="34"/>
-      <c r="AO48" s="34"/>
-      <c r="AP48" s="34"/>
-      <c r="AQ48" s="34"/>
-      <c r="AR48" s="34"/>
-      <c r="AS48" s="34"/>
-      <c r="AT48" s="34"/>
-      <c r="AU48" s="34"/>
-      <c r="AV48" s="34"/>
-      <c r="AW48" s="34"/>
-      <c r="AX48" s="34"/>
-      <c r="AY48" s="34"/>
-      <c r="AZ48" s="34"/>
-      <c r="BA48" s="34"/>
-      <c r="BB48" s="34"/>
-      <c r="BC48" s="34"/>
-      <c r="BD48" s="34"/>
-      <c r="BE48" s="34"/>
-      <c r="BF48" s="34"/>
-      <c r="BG48" s="34"/>
-      <c r="BH48" s="34"/>
-      <c r="BI48" s="34"/>
-      <c r="BJ48" s="34"/>
-      <c r="BK48" s="34"/>
-      <c r="BL48" s="34"/>
-      <c r="BM48" s="34"/>
-      <c r="BN48" s="34"/>
-      <c r="BO48" s="34"/>
-      <c r="BP48" s="34"/>
-      <c r="BQ48" s="34"/>
-      <c r="BR48" s="34"/>
-      <c r="BS48" s="34"/>
-      <c r="BT48" s="34"/>
-      <c r="BU48" s="34"/>
-      <c r="BV48" s="34"/>
-      <c r="BW48" s="34"/>
-      <c r="BX48" s="34"/>
-      <c r="BY48" s="34"/>
-      <c r="BZ48" s="34"/>
-      <c r="CA48" s="34"/>
+      <c r="J48" s="34" t="str">
+        <f t="shared" ref="J48:S56" ca="1" si="51">IF(AND($C48="Goal",J$5&gt;=$F48,J$5&lt;=$F48+$H48-1),2,IF(AND($C48="Milestone",J$5&gt;=$F48,J$5&lt;=$F48+$H48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K48" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="L48" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="M48" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N48" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="O48" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="P48" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="Q48" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="R48" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="S48" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="T48" s="34" t="str">
+        <f t="shared" ref="T48:AC56" ca="1" si="52">IF(AND($C48="Goal",T$5&gt;=$F48,T$5&lt;=$F48+$H48-1),2,IF(AND($C48="Milestone",T$5&gt;=$F48,T$5&lt;=$F48+$H48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U48" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="V48" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="W48" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="X48" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Y48" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Z48" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AA48" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AB48" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AC48" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AD48" s="34" t="str">
+        <f t="shared" ref="AD48:AM56" ca="1" si="53">IF(AND($C48="Goal",AD$5&gt;=$F48,AD$5&lt;=$F48+$H48-1),2,IF(AND($C48="Milestone",AD$5&gt;=$F48,AD$5&lt;=$F48+$H48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE48" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AF48" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AG48" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AH48" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AI48" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AJ48" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AK48" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AL48" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AM48" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AN48" s="34" t="str">
+        <f t="shared" ref="AN48:AW56" ca="1" si="54">IF(AND($C48="Goal",AN$5&gt;=$F48,AN$5&lt;=$F48+$H48-1),2,IF(AND($C48="Milestone",AN$5&gt;=$F48,AN$5&lt;=$F48+$H48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO48" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP48" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AQ48" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AR48" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AS48" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AT48" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AU48" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AV48" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AW48" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AX48" s="34" t="str">
+        <f t="shared" ref="AX48:BG56" ca="1" si="55">IF(AND($C48="Goal",AX$5&gt;=$F48,AX$5&lt;=$F48+$H48-1),2,IF(AND($C48="Milestone",AX$5&gt;=$F48,AX$5&lt;=$F48+$H48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY48" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ48" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA48" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB48" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC48" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD48" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE48" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF48" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG48" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH48" s="34" t="str">
+        <f t="shared" ref="BH48:BQ56" ca="1" si="56">IF(AND($C48="Goal",BH$5&gt;=$F48,BH$5&lt;=$F48+$H48-1),2,IF(AND($C48="Milestone",BH$5&gt;=$F48,BH$5&lt;=$F48+$H48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI48" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BJ48" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BK48" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BL48" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BM48" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BN48" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BO48" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BP48" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BQ48" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BR48" s="34" t="str">
+        <f t="shared" ref="BR48:CA56" ca="1" si="57">IF(AND($C48="Goal",BR$5&gt;=$F48,BR$5&lt;=$F48+$H48-1),2,IF(AND($C48="Milestone",BR$5&gt;=$F48,BR$5&lt;=$F48+$H48-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BS48" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BT48" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BU48" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BV48" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BW48" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BX48" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BY48" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BZ48" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="CA48" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
     </row>
     <row r="49" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="55" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C49" s="48" t="s">
         <v>52</v>
@@ -10195,14 +10226,14 @@
         <v>0</v>
       </c>
       <c r="F49" s="57">
-        <v>44237</v>
+        <v>44284</v>
       </c>
       <c r="G49" s="57">
-        <v>44264</v>
+        <v>44348</v>
       </c>
       <c r="H49" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I49" s="25"/>
       <c r="J49" s="34"/>
@@ -10279,12 +10310,14 @@
     <row r="50" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="55" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C50" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="48"/>
+      <c r="D50" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="E50" s="56">
         <v>0</v>
       </c>
@@ -10372,306 +10405,109 @@
     </row>
     <row r="51" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
-      <c r="B51" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="B51" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="48"/>
+      <c r="E51" s="56">
+        <v>0</v>
+      </c>
+      <c r="F51" s="57">
+        <v>44284</v>
+      </c>
+      <c r="G51" s="57">
+        <v>44348</v>
+      </c>
+      <c r="H51" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>65</v>
+      </c>
       <c r="I51" s="25"/>
-      <c r="J51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="K51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="L51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="M51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="O51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="P51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="Q51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="R51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="S51" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="T51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="U51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="V51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="W51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="X51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Y51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Z51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AA51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AB51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AC51" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AD51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AE51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AF51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AG51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AH51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AI51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AJ51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AK51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AL51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AM51" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AN51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AO51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AQ51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AR51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AS51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AT51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AU51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AV51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AW51" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AX51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AY51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG51" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BI51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BJ51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BK51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BL51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BM51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BN51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BO51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BP51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BQ51" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BR51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BS51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BT51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BU51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BV51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BW51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BX51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BY51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BZ51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="CA51" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="34"/>
+      <c r="AN51" s="34"/>
+      <c r="AO51" s="34"/>
+      <c r="AP51" s="34"/>
+      <c r="AQ51" s="34"/>
+      <c r="AR51" s="34"/>
+      <c r="AS51" s="34"/>
+      <c r="AT51" s="34"/>
+      <c r="AU51" s="34"/>
+      <c r="AV51" s="34"/>
+      <c r="AW51" s="34"/>
+      <c r="AX51" s="34"/>
+      <c r="AY51" s="34"/>
+      <c r="AZ51" s="34"/>
+      <c r="BA51" s="34"/>
+      <c r="BB51" s="34"/>
+      <c r="BC51" s="34"/>
+      <c r="BD51" s="34"/>
+      <c r="BE51" s="34"/>
+      <c r="BF51" s="34"/>
+      <c r="BG51" s="34"/>
+      <c r="BH51" s="34"/>
+      <c r="BI51" s="34"/>
+      <c r="BJ51" s="34"/>
+      <c r="BK51" s="34"/>
+      <c r="BL51" s="34"/>
+      <c r="BM51" s="34"/>
+      <c r="BN51" s="34"/>
+      <c r="BO51" s="34"/>
+      <c r="BP51" s="34"/>
+      <c r="BQ51" s="34"/>
+      <c r="BR51" s="34"/>
+      <c r="BS51" s="34"/>
+      <c r="BT51" s="34"/>
+      <c r="BU51" s="34"/>
+      <c r="BV51" s="34"/>
+      <c r="BW51" s="34"/>
+      <c r="BX51" s="34"/>
+      <c r="BY51" s="34"/>
+      <c r="BZ51" s="34"/>
+      <c r="CA51" s="34"/>
     </row>
     <row r="52" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="55" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C52" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="48"/>
+      <c r="D52" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="E52" s="56">
         <v>0</v>
       </c>
@@ -10686,296 +10522,88 @@
         <v>28</v>
       </c>
       <c r="I52" s="25"/>
-      <c r="J52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="K52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="L52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="M52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="N52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="O52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="P52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="Q52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="R52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="S52" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="T52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="U52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="V52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="W52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="X52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Y52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="Z52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AA52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AB52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AC52" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AD52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AE52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AF52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AG52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AH52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AI52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AJ52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AK52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AL52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AM52" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="AN52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AO52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AQ52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AR52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AS52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AT52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AU52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AV52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AW52" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AX52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AY52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG52" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BI52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BJ52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BK52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BL52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BM52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BN52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BO52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BP52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BQ52" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BR52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BS52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BT52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BU52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BV52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BW52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BX52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BY52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="BZ52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="CA52" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+      <c r="AD52" s="34"/>
+      <c r="AE52" s="34"/>
+      <c r="AF52" s="34"/>
+      <c r="AG52" s="34"/>
+      <c r="AH52" s="34"/>
+      <c r="AI52" s="34"/>
+      <c r="AJ52" s="34"/>
+      <c r="AK52" s="34"/>
+      <c r="AL52" s="34"/>
+      <c r="AM52" s="34"/>
+      <c r="AN52" s="34"/>
+      <c r="AO52" s="34"/>
+      <c r="AP52" s="34"/>
+      <c r="AQ52" s="34"/>
+      <c r="AR52" s="34"/>
+      <c r="AS52" s="34"/>
+      <c r="AT52" s="34"/>
+      <c r="AU52" s="34"/>
+      <c r="AV52" s="34"/>
+      <c r="AW52" s="34"/>
+      <c r="AX52" s="34"/>
+      <c r="AY52" s="34"/>
+      <c r="AZ52" s="34"/>
+      <c r="BA52" s="34"/>
+      <c r="BB52" s="34"/>
+      <c r="BC52" s="34"/>
+      <c r="BD52" s="34"/>
+      <c r="BE52" s="34"/>
+      <c r="BF52" s="34"/>
+      <c r="BG52" s="34"/>
+      <c r="BH52" s="34"/>
+      <c r="BI52" s="34"/>
+      <c r="BJ52" s="34"/>
+      <c r="BK52" s="34"/>
+      <c r="BL52" s="34"/>
+      <c r="BM52" s="34"/>
+      <c r="BN52" s="34"/>
+      <c r="BO52" s="34"/>
+      <c r="BP52" s="34"/>
+      <c r="BQ52" s="34"/>
+      <c r="BR52" s="34"/>
+      <c r="BS52" s="34"/>
+      <c r="BT52" s="34"/>
+      <c r="BU52" s="34"/>
+      <c r="BV52" s="34"/>
+      <c r="BW52" s="34"/>
+      <c r="BX52" s="34"/>
+      <c r="BY52" s="34"/>
+      <c r="BZ52" s="34"/>
+      <c r="CA52" s="34"/>
     </row>
     <row r="53" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="55" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="48"/>
+        <v>53</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="E53" s="56">
         <v>0</v>
       </c>
@@ -11064,24 +10692,24 @@
     <row r="54" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54" s="48"/>
       <c r="E54" s="56">
         <v>0</v>
       </c>
       <c r="F54" s="57">
-        <v>44237</v>
+        <v>44284</v>
       </c>
       <c r="G54" s="57">
-        <v>44264</v>
+        <v>44348</v>
       </c>
       <c r="H54" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I54" s="25"/>
       <c r="J54" s="34"/>
@@ -11157,107 +10785,308 @@
     </row>
     <row r="55" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
-      <c r="B55" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="48"/>
-      <c r="E55" s="56">
-        <v>0</v>
-      </c>
-      <c r="F55" s="57">
-        <v>44237</v>
-      </c>
-      <c r="G55" s="57">
-        <v>44264</v>
-      </c>
-      <c r="H55" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>28</v>
-      </c>
+      <c r="B55" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="34"/>
-      <c r="AD55" s="34"/>
-      <c r="AE55" s="34"/>
-      <c r="AF55" s="34"/>
-      <c r="AG55" s="34"/>
-      <c r="AH55" s="34"/>
-      <c r="AI55" s="34"/>
-      <c r="AJ55" s="34"/>
-      <c r="AK55" s="34"/>
-      <c r="AL55" s="34"/>
-      <c r="AM55" s="34"/>
-      <c r="AN55" s="34"/>
-      <c r="AO55" s="34"/>
-      <c r="AP55" s="34"/>
-      <c r="AQ55" s="34"/>
-      <c r="AR55" s="34"/>
-      <c r="AS55" s="34"/>
-      <c r="AT55" s="34"/>
-      <c r="AU55" s="34"/>
-      <c r="AV55" s="34"/>
-      <c r="AW55" s="34"/>
-      <c r="AX55" s="34"/>
-      <c r="AY55" s="34"/>
-      <c r="AZ55" s="34"/>
-      <c r="BA55" s="34"/>
-      <c r="BB55" s="34"/>
-      <c r="BC55" s="34"/>
-      <c r="BD55" s="34"/>
-      <c r="BE55" s="34"/>
-      <c r="BF55" s="34"/>
-      <c r="BG55" s="34"/>
-      <c r="BH55" s="34"/>
-      <c r="BI55" s="34"/>
-      <c r="BJ55" s="34"/>
-      <c r="BK55" s="34"/>
-      <c r="BL55" s="34"/>
-      <c r="BM55" s="34"/>
-      <c r="BN55" s="34"/>
-      <c r="BO55" s="34"/>
-      <c r="BP55" s="34"/>
-      <c r="BQ55" s="34"/>
-      <c r="BR55" s="34"/>
-      <c r="BS55" s="34"/>
-      <c r="BT55" s="34"/>
-      <c r="BU55" s="34"/>
-      <c r="BV55" s="34"/>
-      <c r="BW55" s="34"/>
-      <c r="BX55" s="34"/>
-      <c r="BY55" s="34"/>
-      <c r="BZ55" s="34"/>
-      <c r="CA55" s="34"/>
+      <c r="J55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="K55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="L55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="M55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="O55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="P55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="Q55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="R55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="S55" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="T55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="U55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="V55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="W55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="X55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Y55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Z55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AA55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AB55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AC55" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AD55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AE55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AF55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AG55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AH55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AI55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AJ55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AK55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AL55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AM55" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AN55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AQ55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AR55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AS55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AT55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AU55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AV55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AW55" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AX55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG55" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BI55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BJ55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BK55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BL55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BM55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BN55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BO55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BP55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BQ55" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BR55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BS55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BT55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BU55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BV55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BW55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BX55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BY55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BZ55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="CA55" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
     </row>
     <row r="56" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="48"/>
+      <c r="D56" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="E56" s="56">
         <v>0</v>
       </c>
@@ -11272,88 +11101,309 @@
         <v>28</v>
       </c>
       <c r="I56" s="25"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="34"/>
-      <c r="AC56" s="34"/>
-      <c r="AD56" s="34"/>
-      <c r="AE56" s="34"/>
-      <c r="AF56" s="34"/>
-      <c r="AG56" s="34"/>
-      <c r="AH56" s="34"/>
-      <c r="AI56" s="34"/>
-      <c r="AJ56" s="34"/>
-      <c r="AK56" s="34"/>
-      <c r="AL56" s="34"/>
-      <c r="AM56" s="34"/>
-      <c r="AN56" s="34"/>
-      <c r="AO56" s="34"/>
-      <c r="AP56" s="34"/>
-      <c r="AQ56" s="34"/>
-      <c r="AR56" s="34"/>
-      <c r="AS56" s="34"/>
-      <c r="AT56" s="34"/>
-      <c r="AU56" s="34"/>
-      <c r="AV56" s="34"/>
-      <c r="AW56" s="34"/>
-      <c r="AX56" s="34"/>
-      <c r="AY56" s="34"/>
-      <c r="AZ56" s="34"/>
-      <c r="BA56" s="34"/>
-      <c r="BB56" s="34"/>
-      <c r="BC56" s="34"/>
-      <c r="BD56" s="34"/>
-      <c r="BE56" s="34"/>
-      <c r="BF56" s="34"/>
-      <c r="BG56" s="34"/>
-      <c r="BH56" s="34"/>
-      <c r="BI56" s="34"/>
-      <c r="BJ56" s="34"/>
-      <c r="BK56" s="34"/>
-      <c r="BL56" s="34"/>
-      <c r="BM56" s="34"/>
-      <c r="BN56" s="34"/>
-      <c r="BO56" s="34"/>
-      <c r="BP56" s="34"/>
-      <c r="BQ56" s="34"/>
-      <c r="BR56" s="34"/>
-      <c r="BS56" s="34"/>
-      <c r="BT56" s="34"/>
-      <c r="BU56" s="34"/>
-      <c r="BV56" s="34"/>
-      <c r="BW56" s="34"/>
-      <c r="BX56" s="34"/>
-      <c r="BY56" s="34"/>
-      <c r="BZ56" s="34"/>
-      <c r="CA56" s="34"/>
+      <c r="J56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="K56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="L56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="M56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="N56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="O56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="P56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="Q56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="R56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="S56" s="34" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="T56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="U56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="V56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="W56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="X56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Y56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="Z56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AA56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AB56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AC56" s="34" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AD56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AE56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AF56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AG56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AH56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AI56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AJ56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AK56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AL56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AM56" s="34" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="AN56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AQ56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AR56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AS56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AT56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AU56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AV56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AW56" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AX56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG56" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BI56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BJ56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BK56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BL56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BM56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BN56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BO56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BP56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BQ56" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BR56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BS56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BT56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BU56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BV56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BW56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BX56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BY56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="BZ56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="CA56" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
     </row>
     <row r="57" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
-      <c r="B57" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="53"/>
+      <c r="B57" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="48"/>
+      <c r="E57" s="56">
+        <v>0</v>
+      </c>
+      <c r="F57" s="57">
+        <v>44284</v>
+      </c>
+      <c r="G57" s="57">
+        <v>44348</v>
+      </c>
+      <c r="H57" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>65</v>
+      </c>
       <c r="I57" s="25"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
@@ -11429,328 +11479,122 @@
     <row r="58" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="55" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="48"/>
+        <v>53</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="E58" s="56">
         <v>0</v>
       </c>
       <c r="F58" s="57">
-        <v>44287</v>
+        <v>44237</v>
       </c>
       <c r="G58" s="57">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="H58" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I58" s="25"/>
-      <c r="J58" s="34" t="str">
-        <f t="shared" ref="J58:AO58" ca="1" si="58">IF(AND($C58="Goal",J$5&gt;=$F58,J$5&lt;=$F58+$H58-1),2,IF(AND($C58="Milestone",J$5&gt;=$F58,J$5&lt;=$F58+$H58-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="L58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="M58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="N58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="O58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="P58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="Q58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="R58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="S58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="T58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="U58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="V58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="W58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="X58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="Y58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="Z58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AA58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AB58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AC58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AD58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AE58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AF58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AG58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AH58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AI58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AJ58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AK58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AL58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AM58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AN58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AO58" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AP58" s="34" t="str">
-        <f t="shared" ref="AP58:BU58" ca="1" si="59">IF(AND($C58="Goal",AP$5&gt;=$F58,AP$5&lt;=$F58+$H58-1),2,IF(AND($C58="Milestone",AP$5&gt;=$F58,AP$5&lt;=$F58+$H58-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AR58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AS58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AT58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AU58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AV58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AW58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AX58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AY58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="AZ58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BA58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BB58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BC58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BD58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BE58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BF58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BG58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BH58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BI58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BJ58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BK58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BL58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BM58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BN58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BO58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BP58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BQ58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BR58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BS58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BT58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BU58" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BV58" s="34" t="str">
-        <f t="shared" ref="BV58:CA58" ca="1" si="60">IF(AND($C58="Goal",BV$5&gt;=$F58,BV$5&lt;=$F58+$H58-1),2,IF(AND($C58="Milestone",BV$5&gt;=$F58,BV$5&lt;=$F58+$H58-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BW58" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BX58" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BY58" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="BZ58" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="CA58" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
+      <c r="AD58" s="34"/>
+      <c r="AE58" s="34"/>
+      <c r="AF58" s="34"/>
+      <c r="AG58" s="34"/>
+      <c r="AH58" s="34"/>
+      <c r="AI58" s="34"/>
+      <c r="AJ58" s="34"/>
+      <c r="AK58" s="34"/>
+      <c r="AL58" s="34"/>
+      <c r="AM58" s="34"/>
+      <c r="AN58" s="34"/>
+      <c r="AO58" s="34"/>
+      <c r="AP58" s="34"/>
+      <c r="AQ58" s="34"/>
+      <c r="AR58" s="34"/>
+      <c r="AS58" s="34"/>
+      <c r="AT58" s="34"/>
+      <c r="AU58" s="34"/>
+      <c r="AV58" s="34"/>
+      <c r="AW58" s="34"/>
+      <c r="AX58" s="34"/>
+      <c r="AY58" s="34"/>
+      <c r="AZ58" s="34"/>
+      <c r="BA58" s="34"/>
+      <c r="BB58" s="34"/>
+      <c r="BC58" s="34"/>
+      <c r="BD58" s="34"/>
+      <c r="BE58" s="34"/>
+      <c r="BF58" s="34"/>
+      <c r="BG58" s="34"/>
+      <c r="BH58" s="34"/>
+      <c r="BI58" s="34"/>
+      <c r="BJ58" s="34"/>
+      <c r="BK58" s="34"/>
+      <c r="BL58" s="34"/>
+      <c r="BM58" s="34"/>
+      <c r="BN58" s="34"/>
+      <c r="BO58" s="34"/>
+      <c r="BP58" s="34"/>
+      <c r="BQ58" s="34"/>
+      <c r="BR58" s="34"/>
+      <c r="BS58" s="34"/>
+      <c r="BT58" s="34"/>
+      <c r="BU58" s="34"/>
+      <c r="BV58" s="34"/>
+      <c r="BW58" s="34"/>
+      <c r="BX58" s="34"/>
+      <c r="BY58" s="34"/>
+      <c r="BZ58" s="34"/>
+      <c r="CA58" s="34"/>
     </row>
     <row r="59" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="55" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C59" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="48"/>
+      <c r="D59" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="E59" s="56">
         <v>0</v>
       </c>
       <c r="F59" s="57">
-        <v>44287</v>
+        <v>44237</v>
       </c>
       <c r="G59" s="57">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="H59" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I59" s="25"/>
       <c r="J59" s="34"/>
@@ -11827,24 +11671,26 @@
     <row r="60" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="55" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C60" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="48"/>
+      <c r="D60" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="E60" s="56">
         <v>0</v>
       </c>
       <c r="F60" s="57">
-        <v>44287</v>
+        <v>44237</v>
       </c>
       <c r="G60" s="57">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="H60" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I60" s="25"/>
       <c r="J60" s="34"/>
@@ -11920,26 +11766,15 @@
     </row>
     <row r="61" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
-      <c r="B61" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="48"/>
-      <c r="E61" s="56">
-        <v>0</v>
-      </c>
-      <c r="F61" s="57">
-        <v>44287</v>
-      </c>
-      <c r="G61" s="57">
-        <v>44348</v>
-      </c>
-      <c r="H61" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
-      </c>
+      <c r="B61" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="53"/>
       <c r="I61" s="25"/>
       <c r="J61" s="34"/>
       <c r="K61" s="34"/>
@@ -12015,7 +11850,7 @@
     <row r="62" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C62" s="48" t="s">
         <v>52</v>
@@ -12035,81 +11870,291 @@
         <v>62</v>
       </c>
       <c r="I62" s="25"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="34"/>
-      <c r="W62" s="34"/>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34"/>
-      <c r="Z62" s="34"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="34"/>
-      <c r="AC62" s="34"/>
-      <c r="AD62" s="34"/>
-      <c r="AE62" s="34"/>
-      <c r="AF62" s="34"/>
-      <c r="AG62" s="34"/>
-      <c r="AH62" s="34"/>
-      <c r="AI62" s="34"/>
-      <c r="AJ62" s="34"/>
-      <c r="AK62" s="34"/>
-      <c r="AL62" s="34"/>
-      <c r="AM62" s="34"/>
-      <c r="AN62" s="34"/>
-      <c r="AO62" s="34"/>
-      <c r="AP62" s="34"/>
-      <c r="AQ62" s="34"/>
-      <c r="AR62" s="34"/>
-      <c r="AS62" s="34"/>
-      <c r="AT62" s="34"/>
-      <c r="AU62" s="34"/>
-      <c r="AV62" s="34"/>
-      <c r="AW62" s="34"/>
-      <c r="AX62" s="34"/>
-      <c r="AY62" s="34"/>
-      <c r="AZ62" s="34"/>
-      <c r="BA62" s="34"/>
-      <c r="BB62" s="34"/>
-      <c r="BC62" s="34"/>
-      <c r="BD62" s="34"/>
-      <c r="BE62" s="34"/>
-      <c r="BF62" s="34"/>
-      <c r="BG62" s="34"/>
-      <c r="BH62" s="34"/>
-      <c r="BI62" s="34"/>
-      <c r="BJ62" s="34"/>
-      <c r="BK62" s="34"/>
-      <c r="BL62" s="34"/>
-      <c r="BM62" s="34"/>
-      <c r="BN62" s="34"/>
-      <c r="BO62" s="34"/>
-      <c r="BP62" s="34"/>
-      <c r="BQ62" s="34"/>
-      <c r="BR62" s="34"/>
-      <c r="BS62" s="34"/>
-      <c r="BT62" s="34"/>
-      <c r="BU62" s="34"/>
-      <c r="BV62" s="34"/>
-      <c r="BW62" s="34"/>
-      <c r="BX62" s="34"/>
-      <c r="BY62" s="34"/>
-      <c r="BZ62" s="34"/>
-      <c r="CA62" s="34"/>
+      <c r="J62" s="34" t="str">
+        <f t="shared" ref="J62:AO62" ca="1" si="58">IF(AND($C62="Goal",J$5&gt;=$F62,J$5&lt;=$F62+$H62-1),2,IF(AND($C62="Milestone",J$5&gt;=$F62,J$5&lt;=$F62+$H62-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="L62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="M62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="N62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="O62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="P62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="Q62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="R62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="S62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="T62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="U62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="V62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="W62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="X62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="Y62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="Z62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AA62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AB62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AC62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AD62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AE62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AF62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AG62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AH62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AI62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AJ62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AK62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AL62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AM62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AN62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AO62" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AP62" s="34" t="str">
+        <f t="shared" ref="AP62:BU62" ca="1" si="59">IF(AND($C62="Goal",AP$5&gt;=$F62,AP$5&lt;=$F62+$H62-1),2,IF(AND($C62="Milestone",AP$5&gt;=$F62,AP$5&lt;=$F62+$H62-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AR62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AS62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AT62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AU62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AV62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AW62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AX62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AY62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="AZ62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BA62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BB62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BC62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BD62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BE62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BF62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BG62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BH62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BI62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BJ62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BK62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BL62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BM62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BN62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BO62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BP62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BQ62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BR62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BS62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BT62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BU62" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BV62" s="34" t="str">
+        <f t="shared" ref="BV62:CA62" ca="1" si="60">IF(AND($C62="Goal",BV$5&gt;=$F62,BV$5&lt;=$F62+$H62-1),2,IF(AND($C62="Milestone",BV$5&gt;=$F62,BV$5&lt;=$F62+$H62-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BW62" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BX62" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BY62" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="BZ62" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="CA62" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="55" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C63" s="48" t="s">
         <v>52</v>
@@ -12203,10 +12248,10 @@
     <row r="64" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="48"/>
       <c r="E64" s="56">
@@ -12295,309 +12340,121 @@
       <c r="CA64" s="34"/>
     </row>
     <row r="65" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="53"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="48"/>
+      <c r="E65" s="56">
+        <v>0</v>
+      </c>
+      <c r="F65" s="57">
+        <v>44287</v>
+      </c>
+      <c r="G65" s="57">
+        <v>44348</v>
+      </c>
+      <c r="H65" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>62</v>
+      </c>
       <c r="I65" s="25"/>
-      <c r="J65" s="34" t="str">
-        <f t="shared" ref="J65:AO65" ca="1" si="61">IF(AND($C65="Goal",J$5&gt;=$F65,J$5&lt;=$F65+$H65-1),2,IF(AND($C65="Milestone",J$5&gt;=$F65,J$5&lt;=$F65+$H65-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="L65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="M65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="N65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="O65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="P65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Q65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="R65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="S65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="T65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="U65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="V65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="W65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="X65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Y65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Z65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AA65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AB65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AC65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AD65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AE65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AF65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AG65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AH65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AI65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AJ65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AK65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AL65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AM65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AN65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AO65" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AP65" s="34" t="str">
-        <f t="shared" ref="AP65:BU65" ca="1" si="62">IF(AND($C65="Goal",AP$5&gt;=$F65,AP$5&lt;=$F65+$H65-1),2,IF(AND($C65="Milestone",AP$5&gt;=$F65,AP$5&lt;=$F65+$H65-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AR65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AS65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AT65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AU65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AV65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AW65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AX65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AY65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AZ65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BA65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BB65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BC65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BD65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BE65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BF65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BG65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BH65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BI65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BJ65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BK65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BL65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BM65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BN65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BO65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BP65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BQ65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BR65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BS65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BT65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BU65" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="BV65" s="34" t="str">
-        <f t="shared" ref="BV65:CA65" ca="1" si="63">IF(AND($C65="Goal",BV$5&gt;=$F65,BV$5&lt;=$F65+$H65-1),2,IF(AND($C65="Milestone",BV$5&gt;=$F65,BV$5&lt;=$F65+$H65-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BW65" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="BX65" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="BY65" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="BZ65" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="CA65" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+      <c r="AD65" s="34"/>
+      <c r="AE65" s="34"/>
+      <c r="AF65" s="34"/>
+      <c r="AG65" s="34"/>
+      <c r="AH65" s="34"/>
+      <c r="AI65" s="34"/>
+      <c r="AJ65" s="34"/>
+      <c r="AK65" s="34"/>
+      <c r="AL65" s="34"/>
+      <c r="AM65" s="34"/>
+      <c r="AN65" s="34"/>
+      <c r="AO65" s="34"/>
+      <c r="AP65" s="34"/>
+      <c r="AQ65" s="34"/>
+      <c r="AR65" s="34"/>
+      <c r="AS65" s="34"/>
+      <c r="AT65" s="34"/>
+      <c r="AU65" s="34"/>
+      <c r="AV65" s="34"/>
+      <c r="AW65" s="34"/>
+      <c r="AX65" s="34"/>
+      <c r="AY65" s="34"/>
+      <c r="AZ65" s="34"/>
+      <c r="BA65" s="34"/>
+      <c r="BB65" s="34"/>
+      <c r="BC65" s="34"/>
+      <c r="BD65" s="34"/>
+      <c r="BE65" s="34"/>
+      <c r="BF65" s="34"/>
+      <c r="BG65" s="34"/>
+      <c r="BH65" s="34"/>
+      <c r="BI65" s="34"/>
+      <c r="BJ65" s="34"/>
+      <c r="BK65" s="34"/>
+      <c r="BL65" s="34"/>
+      <c r="BM65" s="34"/>
+      <c r="BN65" s="34"/>
+      <c r="BO65" s="34"/>
+      <c r="BP65" s="34"/>
+      <c r="BQ65" s="34"/>
+      <c r="BR65" s="34"/>
+      <c r="BS65" s="34"/>
+      <c r="BT65" s="34"/>
+      <c r="BU65" s="34"/>
+      <c r="BV65" s="34"/>
+      <c r="BW65" s="34"/>
+      <c r="BX65" s="34"/>
+      <c r="BY65" s="34"/>
+      <c r="BZ65" s="34"/>
+      <c r="CA65" s="34"/>
     </row>
     <row r="66" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="48"/>
+      <c r="E66" s="56">
+        <v>0</v>
+      </c>
+      <c r="F66" s="57">
+        <v>44287</v>
+      </c>
+      <c r="G66" s="57">
+        <v>44348</v>
+      </c>
+      <c r="H66" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>62</v>
+      </c>
       <c r="I66" s="25"/>
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
@@ -12673,921 +12530,488 @@
     <row r="67" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="55" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="29">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D67" s="48"/>
+      <c r="E67" s="56">
+        <v>0</v>
       </c>
       <c r="F67" s="57">
-        <v>44146</v>
+        <v>44287</v>
       </c>
       <c r="G67" s="57">
-        <v>44166</v>
+        <v>44348</v>
       </c>
       <c r="H67" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I67" s="25"/>
-      <c r="J67" s="34" t="str">
-        <f t="shared" ref="J67:S73" ca="1" si="64">IF(AND($C67="Goal",J$5&gt;=$F67,J$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",J$5&gt;=$F67,J$5&lt;=$F67+$H67-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="L67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="M67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="N67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="O67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="P67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="Q67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="R67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="S67" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="T67" s="34" t="str">
-        <f t="shared" ref="T67:AC73" ca="1" si="65">IF(AND($C67="Goal",T$5&gt;=$F67,T$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",T$5&gt;=$F67,T$5&lt;=$F67+$H67-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="V67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="W67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="X67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="Y67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="Z67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AA67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AB67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AC67" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AD67" s="34" t="str">
-        <f t="shared" ref="AD67:AM73" ca="1" si="66">IF(AND($C67="Goal",AD$5&gt;=$F67,AD$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",AD$5&gt;=$F67,AD$5&lt;=$F67+$H67-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE67" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AF67" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AG67" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AH67" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AI67" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AJ67" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AK67" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AL67" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AM67" s="34">
-        <f t="shared" ca="1" si="66"/>
-        <v>2</v>
-      </c>
-      <c r="AN67" s="34">
-        <f t="shared" ref="AN67:AW73" ca="1" si="67">IF(AND($C67="Goal",AN$5&gt;=$F67,AN$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",AN$5&gt;=$F67,AN$5&lt;=$F67+$H67-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AO67" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AP67" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AQ67" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AR67" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AS67" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AT67" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AU67" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AV67" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AW67" s="34">
-        <f t="shared" ca="1" si="67"/>
-        <v>2</v>
-      </c>
-      <c r="AX67" s="34">
-        <f t="shared" ref="AX67:BG73" ca="1" si="68">IF(AND($C67="Goal",AX$5&gt;=$F67,AX$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",AX$5&gt;=$F67,AX$5&lt;=$F67+$H67-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AY67" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="AZ67" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BA67" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BB67" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BC67" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BD67" s="34">
-        <f ca="1">IF(AND($C67="Goal",BD$5&gt;=$F67,BD$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",BD$5&gt;=$F67,BD$5&lt;=$F67+$H67-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BE67" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BF67" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BG67" s="34">
-        <f t="shared" ca="1" si="68"/>
-        <v>2</v>
-      </c>
-      <c r="BH67" s="34" t="str">
-        <f t="shared" ref="BH67:BQ73" ca="1" si="69">IF(AND($C67="Goal",BH$5&gt;=$F67,BH$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",BH$5&gt;=$F67,BH$5&lt;=$F67+$H67-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BJ67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BK67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BL67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BM67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BN67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BO67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BP67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BQ67" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BR67" s="34" t="str">
-        <f t="shared" ref="BR67:CA73" ca="1" si="70">IF(AND($C67="Goal",BR$5&gt;=$F67,BR$5&lt;=$F67+$H67-1),2,IF(AND($C67="Milestone",BR$5&gt;=$F67,BR$5&lt;=$F67+$H67-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BS67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BT67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BU67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BV67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BW67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BX67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BY67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BZ67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="CA67" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
+      <c r="AD67" s="34"/>
+      <c r="AE67" s="34"/>
+      <c r="AF67" s="34"/>
+      <c r="AG67" s="34"/>
+      <c r="AH67" s="34"/>
+      <c r="AI67" s="34"/>
+      <c r="AJ67" s="34"/>
+      <c r="AK67" s="34"/>
+      <c r="AL67" s="34"/>
+      <c r="AM67" s="34"/>
+      <c r="AN67" s="34"/>
+      <c r="AO67" s="34"/>
+      <c r="AP67" s="34"/>
+      <c r="AQ67" s="34"/>
+      <c r="AR67" s="34"/>
+      <c r="AS67" s="34"/>
+      <c r="AT67" s="34"/>
+      <c r="AU67" s="34"/>
+      <c r="AV67" s="34"/>
+      <c r="AW67" s="34"/>
+      <c r="AX67" s="34"/>
+      <c r="AY67" s="34"/>
+      <c r="AZ67" s="34"/>
+      <c r="BA67" s="34"/>
+      <c r="BB67" s="34"/>
+      <c r="BC67" s="34"/>
+      <c r="BD67" s="34"/>
+      <c r="BE67" s="34"/>
+      <c r="BF67" s="34"/>
+      <c r="BG67" s="34"/>
+      <c r="BH67" s="34"/>
+      <c r="BI67" s="34"/>
+      <c r="BJ67" s="34"/>
+      <c r="BK67" s="34"/>
+      <c r="BL67" s="34"/>
+      <c r="BM67" s="34"/>
+      <c r="BN67" s="34"/>
+      <c r="BO67" s="34"/>
+      <c r="BP67" s="34"/>
+      <c r="BQ67" s="34"/>
+      <c r="BR67" s="34"/>
+      <c r="BS67" s="34"/>
+      <c r="BT67" s="34"/>
+      <c r="BU67" s="34"/>
+      <c r="BV67" s="34"/>
+      <c r="BW67" s="34"/>
+      <c r="BX67" s="34"/>
+      <c r="BY67" s="34"/>
+      <c r="BZ67" s="34"/>
+      <c r="CA67" s="34"/>
     </row>
     <row r="68" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="55" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D68" s="48"/>
-      <c r="E68" s="29">
+      <c r="E68" s="56">
         <v>0</v>
       </c>
       <c r="F68" s="57">
-        <v>44251</v>
+        <v>44287</v>
       </c>
       <c r="G68" s="57">
-        <v>44264</v>
+        <v>44348</v>
       </c>
       <c r="H68" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="I68" s="25"/>
-      <c r="J68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="K68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="L68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="M68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="N68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="O68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="P68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="Q68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="R68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="S68" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="T68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="U68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="V68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="W68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="X68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="Y68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="Z68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AA68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AB68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AC68" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AD68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AE68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AF68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AG68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AH68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AI68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AJ68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AK68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AL68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AM68" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AN68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AO68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AP68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AQ68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AR68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AS68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AT68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AU68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AV68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AW68" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AX68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="AY68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="AZ68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BA68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BB68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BC68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BD68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BE68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BF68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BG68" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BH68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BI68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BJ68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BK68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BL68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BM68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BN68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BO68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BP68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BQ68" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BR68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BS68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BT68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BU68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BV68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BW68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BX68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BY68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BZ68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="CA68" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="34"/>
+      <c r="AC68" s="34"/>
+      <c r="AD68" s="34"/>
+      <c r="AE68" s="34"/>
+      <c r="AF68" s="34"/>
+      <c r="AG68" s="34"/>
+      <c r="AH68" s="34"/>
+      <c r="AI68" s="34"/>
+      <c r="AJ68" s="34"/>
+      <c r="AK68" s="34"/>
+      <c r="AL68" s="34"/>
+      <c r="AM68" s="34"/>
+      <c r="AN68" s="34"/>
+      <c r="AO68" s="34"/>
+      <c r="AP68" s="34"/>
+      <c r="AQ68" s="34"/>
+      <c r="AR68" s="34"/>
+      <c r="AS68" s="34"/>
+      <c r="AT68" s="34"/>
+      <c r="AU68" s="34"/>
+      <c r="AV68" s="34"/>
+      <c r="AW68" s="34"/>
+      <c r="AX68" s="34"/>
+      <c r="AY68" s="34"/>
+      <c r="AZ68" s="34"/>
+      <c r="BA68" s="34"/>
+      <c r="BB68" s="34"/>
+      <c r="BC68" s="34"/>
+      <c r="BD68" s="34"/>
+      <c r="BE68" s="34"/>
+      <c r="BF68" s="34"/>
+      <c r="BG68" s="34"/>
+      <c r="BH68" s="34"/>
+      <c r="BI68" s="34"/>
+      <c r="BJ68" s="34"/>
+      <c r="BK68" s="34"/>
+      <c r="BL68" s="34"/>
+      <c r="BM68" s="34"/>
+      <c r="BN68" s="34"/>
+      <c r="BO68" s="34"/>
+      <c r="BP68" s="34"/>
+      <c r="BQ68" s="34"/>
+      <c r="BR68" s="34"/>
+      <c r="BS68" s="34"/>
+      <c r="BT68" s="34"/>
+      <c r="BU68" s="34"/>
+      <c r="BV68" s="34"/>
+      <c r="BW68" s="34"/>
+      <c r="BX68" s="34"/>
+      <c r="BY68" s="34"/>
+      <c r="BZ68" s="34"/>
+      <c r="CA68" s="34"/>
     </row>
     <row r="69" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="48"/>
-      <c r="E69" s="29">
-        <v>0</v>
-      </c>
-      <c r="F69" s="57">
-        <v>44317</v>
-      </c>
-      <c r="G69" s="57">
-        <v>44348</v>
-      </c>
-      <c r="H69" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>32</v>
-      </c>
+      <c r="A69" s="15"/>
+      <c r="B69" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
       <c r="I69" s="25"/>
       <c r="J69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ref="J69:AO69" ca="1" si="61">IF(AND($C69="Goal",J$5&gt;=$F69,J$5&lt;=$F69+$H69-1),2,IF(AND($C69="Milestone",J$5&gt;=$F69,J$5&lt;=$F69+$H69-1),1,""))</f>
         <v/>
       </c>
       <c r="K69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="L69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="M69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="N69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="O69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="P69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Q69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="R69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="S69" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="T69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC69" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AE69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AF69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AG69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AH69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AI69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AJ69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AK69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AL69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AM69" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AN69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AO69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AP69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ref="AP69:BU69" ca="1" si="62">IF(AND($C69="Goal",AP$5&gt;=$F69,AP$5&lt;=$F69+$H69-1),2,IF(AND($C69="Milestone",AP$5&gt;=$F69,AP$5&lt;=$F69+$H69-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AR69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AS69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AT69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AU69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AV69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AW69" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AX69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AY69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AZ69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BA69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BB69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BC69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BD69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BE69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BF69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BG69" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BH69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BI69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BJ69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BK69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BL69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BM69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BN69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BO69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BP69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BQ69" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BR69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BS69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BT69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BU69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="BV69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ref="BV69:CA69" ca="1" si="63">IF(AND($C69="Goal",BV$5&gt;=$F69,BV$5&lt;=$F69+$H69-1),2,IF(AND($C69="Milestone",BV$5&gt;=$F69,BV$5&lt;=$F69+$H69-1),1,""))</f>
         <v/>
       </c>
       <c r="BW69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BX69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BY69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BZ69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="CA69" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="37" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
@@ -13596,315 +13020,105 @@
       <c r="G70" s="30"/>
       <c r="H70" s="31"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="K70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="L70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="M70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="N70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="O70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="P70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="Q70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="R70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="S70" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="T70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="U70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="V70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="W70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="X70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="Y70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="Z70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AA70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AB70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AC70" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AD70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AE70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AF70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AG70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AH70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AI70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AJ70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AK70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AL70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AM70" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AN70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AO70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AP70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AQ70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AR70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AS70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AT70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AU70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AV70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AW70" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AX70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="AY70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="AZ70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BA70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BB70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BC70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BD70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BE70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BF70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BG70" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BH70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BI70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BJ70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BK70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BL70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BM70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BN70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BO70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BP70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BQ70" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="BR70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BS70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BT70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BU70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BV70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BW70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BX70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BY70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="BZ70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="CA70" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="34"/>
+      <c r="AC70" s="34"/>
+      <c r="AD70" s="34"/>
+      <c r="AE70" s="34"/>
+      <c r="AF70" s="34"/>
+      <c r="AG70" s="34"/>
+      <c r="AH70" s="34"/>
+      <c r="AI70" s="34"/>
+      <c r="AJ70" s="34"/>
+      <c r="AK70" s="34"/>
+      <c r="AL70" s="34"/>
+      <c r="AM70" s="34"/>
+      <c r="AN70" s="34"/>
+      <c r="AO70" s="34"/>
+      <c r="AP70" s="34"/>
+      <c r="AQ70" s="34"/>
+      <c r="AR70" s="34"/>
+      <c r="AS70" s="34"/>
+      <c r="AT70" s="34"/>
+      <c r="AU70" s="34"/>
+      <c r="AV70" s="34"/>
+      <c r="AW70" s="34"/>
+      <c r="AX70" s="34"/>
+      <c r="AY70" s="34"/>
+      <c r="AZ70" s="34"/>
+      <c r="BA70" s="34"/>
+      <c r="BB70" s="34"/>
+      <c r="BC70" s="34"/>
+      <c r="BD70" s="34"/>
+      <c r="BE70" s="34"/>
+      <c r="BF70" s="34"/>
+      <c r="BG70" s="34"/>
+      <c r="BH70" s="34"/>
+      <c r="BI70" s="34"/>
+      <c r="BJ70" s="34"/>
+      <c r="BK70" s="34"/>
+      <c r="BL70" s="34"/>
+      <c r="BM70" s="34"/>
+      <c r="BN70" s="34"/>
+      <c r="BO70" s="34"/>
+      <c r="BP70" s="34"/>
+      <c r="BQ70" s="34"/>
+      <c r="BR70" s="34"/>
+      <c r="BS70" s="34"/>
+      <c r="BT70" s="34"/>
+      <c r="BU70" s="34"/>
+      <c r="BV70" s="34"/>
+      <c r="BW70" s="34"/>
+      <c r="BX70" s="34"/>
+      <c r="BY70" s="34"/>
+      <c r="BZ70" s="34"/>
+      <c r="CA70" s="34"/>
     </row>
     <row r="71" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="55" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C71" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" s="29">
         <v>1</v>
       </c>
       <c r="F71" s="57">
-        <v>44117</v>
+        <v>44146</v>
       </c>
       <c r="G71" s="57">
-        <v>44117</v>
+        <v>44166</v>
       </c>
       <c r="H71" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I71" s="25"/>
-      <c r="J71" s="34">
-        <f t="shared" ca="1" si="64"/>
-        <v>2</v>
+      <c r="J71" s="34" t="str">
+        <f t="shared" ref="J71:S77" ca="1" si="64">IF(AND($C71="Goal",J$5&gt;=$F71,J$5&lt;=$F71+$H71-1),2,IF(AND($C71="Milestone",J$5&gt;=$F71,J$5&lt;=$F71+$H71-1),1,""))</f>
+        <v/>
       </c>
       <c r="K71" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
@@ -13943,7 +13157,7 @@
         <v/>
       </c>
       <c r="T71" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ref="T71:AC77" ca="1" si="65">IF(AND($C71="Goal",T$5&gt;=$F71,T$5&lt;=$F71+$H71-1),2,IF(AND($C71="Milestone",T$5&gt;=$F71,T$5&lt;=$F71+$H71-1),1,""))</f>
         <v/>
       </c>
       <c r="U71" s="34" t="str">
@@ -13983,7 +13197,7 @@
         <v/>
       </c>
       <c r="AD71" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ref="AD71:AM77" ca="1" si="66">IF(AND($C71="Goal",AD$5&gt;=$F71,AD$5&lt;=$F71+$H71-1),2,IF(AND($C71="Milestone",AD$5&gt;=$F71,AD$5&lt;=$F71+$H71-1),1,""))</f>
         <v/>
       </c>
       <c r="AE71" s="34" t="str">
@@ -14018,92 +13232,92 @@
         <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
-      <c r="AM71" s="34" t="str">
+      <c r="AM71" s="34">
         <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AN71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AN71" s="34">
+        <f t="shared" ref="AN71:AW77" ca="1" si="67">IF(AND($C71="Goal",AN$5&gt;=$F71,AN$5&lt;=$F71+$H71-1),2,IF(AND($C71="Milestone",AN$5&gt;=$F71,AN$5&lt;=$F71+$H71-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AO71" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AO71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AP71" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AP71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AQ71" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AQ71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AR71" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AR71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AS71" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AS71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AT71" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AT71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AU71" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AU71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV71" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AV71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AW71" s="34">
         <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AW71" s="34" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="AX71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AX71" s="34">
+        <f t="shared" ref="AX71:BG77" ca="1" si="68">IF(AND($C71="Goal",AX$5&gt;=$F71,AX$5&lt;=$F71+$H71-1),2,IF(AND($C71="Milestone",AX$5&gt;=$F71,AX$5&lt;=$F71+$H71-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AY71" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="AY71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="AZ71" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="AZ71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BA71" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BA71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BB71" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BB71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BC71" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BC71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BD71" s="34">
+        <f ca="1">IF(AND($C71="Goal",BD$5&gt;=$F71,BD$5&lt;=$F71+$H71-1),2,IF(AND($C71="Milestone",BD$5&gt;=$F71,BD$5&lt;=$F71+$H71-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="BE71" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BD71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BF71" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BE71" s="34" t="str">
+        <v>2</v>
+      </c>
+      <c r="BG71" s="34">
         <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BF71" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="BG71" s="34" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BH71" s="34" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ref="BH71:BQ77" ca="1" si="69">IF(AND($C71="Goal",BH$5&gt;=$F71,BH$5&lt;=$F71+$H71-1),2,IF(AND($C71="Milestone",BH$5&gt;=$F71,BH$5&lt;=$F71+$H71-1),1,""))</f>
         <v/>
       </c>
       <c r="BI71" s="34" t="str">
@@ -14143,7 +13357,7 @@
         <v/>
       </c>
       <c r="BR71" s="34" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ref="BR71:CA77" ca="1" si="70">IF(AND($C71="Goal",BR$5&gt;=$F71,BR$5&lt;=$F71+$H71-1),2,IF(AND($C71="Milestone",BR$5&gt;=$F71,BR$5&lt;=$F71+$H71-1),1,""))</f>
         <v/>
       </c>
       <c r="BS71" s="34" t="str">
@@ -14185,13 +13399,26 @@
     </row>
     <row r="72" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
+      <c r="B72" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="48"/>
+      <c r="E72" s="29">
+        <v>0</v>
+      </c>
+      <c r="F72" s="57">
+        <v>44251</v>
+      </c>
+      <c r="G72" s="57">
+        <v>44264</v>
+      </c>
+      <c r="H72" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>14</v>
+      </c>
       <c r="I72" s="25"/>
       <c r="J72" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
@@ -14475,16 +13702,27 @@
       </c>
     </row>
     <row r="73" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="48"/>
+      <c r="E73" s="29">
+        <v>0</v>
+      </c>
+      <c r="F73" s="57">
+        <v>44317</v>
+      </c>
+      <c r="G73" s="57">
+        <v>44348</v>
+      </c>
+      <c r="H73" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>32</v>
+      </c>
       <c r="I73" s="25"/>
       <c r="J73" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
@@ -14767,18 +14005,1197 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="5"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="4"/>
+    <row r="74" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="K74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="L74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="M74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="N74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="O74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="P74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="Q74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="R74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="S74" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="T74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="U74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="V74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="W74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="X74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Y74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Z74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AA74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AB74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AC74" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AD74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AE74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AF74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AG74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AH74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AI74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AJ74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AK74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AL74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AM74" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AN74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AO74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AP74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AQ74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AR74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AS74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AT74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AU74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AV74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AW74" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AX74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AY74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AZ74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BA74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BB74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BC74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BD74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BE74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BF74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BG74" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BH74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BI74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BJ74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BK74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BL74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BM74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BN74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BO74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BP74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BQ74" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BR74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BS74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BT74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BU74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BV74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BW74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BX74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BY74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BZ74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="CA74" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
     </row>
-    <row r="75" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="6"/>
+    <row r="75" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="29">
+        <v>1</v>
+      </c>
+      <c r="F75" s="57">
+        <v>44117</v>
+      </c>
+      <c r="G75" s="57">
+        <v>44117</v>
+      </c>
+      <c r="H75" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>1</v>
+      </c>
+      <c r="I75" s="25"/>
+      <c r="J75" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="K75" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="L75" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="M75" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="N75" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="O75" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="P75" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="Q75" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="R75" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="S75" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="T75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="U75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="V75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="W75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="X75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Y75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Z75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AA75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AB75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AC75" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AD75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AE75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AF75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AG75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AH75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AI75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AJ75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AK75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AL75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AM75" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AN75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AO75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AP75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AQ75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AR75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AS75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AT75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AU75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AV75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AW75" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AX75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AY75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AZ75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BA75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BB75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BC75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BD75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BE75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BF75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BG75" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BH75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BI75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BJ75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BK75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BL75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BM75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BN75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BO75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BP75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BQ75" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BR75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BS75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BT75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BU75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BV75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BW75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BX75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BY75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BZ75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="CA75" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
     </row>
-    <row r="76" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="K76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="L76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="M76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="N76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="O76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="P76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="Q76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="R76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="S76" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="T76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="U76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="V76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="W76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="X76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Y76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Z76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AA76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AB76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AC76" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AD76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AE76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AF76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AG76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AH76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AI76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AJ76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AK76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AL76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AM76" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AN76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AO76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AP76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AQ76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AR76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AS76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AT76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AU76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AV76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AW76" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AX76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AY76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AZ76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BA76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BB76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BC76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BD76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BE76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BF76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BG76" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BH76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BI76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BJ76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BK76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BL76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BM76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BN76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BO76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BP76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BQ76" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BR76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BS76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BT76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BU76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BV76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BW76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BX76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BY76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BZ76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="CA76" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="K77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="L77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="M77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="N77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="O77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="P77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="Q77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="R77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="S77" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="T77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="U77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="V77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="W77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="X77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Y77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="Z77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AA77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AB77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AC77" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AD77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AE77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AF77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AG77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AH77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AI77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AJ77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AK77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AL77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AM77" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AN77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AO77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AP77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AQ77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AR77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AS77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AT77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AU77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AV77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AW77" s="34" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="AX77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AY77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="AZ77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BA77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BB77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BC77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BD77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BE77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BF77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BG77" s="34" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="BH77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BI77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BJ77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BK77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BL77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BM77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BN77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BO77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BP77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BQ77" s="34" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="BR77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BS77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BT77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BU77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BV77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BW77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BX77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BY77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="BZ77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="CA77" s="34" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="5"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="6"/>
+    </row>
     <row r="80" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14866,6 +15283,10 @@
     <row r="164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AE2:AJ2"/>
@@ -14878,8 +15299,8 @@
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="X2:AC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E11 E17 E13 E65:E66 E73 E33 E70 E15 E45:E51 E53:E55">
-    <cfRule type="dataBar" priority="344">
+  <conditionalFormatting sqref="E7:E11 E17 E13 E69:E70 E77 E33 E74 E15 E57:E59 E48:E55">
+    <cfRule type="dataBar" priority="345">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14892,45 +15313,45 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J65:BZ66 J26:BZ33 J21:BZ24 J39:BZ43 J45:BZ51 J53:BZ55">
-    <cfRule type="expression" dxfId="36" priority="337">
+  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J69:BZ70 J26:BZ33 J21:BZ24 J39:BZ46 J48:BZ55 J57:BZ59">
+    <cfRule type="expression" dxfId="40" priority="338">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="35" priority="343">
+    <cfRule type="expression" dxfId="39" priority="344">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="34" priority="339">
+    <cfRule type="expression" dxfId="38" priority="340">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="33" priority="338">
+    <cfRule type="expression" dxfId="37" priority="339">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:CA11 J13:CA73">
-    <cfRule type="expression" dxfId="32" priority="360" stopIfTrue="1">
+  <conditionalFormatting sqref="J8:CA11 J13:CA77">
+    <cfRule type="expression" dxfId="36" priority="361" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="380" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="398" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="399" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="400" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="dataBar" priority="313">
+  <conditionalFormatting sqref="E69">
+    <cfRule type="dataBar" priority="314">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14943,8 +15364,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="dataBar" priority="305">
+  <conditionalFormatting sqref="E74">
+    <cfRule type="dataBar" priority="306">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14958,7 +15379,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="dataBar" priority="281">
+    <cfRule type="dataBar" priority="282">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14971,13 +15392,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA51 CA23:CA24 CA65:CA66 CA33">
-    <cfRule type="expression" dxfId="27" priority="458">
+  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA55 CA23:CA24 CA69:CA70 CA33">
+    <cfRule type="expression" dxfId="31" priority="459">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="dataBar" priority="248">
+    <cfRule type="dataBar" priority="249">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14991,17 +15412,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="26" priority="247">
+    <cfRule type="expression" dxfId="30" priority="248">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA43 CA45:CA50 CA53:CA55">
-    <cfRule type="expression" dxfId="25" priority="254">
+  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA46 CA48:CA54 CA57:CA59">
+    <cfRule type="expression" dxfId="29" priority="255">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="dataBar" priority="239">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15015,7 +15436,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="dataBar" priority="237">
+    <cfRule type="dataBar" priority="238">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15029,7 +15450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="dataBar" priority="229">
+    <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15043,34 +15464,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="24" priority="228">
+    <cfRule type="expression" dxfId="28" priority="229">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="23" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="231" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="232" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="233" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="234" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="235" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="18" priority="235">
+    <cfRule type="expression" dxfId="22" priority="236">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="dataBar" priority="227">
+  <conditionalFormatting sqref="E70">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15084,17 +15505,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="17" priority="219">
+    <cfRule type="expression" dxfId="21" priority="220">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="16" priority="225">
+    <cfRule type="expression" dxfId="20" priority="226">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="dataBar" priority="218">
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15107,18 +15528,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:BZ44 J51:BZ51">
-    <cfRule type="expression" dxfId="15" priority="210">
+  <conditionalFormatting sqref="J47:BZ47 J55:BZ55">
+    <cfRule type="expression" dxfId="19" priority="211">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA44 CA51">
-    <cfRule type="expression" dxfId="14" priority="216">
+  <conditionalFormatting sqref="CA47 CA55">
+    <cfRule type="expression" dxfId="18" priority="217">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44 E51">
-    <cfRule type="dataBar" priority="209">
+  <conditionalFormatting sqref="E47 E55">
+    <cfRule type="dataBar" priority="210">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15131,18 +15552,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57:BZ57">
-    <cfRule type="expression" dxfId="13" priority="190">
+  <conditionalFormatting sqref="J61:BZ61">
+    <cfRule type="expression" dxfId="17" priority="191">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA57">
-    <cfRule type="expression" dxfId="12" priority="191">
+  <conditionalFormatting sqref="CA61">
+    <cfRule type="expression" dxfId="16" priority="192">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="dataBar" priority="189">
+  <conditionalFormatting sqref="E61">
+    <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15156,67 +15577,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="11" priority="136">
+    <cfRule type="expression" dxfId="15" priority="137">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="10" priority="137">
+    <cfRule type="expression" dxfId="14" priority="138">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="9" priority="113">
+    <cfRule type="expression" dxfId="13" priority="114">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="8" priority="112">
+    <cfRule type="expression" dxfId="12" priority="113">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:BZ56">
-    <cfRule type="expression" dxfId="7" priority="81">
+  <conditionalFormatting sqref="J56:BZ60">
+    <cfRule type="expression" dxfId="11" priority="82">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA52:CA56">
-    <cfRule type="expression" dxfId="6" priority="80">
+  <conditionalFormatting sqref="CA56:CA60">
+    <cfRule type="expression" dxfId="10" priority="81">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58:BZ64">
-    <cfRule type="expression" dxfId="5" priority="73">
+  <conditionalFormatting sqref="J62:BZ68">
+    <cfRule type="expression" dxfId="9" priority="74">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA58:CA64">
-    <cfRule type="expression" dxfId="4" priority="72">
+  <conditionalFormatting sqref="CA62:CA68">
+    <cfRule type="expression" dxfId="8" priority="73">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67:BZ73">
-    <cfRule type="expression" dxfId="3" priority="65">
+  <conditionalFormatting sqref="J71:BZ77">
+    <cfRule type="expression" dxfId="7" priority="66">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA67:CA73">
-    <cfRule type="expression" dxfId="2" priority="64">
+  <conditionalFormatting sqref="CA71:CA77">
+    <cfRule type="expression" dxfId="6" priority="65">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="1" priority="34">
+    <cfRule type="expression" dxfId="5" priority="35">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA18:CA20">
-    <cfRule type="expression" dxfId="0" priority="35">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E32">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15229,8 +15650,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15243,8 +15664,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E69">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E71:E73">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15258,7 +15679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E37">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15272,7 +15693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15285,6 +15706,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E46">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CAAC2D0F-92C6-4B96-984C-956E22AE4EA7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
@@ -15292,10 +15727,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9 C12" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
       <formula1>"Goal,Milestone,On Track, Low Priority, Med Priority High Risk, High Priority"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C65:C73" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C69:C77" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C72" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C76" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
       <formula1>"Goal,Milestone,On Track, Low, Med, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15354,7 +15789,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E11 E17 E13 E65:E66 E73 E33 E70 E15 E45:E51 E53:E55</xm:sqref>
+          <xm:sqref>E7:E11 E17 E13 E69:E70 E77 E33 E74 E15 E57:E59 E48:E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36922C6F-F55A-8F49-86CD-B382086C6C9E}">
@@ -15369,7 +15804,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E65</xm:sqref>
+          <xm:sqref>E69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CFA0F17-6347-3E4A-87FC-DD2694821F83}">
@@ -15384,7 +15819,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E70</xm:sqref>
+          <xm:sqref>E74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2D0729C-0866-8942-B08E-D5C757399A18}">
@@ -15474,7 +15909,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E66</xm:sqref>
+          <xm:sqref>E70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D79EBD87-5F64-3440-B8E6-BE18D3A97878}">
@@ -15504,7 +15939,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E44 E51</xm:sqref>
+          <xm:sqref>E47 E55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8BD350D1-54BB-EC4E-B65C-91DE52823EAF}">
@@ -15519,7 +15954,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E57</xm:sqref>
+          <xm:sqref>E61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{366133D0-FF9F-A54A-B853-B640570739BE}">
@@ -15549,7 +15984,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E71</xm:sqref>
+          <xm:sqref>E75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C1D15CD-08F7-4E4C-AEF0-0399341BEE1B}">
@@ -15564,7 +15999,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E67:E69</xm:sqref>
+          <xm:sqref>E71:E73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70BD8D54-5CD7-4341-8332-FE6663A466EA}">
@@ -15597,7 +16032,22 @@
           <xm:sqref>E14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="478" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
+          <x14:cfRule type="dataBar" id="{CAAC2D0F-92C6-4B96-984C-956E22AE4EA7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E39:E46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="479" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15616,7 +16066,7 @@
           <xm:sqref>J24:CA24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="484" id="{B0AA1351-A225-3942-89A5-F80CB96A7148}">
+          <x14:cfRule type="iconSet" priority="485" id="{B0AA1351-A225-3942-89A5-F80CB96A7148}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15632,10 +16082,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J65:CA66</xm:sqref>
+          <xm:sqref>J69:CA70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="498" id="{82FEFA3B-0957-5746-B989-0137642BE052}">
+          <x14:cfRule type="iconSet" priority="499" id="{82FEFA3B-0957-5746-B989-0137642BE052}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15654,7 +16104,7 @@
           <xm:sqref>J33:CA33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="542" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="543" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15670,10 +16120,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J51:CA51 J23:CA23 J8:CA11 J13:CA17</xm:sqref>
+          <xm:sqref>J55:CA55 J23:CA23 J8:CA11 J13:CA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="236" id="{480D9390-1284-8F4E-81C3-076195976C87}">
+          <x14:cfRule type="iconSet" priority="237" id="{480D9390-1284-8F4E-81C3-076195976C87}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15692,7 +16142,7 @@
           <xm:sqref>J12:CA12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="217" id="{CBAF9D01-052E-9E4F-80FB-7E0BFADD2A5B}">
+          <x14:cfRule type="iconSet" priority="218" id="{CBAF9D01-052E-9E4F-80FB-7E0BFADD2A5B}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15708,10 +16158,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J44:CA44</xm:sqref>
+          <xm:sqref>J47:CA47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="192" id="{CA248EBF-FA81-2845-83C1-432BD56BCD91}">
+          <x14:cfRule type="iconSet" priority="193" id="{CA248EBF-FA81-2845-83C1-432BD56BCD91}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15727,10 +16177,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J57:CA57</xm:sqref>
+          <xm:sqref>J61:CA61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="138" id="{C3E335A3-845A-8149-8FBF-06975DBEFFEA}">
+          <x14:cfRule type="iconSet" priority="139" id="{C3E335A3-845A-8149-8FBF-06975DBEFFEA}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15749,7 +16199,7 @@
           <xm:sqref>J25:CA25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="650" id="{1330B30D-F36E-3E4A-B43F-867C3A53D852}">
+          <x14:cfRule type="iconSet" priority="651" id="{1330B30D-F36E-3E4A-B43F-867C3A53D852}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15768,7 +16218,7 @@
           <xm:sqref>J26:CA32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="119" id="{F57842D6-BB31-8E45-8661-495D5FB4ED92}">
+          <x14:cfRule type="iconSet" priority="120" id="{F57842D6-BB31-8E45-8661-495D5FB4ED92}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15787,7 +16237,7 @@
           <xm:sqref>J34:CA37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="87" id="{A47E4274-CF1C-0D44-B1B9-E7AA50A018A2}">
+          <x14:cfRule type="iconSet" priority="88" id="{A47E4274-CF1C-0D44-B1B9-E7AA50A018A2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15803,10 +16253,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J52:CA52 J56:CA56</xm:sqref>
+          <xm:sqref>J56:CA56 J60:CA60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="79" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
+          <x14:cfRule type="iconSet" priority="80" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15822,10 +16272,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J58:CA64</xm:sqref>
+          <xm:sqref>J62:CA68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="71" id="{EE280A5C-AAE2-BA43-A153-612158E3BF59}">
+          <x14:cfRule type="iconSet" priority="72" id="{EE280A5C-AAE2-BA43-A153-612158E3BF59}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15841,10 +16291,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J67:CA73</xm:sqref>
+          <xm:sqref>J71:CA77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{FAD2EEE5-A059-C248-816C-8DFF237F9CAC}">
+          <x14:cfRule type="iconSet" priority="37" id="{FAD2EEE5-A059-C248-816C-8DFF237F9CAC}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15863,7 +16313,7 @@
           <xm:sqref>J18:CA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="680" id="{E21A14E8-7E31-1341-941E-2AA1E8D36C21}">
+          <x14:cfRule type="iconSet" priority="681" id="{E21A14E8-7E31-1341-941E-2AA1E8D36C21}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15882,7 +16332,7 @@
           <xm:sqref>J21:CA22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="699" id="{18426B84-97F7-A84C-A50B-414C27DFC764}">
+          <x14:cfRule type="iconSet" priority="700" id="{18426B84-97F7-A84C-A50B-414C27DFC764}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15898,10 +16348,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J39:CA43</xm:sqref>
+          <xm:sqref>J39:CA46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="713" id="{445139A2-0E25-9B43-9EF0-2DABE3D5C767}">
+          <x14:cfRule type="iconSet" priority="714" id="{445139A2-0E25-9B43-9EF0-2DABE3D5C767}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15920,7 +16370,7 @@
           <xm:sqref>J38:CA38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="727" id="{CA09624F-599C-3949-9CA9-085FA102749E}">
+          <x14:cfRule type="iconSet" priority="728" id="{CA09624F-599C-3949-9CA9-085FA102749E}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15936,10 +16386,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J48:CA50 J54:CA54 J45:CA45</xm:sqref>
+          <xm:sqref>J52:CA54 J58:CA58 J48:CA48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="781" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
+          <x14:cfRule type="iconSet" priority="782" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15955,7 +16405,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J55:CA55 J46:CA47 J53:CA53</xm:sqref>
+          <xm:sqref>J59:CA59 J49:CA51 J57:CA57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938BA623-994A-49C7-9ED7-00D76928C047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10756" yWindow="1803" windowWidth="7501" windowHeight="5998" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1987,15 +1987,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>23854</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>63610</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>104</xdr:col>
-          <xdr:colOff>469127</xdr:colOff>
+          <xdr:colOff>469900</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>246490</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2332,25 +2332,25 @@
   </sheetPr>
   <dimension ref="A1:CE170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A32" zoomScale="219" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="83" width="2.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="83" width="2.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="AG1" s="20"/>
       <c r="AH1" s="20"/>
     </row>
-    <row r="2" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
     </row>
-    <row r="3" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="BZ4" s="38"/>
       <c r="CA4" s="38"/>
     </row>
-    <row r="5" spans="1:79" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:79" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="BZ6" s="42"/>
       <c r="CA6" s="42"/>
     </row>
-    <row r="7" spans="1:79" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:79" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="8" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="49" t="s">
         <v>38</v>
@@ -3546,7 +3546,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="36" t="s">
         <v>27</v>
@@ -4147,7 +4147,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="36" t="s">
         <v>28</v>
@@ -4453,7 +4453,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="36" t="s">
         <v>34</v>
@@ -5054,7 +5054,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="36" t="s">
         <v>35</v>
@@ -5150,7 +5150,7 @@
       <c r="BZ14" s="34"/>
       <c r="CA14" s="34"/>
     </row>
-    <row r="15" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="36" t="s">
         <v>93</v>
@@ -5456,7 +5456,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="49" t="s">
         <v>57</v>
@@ -5539,7 +5539,7 @@
       <c r="BZ16" s="34"/>
       <c r="CA16" s="34"/>
     </row>
-    <row r="17" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="37" t="s">
         <v>84</v>
@@ -5622,7 +5622,7 @@
       <c r="BZ17" s="34"/>
       <c r="CA17" s="34"/>
     </row>
-    <row r="18" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="36" t="s">
         <v>56</v>
@@ -5928,7 +5928,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="61" t="s">
         <v>88</v>
@@ -6024,7 +6024,7 @@
       <c r="BZ19" s="34"/>
       <c r="CA19" s="34"/>
     </row>
-    <row r="20" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="62" t="s">
         <v>89</v>
@@ -6120,7 +6120,7 @@
       <c r="BZ20" s="34"/>
       <c r="CA20" s="34"/>
     </row>
-    <row r="21" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="36" t="s">
         <v>90</v>
@@ -6426,7 +6426,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="55" t="s">
         <v>65</v>
@@ -6522,7 +6522,7 @@
       <c r="BZ22" s="34"/>
       <c r="CA22" s="34"/>
     </row>
-    <row r="23" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="36" t="s">
         <v>43</v>
@@ -6828,7 +6828,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="37" t="s">
         <v>36</v>
@@ -7121,7 +7121,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="55" t="s">
         <v>36</v>
@@ -7217,7 +7217,7 @@
       <c r="BZ25" s="34"/>
       <c r="CA25" s="34"/>
     </row>
-    <row r="26" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="55" t="s">
         <v>60</v>
@@ -7313,7 +7313,7 @@
       <c r="BZ26" s="34"/>
       <c r="CA26" s="34"/>
     </row>
-    <row r="27" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="55" t="s">
         <v>61</v>
@@ -7619,7 +7619,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:79" s="2" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:79" s="2" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="55" t="s">
         <v>62</v>
@@ -7715,7 +7715,7 @@
       <c r="BZ28" s="34"/>
       <c r="CA28" s="34"/>
     </row>
-    <row r="29" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="55" t="s">
         <v>63</v>
@@ -7811,7 +7811,7 @@
       <c r="BZ29" s="34"/>
       <c r="CA29" s="34"/>
     </row>
-    <row r="30" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="55" t="s">
         <v>64</v>
@@ -7907,7 +7907,7 @@
       <c r="BZ30" s="34"/>
       <c r="CA30" s="34"/>
     </row>
-    <row r="31" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="55" t="s">
         <v>44</v>
@@ -8003,7 +8003,7 @@
       <c r="BZ31" s="34"/>
       <c r="CA31" s="34"/>
     </row>
-    <row r="32" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="55" t="s">
         <v>66</v>
@@ -8309,7 +8309,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="49" t="s">
         <v>45</v>
@@ -8602,7 +8602,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="55" t="s">
         <v>48</v>
@@ -8698,7 +8698,7 @@
       <c r="BZ34" s="34"/>
       <c r="CA34" s="34"/>
     </row>
-    <row r="35" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="55" t="s">
         <v>46</v>
@@ -8794,7 +8794,7 @@
       <c r="BZ35" s="34"/>
       <c r="CA35" s="34"/>
     </row>
-    <row r="36" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="55" t="s">
         <v>47</v>
@@ -8890,7 +8890,7 @@
       <c r="BZ36" s="34"/>
       <c r="CA36" s="34"/>
     </row>
-    <row r="37" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="55" t="s">
         <v>49</v>
@@ -8986,7 +8986,7 @@
       <c r="BZ37" s="34"/>
       <c r="CA37" s="34"/>
     </row>
-    <row r="38" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="49" t="s">
         <v>99</v>
@@ -9069,7 +9069,7 @@
       <c r="BZ38" s="34"/>
       <c r="CA38" s="34"/>
     </row>
-    <row r="39" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="55" t="s">
         <v>94</v>
@@ -9081,7 +9081,7 @@
         <v>31</v>
       </c>
       <c r="E39" s="29">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="F39" s="57">
         <v>44216</v>
@@ -9165,7 +9165,7 @@
       <c r="BZ39" s="34"/>
       <c r="CA39" s="34"/>
     </row>
-    <row r="40" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="55" t="s">
         <v>60</v>
@@ -9261,7 +9261,7 @@
       <c r="BZ40" s="34"/>
       <c r="CA40" s="34"/>
     </row>
-    <row r="41" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="55" t="s">
         <v>96</v>
@@ -9273,7 +9273,7 @@
         <v>108</v>
       </c>
       <c r="E41" s="29">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F41" s="57">
         <v>44216</v>
@@ -9357,7 +9357,7 @@
       <c r="BZ41" s="34"/>
       <c r="CA41" s="34"/>
     </row>
-    <row r="42" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="55" t="s">
         <v>97</v>
@@ -9369,7 +9369,7 @@
         <v>31</v>
       </c>
       <c r="E42" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F42" s="57">
         <v>44223</v>
@@ -9453,7 +9453,7 @@
       <c r="BZ42" s="34"/>
       <c r="CA42" s="34"/>
     </row>
-    <row r="43" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="55" t="s">
         <v>109</v>
@@ -9465,7 +9465,7 @@
         <v>112</v>
       </c>
       <c r="E43" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F43" s="57">
         <v>44223</v>
@@ -9549,7 +9549,7 @@
       <c r="BZ43" s="34"/>
       <c r="CA43" s="34"/>
     </row>
-    <row r="44" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="55" t="s">
         <v>110</v>
@@ -9561,7 +9561,7 @@
         <v>113</v>
       </c>
       <c r="E44" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F44" s="57">
         <v>44223</v>
@@ -9645,7 +9645,7 @@
       <c r="BZ44" s="34"/>
       <c r="CA44" s="34"/>
     </row>
-    <row r="45" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" s="55" t="s">
         <v>111</v>
@@ -9657,7 +9657,7 @@
         <v>114</v>
       </c>
       <c r="E45" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F45" s="57">
         <v>44223</v>
@@ -9741,7 +9741,7 @@
       <c r="BZ45" s="34"/>
       <c r="CA45" s="34"/>
     </row>
-    <row r="46" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
         <v>98</v>
@@ -9837,7 +9837,7 @@
       <c r="BZ46" s="34"/>
       <c r="CA46" s="34"/>
     </row>
-    <row r="47" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="49" t="s">
         <v>95</v>
@@ -9920,7 +9920,7 @@
       <c r="BZ47" s="34"/>
       <c r="CA47" s="34"/>
     </row>
-    <row r="48" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
       <c r="B48" s="37" t="s">
         <v>68</v>
@@ -10213,7 +10213,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="55" t="s">
         <v>100</v>
@@ -10307,7 +10307,7 @@
       <c r="BZ49" s="34"/>
       <c r="CA49" s="34"/>
     </row>
-    <row r="50" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
       <c r="B50" s="55" t="s">
         <v>115</v>
@@ -10403,7 +10403,7 @@
       <c r="BZ50" s="34"/>
       <c r="CA50" s="34"/>
     </row>
-    <row r="51" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="B51" s="55" t="s">
         <v>102</v>
@@ -10497,7 +10497,7 @@
       <c r="BZ51" s="34"/>
       <c r="CA51" s="34"/>
     </row>
-    <row r="52" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="55" t="s">
         <v>107</v>
@@ -10593,7 +10593,7 @@
       <c r="BZ52" s="34"/>
       <c r="CA52" s="34"/>
     </row>
-    <row r="53" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="55" t="s">
         <v>105</v>
@@ -10689,7 +10689,7 @@
       <c r="BZ53" s="34"/>
       <c r="CA53" s="34"/>
     </row>
-    <row r="54" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="55" t="s">
         <v>106</v>
@@ -10783,7 +10783,7 @@
       <c r="BZ54" s="34"/>
       <c r="CA54" s="34"/>
     </row>
-    <row r="55" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="37" t="s">
         <v>69</v>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="B56" s="55" t="s">
         <v>70</v>
@@ -11382,7 +11382,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="55" t="s">
         <v>101</v>
@@ -11476,7 +11476,7 @@
       <c r="BZ57" s="34"/>
       <c r="CA57" s="34"/>
     </row>
-    <row r="58" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="55" t="s">
         <v>104</v>
@@ -11572,7 +11572,7 @@
       <c r="BZ58" s="34"/>
       <c r="CA58" s="34"/>
     </row>
-    <row r="59" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14"/>
       <c r="B59" s="55" t="s">
         <v>103</v>
@@ -11668,7 +11668,7 @@
       <c r="BZ59" s="34"/>
       <c r="CA59" s="34"/>
     </row>
-    <row r="60" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
       <c r="B60" s="55" t="s">
         <v>71</v>
@@ -11764,7 +11764,7 @@
       <c r="BZ60" s="34"/>
       <c r="CA60" s="34"/>
     </row>
-    <row r="61" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="B61" s="49" t="s">
         <v>67</v>
@@ -11847,7 +11847,7 @@
       <c r="BZ61" s="34"/>
       <c r="CA61" s="34"/>
     </row>
-    <row r="62" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14"/>
       <c r="B62" s="55" t="s">
         <v>74</v>
@@ -12151,7 +12151,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="B63" s="55" t="s">
         <v>73</v>
@@ -12245,7 +12245,7 @@
       <c r="BZ63" s="34"/>
       <c r="CA63" s="34"/>
     </row>
-    <row r="64" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="55" t="s">
         <v>75</v>
@@ -12339,7 +12339,7 @@
       <c r="BZ64" s="34"/>
       <c r="CA64" s="34"/>
     </row>
-    <row r="65" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
       <c r="B65" s="55" t="s">
         <v>76</v>
@@ -12433,7 +12433,7 @@
       <c r="BZ65" s="34"/>
       <c r="CA65" s="34"/>
     </row>
-    <row r="66" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14"/>
       <c r="B66" s="55" t="s">
         <v>77</v>
@@ -12527,7 +12527,7 @@
       <c r="BZ66" s="34"/>
       <c r="CA66" s="34"/>
     </row>
-    <row r="67" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="55" t="s">
         <v>78</v>
@@ -12621,7 +12621,7 @@
       <c r="BZ67" s="34"/>
       <c r="CA67" s="34"/>
     </row>
-    <row r="68" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="55" t="s">
         <v>79</v>
@@ -12715,7 +12715,7 @@
       <c r="BZ68" s="34"/>
       <c r="CA68" s="34"/>
     </row>
-    <row r="69" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="49" t="s">
         <v>58</v>
@@ -13008,7 +13008,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="37" t="s">
         <v>42</v>
@@ -13091,7 +13091,7 @@
       <c r="BZ70" s="34"/>
       <c r="CA70" s="34"/>
     </row>
-    <row r="71" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14"/>
       <c r="B71" s="55" t="s">
         <v>39</v>
@@ -13397,7 +13397,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14"/>
       <c r="B72" s="55" t="s">
         <v>40</v>
@@ -13701,7 +13701,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="B73" s="55" t="s">
         <v>41</v>
@@ -14005,7 +14005,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14"/>
       <c r="B74" s="37" t="s">
         <v>59</v>
@@ -14298,7 +14298,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14"/>
       <c r="B75" s="55" t="s">
         <v>72</v>
@@ -14604,7 +14604,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14"/>
       <c r="B76" s="59"/>
       <c r="C76" s="54"/>
@@ -14895,7 +14895,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:79" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>2</v>
       </c>
@@ -15188,105 +15188,105 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="5"/>
       <c r="H78" s="16"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="1:79" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AE2:AJ2"/>
@@ -15752,15 +15752,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>23854</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>63610</xdr:rowOff>
+                    <xdr:rowOff>63500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>104</xdr:col>
-                    <xdr:colOff>469127</xdr:colOff>
+                    <xdr:colOff>469900</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>246490</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16421,33 +16421,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FCFE2C3F-474F-48A2-9205-9ED60E0D3984}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
   <si>
     <t>About This Template</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>Joining a Band</t>
+  </si>
+  <si>
+    <t>FE TEAM</t>
+  </si>
+  <si>
+    <t>BE TEAM</t>
   </si>
 </sst>
 </file>
@@ -1987,15 +1993,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>23854</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:rowOff>63610</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>104</xdr:col>
-          <xdr:colOff>469900</xdr:colOff>
+          <xdr:colOff>469127</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>241300</xdr:rowOff>
+          <xdr:rowOff>238539</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2332,25 +2338,25 @@
   </sheetPr>
   <dimension ref="A1:CE170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A32" zoomScale="219" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="83" width="2.5" hidden="1" customWidth="1"/>
+    <col min="10" max="83" width="2.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2390,7 +2396,7 @@
       <c r="AG1" s="20"/>
       <c r="AH1" s="20"/>
     </row>
-    <row r="2" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -2445,7 +2451,7 @@
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
     </row>
-    <row r="3" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -2463,7 +2469,7 @@
       <c r="H3" s="71"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -2570,7 +2576,7 @@
       <c r="BZ4" s="38"/>
       <c r="CA4" s="38"/>
     </row>
-    <row r="5" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="6" spans="1:79" s="20" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" s="20" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
@@ -2946,7 +2952,7 @@
       <c r="BZ6" s="42"/>
       <c r="CA6" s="42"/>
     </row>
-    <row r="7" spans="1:79" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>M</v>
       </c>
     </row>
-    <row r="8" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="49" t="s">
         <v>38</v>
@@ -3546,7 +3552,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="36" t="s">
         <v>27</v>
@@ -4147,7 +4153,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="36" t="s">
         <v>28</v>
@@ -4453,7 +4459,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="36" t="s">
         <v>34</v>
@@ -5054,7 +5060,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="36" t="s">
         <v>35</v>
@@ -5150,7 +5156,7 @@
       <c r="BZ14" s="34"/>
       <c r="CA14" s="34"/>
     </row>
-    <row r="15" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="36" t="s">
         <v>93</v>
@@ -5456,7 +5462,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="49" t="s">
         <v>57</v>
@@ -5539,7 +5545,7 @@
       <c r="BZ16" s="34"/>
       <c r="CA16" s="34"/>
     </row>
-    <row r="17" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="37" t="s">
         <v>84</v>
@@ -5622,7 +5628,7 @@
       <c r="BZ17" s="34"/>
       <c r="CA17" s="34"/>
     </row>
-    <row r="18" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="36" t="s">
         <v>56</v>
@@ -5928,7 +5934,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="61" t="s">
         <v>88</v>
@@ -6024,7 +6030,7 @@
       <c r="BZ19" s="34"/>
       <c r="CA19" s="34"/>
     </row>
-    <row r="20" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="62" t="s">
         <v>89</v>
@@ -6120,7 +6126,7 @@
       <c r="BZ20" s="34"/>
       <c r="CA20" s="34"/>
     </row>
-    <row r="21" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="36" t="s">
         <v>90</v>
@@ -6426,7 +6432,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="55" t="s">
         <v>65</v>
@@ -6522,7 +6528,7 @@
       <c r="BZ22" s="34"/>
       <c r="CA22" s="34"/>
     </row>
-    <row r="23" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="36" t="s">
         <v>43</v>
@@ -6828,7 +6834,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="37" t="s">
         <v>36</v>
@@ -7121,7 +7127,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="55" t="s">
         <v>36</v>
@@ -7217,7 +7223,7 @@
       <c r="BZ25" s="34"/>
       <c r="CA25" s="34"/>
     </row>
-    <row r="26" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="55" t="s">
         <v>60</v>
@@ -7313,7 +7319,7 @@
       <c r="BZ26" s="34"/>
       <c r="CA26" s="34"/>
     </row>
-    <row r="27" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="55" t="s">
         <v>61</v>
@@ -7619,7 +7625,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:79" s="2" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:79" s="2" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="55" t="s">
         <v>62</v>
@@ -7715,7 +7721,7 @@
       <c r="BZ28" s="34"/>
       <c r="CA28" s="34"/>
     </row>
-    <row r="29" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="55" t="s">
         <v>63</v>
@@ -7811,7 +7817,7 @@
       <c r="BZ29" s="34"/>
       <c r="CA29" s="34"/>
     </row>
-    <row r="30" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="55" t="s">
         <v>64</v>
@@ -7907,7 +7913,7 @@
       <c r="BZ30" s="34"/>
       <c r="CA30" s="34"/>
     </row>
-    <row r="31" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="55" t="s">
         <v>44</v>
@@ -8003,7 +8009,7 @@
       <c r="BZ31" s="34"/>
       <c r="CA31" s="34"/>
     </row>
-    <row r="32" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="55" t="s">
         <v>66</v>
@@ -8309,7 +8315,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="49" t="s">
         <v>45</v>
@@ -8602,7 +8608,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="55" t="s">
         <v>48</v>
@@ -8698,7 +8704,7 @@
       <c r="BZ34" s="34"/>
       <c r="CA34" s="34"/>
     </row>
-    <row r="35" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="55" t="s">
         <v>46</v>
@@ -8794,7 +8800,7 @@
       <c r="BZ35" s="34"/>
       <c r="CA35" s="34"/>
     </row>
-    <row r="36" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="55" t="s">
         <v>47</v>
@@ -8890,7 +8896,7 @@
       <c r="BZ36" s="34"/>
       <c r="CA36" s="34"/>
     </row>
-    <row r="37" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="55" t="s">
         <v>49</v>
@@ -8986,7 +8992,7 @@
       <c r="BZ37" s="34"/>
       <c r="CA37" s="34"/>
     </row>
-    <row r="38" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="49" t="s">
         <v>99</v>
@@ -9069,7 +9075,7 @@
       <c r="BZ38" s="34"/>
       <c r="CA38" s="34"/>
     </row>
-    <row r="39" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="55" t="s">
         <v>94</v>
@@ -9081,7 +9087,7 @@
         <v>31</v>
       </c>
       <c r="E39" s="29">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="F39" s="57">
         <v>44216</v>
@@ -9165,7 +9171,7 @@
       <c r="BZ39" s="34"/>
       <c r="CA39" s="34"/>
     </row>
-    <row r="40" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="55" t="s">
         <v>60</v>
@@ -9261,7 +9267,7 @@
       <c r="BZ40" s="34"/>
       <c r="CA40" s="34"/>
     </row>
-    <row r="41" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="55" t="s">
         <v>96</v>
@@ -9357,7 +9363,7 @@
       <c r="BZ41" s="34"/>
       <c r="CA41" s="34"/>
     </row>
-    <row r="42" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="55" t="s">
         <v>97</v>
@@ -9369,7 +9375,7 @@
         <v>31</v>
       </c>
       <c r="E42" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F42" s="57">
         <v>44223</v>
@@ -9453,7 +9459,7 @@
       <c r="BZ42" s="34"/>
       <c r="CA42" s="34"/>
     </row>
-    <row r="43" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="55" t="s">
         <v>109</v>
@@ -9465,7 +9471,7 @@
         <v>112</v>
       </c>
       <c r="E43" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F43" s="57">
         <v>44223</v>
@@ -9549,7 +9555,7 @@
       <c r="BZ43" s="34"/>
       <c r="CA43" s="34"/>
     </row>
-    <row r="44" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="55" t="s">
         <v>110</v>
@@ -9561,7 +9567,7 @@
         <v>113</v>
       </c>
       <c r="E44" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F44" s="57">
         <v>44223</v>
@@ -9645,7 +9651,7 @@
       <c r="BZ44" s="34"/>
       <c r="CA44" s="34"/>
     </row>
-    <row r="45" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="55" t="s">
         <v>111</v>
@@ -9657,7 +9663,7 @@
         <v>114</v>
       </c>
       <c r="E45" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F45" s="57">
         <v>44223</v>
@@ -9741,7 +9747,7 @@
       <c r="BZ45" s="34"/>
       <c r="CA45" s="34"/>
     </row>
-    <row r="46" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
         <v>98</v>
@@ -9753,7 +9759,7 @@
         <v>113</v>
       </c>
       <c r="E46" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="57">
         <v>44230</v>
@@ -9837,7 +9843,7 @@
       <c r="BZ46" s="34"/>
       <c r="CA46" s="34"/>
     </row>
-    <row r="47" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="49" t="s">
         <v>95</v>
@@ -9920,7 +9926,7 @@
       <c r="BZ47" s="34"/>
       <c r="CA47" s="34"/>
     </row>
-    <row r="48" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="37" t="s">
         <v>68</v>
@@ -10213,7 +10219,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="55" t="s">
         <v>100</v>
@@ -10307,7 +10313,7 @@
       <c r="BZ49" s="34"/>
       <c r="CA49" s="34"/>
     </row>
-    <row r="50" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="55" t="s">
         <v>115</v>
@@ -10316,7 +10322,7 @@
         <v>52</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="E50" s="56">
         <v>0</v>
@@ -10403,7 +10409,7 @@
       <c r="BZ50" s="34"/>
       <c r="CA50" s="34"/>
     </row>
-    <row r="51" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="55" t="s">
         <v>102</v>
@@ -10497,7 +10503,7 @@
       <c r="BZ51" s="34"/>
       <c r="CA51" s="34"/>
     </row>
-    <row r="52" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="55" t="s">
         <v>107</v>
@@ -10506,7 +10512,7 @@
         <v>52</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="E52" s="56">
         <v>0</v>
@@ -10593,7 +10599,7 @@
       <c r="BZ52" s="34"/>
       <c r="CA52" s="34"/>
     </row>
-    <row r="53" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="55" t="s">
         <v>105</v>
@@ -10602,7 +10608,7 @@
         <v>53</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="E53" s="56">
         <v>0</v>
@@ -10689,7 +10695,7 @@
       <c r="BZ53" s="34"/>
       <c r="CA53" s="34"/>
     </row>
-    <row r="54" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="55" t="s">
         <v>106</v>
@@ -10783,7 +10789,7 @@
       <c r="BZ54" s="34"/>
       <c r="CA54" s="34"/>
     </row>
-    <row r="55" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="37" t="s">
         <v>69</v>
@@ -11076,7 +11082,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="55" t="s">
         <v>70</v>
@@ -11085,7 +11091,7 @@
         <v>52</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E56" s="56">
         <v>0</v>
@@ -11382,7 +11388,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="55" t="s">
         <v>101</v>
@@ -11476,7 +11482,7 @@
       <c r="BZ57" s="34"/>
       <c r="CA57" s="34"/>
     </row>
-    <row r="58" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="55" t="s">
         <v>104</v>
@@ -11485,7 +11491,7 @@
         <v>53</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E58" s="56">
         <v>0</v>
@@ -11572,7 +11578,7 @@
       <c r="BZ58" s="34"/>
       <c r="CA58" s="34"/>
     </row>
-    <row r="59" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="55" t="s">
         <v>103</v>
@@ -11581,7 +11587,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E59" s="56">
         <v>0</v>
@@ -11668,7 +11674,7 @@
       <c r="BZ59" s="34"/>
       <c r="CA59" s="34"/>
     </row>
-    <row r="60" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="55" t="s">
         <v>71</v>
@@ -11677,7 +11683,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E60" s="56">
         <v>0</v>
@@ -11764,7 +11770,7 @@
       <c r="BZ60" s="34"/>
       <c r="CA60" s="34"/>
     </row>
-    <row r="61" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="49" t="s">
         <v>67</v>
@@ -11847,7 +11853,7 @@
       <c r="BZ61" s="34"/>
       <c r="CA61" s="34"/>
     </row>
-    <row r="62" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="55" t="s">
         <v>74</v>
@@ -12151,7 +12157,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="55" t="s">
         <v>73</v>
@@ -12245,7 +12251,7 @@
       <c r="BZ63" s="34"/>
       <c r="CA63" s="34"/>
     </row>
-    <row r="64" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="55" t="s">
         <v>75</v>
@@ -12339,7 +12345,7 @@
       <c r="BZ64" s="34"/>
       <c r="CA64" s="34"/>
     </row>
-    <row r="65" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="55" t="s">
         <v>76</v>
@@ -12433,7 +12439,7 @@
       <c r="BZ65" s="34"/>
       <c r="CA65" s="34"/>
     </row>
-    <row r="66" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="55" t="s">
         <v>77</v>
@@ -12527,7 +12533,7 @@
       <c r="BZ66" s="34"/>
       <c r="CA66" s="34"/>
     </row>
-    <row r="67" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="55" t="s">
         <v>78</v>
@@ -12621,7 +12627,7 @@
       <c r="BZ67" s="34"/>
       <c r="CA67" s="34"/>
     </row>
-    <row r="68" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="55" t="s">
         <v>79</v>
@@ -12715,7 +12721,7 @@
       <c r="BZ68" s="34"/>
       <c r="CA68" s="34"/>
     </row>
-    <row r="69" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="49" t="s">
         <v>58</v>
@@ -13008,7 +13014,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="37" t="s">
         <v>42</v>
@@ -13091,7 +13097,7 @@
       <c r="BZ70" s="34"/>
       <c r="CA70" s="34"/>
     </row>
-    <row r="71" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="55" t="s">
         <v>39</v>
@@ -13397,7 +13403,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="55" t="s">
         <v>40</v>
@@ -13701,7 +13707,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="55" t="s">
         <v>41</v>
@@ -14005,7 +14011,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="37" t="s">
         <v>59</v>
@@ -14298,7 +14304,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="55" t="s">
         <v>72</v>
@@ -14604,7 +14610,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="59"/>
       <c r="C76" s="54"/>
@@ -14895,7 +14901,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:79" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>2</v>
       </c>
@@ -15188,105 +15194,105 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D78" s="5"/>
       <c r="H78" s="16"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="1:79" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AE2:AJ2"/>
@@ -15752,15 +15758,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>23854</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
+                    <xdr:rowOff>63610</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>104</xdr:col>
-                    <xdr:colOff>469900</xdr:colOff>
+                    <xdr:colOff>469127</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>241300</xdr:rowOff>
+                    <xdr:rowOff>238539</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16421,33 +16427,33 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.3" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="84.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79A49881-C50F-459B-BCE7-4C2774835D29}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EED2F5FB-8606-4B5A-922C-4FA72C550A96}"/>
   <bookViews>
-    <workbookView xWindow="24768" yWindow="338" windowWidth="7501" windowHeight="12822" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -831,7 +831,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -996,6 +996,27 @@
     <xf numFmtId="14" fontId="20" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,26 +1048,8 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2309,8 +2312,8 @@
   </sheetPr>
   <dimension ref="A1:CE193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2378,46 +2381,46 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="Q2" s="73" t="s">
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="Q2" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="X2" s="74" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="X2" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AE2" s="64" t="s">
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AE2" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AL2" s="65" t="s">
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AL2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
       <c r="AR2" s="20"/>
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
@@ -2428,26 +2431,26 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="69">
+      <c r="E3" s="74"/>
+      <c r="F3" s="76">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>44096</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="67"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="39">
         <v>21</v>
       </c>
@@ -2551,14 +2554,14 @@
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="43">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>44117</v>
@@ -10198,283 +10201,283 @@
       </c>
       <c r="I51" s="25"/>
       <c r="J51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",J$5&gt;=$F51,J$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",J$5&gt;=$F51,J$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ref="J51:AO51" ca="1" si="51">IF(AND($C51="Goal",J$5&gt;=$F51,J$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",J$5&gt;=$F51,J$5&lt;=$F51+$H51-1),1,""))</f>
         <v/>
       </c>
       <c r="K51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",K$5&gt;=$F51,K$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",K$5&gt;=$F51,K$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="L51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",L$5&gt;=$F51,L$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",L$5&gt;=$F51,L$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="M51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",M$5&gt;=$F51,M$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",M$5&gt;=$F51,M$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="N51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",N$5&gt;=$F51,N$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",N$5&gt;=$F51,N$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="O51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",O$5&gt;=$F51,O$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",O$5&gt;=$F51,O$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="P51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",P$5&gt;=$F51,P$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",P$5&gt;=$F51,P$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="Q51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",Q$5&gt;=$F51,Q$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",Q$5&gt;=$F51,Q$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="R51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",R$5&gt;=$F51,R$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",R$5&gt;=$F51,R$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="S51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",S$5&gt;=$F51,S$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",S$5&gt;=$F51,S$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="T51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",T$5&gt;=$F51,T$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",T$5&gt;=$F51,T$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="U51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",U$5&gt;=$F51,U$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",U$5&gt;=$F51,U$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="V51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",V$5&gt;=$F51,V$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",V$5&gt;=$F51,V$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="W51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",W$5&gt;=$F51,W$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",W$5&gt;=$F51,W$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="X51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",X$5&gt;=$F51,X$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",X$5&gt;=$F51,X$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="Y51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",Y$5&gt;=$F51,Y$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",Y$5&gt;=$F51,Y$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="Z51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",Z$5&gt;=$F51,Z$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",Z$5&gt;=$F51,Z$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AA51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AA$5&gt;=$F51,AA$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AA$5&gt;=$F51,AA$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AB51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AB$5&gt;=$F51,AB$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AB$5&gt;=$F51,AB$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AC51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AC$5&gt;=$F51,AC$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AC$5&gt;=$F51,AC$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AD51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AD$5&gt;=$F51,AD$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AD$5&gt;=$F51,AD$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AE51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AE$5&gt;=$F51,AE$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AE$5&gt;=$F51,AE$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AF51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AF$5&gt;=$F51,AF$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AF$5&gt;=$F51,AF$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AG51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AG$5&gt;=$F51,AG$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AG$5&gt;=$F51,AG$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AH51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AH$5&gt;=$F51,AH$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AH$5&gt;=$F51,AH$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AI51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AI$5&gt;=$F51,AI$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AI$5&gt;=$F51,AI$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AJ51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AJ$5&gt;=$F51,AJ$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AJ$5&gt;=$F51,AJ$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AK51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AK$5&gt;=$F51,AK$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AK$5&gt;=$F51,AK$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AL51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AL$5&gt;=$F51,AL$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AL$5&gt;=$F51,AL$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AM51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AM$5&gt;=$F51,AM$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AM$5&gt;=$F51,AM$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AN51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AN$5&gt;=$F51,AN$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AN$5&gt;=$F51,AN$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AO51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AO$5&gt;=$F51,AO$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AO$5&gt;=$F51,AO$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AP51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AP$5&gt;=$F51,AP$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AP$5&gt;=$F51,AP$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ref="AP51:BU51" ca="1" si="52">IF(AND($C51="Goal",AP$5&gt;=$F51,AP$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AP$5&gt;=$F51,AP$5&lt;=$F51+$H51-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AQ$5&gt;=$F51,AQ$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AQ$5&gt;=$F51,AQ$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AR51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AR$5&gt;=$F51,AR$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AR$5&gt;=$F51,AR$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AS51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AS$5&gt;=$F51,AS$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AS$5&gt;=$F51,AS$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AT51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AT$5&gt;=$F51,AT$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AT$5&gt;=$F51,AT$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AU51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AU$5&gt;=$F51,AU$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AU$5&gt;=$F51,AU$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AV51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AV$5&gt;=$F51,AV$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AV$5&gt;=$F51,AV$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AW51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AW$5&gt;=$F51,AW$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AW$5&gt;=$F51,AW$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AX51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AX$5&gt;=$F51,AX$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AX$5&gt;=$F51,AX$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AY51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AY$5&gt;=$F51,AY$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AY$5&gt;=$F51,AY$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AZ51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",AZ$5&gt;=$F51,AZ$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",AZ$5&gt;=$F51,AZ$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BA51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BA$5&gt;=$F51,BA$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BA$5&gt;=$F51,BA$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BB51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BB$5&gt;=$F51,BB$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BB$5&gt;=$F51,BB$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BC51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BC$5&gt;=$F51,BC$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BC$5&gt;=$F51,BC$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BD51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BD$5&gt;=$F51,BD$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BD$5&gt;=$F51,BD$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BE51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BE$5&gt;=$F51,BE$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BE$5&gt;=$F51,BE$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BF51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BF$5&gt;=$F51,BF$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BF$5&gt;=$F51,BF$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BG51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BG$5&gt;=$F51,BG$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BG$5&gt;=$F51,BG$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BH51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BH$5&gt;=$F51,BH$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BH$5&gt;=$F51,BH$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BI51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BI$5&gt;=$F51,BI$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BI$5&gt;=$F51,BI$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BJ51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BJ$5&gt;=$F51,BJ$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BJ$5&gt;=$F51,BJ$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BK51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BK$5&gt;=$F51,BK$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BK$5&gt;=$F51,BK$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BL51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BL$5&gt;=$F51,BL$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BL$5&gt;=$F51,BL$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BM51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BM$5&gt;=$F51,BM$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BM$5&gt;=$F51,BM$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BN51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BN$5&gt;=$F51,BN$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BN$5&gt;=$F51,BN$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BO51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BO$5&gt;=$F51,BO$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BO$5&gt;=$F51,BO$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BP51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BP$5&gt;=$F51,BP$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BP$5&gt;=$F51,BP$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BQ51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BQ$5&gt;=$F51,BQ$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BQ$5&gt;=$F51,BQ$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BR51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BR$5&gt;=$F51,BR$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BR$5&gt;=$F51,BR$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BS51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BS$5&gt;=$F51,BS$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BS$5&gt;=$F51,BS$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BT51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BT$5&gt;=$F51,BT$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BT$5&gt;=$F51,BT$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BU51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BU$5&gt;=$F51,BU$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BU$5&gt;=$F51,BU$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="BV51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BV$5&gt;=$F51,BV$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BV$5&gt;=$F51,BV$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ref="BV51:CA51" ca="1" si="53">IF(AND($C51="Goal",BV$5&gt;=$F51,BV$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BV$5&gt;=$F51,BV$5&lt;=$F51+$H51-1),1,""))</f>
         <v/>
       </c>
       <c r="BW51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BW$5&gt;=$F51,BW$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BW$5&gt;=$F51,BW$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="BX51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BX$5&gt;=$F51,BX$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BX$5&gt;=$F51,BX$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="BY51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BY$5&gt;=$F51,BY$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BY$5&gt;=$F51,BY$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="BZ51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",BZ$5&gt;=$F51,BZ$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",BZ$5&gt;=$F51,BZ$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="CA51" s="34" t="str">
-        <f ca="1">IF(AND($C51="Goal",CA$5&gt;=$F51,CA$5&lt;=$F51+$H51-1),2,IF(AND($C51="Milestone",CA$5&gt;=$F51,CA$5&lt;=$F51+$H51-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
     </row>
@@ -10576,27 +10579,27 @@
     </row>
     <row r="53" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
-      <c r="B53" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="77" t="s">
+      <c r="B53" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="78">
+      <c r="D53" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="56">
         <v>0</v>
       </c>
-      <c r="F53" s="79">
-        <v>44293</v>
-      </c>
-      <c r="G53" s="79">
-        <v>44299</v>
-      </c>
-      <c r="H53" s="80">
+      <c r="F53" s="57">
+        <v>44244</v>
+      </c>
+      <c r="G53" s="57">
+        <v>44252</v>
+      </c>
+      <c r="H53" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I53" s="25"/>
       <c r="J53" s="34"/>
@@ -10673,26 +10676,26 @@
     <row r="54" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="55" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C54" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E54" s="56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F54" s="57">
-        <v>44237</v>
+        <v>44244</v>
       </c>
       <c r="G54" s="57">
         <v>44264</v>
       </c>
       <c r="H54" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I54" s="25"/>
       <c r="J54" s="34"/>
@@ -10768,27 +10771,27 @@
     </row>
     <row r="55" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
-      <c r="B55" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="48" t="s">
+      <c r="B55" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="F55" s="57">
-        <v>44237</v>
-      </c>
-      <c r="G55" s="57">
-        <v>44264</v>
-      </c>
-      <c r="H55" s="31">
+      <c r="D55" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="67">
+        <v>0</v>
+      </c>
+      <c r="F55" s="68">
+        <v>44293</v>
+      </c>
+      <c r="G55" s="68">
+        <v>44299</v>
+      </c>
+      <c r="H55" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I55" s="25"/>
       <c r="J55" s="34"/>
@@ -10864,27 +10867,28 @@
     </row>
     <row r="56" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
-      <c r="B56" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="77" t="s">
+      <c r="B56" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="77" t="s">
+      <c r="D56" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="78">
-        <v>0</v>
-      </c>
-      <c r="F56" s="79">
-        <v>44293</v>
-      </c>
-      <c r="G56" s="79">
-        <v>44299</v>
-      </c>
-      <c r="H56" s="80">
+      <c r="E56" s="56">
+        <f>SUM(E57:E59)/3</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F56" s="57">
+        <v>44237</v>
+      </c>
+      <c r="G56" s="30">
+        <v>44250</v>
+      </c>
+      <c r="H56" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="34"/>
@@ -10960,27 +10964,27 @@
     </row>
     <row r="57" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="76" t="s">
+      <c r="D57" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="E57" s="78">
-        <v>0</v>
-      </c>
-      <c r="F57" s="79">
-        <v>44293</v>
-      </c>
-      <c r="G57" s="79">
-        <v>44299</v>
-      </c>
-      <c r="H57" s="80">
+      <c r="E57" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="F57" s="60">
+        <v>44237</v>
+      </c>
+      <c r="G57" s="30">
+        <v>44250</v>
+      </c>
+      <c r="H57" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I57" s="25"/>
       <c r="J57" s="34"/>
@@ -11056,25 +11060,25 @@
     </row>
     <row r="58" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
-      <c r="B58" s="81" t="s">
+      <c r="B58" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="77" t="s">
+      <c r="C58" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="76" t="s">
+      <c r="D58" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="78">
+      <c r="E58" s="56">
         <v>0</v>
       </c>
-      <c r="F58" s="79">
-        <v>44293</v>
-      </c>
-      <c r="G58" s="79">
-        <v>44299</v>
-      </c>
-      <c r="H58" s="80">
+      <c r="F58" s="60">
+        <v>44244</v>
+      </c>
+      <c r="G58" s="30">
+        <v>44250</v>
+      </c>
+      <c r="H58" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -11152,25 +11156,25 @@
     </row>
     <row r="59" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="76" t="s">
+      <c r="D59" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="78">
+      <c r="E59" s="56">
         <v>0</v>
       </c>
-      <c r="F59" s="79">
-        <v>44293</v>
-      </c>
-      <c r="G59" s="79">
-        <v>44299</v>
-      </c>
-      <c r="H59" s="80">
+      <c r="F59" s="60">
+        <v>44244</v>
+      </c>
+      <c r="G59" s="30">
+        <v>44250</v>
+      </c>
+      <c r="H59" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -11632,25 +11636,25 @@
     </row>
     <row r="64" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
-      <c r="B64" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="76" t="s">
+      <c r="B64" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D64" s="77" t="s">
+      <c r="D64" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="78">
+      <c r="E64" s="56">
         <v>0</v>
       </c>
-      <c r="F64" s="79">
-        <v>44286</v>
-      </c>
-      <c r="G64" s="79">
-        <v>44292</v>
-      </c>
-      <c r="H64" s="80">
+      <c r="F64" s="60">
+        <v>44258</v>
+      </c>
+      <c r="G64" s="30">
+        <v>44264</v>
+      </c>
+      <c r="H64" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -11728,25 +11732,25 @@
     </row>
     <row r="65" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="76" t="s">
+      <c r="D65" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="78">
+      <c r="E65" s="56">
         <v>0</v>
       </c>
-      <c r="F65" s="79">
-        <v>44286</v>
-      </c>
-      <c r="G65" s="79">
-        <v>44292</v>
-      </c>
-      <c r="H65" s="80">
+      <c r="F65" s="60">
+        <v>44258</v>
+      </c>
+      <c r="G65" s="30">
+        <v>44264</v>
+      </c>
+      <c r="H65" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -11824,25 +11828,25 @@
     </row>
     <row r="66" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="76" t="s">
+      <c r="C66" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="76" t="s">
+      <c r="D66" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="78">
+      <c r="E66" s="56">
         <v>0</v>
       </c>
-      <c r="F66" s="79">
-        <v>44286</v>
-      </c>
-      <c r="G66" s="79">
-        <v>44292</v>
-      </c>
-      <c r="H66" s="80">
+      <c r="F66" s="60">
+        <v>44258</v>
+      </c>
+      <c r="G66" s="30">
+        <v>44264</v>
+      </c>
+      <c r="H66" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -11920,25 +11924,25 @@
     </row>
     <row r="67" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="76" t="s">
+      <c r="D67" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="78">
+      <c r="E67" s="56">
         <v>0</v>
       </c>
-      <c r="F67" s="79">
-        <v>44286</v>
-      </c>
-      <c r="G67" s="79">
-        <v>44292</v>
-      </c>
-      <c r="H67" s="80">
+      <c r="F67" s="60">
+        <v>44258</v>
+      </c>
+      <c r="G67" s="30">
+        <v>44264</v>
+      </c>
+      <c r="H67" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -12017,27 +12021,26 @@
     <row r="68" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D68" s="48" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="56">
-        <f>SUM(E69:E71)/3</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="F68" s="57">
-        <v>44237</v>
+        <v>0</v>
+      </c>
+      <c r="F68" s="60">
+        <v>44258</v>
       </c>
       <c r="G68" s="30">
-        <v>44250</v>
+        <v>44264</v>
       </c>
       <c r="H68" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I68" s="25"/>
       <c r="J68" s="34"/>
@@ -12117,23 +12120,23 @@
         <v>113</v>
       </c>
       <c r="C69" s="54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D69" s="54" t="s">
         <v>109</v>
       </c>
       <c r="E69" s="56">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="60">
-        <v>44237</v>
+        <v>44258</v>
       </c>
       <c r="G69" s="30">
-        <v>44250</v>
+        <v>44264</v>
       </c>
       <c r="H69" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I69" s="25"/>
       <c r="J69" s="34"/>
@@ -12213,7 +12216,7 @@
         <v>115</v>
       </c>
       <c r="C70" s="54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D70" s="54" t="s">
         <v>111</v>
@@ -12222,10 +12225,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="60">
-        <v>44244</v>
+        <v>44258</v>
       </c>
       <c r="G70" s="30">
-        <v>44250</v>
+        <v>44264</v>
       </c>
       <c r="H70" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
@@ -12309,7 +12312,7 @@
         <v>114</v>
       </c>
       <c r="C71" s="54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D71" s="54" t="s">
         <v>110</v>
@@ -12318,10 +12321,10 @@
         <v>0</v>
       </c>
       <c r="F71" s="60">
-        <v>44244</v>
+        <v>44258</v>
       </c>
       <c r="G71" s="30">
-        <v>44250</v>
+        <v>44264</v>
       </c>
       <c r="H71" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
@@ -12402,7 +12405,7 @@
     <row r="72" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" s="54" t="s">
         <v>52</v>
@@ -12785,25 +12788,25 @@
     </row>
     <row r="76" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
-      <c r="B76" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" s="54" t="s">
+      <c r="B76" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="56">
+      <c r="E76" s="67">
         <v>0</v>
       </c>
-      <c r="F76" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G76" s="30">
-        <v>44264</v>
-      </c>
-      <c r="H76" s="31">
+      <c r="F76" s="68">
+        <v>44286</v>
+      </c>
+      <c r="G76" s="68">
+        <v>44292</v>
+      </c>
+      <c r="H76" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -12881,25 +12884,25 @@
     </row>
     <row r="77" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D77" s="54" t="s">
+      <c r="D77" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="56">
+      <c r="E77" s="67">
         <v>0</v>
       </c>
-      <c r="F77" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G77" s="30">
-        <v>44264</v>
-      </c>
-      <c r="H77" s="31">
+      <c r="F77" s="68">
+        <v>44286</v>
+      </c>
+      <c r="G77" s="68">
+        <v>44292</v>
+      </c>
+      <c r="H77" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -12977,25 +12980,25 @@
     </row>
     <row r="78" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="54" t="s">
+      <c r="C78" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="E78" s="56">
+      <c r="E78" s="67">
         <v>0</v>
       </c>
-      <c r="F78" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G78" s="30">
-        <v>44264</v>
-      </c>
-      <c r="H78" s="31">
+      <c r="F78" s="68">
+        <v>44286</v>
+      </c>
+      <c r="G78" s="68">
+        <v>44292</v>
+      </c>
+      <c r="H78" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -13073,25 +13076,25 @@
     </row>
     <row r="79" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="54" t="s">
+      <c r="D79" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E79" s="56">
+      <c r="E79" s="67">
         <v>0</v>
       </c>
-      <c r="F79" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G79" s="30">
-        <v>44264</v>
-      </c>
-      <c r="H79" s="31">
+      <c r="F79" s="68">
+        <v>44286</v>
+      </c>
+      <c r="G79" s="68">
+        <v>44292</v>
+      </c>
+      <c r="H79" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -13169,25 +13172,25 @@
     </row>
     <row r="80" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
-      <c r="B80" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" s="48" t="s">
+      <c r="B80" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="E80" s="56">
+      <c r="E80" s="67">
         <v>0</v>
       </c>
-      <c r="F80" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G80" s="30">
-        <v>44264</v>
-      </c>
-      <c r="H80" s="31">
+      <c r="F80" s="68">
+        <v>44293</v>
+      </c>
+      <c r="G80" s="68">
+        <v>44299</v>
+      </c>
+      <c r="H80" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -13265,25 +13268,25 @@
     </row>
     <row r="81" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="54" t="s">
+      <c r="C81" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E81" s="56">
+      <c r="E81" s="67">
         <v>0</v>
       </c>
-      <c r="F81" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G81" s="30">
-        <v>44264</v>
-      </c>
-      <c r="H81" s="31">
+      <c r="F81" s="68">
+        <v>44293</v>
+      </c>
+      <c r="G81" s="68">
+        <v>44299</v>
+      </c>
+      <c r="H81" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -13361,25 +13364,25 @@
     </row>
     <row r="82" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="54" t="s">
+      <c r="C82" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="E82" s="56">
+      <c r="E82" s="67">
         <v>0</v>
       </c>
-      <c r="F82" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G82" s="30">
-        <v>44264</v>
-      </c>
-      <c r="H82" s="31">
+      <c r="F82" s="68">
+        <v>44293</v>
+      </c>
+      <c r="G82" s="68">
+        <v>44299</v>
+      </c>
+      <c r="H82" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -13457,25 +13460,25 @@
     </row>
     <row r="83" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="54" t="s">
+      <c r="C83" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E83" s="56">
+      <c r="E83" s="67">
         <v>0</v>
       </c>
-      <c r="F83" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G83" s="30">
-        <v>44264</v>
-      </c>
-      <c r="H83" s="31">
+      <c r="F83" s="68">
+        <v>44293</v>
+      </c>
+      <c r="G83" s="68">
+        <v>44299</v>
+      </c>
+      <c r="H83" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>7</v>
       </c>
@@ -13636,329 +13639,329 @@
     </row>
     <row r="85" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="48" t="s">
+      <c r="C85" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="48"/>
-      <c r="E85" s="56">
+      <c r="D85" s="66"/>
+      <c r="E85" s="67">
         <v>0</v>
       </c>
-      <c r="F85" s="57">
-        <v>44287</v>
-      </c>
-      <c r="G85" s="57">
+      <c r="F85" s="68">
+        <v>44300</v>
+      </c>
+      <c r="G85" s="68">
         <v>44348</v>
       </c>
-      <c r="H85" s="31">
+      <c r="H85" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I85" s="25"/>
       <c r="J85" s="34" t="str">
-        <f t="shared" ref="J85:AO85" ca="1" si="51">IF(AND($C85="Goal",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),1,""))</f>
+        <f t="shared" ref="J85:AO85" ca="1" si="54">IF(AND($C85="Goal",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="K85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="L85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="M85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="N85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="O85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="P85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="Q85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="R85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="S85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="T85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="U85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="V85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="W85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="X85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="Y85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="Z85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AA85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AB85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AC85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AD85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AE85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AF85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AG85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AH85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AI85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AJ85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AK85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AL85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AM85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AN85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AO85" s="34" t="str">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="AP85" s="34" t="str">
-        <f t="shared" ref="AP85:BU85" ca="1" si="52">IF(AND($C85="Goal",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),1,""))</f>
+        <f t="shared" ref="AP85:BU85" ca="1" si="55">IF(AND($C85="Goal",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AR85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AS85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AT85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AU85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AV85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AW85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AX85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AY85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="AZ85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BA85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BB85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BC85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BD85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BE85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BF85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BG85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BH85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BI85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BJ85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BK85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BL85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BM85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BN85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BO85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BP85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BQ85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BR85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BS85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BT85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BU85" s="34" t="str">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="BV85" s="34" t="str">
-        <f t="shared" ref="BV85:CA85" ca="1" si="53">IF(AND($C85="Goal",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),1,""))</f>
+        <f t="shared" ref="BV85:CA85" ca="1" si="56">IF(AND($C85="Goal",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BW85" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BX85" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BY85" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="BZ85" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="CA85" s="34" t="str">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="48"/>
-      <c r="E86" s="56">
+      <c r="D86" s="66"/>
+      <c r="E86" s="67">
         <v>0</v>
       </c>
-      <c r="F86" s="57">
-        <v>44287</v>
-      </c>
-      <c r="G86" s="57">
+      <c r="F86" s="68">
+        <v>44300</v>
+      </c>
+      <c r="G86" s="68">
         <v>44348</v>
       </c>
-      <c r="H86" s="31">
+      <c r="H86" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I86" s="25"/>
       <c r="J86" s="34"/>
@@ -14034,25 +14037,25 @@
     </row>
     <row r="87" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="48"/>
-      <c r="E87" s="56">
+      <c r="D87" s="66"/>
+      <c r="E87" s="67">
         <v>0</v>
       </c>
-      <c r="F87" s="57">
-        <v>44287</v>
-      </c>
-      <c r="G87" s="57">
+      <c r="F87" s="68">
+        <v>44300</v>
+      </c>
+      <c r="G87" s="68">
         <v>44348</v>
       </c>
-      <c r="H87" s="31">
+      <c r="H87" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I87" s="25"/>
       <c r="J87" s="34"/>
@@ -14128,25 +14131,25 @@
     </row>
     <row r="88" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D88" s="48"/>
-      <c r="E88" s="56">
+      <c r="D88" s="66"/>
+      <c r="E88" s="67">
         <v>0</v>
       </c>
-      <c r="F88" s="57">
-        <v>44287</v>
-      </c>
-      <c r="G88" s="57">
+      <c r="F88" s="68">
+        <v>44300</v>
+      </c>
+      <c r="G88" s="68">
         <v>44348</v>
       </c>
-      <c r="H88" s="31">
+      <c r="H88" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I88" s="25"/>
       <c r="J88" s="34"/>
@@ -14222,25 +14225,25 @@
     </row>
     <row r="89" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="48" t="s">
+      <c r="C89" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="48"/>
-      <c r="E89" s="56">
+      <c r="D89" s="66"/>
+      <c r="E89" s="67">
         <v>0</v>
       </c>
-      <c r="F89" s="57">
-        <v>44287</v>
-      </c>
-      <c r="G89" s="57">
+      <c r="F89" s="68">
+        <v>44300</v>
+      </c>
+      <c r="G89" s="68">
         <v>44348</v>
       </c>
-      <c r="H89" s="31">
+      <c r="H89" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I89" s="25"/>
       <c r="J89" s="34"/>
@@ -14316,25 +14319,25 @@
     </row>
     <row r="90" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="48" t="s">
+      <c r="C90" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="48"/>
-      <c r="E90" s="56">
+      <c r="D90" s="66"/>
+      <c r="E90" s="67">
         <v>0</v>
       </c>
-      <c r="F90" s="57">
-        <v>44287</v>
-      </c>
-      <c r="G90" s="57">
+      <c r="F90" s="68">
+        <v>44300</v>
+      </c>
+      <c r="G90" s="68">
         <v>44348</v>
       </c>
-      <c r="H90" s="31">
+      <c r="H90" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I90" s="25"/>
       <c r="J90" s="34"/>
@@ -14410,25 +14413,25 @@
     </row>
     <row r="91" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="48" t="s">
+      <c r="C91" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="48"/>
-      <c r="E91" s="56">
+      <c r="D91" s="66"/>
+      <c r="E91" s="67">
         <v>0</v>
       </c>
-      <c r="F91" s="57">
-        <v>44287</v>
-      </c>
-      <c r="G91" s="57">
+      <c r="F91" s="68">
+        <v>44300</v>
+      </c>
+      <c r="G91" s="68">
         <v>44348</v>
       </c>
-      <c r="H91" s="31">
+      <c r="H91" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I91" s="25"/>
       <c r="J91" s="34"/>
@@ -14515,283 +14518,283 @@
       <c r="H92" s="53"/>
       <c r="I92" s="25"/>
       <c r="J92" s="34" t="str">
-        <f t="shared" ref="J92:AO92" ca="1" si="54">IF(AND($C92="Goal",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),1,""))</f>
+        <f t="shared" ref="J92:AO92" ca="1" si="57">IF(AND($C92="Goal",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="K92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="L92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="M92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="N92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="O92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="P92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="Q92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="R92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="S92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="T92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="U92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="V92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="W92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="X92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="Y92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="Z92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AA92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AB92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AC92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AD92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AE92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AF92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AG92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AH92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AI92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AJ92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AK92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AL92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AM92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AN92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AO92" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AP92" s="34" t="str">
-        <f t="shared" ref="AP92:BU92" ca="1" si="55">IF(AND($C92="Goal",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),1,""))</f>
+        <f t="shared" ref="AP92:BU92" ca="1" si="58">IF(AND($C92="Goal",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AR92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AS92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AT92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AU92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AV92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AW92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AX92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AY92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AZ92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BA92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BB92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BC92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BD92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BE92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BF92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BG92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BH92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BI92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BJ92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BK92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BL92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BM92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BN92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BO92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BP92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BQ92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BR92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BS92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BT92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BU92" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BV92" s="34" t="str">
-        <f t="shared" ref="BV92:CA92" ca="1" si="56">IF(AND($C92="Goal",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),1,""))</f>
+        <f t="shared" ref="BV92:CA92" ca="1" si="59">IF(AND($C92="Goal",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BW92" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="BX92" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="BY92" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="BZ92" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="CA92" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
     </row>
@@ -14904,187 +14907,187 @@
       </c>
       <c r="I94" s="25"/>
       <c r="J94" s="34" t="str">
-        <f t="shared" ref="J94:S100" ca="1" si="57">IF(AND($C94="Goal",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),1,""))</f>
+        <f t="shared" ref="J94:S100" ca="1" si="60">IF(AND($C94="Goal",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="K94" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L94" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M94" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N94" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O94" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P94" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q94" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R94" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S94" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T94" s="34" t="str">
-        <f t="shared" ref="T94:AC100" ca="1" si="58">IF(AND($C94="Goal",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),1,""))</f>
+        <f t="shared" ref="T94:AC100" ca="1" si="61">IF(AND($C94="Goal",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="U94" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V94" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W94" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X94" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y94" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z94" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA94" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB94" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC94" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD94" s="34" t="str">
-        <f t="shared" ref="AD94:AM100" ca="1" si="59">IF(AND($C94="Goal",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),1,""))</f>
+        <f t="shared" ref="AD94:AM100" ca="1" si="62">IF(AND($C94="Goal",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AE94" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF94" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG94" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH94" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI94" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ94" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK94" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL94" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM94" s="34">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>2</v>
       </c>
       <c r="AN94" s="34">
-        <f t="shared" ref="AN94:AW100" ca="1" si="60">IF(AND($C94="Goal",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),1,""))</f>
+        <f t="shared" ref="AN94:AW100" ca="1" si="63">IF(AND($C94="Goal",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AO94" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="AP94" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="AQ94" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="AR94" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="AS94" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="AT94" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="AU94" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="AV94" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="AW94" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>2</v>
       </c>
       <c r="AX94" s="34">
-        <f t="shared" ref="AX94:BG100" ca="1" si="61">IF(AND($C94="Goal",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),1,""))</f>
+        <f t="shared" ref="AX94:BG100" ca="1" si="64">IF(AND($C94="Goal",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AY94" s="34">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>2</v>
       </c>
       <c r="AZ94" s="34">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>2</v>
       </c>
       <c r="BA94" s="34">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>2</v>
       </c>
       <c r="BB94" s="34">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>2</v>
       </c>
       <c r="BC94" s="34">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>2</v>
       </c>
       <c r="BD94" s="34">
@@ -15092,95 +15095,95 @@
         <v>2</v>
       </c>
       <c r="BE94" s="34">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>2</v>
       </c>
       <c r="BF94" s="34">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>2</v>
       </c>
       <c r="BG94" s="34">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>2</v>
       </c>
       <c r="BH94" s="34" t="str">
-        <f t="shared" ref="BH94:BQ100" ca="1" si="62">IF(AND($C94="Goal",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),1,""))</f>
+        <f t="shared" ref="BH94:BQ100" ca="1" si="65">IF(AND($C94="Goal",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BI94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR94" s="34" t="str">
-        <f t="shared" ref="BR94:CA100" ca="1" si="63">IF(AND($C94="Goal",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),1,""))</f>
+        <f t="shared" ref="BR94:CA100" ca="1" si="66">IF(AND($C94="Goal",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BS94" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT94" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU94" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV94" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW94" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX94" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY94" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ94" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA94" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
@@ -15210,587 +15213,587 @@
       </c>
       <c r="I95" s="25"/>
       <c r="J95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S95" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC95" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM95" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
-      <c r="B96" s="55" t="s">
+      <c r="B96" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="48"/>
-      <c r="E96" s="29">
+      <c r="D96" s="66"/>
+      <c r="E96" s="82">
         <v>0</v>
       </c>
-      <c r="F96" s="57">
+      <c r="F96" s="68">
         <v>44317</v>
       </c>
-      <c r="G96" s="57">
+      <c r="G96" s="68">
         <v>44348</v>
       </c>
-      <c r="H96" s="31">
+      <c r="H96" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
         <v>32</v>
       </c>
       <c r="I96" s="25"/>
       <c r="J96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S96" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC96" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM96" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
@@ -15807,283 +15810,283 @@
       <c r="H97" s="31"/>
       <c r="I97" s="25"/>
       <c r="J97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S97" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC97" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM97" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
@@ -16113,283 +16116,283 @@
       </c>
       <c r="I98" s="25"/>
       <c r="J98" s="34">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v>2</v>
       </c>
       <c r="K98" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L98" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M98" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N98" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O98" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P98" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q98" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R98" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S98" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC98" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM98" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
@@ -16404,283 +16407,283 @@
       <c r="H99" s="31"/>
       <c r="I99" s="25"/>
       <c r="J99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S99" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC99" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM99" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
@@ -16697,283 +16700,283 @@
       <c r="H100" s="31"/>
       <c r="I100" s="25"/>
       <c r="J100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S100" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC100" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM100" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
@@ -17088,7 +17091,7 @@
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="X2:AC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E11 E17 E13 E92:E93 E100 E33 E97 E15 E47:E48">
+  <conditionalFormatting sqref="E7:E11 E17 E13 E92:E93 E100 E33 E97 E15 E47:E83">
     <cfRule type="dataBar" priority="351">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17475,34 +17478,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E83">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0E0DEEA5-B528-4E4E-ADCE-404B923A5CC8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E83">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8AD3C8F1-2AF1-4AE7-9FEC-27DE49714386}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
@@ -17572,7 +17547,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E11 E17 E13 E92:E93 E100 E33 E97 E15 E47:E48</xm:sqref>
+          <xm:sqref>E7:E11 E17 E13 E92:E93 E100 E33 E97 E15 E47:E83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36922C6F-F55A-8F49-86CD-B382086C6C9E}">
@@ -18002,7 +17977,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J55:CA55 J51:CA51</xm:sqref>
+          <xm:sqref>J54:CA54 J51:CA51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="86" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
@@ -18138,7 +18113,7 @@
           <xm:sqref>J23:CA23 J8:CA11 J13:CA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="848" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
+          <x14:cfRule type="iconSet" priority="867" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18154,37 +18129,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J56:CA83 J52:CA54 J48:CA50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0E0DEEA5-B528-4E4E-ADCE-404B923A5CC8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E49:E83</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8AD3C8F1-2AF1-4AE7-9FEC-27DE49714386}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E49:E83</xm:sqref>
+          <xm:sqref>J52:CA53 J55:CA83 J48:CA50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EED2F5FB-8606-4B5A-922C-4FA72C550A96}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1939D611-A088-40DB-B263-1F4D80557DA8}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24505" yWindow="5034" windowWidth="11094" windowHeight="7989" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -372,9 +372,6 @@
     <t>Send/Receive Feedback</t>
   </si>
   <si>
-    <t>Tracking Visualization</t>
-  </si>
-  <si>
     <t>Brandin/Jeffer</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
   </si>
   <si>
     <t>Completion</t>
+  </si>
+  <si>
+    <t>Drill Visualization</t>
   </si>
 </sst>
 </file>
@@ -1017,6 +1017,9 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,9 +1051,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -1067,6 +1067,39 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="49">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1673,39 +1706,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2027,12 +2027,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Completion"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="33" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="0" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2312,8 +2312,8 @@
   </sheetPr>
   <dimension ref="A1:CE193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2381,46 +2381,46 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="Q2" s="80" t="s">
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="Q2" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="X2" s="81" t="s">
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="X2" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AE2" s="71" t="s">
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AE2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AL2" s="72" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AL2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
       <c r="AR2" s="20"/>
       <c r="AW2" s="20"/>
       <c r="BB2" s="20"/>
@@ -2431,26 +2431,26 @@
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="76">
+      <c r="E3" s="75"/>
+      <c r="F3" s="77">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>44096</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:79" ht="30.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="39">
         <v>21</v>
       </c>
@@ -2554,14 +2554,14 @@
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="43">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>44117</v>
@@ -2940,7 +2940,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>7</v>
@@ -9250,7 +9250,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="29">
         <v>1</v>
@@ -9436,13 +9436,13 @@
     <row r="43" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="29">
         <v>1</v>
@@ -9532,13 +9532,13 @@
     <row r="44" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="29">
         <v>1</v>
@@ -9628,13 +9628,13 @@
     <row r="45" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" s="29">
         <v>1</v>
@@ -9730,7 +9730,7 @@
         <v>51</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
@@ -9903,7 +9903,7 @@
     <row r="48" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
@@ -9986,13 +9986,13 @@
     <row r="49" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="54" t="s">
         <v>51</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" s="56">
         <v>1</v>
@@ -10082,13 +10082,13 @@
     <row r="50" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="54" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" s="56">
         <v>1</v>
@@ -10184,7 +10184,7 @@
         <v>51</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="56">
         <v>1</v>
@@ -10484,13 +10484,13 @@
     <row r="52" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D52" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="56">
         <v>1</v>
@@ -10579,27 +10579,27 @@
     </row>
     <row r="53" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="56">
+      <c r="D53" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="67">
         <v>0</v>
       </c>
-      <c r="F53" s="57">
-        <v>44244</v>
-      </c>
-      <c r="G53" s="57">
-        <v>44252</v>
-      </c>
-      <c r="H53" s="31">
+      <c r="F53" s="68">
+        <v>44286</v>
+      </c>
+      <c r="G53" s="68">
+        <v>44292</v>
+      </c>
+      <c r="H53" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I53" s="25"/>
       <c r="J53" s="34"/>
@@ -10682,10 +10682,10 @@
         <v>51</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E54" s="56">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F54" s="57">
         <v>44244</v>
@@ -10868,7 +10868,7 @@
     <row r="56" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="37" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C56" s="54" t="s">
         <v>51</v>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="E56" s="56">
         <f>SUM(E57:E59)/3</f>
-        <v>4.9999999999999996E-2</v>
+        <v>0.93333333333333324</v>
       </c>
       <c r="F56" s="57">
         <v>44237</v>
@@ -10965,16 +10965,16 @@
     <row r="57" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="54" t="s">
         <v>51</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E57" s="56">
-        <v>0.15</v>
+        <v>0.9</v>
       </c>
       <c r="F57" s="60">
         <v>44237</v>
@@ -11061,16 +11061,16 @@
     <row r="58" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C58" s="54" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E58" s="56">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F58" s="60">
         <v>44244</v>
@@ -11157,16 +11157,16 @@
     <row r="59" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="54" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="60">
         <v>44244</v>
@@ -11253,7 +11253,7 @@
     <row r="60" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C60" s="48" t="s">
         <v>51</v>
@@ -11349,13 +11349,13 @@
     <row r="61" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D61" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" s="56">
         <v>0</v>
@@ -11445,13 +11445,13 @@
     <row r="62" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" s="56">
         <v>0</v>
@@ -11541,13 +11541,13 @@
     <row r="63" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C63" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E63" s="56">
         <v>0</v>
@@ -11733,13 +11733,13 @@
     <row r="65" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C65" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D65" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E65" s="56">
         <v>0</v>
@@ -11829,13 +11829,13 @@
     <row r="66" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D66" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E66" s="56">
         <v>0</v>
@@ -11925,13 +11925,13 @@
     <row r="67" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D67" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E67" s="56">
         <v>0</v>
@@ -12117,13 +12117,13 @@
     <row r="69" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E69" s="56">
         <v>0</v>
@@ -12213,13 +12213,13 @@
     <row r="70" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E70" s="56">
         <v>0</v>
@@ -12309,13 +12309,13 @@
     <row r="71" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C71" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E71" s="56">
         <v>0</v>
@@ -12501,13 +12501,13 @@
     <row r="73" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D73" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E73" s="56">
         <v>0</v>
@@ -12597,13 +12597,13 @@
     <row r="74" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C74" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D74" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E74" s="56">
         <v>0</v>
@@ -12693,13 +12693,13 @@
     <row r="75" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D75" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E75" s="56">
         <v>0</v>
@@ -12885,13 +12885,13 @@
     <row r="77" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="65" t="s">
         <v>52</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E77" s="67">
         <v>0</v>
@@ -12981,13 +12981,13 @@
     <row r="78" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C78" s="65" t="s">
         <v>52</v>
       </c>
       <c r="D78" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E78" s="67">
         <v>0</v>
@@ -13077,13 +13077,13 @@
     <row r="79" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="65" t="s">
         <v>52</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E79" s="67">
         <v>0</v>
@@ -13269,13 +13269,13 @@
     <row r="81" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="66" t="s">
         <v>51</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E81" s="67">
         <v>0</v>
@@ -13365,13 +13365,13 @@
     <row r="82" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82" s="66" t="s">
         <v>51</v>
       </c>
       <c r="D82" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E82" s="67">
         <v>0</v>
@@ -13461,13 +13461,13 @@
     <row r="83" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="66" t="s">
         <v>51</v>
       </c>
       <c r="D83" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E83" s="67">
         <v>0</v>
@@ -15502,7 +15502,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="66"/>
-      <c r="E96" s="82">
+      <c r="E96" s="71">
         <v>0</v>
       </c>
       <c r="F96" s="68">
@@ -17106,39 +17106,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J92:BZ93 J26:BZ33 J21:BZ24 J39:BZ83">
-    <cfRule type="expression" dxfId="32" priority="344">
+    <cfRule type="expression" dxfId="36" priority="344">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="31" priority="350">
+    <cfRule type="expression" dxfId="35" priority="350">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="30" priority="346">
+    <cfRule type="expression" dxfId="34" priority="346">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="29" priority="345">
+    <cfRule type="expression" dxfId="33" priority="345">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:CA11 J13:CA100">
-    <cfRule type="expression" dxfId="28" priority="367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="367" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="386" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="404" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="405" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="406" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17185,7 +17185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA23:CA24 CA92:CA93 CA33">
-    <cfRule type="expression" dxfId="23" priority="465">
+    <cfRule type="expression" dxfId="27" priority="465">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17204,12 +17204,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="22" priority="254">
+    <cfRule type="expression" dxfId="26" priority="254">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA83">
-    <cfRule type="expression" dxfId="21" priority="261">
+    <cfRule type="expression" dxfId="25" priority="261">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17256,29 +17256,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="20" priority="235">
+    <cfRule type="expression" dxfId="24" priority="235">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="19" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="237" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="238" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="239" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="240" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="241" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="14" priority="242">
+    <cfRule type="expression" dxfId="18" priority="242">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17297,12 +17297,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="13" priority="226">
+    <cfRule type="expression" dxfId="17" priority="226">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="12" priority="232">
+    <cfRule type="expression" dxfId="16" priority="232">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17321,12 +17321,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84:BZ84">
-    <cfRule type="expression" dxfId="11" priority="197">
+    <cfRule type="expression" dxfId="15" priority="197">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA84">
-    <cfRule type="expression" dxfId="10" priority="198">
+    <cfRule type="expression" dxfId="14" priority="198">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17345,52 +17345,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="9" priority="143">
+    <cfRule type="expression" dxfId="13" priority="143">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="8" priority="144">
+    <cfRule type="expression" dxfId="12" priority="144">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="7" priority="120">
+    <cfRule type="expression" dxfId="11" priority="120">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="6" priority="119">
+    <cfRule type="expression" dxfId="10" priority="119">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85:BZ91">
-    <cfRule type="expression" dxfId="5" priority="80">
+    <cfRule type="expression" dxfId="9" priority="80">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA85:CA91">
-    <cfRule type="expression" dxfId="4" priority="79">
+    <cfRule type="expression" dxfId="8" priority="79">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:BZ100">
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="7" priority="72">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA94:CA100">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="6" priority="71">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="5" priority="41">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA18:CA20">
-    <cfRule type="expression" dxfId="0" priority="42">
+    <cfRule type="expression" dxfId="4" priority="42">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1939D611-A088-40DB-B263-1F4D80557DA8}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB8863CE-F885-4DA5-BB18-4A66777E960F}"/>
   <bookViews>
-    <workbookView xWindow="24505" yWindow="5034" windowWidth="11094" windowHeight="7989" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -2312,8 +2312,8 @@
   </sheetPr>
   <dimension ref="A1:CE193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G75" sqref="G64:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10685,17 +10685,17 @@
         <v>109</v>
       </c>
       <c r="E54" s="56">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="F54" s="57">
         <v>44244</v>
       </c>
       <c r="G54" s="57">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H54" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I54" s="25"/>
       <c r="J54" s="34"/>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="E56" s="56">
         <f>SUM(E57:E59)/3</f>
-        <v>0.93333333333333324</v>
+        <v>1</v>
       </c>
       <c r="F56" s="57">
         <v>44237</v>
@@ -10974,7 +10974,7 @@
         <v>108</v>
       </c>
       <c r="E57" s="56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F57" s="60">
         <v>44237</v>
@@ -11070,7 +11070,7 @@
         <v>110</v>
       </c>
       <c r="E58" s="56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F58" s="60">
         <v>44244</v>
@@ -11262,7 +11262,8 @@
         <v>30</v>
       </c>
       <c r="E60" s="56">
-        <v>0</v>
+        <f>SUM(E61:E63)/3</f>
+        <v>1</v>
       </c>
       <c r="F60" s="60">
         <v>44251</v>
@@ -11358,7 +11359,7 @@
         <v>108</v>
       </c>
       <c r="E61" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="60">
         <v>44251</v>
@@ -11454,7 +11455,7 @@
         <v>110</v>
       </c>
       <c r="E62" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="60">
         <v>44251</v>
@@ -11550,7 +11551,7 @@
         <v>109</v>
       </c>
       <c r="E63" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="60">
         <v>44251</v>
@@ -11646,17 +11647,18 @@
         <v>30</v>
       </c>
       <c r="E64" s="56">
+        <f>SUM(E65:E67)/3</f>
         <v>0</v>
       </c>
       <c r="F64" s="60">
         <v>44258</v>
       </c>
       <c r="G64" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H64" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="34"/>
@@ -11748,11 +11750,11 @@
         <v>44258</v>
       </c>
       <c r="G65" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H65" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I65" s="25"/>
       <c r="J65" s="34"/>
@@ -11844,11 +11846,11 @@
         <v>44258</v>
       </c>
       <c r="G66" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H66" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I66" s="25"/>
       <c r="J66" s="34"/>
@@ -11940,11 +11942,11 @@
         <v>44258</v>
       </c>
       <c r="G67" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H67" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I67" s="25"/>
       <c r="J67" s="34"/>
@@ -12030,17 +12032,18 @@
         <v>30</v>
       </c>
       <c r="E68" s="56">
+        <f>SUM(E69:E71)/3</f>
         <v>0</v>
       </c>
       <c r="F68" s="60">
         <v>44258</v>
       </c>
       <c r="G68" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H68" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I68" s="25"/>
       <c r="J68" s="34"/>
@@ -12132,11 +12135,11 @@
         <v>44258</v>
       </c>
       <c r="G69" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H69" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I69" s="25"/>
       <c r="J69" s="34"/>
@@ -12228,11 +12231,11 @@
         <v>44258</v>
       </c>
       <c r="G70" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H70" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I70" s="25"/>
       <c r="J70" s="34"/>
@@ -12324,11 +12327,11 @@
         <v>44258</v>
       </c>
       <c r="G71" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H71" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I71" s="25"/>
       <c r="J71" s="34"/>
@@ -12414,17 +12417,18 @@
         <v>30</v>
       </c>
       <c r="E72" s="56">
+        <f>SUM(E73:E75)/3</f>
         <v>0</v>
       </c>
       <c r="F72" s="60">
         <v>44258</v>
       </c>
       <c r="G72" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H72" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I72" s="25"/>
       <c r="J72" s="34"/>
@@ -12516,11 +12520,11 @@
         <v>44258</v>
       </c>
       <c r="G73" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H73" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I73" s="25"/>
       <c r="J73" s="34"/>
@@ -12612,11 +12616,11 @@
         <v>44258</v>
       </c>
       <c r="G74" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H74" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I74" s="25"/>
       <c r="J74" s="34"/>
@@ -12708,11 +12712,11 @@
         <v>44258</v>
       </c>
       <c r="G75" s="30">
-        <v>44264</v>
+        <v>44262</v>
       </c>
       <c r="H75" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I75" s="25"/>
       <c r="J75" s="34"/>
@@ -12798,6 +12802,7 @@
         <v>30</v>
       </c>
       <c r="E76" s="67">
+        <f>SUM(E77:E79)/3</f>
         <v>0</v>
       </c>
       <c r="F76" s="68">
@@ -13182,6 +13187,7 @@
         <v>30</v>
       </c>
       <c r="E80" s="67">
+        <f>SUM(E81:E83)/3</f>
         <v>0</v>
       </c>
       <c r="F80" s="68">
@@ -15199,7 +15205,7 @@
         <v>77</v>
       </c>
       <c r="E95" s="29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F95" s="57">
         <v>44251</v>
@@ -17478,7 +17484,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="254" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB8863CE-F885-4DA5-BB18-4A66777E960F}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2894200F-9F49-421F-BAD0-9E31EBF701CD}"/>
   <bookViews>
-    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1066,39 +1066,224 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="59">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1706,6 +1891,39 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1850,20 +2068,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="48"/>
-      <tableStyleElement type="headerRow" dxfId="47"/>
-      <tableStyleElement type="firstRowStripe" dxfId="46"/>
+      <tableStyleElement type="wholeTable" dxfId="58"/>
+      <tableStyleElement type="headerRow" dxfId="57"/>
+      <tableStyleElement type="firstRowStripe" dxfId="56"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="totalRow" dxfId="43"/>
-      <tableStyleElement type="firstColumn" dxfId="42"/>
-      <tableStyleElement type="lastColumn" dxfId="41"/>
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="38"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="55"/>
+      <tableStyleElement type="headerRow" dxfId="54"/>
+      <tableStyleElement type="totalRow" dxfId="53"/>
+      <tableStyleElement type="firstColumn" dxfId="52"/>
+      <tableStyleElement type="lastColumn" dxfId="51"/>
+      <tableStyleElement type="firstRowStripe" dxfId="50"/>
+      <tableStyleElement type="secondRowStripe" dxfId="49"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="48"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="47"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2027,12 +2245,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="44"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Completion"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="0" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="43" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2312,8 +2530,8 @@
   </sheetPr>
   <dimension ref="A1:CE193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G75" sqref="G64:G75"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10685,7 +10903,7 @@
         <v>109</v>
       </c>
       <c r="E54" s="56">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F54" s="57">
         <v>44244</v>
@@ -11647,8 +11865,7 @@
         <v>30</v>
       </c>
       <c r="E64" s="56">
-        <f>SUM(E65:E67)/3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="60">
         <v>44258</v>
@@ -11744,7 +11961,7 @@
         <v>108</v>
       </c>
       <c r="E65" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="60">
         <v>44258</v>
@@ -11840,7 +12057,7 @@
         <v>110</v>
       </c>
       <c r="E66" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="60">
         <v>44258</v>
@@ -11936,7 +12153,7 @@
         <v>109</v>
       </c>
       <c r="E67" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="60">
         <v>44258</v>
@@ -12023,7 +12240,7 @@
     <row r="68" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C68" s="54" t="s">
         <v>52</v>
@@ -12032,8 +12249,7 @@
         <v>30</v>
       </c>
       <c r="E68" s="56">
-        <f>SUM(E69:E71)/3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="60">
         <v>44258</v>
@@ -12129,7 +12345,7 @@
         <v>108</v>
       </c>
       <c r="E69" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="60">
         <v>44258</v>
@@ -12225,7 +12441,7 @@
         <v>110</v>
       </c>
       <c r="E70" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="60">
         <v>44258</v>
@@ -12321,7 +12537,7 @@
         <v>109</v>
       </c>
       <c r="E71" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="60">
         <v>44258</v>
@@ -12407,28 +12623,27 @@
     </row>
     <row r="72" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
-      <c r="B72" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="54" t="s">
+      <c r="B72" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="48" t="s">
+      <c r="D72" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="56">
-        <f>SUM(E73:E75)/3</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G72" s="30">
-        <v>44262</v>
-      </c>
-      <c r="H72" s="31">
+      <c r="E72" s="67">
+        <v>1</v>
+      </c>
+      <c r="F72" s="68">
+        <v>44286</v>
+      </c>
+      <c r="G72" s="68">
+        <v>44292</v>
+      </c>
+      <c r="H72" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I72" s="25"/>
       <c r="J72" s="34"/>
@@ -12504,27 +12719,27 @@
     </row>
     <row r="73" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="54" t="s">
+      <c r="D73" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="56">
+      <c r="E73" s="67">
         <v>0</v>
       </c>
-      <c r="F73" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G73" s="30">
-        <v>44262</v>
-      </c>
-      <c r="H73" s="31">
+      <c r="F73" s="68">
+        <v>44286</v>
+      </c>
+      <c r="G73" s="68">
+        <v>44292</v>
+      </c>
+      <c r="H73" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I73" s="25"/>
       <c r="J73" s="34"/>
@@ -12600,27 +12815,27 @@
     </row>
     <row r="74" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="54" t="s">
+      <c r="D74" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="56">
-        <v>0</v>
-      </c>
-      <c r="F74" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G74" s="30">
-        <v>44262</v>
-      </c>
-      <c r="H74" s="31">
+      <c r="E74" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="F74" s="68">
+        <v>44286</v>
+      </c>
+      <c r="G74" s="68">
+        <v>44292</v>
+      </c>
+      <c r="H74" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I74" s="25"/>
       <c r="J74" s="34"/>
@@ -12696,27 +12911,27 @@
     </row>
     <row r="75" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D75" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E75" s="56">
-        <v>0</v>
-      </c>
-      <c r="F75" s="60">
-        <v>44258</v>
-      </c>
-      <c r="G75" s="30">
-        <v>44262</v>
-      </c>
-      <c r="H75" s="31">
+      <c r="E75" s="67">
+        <v>1</v>
+      </c>
+      <c r="F75" s="68">
+        <v>44286</v>
+      </c>
+      <c r="G75" s="68">
+        <v>44292</v>
+      </c>
+      <c r="H75" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I75" s="25"/>
       <c r="J75" s="34"/>
@@ -13667,283 +13882,283 @@
       </c>
       <c r="I85" s="25"/>
       <c r="J85" s="34" t="str">
-        <f t="shared" ref="J85:AO85" ca="1" si="54">IF(AND($C85="Goal",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),1,""))</f>
+        <f ca="1">IF(AND($C85="Goal",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="K85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",K$5&gt;=$F85,K$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",K$5&gt;=$F85,K$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="L85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",L$5&gt;=$F85,L$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",L$5&gt;=$F85,L$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="M85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",M$5&gt;=$F85,M$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",M$5&gt;=$F85,M$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="N85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",N$5&gt;=$F85,N$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",N$5&gt;=$F85,N$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="O85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",O$5&gt;=$F85,O$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",O$5&gt;=$F85,O$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="P85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",P$5&gt;=$F85,P$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",P$5&gt;=$F85,P$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="Q85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",Q$5&gt;=$F85,Q$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",Q$5&gt;=$F85,Q$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="R85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",R$5&gt;=$F85,R$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",R$5&gt;=$F85,R$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="S85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",S$5&gt;=$F85,S$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",S$5&gt;=$F85,S$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="T85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",T$5&gt;=$F85,T$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",T$5&gt;=$F85,T$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="U85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",U$5&gt;=$F85,U$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",U$5&gt;=$F85,U$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="V85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",V$5&gt;=$F85,V$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",V$5&gt;=$F85,V$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="W85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",W$5&gt;=$F85,W$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",W$5&gt;=$F85,W$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="X85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",X$5&gt;=$F85,X$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",X$5&gt;=$F85,X$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="Y85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",Y$5&gt;=$F85,Y$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",Y$5&gt;=$F85,Y$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="Z85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",Z$5&gt;=$F85,Z$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",Z$5&gt;=$F85,Z$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AA85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AA$5&gt;=$F85,AA$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AA$5&gt;=$F85,AA$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AB85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AB$5&gt;=$F85,AB$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AB$5&gt;=$F85,AB$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AC85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AC$5&gt;=$F85,AC$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AC$5&gt;=$F85,AC$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AD85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AD$5&gt;=$F85,AD$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AD$5&gt;=$F85,AD$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AE85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AE$5&gt;=$F85,AE$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AE$5&gt;=$F85,AE$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AF85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AF$5&gt;=$F85,AF$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AF$5&gt;=$F85,AF$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AG85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AG$5&gt;=$F85,AG$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AG$5&gt;=$F85,AG$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AH85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AH$5&gt;=$F85,AH$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AH$5&gt;=$F85,AH$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AI85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AI$5&gt;=$F85,AI$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AI$5&gt;=$F85,AI$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AJ$5&gt;=$F85,AJ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AJ$5&gt;=$F85,AJ$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AK85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AK$5&gt;=$F85,AK$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AK$5&gt;=$F85,AK$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AL85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AL$5&gt;=$F85,AL$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AL$5&gt;=$F85,AL$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AM85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AM$5&gt;=$F85,AM$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AM$5&gt;=$F85,AM$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AN85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AN$5&gt;=$F85,AN$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AN$5&gt;=$F85,AN$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AO85" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f ca="1">IF(AND($C85="Goal",AO$5&gt;=$F85,AO$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AO$5&gt;=$F85,AO$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AP85" s="34" t="str">
-        <f t="shared" ref="AP85:BU85" ca="1" si="55">IF(AND($C85="Goal",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),1,""))</f>
+        <f ca="1">IF(AND($C85="Goal",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AQ$5&gt;=$F85,AQ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AQ$5&gt;=$F85,AQ$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AR85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AR$5&gt;=$F85,AR$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AR$5&gt;=$F85,AR$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AS85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AS$5&gt;=$F85,AS$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AS$5&gt;=$F85,AS$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AT85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AT$5&gt;=$F85,AT$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AT$5&gt;=$F85,AT$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AU85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AU$5&gt;=$F85,AU$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AU$5&gt;=$F85,AU$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AV85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AV$5&gt;=$F85,AV$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AV$5&gt;=$F85,AV$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AW85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AW$5&gt;=$F85,AW$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AW$5&gt;=$F85,AW$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AX85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AX$5&gt;=$F85,AX$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AX$5&gt;=$F85,AX$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AY85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AY$5&gt;=$F85,AY$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AY$5&gt;=$F85,AY$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",AZ$5&gt;=$F85,AZ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AZ$5&gt;=$F85,AZ$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BA85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BA$5&gt;=$F85,BA$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BA$5&gt;=$F85,BA$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BB85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BB$5&gt;=$F85,BB$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BB$5&gt;=$F85,BB$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BC85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BC$5&gt;=$F85,BC$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BC$5&gt;=$F85,BC$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BD85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BD$5&gt;=$F85,BD$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BD$5&gt;=$F85,BD$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BE85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BE$5&gt;=$F85,BE$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BE$5&gt;=$F85,BE$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BF85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BF$5&gt;=$F85,BF$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BF$5&gt;=$F85,BF$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BG85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BG$5&gt;=$F85,BG$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BG$5&gt;=$F85,BG$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BH85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BH$5&gt;=$F85,BH$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BH$5&gt;=$F85,BH$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BI85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BI$5&gt;=$F85,BI$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BI$5&gt;=$F85,BI$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BJ$5&gt;=$F85,BJ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BJ$5&gt;=$F85,BJ$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BK85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BK$5&gt;=$F85,BK$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BK$5&gt;=$F85,BK$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BL85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BL$5&gt;=$F85,BL$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BL$5&gt;=$F85,BL$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BM85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BM$5&gt;=$F85,BM$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BM$5&gt;=$F85,BM$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BN85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BN$5&gt;=$F85,BN$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BN$5&gt;=$F85,BN$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BO85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BO$5&gt;=$F85,BO$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BO$5&gt;=$F85,BO$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BP85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BP$5&gt;=$F85,BP$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BP$5&gt;=$F85,BP$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BQ85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BQ$5&gt;=$F85,BQ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BQ$5&gt;=$F85,BQ$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BR85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BR$5&gt;=$F85,BR$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BR$5&gt;=$F85,BR$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BS85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BS$5&gt;=$F85,BS$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BS$5&gt;=$F85,BS$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BT85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BT$5&gt;=$F85,BT$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BT$5&gt;=$F85,BT$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BU85" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f ca="1">IF(AND($C85="Goal",BU$5&gt;=$F85,BU$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BU$5&gt;=$F85,BU$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BV85" s="34" t="str">
-        <f t="shared" ref="BV85:CA85" ca="1" si="56">IF(AND($C85="Goal",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),1,""))</f>
+        <f ca="1">IF(AND($C85="Goal",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BW85" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">IF(AND($C85="Goal",BW$5&gt;=$F85,BW$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BW$5&gt;=$F85,BW$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BX85" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">IF(AND($C85="Goal",BX$5&gt;=$F85,BX$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BX$5&gt;=$F85,BX$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BY85" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">IF(AND($C85="Goal",BY$5&gt;=$F85,BY$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BY$5&gt;=$F85,BY$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="BZ85" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">IF(AND($C85="Goal",BZ$5&gt;=$F85,BZ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BZ$5&gt;=$F85,BZ$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
       <c r="CA85" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f ca="1">IF(AND($C85="Goal",CA$5&gt;=$F85,CA$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",CA$5&gt;=$F85,CA$5&lt;=$F85+$H85-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -14524,283 +14739,283 @@
       <c r="H92" s="53"/>
       <c r="I92" s="25"/>
       <c r="J92" s="34" t="str">
-        <f t="shared" ref="J92:AO92" ca="1" si="57">IF(AND($C92="Goal",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),1,""))</f>
+        <f ca="1">IF(AND($C92="Goal",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="K92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",K$5&gt;=$F92,K$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",K$5&gt;=$F92,K$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="L92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",L$5&gt;=$F92,L$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",L$5&gt;=$F92,L$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="M92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",M$5&gt;=$F92,M$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",M$5&gt;=$F92,M$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="N92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",N$5&gt;=$F92,N$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",N$5&gt;=$F92,N$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="O92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",O$5&gt;=$F92,O$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",O$5&gt;=$F92,O$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="P92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",P$5&gt;=$F92,P$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",P$5&gt;=$F92,P$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="Q92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",Q$5&gt;=$F92,Q$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",Q$5&gt;=$F92,Q$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="R92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",R$5&gt;=$F92,R$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",R$5&gt;=$F92,R$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="S92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",S$5&gt;=$F92,S$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",S$5&gt;=$F92,S$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="T92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",T$5&gt;=$F92,T$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",T$5&gt;=$F92,T$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="U92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",U$5&gt;=$F92,U$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",U$5&gt;=$F92,U$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="V92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",V$5&gt;=$F92,V$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",V$5&gt;=$F92,V$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="W92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",W$5&gt;=$F92,W$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",W$5&gt;=$F92,W$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="X92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",X$5&gt;=$F92,X$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",X$5&gt;=$F92,X$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="Y92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",Y$5&gt;=$F92,Y$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",Y$5&gt;=$F92,Y$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="Z92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",Z$5&gt;=$F92,Z$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",Z$5&gt;=$F92,Z$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AA92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AA$5&gt;=$F92,AA$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AA$5&gt;=$F92,AA$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AB92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AB$5&gt;=$F92,AB$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AB$5&gt;=$F92,AB$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AC92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AC$5&gt;=$F92,AC$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AC$5&gt;=$F92,AC$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AD92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AD$5&gt;=$F92,AD$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AD$5&gt;=$F92,AD$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AE92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AE$5&gt;=$F92,AE$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AE$5&gt;=$F92,AE$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AF92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AF$5&gt;=$F92,AF$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AF$5&gt;=$F92,AF$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AG92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AG$5&gt;=$F92,AG$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AG$5&gt;=$F92,AG$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AH92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AH$5&gt;=$F92,AH$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AH$5&gt;=$F92,AH$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AI92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AI$5&gt;=$F92,AI$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AI$5&gt;=$F92,AI$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AJ$5&gt;=$F92,AJ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AJ$5&gt;=$F92,AJ$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AK92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AK$5&gt;=$F92,AK$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AK$5&gt;=$F92,AK$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AL92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AL$5&gt;=$F92,AL$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AL$5&gt;=$F92,AL$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AM92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AM$5&gt;=$F92,AM$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AM$5&gt;=$F92,AM$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AN92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AN$5&gt;=$F92,AN$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AN$5&gt;=$F92,AN$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AO92" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f ca="1">IF(AND($C92="Goal",AO$5&gt;=$F92,AO$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AO$5&gt;=$F92,AO$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AP92" s="34" t="str">
-        <f t="shared" ref="AP92:BU92" ca="1" si="58">IF(AND($C92="Goal",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),1,""))</f>
+        <f ca="1">IF(AND($C92="Goal",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AQ$5&gt;=$F92,AQ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AQ$5&gt;=$F92,AQ$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AR92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AR$5&gt;=$F92,AR$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AR$5&gt;=$F92,AR$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AS92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AS$5&gt;=$F92,AS$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AS$5&gt;=$F92,AS$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AT92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AT$5&gt;=$F92,AT$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AT$5&gt;=$F92,AT$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AU92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AU$5&gt;=$F92,AU$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AU$5&gt;=$F92,AU$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AV92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AV$5&gt;=$F92,AV$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AV$5&gt;=$F92,AV$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AW92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AW$5&gt;=$F92,AW$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AW$5&gt;=$F92,AW$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AX92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AX$5&gt;=$F92,AX$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AX$5&gt;=$F92,AX$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AY92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AY$5&gt;=$F92,AY$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AY$5&gt;=$F92,AY$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",AZ$5&gt;=$F92,AZ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AZ$5&gt;=$F92,AZ$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BA92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BA$5&gt;=$F92,BA$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BA$5&gt;=$F92,BA$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BB92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BB$5&gt;=$F92,BB$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BB$5&gt;=$F92,BB$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BC92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BC$5&gt;=$F92,BC$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BC$5&gt;=$F92,BC$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BD92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BD$5&gt;=$F92,BD$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BD$5&gt;=$F92,BD$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BE92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BE$5&gt;=$F92,BE$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BE$5&gt;=$F92,BE$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BF92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BF$5&gt;=$F92,BF$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BF$5&gt;=$F92,BF$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BG92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BG$5&gt;=$F92,BG$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BG$5&gt;=$F92,BG$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BH92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BH$5&gt;=$F92,BH$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BH$5&gt;=$F92,BH$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BI92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BI$5&gt;=$F92,BI$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BI$5&gt;=$F92,BI$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BJ$5&gt;=$F92,BJ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BJ$5&gt;=$F92,BJ$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BK92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BK$5&gt;=$F92,BK$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BK$5&gt;=$F92,BK$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BL92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BL$5&gt;=$F92,BL$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BL$5&gt;=$F92,BL$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BM92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BM$5&gt;=$F92,BM$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BM$5&gt;=$F92,BM$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BN92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BN$5&gt;=$F92,BN$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BN$5&gt;=$F92,BN$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BO92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BO$5&gt;=$F92,BO$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BO$5&gt;=$F92,BO$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BP92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BP$5&gt;=$F92,BP$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BP$5&gt;=$F92,BP$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BQ92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BQ$5&gt;=$F92,BQ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BQ$5&gt;=$F92,BQ$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BR92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BR$5&gt;=$F92,BR$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BR$5&gt;=$F92,BR$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BS92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BS$5&gt;=$F92,BS$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BS$5&gt;=$F92,BS$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BT92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BT$5&gt;=$F92,BT$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BT$5&gt;=$F92,BT$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BU92" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f ca="1">IF(AND($C92="Goal",BU$5&gt;=$F92,BU$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BU$5&gt;=$F92,BU$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BV92" s="34" t="str">
-        <f t="shared" ref="BV92:CA92" ca="1" si="59">IF(AND($C92="Goal",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),1,""))</f>
+        <f ca="1">IF(AND($C92="Goal",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BW92" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1">IF(AND($C92="Goal",BW$5&gt;=$F92,BW$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BW$5&gt;=$F92,BW$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BX92" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1">IF(AND($C92="Goal",BX$5&gt;=$F92,BX$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BX$5&gt;=$F92,BX$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BY92" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1">IF(AND($C92="Goal",BY$5&gt;=$F92,BY$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BY$5&gt;=$F92,BY$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="BZ92" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1">IF(AND($C92="Goal",BZ$5&gt;=$F92,BZ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BZ$5&gt;=$F92,BZ$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
       <c r="CA92" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f ca="1">IF(AND($C92="Goal",CA$5&gt;=$F92,CA$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",CA$5&gt;=$F92,CA$5&lt;=$F92+$H92-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -14913,187 +15128,187 @@
       </c>
       <c r="I94" s="25"/>
       <c r="J94" s="34" t="str">
-        <f t="shared" ref="J94:S100" ca="1" si="60">IF(AND($C94="Goal",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),1,""))</f>
+        <f ca="1">IF(AND($C94="Goal",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="K94" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C94="Goal",K$5&gt;=$F94,K$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",K$5&gt;=$F94,K$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="L94" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C94="Goal",L$5&gt;=$F94,L$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",L$5&gt;=$F94,L$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="M94" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C94="Goal",M$5&gt;=$F94,M$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",M$5&gt;=$F94,M$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="N94" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C94="Goal",N$5&gt;=$F94,N$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",N$5&gt;=$F94,N$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="O94" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C94="Goal",O$5&gt;=$F94,O$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",O$5&gt;=$F94,O$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="P94" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C94="Goal",P$5&gt;=$F94,P$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",P$5&gt;=$F94,P$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="Q94" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C94="Goal",Q$5&gt;=$F94,Q$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",Q$5&gt;=$F94,Q$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="R94" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C94="Goal",R$5&gt;=$F94,R$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",R$5&gt;=$F94,R$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="S94" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C94="Goal",S$5&gt;=$F94,S$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",S$5&gt;=$F94,S$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="T94" s="34" t="str">
-        <f t="shared" ref="T94:AC100" ca="1" si="61">IF(AND($C94="Goal",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),1,""))</f>
+        <f ca="1">IF(AND($C94="Goal",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="U94" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C94="Goal",U$5&gt;=$F94,U$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",U$5&gt;=$F94,U$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="V94" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C94="Goal",V$5&gt;=$F94,V$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",V$5&gt;=$F94,V$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="W94" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C94="Goal",W$5&gt;=$F94,W$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",W$5&gt;=$F94,W$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="X94" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C94="Goal",X$5&gt;=$F94,X$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",X$5&gt;=$F94,X$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="Y94" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C94="Goal",Y$5&gt;=$F94,Y$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",Y$5&gt;=$F94,Y$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="Z94" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C94="Goal",Z$5&gt;=$F94,Z$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",Z$5&gt;=$F94,Z$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AA94" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C94="Goal",AA$5&gt;=$F94,AA$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AA$5&gt;=$F94,AA$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AB94" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C94="Goal",AB$5&gt;=$F94,AB$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AB$5&gt;=$F94,AB$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AC94" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C94="Goal",AC$5&gt;=$F94,AC$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AC$5&gt;=$F94,AC$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AD94" s="34" t="str">
-        <f t="shared" ref="AD94:AM100" ca="1" si="62">IF(AND($C94="Goal",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),1,""))</f>
+        <f ca="1">IF(AND($C94="Goal",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AE94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C94="Goal",AE$5&gt;=$F94,AE$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AE$5&gt;=$F94,AE$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AF94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C94="Goal",AF$5&gt;=$F94,AF$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AF$5&gt;=$F94,AF$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AG94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C94="Goal",AG$5&gt;=$F94,AG$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AG$5&gt;=$F94,AG$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AH94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C94="Goal",AH$5&gt;=$F94,AH$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AH$5&gt;=$F94,AH$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AI94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C94="Goal",AI$5&gt;=$F94,AI$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AI$5&gt;=$F94,AI$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C94="Goal",AJ$5&gt;=$F94,AJ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AJ$5&gt;=$F94,AJ$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AK94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C94="Goal",AK$5&gt;=$F94,AK$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AK$5&gt;=$F94,AK$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AL94" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C94="Goal",AL$5&gt;=$F94,AL$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AL$5&gt;=$F94,AL$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="AM94" s="34">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C94="Goal",AM$5&gt;=$F94,AM$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AM$5&gt;=$F94,AM$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AN94" s="34">
-        <f t="shared" ref="AN94:AW100" ca="1" si="63">IF(AND($C94="Goal",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),1,""))</f>
+        <f ca="1">IF(AND($C94="Goal",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AO94" s="34">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C94="Goal",AO$5&gt;=$F94,AO$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AO$5&gt;=$F94,AO$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AP94" s="34">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C94="Goal",AP$5&gt;=$F94,AP$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AP$5&gt;=$F94,AP$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AQ94" s="34">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C94="Goal",AQ$5&gt;=$F94,AQ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AQ$5&gt;=$F94,AQ$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AR94" s="34">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C94="Goal",AR$5&gt;=$F94,AR$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AR$5&gt;=$F94,AR$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AS94" s="34">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C94="Goal",AS$5&gt;=$F94,AS$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AS$5&gt;=$F94,AS$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AT94" s="34">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C94="Goal",AT$5&gt;=$F94,AT$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AT$5&gt;=$F94,AT$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AU94" s="34">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C94="Goal",AU$5&gt;=$F94,AU$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AU$5&gt;=$F94,AU$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AV94" s="34">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C94="Goal",AV$5&gt;=$F94,AV$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AV$5&gt;=$F94,AV$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AW94" s="34">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C94="Goal",AW$5&gt;=$F94,AW$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AW$5&gt;=$F94,AW$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AX94" s="34">
-        <f t="shared" ref="AX94:BG100" ca="1" si="64">IF(AND($C94="Goal",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),1,""))</f>
+        <f ca="1">IF(AND($C94="Goal",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AY94" s="34">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C94="Goal",AY$5&gt;=$F94,AY$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AY$5&gt;=$F94,AY$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="AZ94" s="34">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C94="Goal",AZ$5&gt;=$F94,AZ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AZ$5&gt;=$F94,AZ$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="BA94" s="34">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C94="Goal",BA$5&gt;=$F94,BA$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BA$5&gt;=$F94,BA$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="BB94" s="34">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C94="Goal",BB$5&gt;=$F94,BB$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BB$5&gt;=$F94,BB$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="BC94" s="34">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C94="Goal",BC$5&gt;=$F94,BC$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BC$5&gt;=$F94,BC$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="BD94" s="34">
@@ -15101,95 +15316,95 @@
         <v>2</v>
       </c>
       <c r="BE94" s="34">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C94="Goal",BE$5&gt;=$F94,BE$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BE$5&gt;=$F94,BE$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="BF94" s="34">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C94="Goal",BF$5&gt;=$F94,BF$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BF$5&gt;=$F94,BF$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="BG94" s="34">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C94="Goal",BG$5&gt;=$F94,BG$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BG$5&gt;=$F94,BG$5&lt;=$F94+$H94-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="BH94" s="34" t="str">
-        <f t="shared" ref="BH94:BQ100" ca="1" si="65">IF(AND($C94="Goal",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),1,""))</f>
+        <f ca="1">IF(AND($C94="Goal",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BI94" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C94="Goal",BI$5&gt;=$F94,BI$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BI$5&gt;=$F94,BI$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ94" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C94="Goal",BJ$5&gt;=$F94,BJ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BJ$5&gt;=$F94,BJ$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BK94" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C94="Goal",BK$5&gt;=$F94,BK$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BK$5&gt;=$F94,BK$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BL94" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C94="Goal",BL$5&gt;=$F94,BL$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BL$5&gt;=$F94,BL$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BM94" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C94="Goal",BM$5&gt;=$F94,BM$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BM$5&gt;=$F94,BM$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BN94" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C94="Goal",BN$5&gt;=$F94,BN$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BN$5&gt;=$F94,BN$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BO94" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C94="Goal",BO$5&gt;=$F94,BO$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BO$5&gt;=$F94,BO$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BP94" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C94="Goal",BP$5&gt;=$F94,BP$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BP$5&gt;=$F94,BP$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BQ94" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C94="Goal",BQ$5&gt;=$F94,BQ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BQ$5&gt;=$F94,BQ$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BR94" s="34" t="str">
-        <f t="shared" ref="BR94:CA100" ca="1" si="66">IF(AND($C94="Goal",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),1,""))</f>
+        <f ca="1">IF(AND($C94="Goal",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BS94" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C94="Goal",BS$5&gt;=$F94,BS$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BS$5&gt;=$F94,BS$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BT94" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C94="Goal",BT$5&gt;=$F94,BT$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BT$5&gt;=$F94,BT$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BU94" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C94="Goal",BU$5&gt;=$F94,BU$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BU$5&gt;=$F94,BU$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BV94" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C94="Goal",BV$5&gt;=$F94,BV$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BV$5&gt;=$F94,BV$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BW94" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C94="Goal",BW$5&gt;=$F94,BW$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BW$5&gt;=$F94,BW$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BX94" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C94="Goal",BX$5&gt;=$F94,BX$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BX$5&gt;=$F94,BX$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BY94" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C94="Goal",BY$5&gt;=$F94,BY$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BY$5&gt;=$F94,BY$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="BZ94" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C94="Goal",BZ$5&gt;=$F94,BZ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BZ$5&gt;=$F94,BZ$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
       <c r="CA94" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C94="Goal",CA$5&gt;=$F94,CA$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",CA$5&gt;=$F94,CA$5&lt;=$F94+$H94-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -15205,7 +15420,7 @@
         <v>77</v>
       </c>
       <c r="E95" s="29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F95" s="57">
         <v>44251</v>
@@ -15219,283 +15434,283 @@
       </c>
       <c r="I95" s="25"/>
       <c r="J95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",J$5&gt;=$F95,J$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",J$5&gt;=$F95,J$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="K95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",K$5&gt;=$F95,K$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",K$5&gt;=$F95,K$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="L95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",L$5&gt;=$F95,L$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",L$5&gt;=$F95,L$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="M95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",M$5&gt;=$F95,M$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",M$5&gt;=$F95,M$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="N95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",N$5&gt;=$F95,N$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",N$5&gt;=$F95,N$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="O95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",O$5&gt;=$F95,O$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",O$5&gt;=$F95,O$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="P95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",P$5&gt;=$F95,P$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",P$5&gt;=$F95,P$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="Q95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",Q$5&gt;=$F95,Q$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",Q$5&gt;=$F95,Q$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="R95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",R$5&gt;=$F95,R$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",R$5&gt;=$F95,R$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="S95" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C95="Goal",S$5&gt;=$F95,S$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",S$5&gt;=$F95,S$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="T95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",T$5&gt;=$F95,T$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",T$5&gt;=$F95,T$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="U95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",U$5&gt;=$F95,U$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",U$5&gt;=$F95,U$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="V95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",V$5&gt;=$F95,V$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",V$5&gt;=$F95,V$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="W95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",W$5&gt;=$F95,W$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",W$5&gt;=$F95,W$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="X95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",X$5&gt;=$F95,X$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",X$5&gt;=$F95,X$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="Y95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",Y$5&gt;=$F95,Y$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",Y$5&gt;=$F95,Y$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="Z95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",Z$5&gt;=$F95,Z$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",Z$5&gt;=$F95,Z$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AA95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",AA$5&gt;=$F95,AA$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AA$5&gt;=$F95,AA$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AB95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",AB$5&gt;=$F95,AB$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AB$5&gt;=$F95,AB$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AC95" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C95="Goal",AC$5&gt;=$F95,AC$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AC$5&gt;=$F95,AC$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AD95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AD$5&gt;=$F95,AD$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AD$5&gt;=$F95,AD$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AE95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AE$5&gt;=$F95,AE$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AE$5&gt;=$F95,AE$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AF95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AF$5&gt;=$F95,AF$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AF$5&gt;=$F95,AF$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AG95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AG$5&gt;=$F95,AG$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AG$5&gt;=$F95,AG$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AH95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AH$5&gt;=$F95,AH$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AH$5&gt;=$F95,AH$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AI95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AI$5&gt;=$F95,AI$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AI$5&gt;=$F95,AI$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AJ$5&gt;=$F95,AJ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AJ$5&gt;=$F95,AJ$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AK95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AK$5&gt;=$F95,AK$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AK$5&gt;=$F95,AK$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AL95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AL$5&gt;=$F95,AL$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AL$5&gt;=$F95,AL$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AM95" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C95="Goal",AM$5&gt;=$F95,AM$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AM$5&gt;=$F95,AM$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AN95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AN$5&gt;=$F95,AN$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AN$5&gt;=$F95,AN$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AO95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AO$5&gt;=$F95,AO$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AO$5&gt;=$F95,AO$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AP95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AP$5&gt;=$F95,AP$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AP$5&gt;=$F95,AP$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AQ$5&gt;=$F95,AQ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AQ$5&gt;=$F95,AQ$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AR95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AR$5&gt;=$F95,AR$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AR$5&gt;=$F95,AR$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AS95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AS$5&gt;=$F95,AS$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AS$5&gt;=$F95,AS$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AT95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AT$5&gt;=$F95,AT$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AT$5&gt;=$F95,AT$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AU95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AU$5&gt;=$F95,AU$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AU$5&gt;=$F95,AU$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AV95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AV$5&gt;=$F95,AV$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AV$5&gt;=$F95,AV$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AW95" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C95="Goal",AW$5&gt;=$F95,AW$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AW$5&gt;=$F95,AW$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AX95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",AX$5&gt;=$F95,AX$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AX$5&gt;=$F95,AX$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AY95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",AY$5&gt;=$F95,AY$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AY$5&gt;=$F95,AY$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",AZ$5&gt;=$F95,AZ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AZ$5&gt;=$F95,AZ$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BA95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",BA$5&gt;=$F95,BA$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BA$5&gt;=$F95,BA$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BB95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",BB$5&gt;=$F95,BB$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BB$5&gt;=$F95,BB$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BC95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",BC$5&gt;=$F95,BC$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BC$5&gt;=$F95,BC$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BD95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",BD$5&gt;=$F95,BD$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BD$5&gt;=$F95,BD$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BE95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",BE$5&gt;=$F95,BE$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BE$5&gt;=$F95,BE$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BF95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",BF$5&gt;=$F95,BF$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BF$5&gt;=$F95,BF$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BG95" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C95="Goal",BG$5&gt;=$F95,BG$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BG$5&gt;=$F95,BG$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BH95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BH$5&gt;=$F95,BH$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BH$5&gt;=$F95,BH$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BI95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BI$5&gt;=$F95,BI$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BI$5&gt;=$F95,BI$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BJ$5&gt;=$F95,BJ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BJ$5&gt;=$F95,BJ$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BK95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BK$5&gt;=$F95,BK$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BK$5&gt;=$F95,BK$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BL95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BL$5&gt;=$F95,BL$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BL$5&gt;=$F95,BL$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BM95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BM$5&gt;=$F95,BM$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BM$5&gt;=$F95,BM$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BN95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BN$5&gt;=$F95,BN$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BN$5&gt;=$F95,BN$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BO95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BO$5&gt;=$F95,BO$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BO$5&gt;=$F95,BO$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BP95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BP$5&gt;=$F95,BP$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BP$5&gt;=$F95,BP$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BQ95" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C95="Goal",BQ$5&gt;=$F95,BQ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BQ$5&gt;=$F95,BQ$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BR95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",BR$5&gt;=$F95,BR$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BR$5&gt;=$F95,BR$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BS95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",BS$5&gt;=$F95,BS$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BS$5&gt;=$F95,BS$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BT95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",BT$5&gt;=$F95,BT$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BT$5&gt;=$F95,BT$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BU95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",BU$5&gt;=$F95,BU$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BU$5&gt;=$F95,BU$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BV95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",BV$5&gt;=$F95,BV$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BV$5&gt;=$F95,BV$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BW95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",BW$5&gt;=$F95,BW$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BW$5&gt;=$F95,BW$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BX95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",BX$5&gt;=$F95,BX$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BX$5&gt;=$F95,BX$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BY95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",BY$5&gt;=$F95,BY$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BY$5&gt;=$F95,BY$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BZ95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",BZ$5&gt;=$F95,BZ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BZ$5&gt;=$F95,BZ$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="CA95" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C95="Goal",CA$5&gt;=$F95,CA$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",CA$5&gt;=$F95,CA$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -15523,283 +15738,283 @@
       </c>
       <c r="I96" s="25"/>
       <c r="J96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",J$5&gt;=$F96,J$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",J$5&gt;=$F96,J$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="K96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",K$5&gt;=$F96,K$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",K$5&gt;=$F96,K$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="L96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",L$5&gt;=$F96,L$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",L$5&gt;=$F96,L$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="M96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",M$5&gt;=$F96,M$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",M$5&gt;=$F96,M$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="N96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",N$5&gt;=$F96,N$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",N$5&gt;=$F96,N$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="O96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",O$5&gt;=$F96,O$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",O$5&gt;=$F96,O$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="P96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",P$5&gt;=$F96,P$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",P$5&gt;=$F96,P$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="Q96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",Q$5&gt;=$F96,Q$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",Q$5&gt;=$F96,Q$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="R96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",R$5&gt;=$F96,R$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",R$5&gt;=$F96,R$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="S96" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C96="Goal",S$5&gt;=$F96,S$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",S$5&gt;=$F96,S$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="T96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",T$5&gt;=$F96,T$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",T$5&gt;=$F96,T$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="U96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",U$5&gt;=$F96,U$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",U$5&gt;=$F96,U$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="V96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",V$5&gt;=$F96,V$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",V$5&gt;=$F96,V$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="W96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",W$5&gt;=$F96,W$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",W$5&gt;=$F96,W$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="X96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",X$5&gt;=$F96,X$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",X$5&gt;=$F96,X$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="Y96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",Y$5&gt;=$F96,Y$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",Y$5&gt;=$F96,Y$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="Z96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",Z$5&gt;=$F96,Z$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",Z$5&gt;=$F96,Z$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AA96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",AA$5&gt;=$F96,AA$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AA$5&gt;=$F96,AA$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AB96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",AB$5&gt;=$F96,AB$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AB$5&gt;=$F96,AB$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AC96" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C96="Goal",AC$5&gt;=$F96,AC$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AC$5&gt;=$F96,AC$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AD96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AD$5&gt;=$F96,AD$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AD$5&gt;=$F96,AD$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AE96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AE$5&gt;=$F96,AE$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AE$5&gt;=$F96,AE$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AF96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AF$5&gt;=$F96,AF$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AF$5&gt;=$F96,AF$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AG96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AG$5&gt;=$F96,AG$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AG$5&gt;=$F96,AG$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AH96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AH$5&gt;=$F96,AH$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AH$5&gt;=$F96,AH$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AI96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AI$5&gt;=$F96,AI$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AI$5&gt;=$F96,AI$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AJ$5&gt;=$F96,AJ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AJ$5&gt;=$F96,AJ$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AK96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AK$5&gt;=$F96,AK$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AK$5&gt;=$F96,AK$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AL96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AL$5&gt;=$F96,AL$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AL$5&gt;=$F96,AL$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AM96" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C96="Goal",AM$5&gt;=$F96,AM$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AM$5&gt;=$F96,AM$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AN96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AN$5&gt;=$F96,AN$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AN$5&gt;=$F96,AN$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AO96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AO$5&gt;=$F96,AO$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AO$5&gt;=$F96,AO$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AP96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AP$5&gt;=$F96,AP$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AP$5&gt;=$F96,AP$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AQ$5&gt;=$F96,AQ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AQ$5&gt;=$F96,AQ$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AR96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AR$5&gt;=$F96,AR$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AR$5&gt;=$F96,AR$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AS96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AS$5&gt;=$F96,AS$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AS$5&gt;=$F96,AS$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AT96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AT$5&gt;=$F96,AT$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AT$5&gt;=$F96,AT$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AU96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AU$5&gt;=$F96,AU$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AU$5&gt;=$F96,AU$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AV96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AV$5&gt;=$F96,AV$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AV$5&gt;=$F96,AV$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AW96" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C96="Goal",AW$5&gt;=$F96,AW$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AW$5&gt;=$F96,AW$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AX96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",AX$5&gt;=$F96,AX$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AX$5&gt;=$F96,AX$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AY96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",AY$5&gt;=$F96,AY$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AY$5&gt;=$F96,AY$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",AZ$5&gt;=$F96,AZ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AZ$5&gt;=$F96,AZ$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BA96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",BA$5&gt;=$F96,BA$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BA$5&gt;=$F96,BA$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BB96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",BB$5&gt;=$F96,BB$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BB$5&gt;=$F96,BB$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BC96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",BC$5&gt;=$F96,BC$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BC$5&gt;=$F96,BC$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BD96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",BD$5&gt;=$F96,BD$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BD$5&gt;=$F96,BD$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BE96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",BE$5&gt;=$F96,BE$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BE$5&gt;=$F96,BE$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BF96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",BF$5&gt;=$F96,BF$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BF$5&gt;=$F96,BF$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BG96" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C96="Goal",BG$5&gt;=$F96,BG$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BG$5&gt;=$F96,BG$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BH96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BH$5&gt;=$F96,BH$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BH$5&gt;=$F96,BH$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BI96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BI$5&gt;=$F96,BI$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BI$5&gt;=$F96,BI$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BJ$5&gt;=$F96,BJ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BJ$5&gt;=$F96,BJ$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BK96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BK$5&gt;=$F96,BK$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BK$5&gt;=$F96,BK$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BL96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BL$5&gt;=$F96,BL$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BL$5&gt;=$F96,BL$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BM96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BM$5&gt;=$F96,BM$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BM$5&gt;=$F96,BM$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BN96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BN$5&gt;=$F96,BN$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BN$5&gt;=$F96,BN$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BO96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BO$5&gt;=$F96,BO$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BO$5&gt;=$F96,BO$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BP96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BP$5&gt;=$F96,BP$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BP$5&gt;=$F96,BP$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BQ96" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C96="Goal",BQ$5&gt;=$F96,BQ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BQ$5&gt;=$F96,BQ$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BR96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",BR$5&gt;=$F96,BR$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BR$5&gt;=$F96,BR$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BS96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",BS$5&gt;=$F96,BS$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BS$5&gt;=$F96,BS$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BT96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",BT$5&gt;=$F96,BT$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BT$5&gt;=$F96,BT$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BU96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",BU$5&gt;=$F96,BU$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BU$5&gt;=$F96,BU$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BV96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",BV$5&gt;=$F96,BV$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BV$5&gt;=$F96,BV$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BW96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",BW$5&gt;=$F96,BW$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BW$5&gt;=$F96,BW$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BX96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",BX$5&gt;=$F96,BX$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BX$5&gt;=$F96,BX$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BY96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",BY$5&gt;=$F96,BY$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BY$5&gt;=$F96,BY$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="BZ96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",BZ$5&gt;=$F96,BZ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BZ$5&gt;=$F96,BZ$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
       <c r="CA96" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C96="Goal",CA$5&gt;=$F96,CA$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",CA$5&gt;=$F96,CA$5&lt;=$F96+$H96-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -15816,283 +16031,283 @@
       <c r="H97" s="31"/>
       <c r="I97" s="25"/>
       <c r="J97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",J$5&gt;=$F97,J$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",J$5&gt;=$F97,J$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="K97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",K$5&gt;=$F97,K$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",K$5&gt;=$F97,K$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="L97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",L$5&gt;=$F97,L$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",L$5&gt;=$F97,L$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="M97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",M$5&gt;=$F97,M$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",M$5&gt;=$F97,M$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="N97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",N$5&gt;=$F97,N$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",N$5&gt;=$F97,N$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="O97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",O$5&gt;=$F97,O$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",O$5&gt;=$F97,O$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="P97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",P$5&gt;=$F97,P$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",P$5&gt;=$F97,P$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="Q97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",Q$5&gt;=$F97,Q$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",Q$5&gt;=$F97,Q$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="R97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",R$5&gt;=$F97,R$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",R$5&gt;=$F97,R$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="S97" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C97="Goal",S$5&gt;=$F97,S$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",S$5&gt;=$F97,S$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="T97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",T$5&gt;=$F97,T$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",T$5&gt;=$F97,T$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="U97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",U$5&gt;=$F97,U$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",U$5&gt;=$F97,U$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="V97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",V$5&gt;=$F97,V$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",V$5&gt;=$F97,V$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="W97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",W$5&gt;=$F97,W$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",W$5&gt;=$F97,W$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="X97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",X$5&gt;=$F97,X$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",X$5&gt;=$F97,X$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="Y97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",Y$5&gt;=$F97,Y$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",Y$5&gt;=$F97,Y$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="Z97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",Z$5&gt;=$F97,Z$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",Z$5&gt;=$F97,Z$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AA97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",AA$5&gt;=$F97,AA$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AA$5&gt;=$F97,AA$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AB97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",AB$5&gt;=$F97,AB$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AB$5&gt;=$F97,AB$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AC97" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C97="Goal",AC$5&gt;=$F97,AC$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AC$5&gt;=$F97,AC$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AD97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AD$5&gt;=$F97,AD$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AD$5&gt;=$F97,AD$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AE97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AE$5&gt;=$F97,AE$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AE$5&gt;=$F97,AE$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AF97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AF$5&gt;=$F97,AF$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AF$5&gt;=$F97,AF$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AG97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AG$5&gt;=$F97,AG$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AG$5&gt;=$F97,AG$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AH97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AH$5&gt;=$F97,AH$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AH$5&gt;=$F97,AH$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AI97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AI$5&gt;=$F97,AI$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AI$5&gt;=$F97,AI$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AJ$5&gt;=$F97,AJ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AJ$5&gt;=$F97,AJ$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AK97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AK$5&gt;=$F97,AK$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AK$5&gt;=$F97,AK$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AL97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AL$5&gt;=$F97,AL$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AL$5&gt;=$F97,AL$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AM97" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C97="Goal",AM$5&gt;=$F97,AM$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AM$5&gt;=$F97,AM$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AN97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AN$5&gt;=$F97,AN$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AN$5&gt;=$F97,AN$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AO97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AO$5&gt;=$F97,AO$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AO$5&gt;=$F97,AO$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AP97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AP$5&gt;=$F97,AP$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AP$5&gt;=$F97,AP$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AQ$5&gt;=$F97,AQ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AQ$5&gt;=$F97,AQ$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AR97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AR$5&gt;=$F97,AR$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AR$5&gt;=$F97,AR$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AS97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AS$5&gt;=$F97,AS$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AS$5&gt;=$F97,AS$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AT97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AT$5&gt;=$F97,AT$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AT$5&gt;=$F97,AT$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AU97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AU$5&gt;=$F97,AU$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AU$5&gt;=$F97,AU$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AV97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AV$5&gt;=$F97,AV$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AV$5&gt;=$F97,AV$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AW97" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C97="Goal",AW$5&gt;=$F97,AW$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AW$5&gt;=$F97,AW$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AX97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",AX$5&gt;=$F97,AX$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AX$5&gt;=$F97,AX$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AY97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",AY$5&gt;=$F97,AY$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AY$5&gt;=$F97,AY$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",AZ$5&gt;=$F97,AZ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AZ$5&gt;=$F97,AZ$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BA97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",BA$5&gt;=$F97,BA$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BA$5&gt;=$F97,BA$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BB97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",BB$5&gt;=$F97,BB$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BB$5&gt;=$F97,BB$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BC97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",BC$5&gt;=$F97,BC$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BC$5&gt;=$F97,BC$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BD97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",BD$5&gt;=$F97,BD$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BD$5&gt;=$F97,BD$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BE97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",BE$5&gt;=$F97,BE$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BE$5&gt;=$F97,BE$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BF97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",BF$5&gt;=$F97,BF$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BF$5&gt;=$F97,BF$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BG97" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C97="Goal",BG$5&gt;=$F97,BG$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BG$5&gt;=$F97,BG$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BH97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BH$5&gt;=$F97,BH$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BH$5&gt;=$F97,BH$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BI97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BI$5&gt;=$F97,BI$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BI$5&gt;=$F97,BI$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BJ$5&gt;=$F97,BJ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BJ$5&gt;=$F97,BJ$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BK97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BK$5&gt;=$F97,BK$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BK$5&gt;=$F97,BK$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BL97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BL$5&gt;=$F97,BL$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BL$5&gt;=$F97,BL$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BM97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BM$5&gt;=$F97,BM$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BM$5&gt;=$F97,BM$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BN97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BN$5&gt;=$F97,BN$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BN$5&gt;=$F97,BN$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BO97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BO$5&gt;=$F97,BO$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BO$5&gt;=$F97,BO$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BP97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BP$5&gt;=$F97,BP$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BP$5&gt;=$F97,BP$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BQ97" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C97="Goal",BQ$5&gt;=$F97,BQ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BQ$5&gt;=$F97,BQ$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BR97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",BR$5&gt;=$F97,BR$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BR$5&gt;=$F97,BR$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BS97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",BS$5&gt;=$F97,BS$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BS$5&gt;=$F97,BS$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BT97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",BT$5&gt;=$F97,BT$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BT$5&gt;=$F97,BT$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BU97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",BU$5&gt;=$F97,BU$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BU$5&gt;=$F97,BU$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BV97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",BV$5&gt;=$F97,BV$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BV$5&gt;=$F97,BV$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BW97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",BW$5&gt;=$F97,BW$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BW$5&gt;=$F97,BW$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BX97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",BX$5&gt;=$F97,BX$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BX$5&gt;=$F97,BX$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BY97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",BY$5&gt;=$F97,BY$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BY$5&gt;=$F97,BY$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="BZ97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",BZ$5&gt;=$F97,BZ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BZ$5&gt;=$F97,BZ$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
       <c r="CA97" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C97="Goal",CA$5&gt;=$F97,CA$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",CA$5&gt;=$F97,CA$5&lt;=$F97+$H97-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -16122,283 +16337,283 @@
       </c>
       <c r="I98" s="25"/>
       <c r="J98" s="34">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",J$5&gt;=$F98,J$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",J$5&gt;=$F98,J$5&lt;=$F98+$H98-1),1,""))</f>
         <v>2</v>
       </c>
       <c r="K98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",K$5&gt;=$F98,K$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",K$5&gt;=$F98,K$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="L98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",L$5&gt;=$F98,L$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",L$5&gt;=$F98,L$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="M98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",M$5&gt;=$F98,M$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",M$5&gt;=$F98,M$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="N98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",N$5&gt;=$F98,N$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",N$5&gt;=$F98,N$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="O98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",O$5&gt;=$F98,O$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",O$5&gt;=$F98,O$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="P98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",P$5&gt;=$F98,P$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",P$5&gt;=$F98,P$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="Q98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",Q$5&gt;=$F98,Q$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",Q$5&gt;=$F98,Q$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="R98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",R$5&gt;=$F98,R$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",R$5&gt;=$F98,R$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="S98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C98="Goal",S$5&gt;=$F98,S$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",S$5&gt;=$F98,S$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="T98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",T$5&gt;=$F98,T$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",T$5&gt;=$F98,T$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="U98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",U$5&gt;=$F98,U$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",U$5&gt;=$F98,U$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="V98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",V$5&gt;=$F98,V$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",V$5&gt;=$F98,V$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="W98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",W$5&gt;=$F98,W$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",W$5&gt;=$F98,W$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="X98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",X$5&gt;=$F98,X$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",X$5&gt;=$F98,X$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="Y98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",Y$5&gt;=$F98,Y$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",Y$5&gt;=$F98,Y$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="Z98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",Z$5&gt;=$F98,Z$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",Z$5&gt;=$F98,Z$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AA98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",AA$5&gt;=$F98,AA$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AA$5&gt;=$F98,AA$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AB98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",AB$5&gt;=$F98,AB$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AB$5&gt;=$F98,AB$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AC98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C98="Goal",AC$5&gt;=$F98,AC$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AC$5&gt;=$F98,AC$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AD98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AD$5&gt;=$F98,AD$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AD$5&gt;=$F98,AD$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AE98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AE$5&gt;=$F98,AE$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AE$5&gt;=$F98,AE$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AF98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AF$5&gt;=$F98,AF$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AF$5&gt;=$F98,AF$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AG98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AG$5&gt;=$F98,AG$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AG$5&gt;=$F98,AG$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AH98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AH$5&gt;=$F98,AH$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AH$5&gt;=$F98,AH$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AI98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AI$5&gt;=$F98,AI$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AI$5&gt;=$F98,AI$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AJ$5&gt;=$F98,AJ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AJ$5&gt;=$F98,AJ$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AK98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AK$5&gt;=$F98,AK$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AK$5&gt;=$F98,AK$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AL98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AL$5&gt;=$F98,AL$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AL$5&gt;=$F98,AL$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AM98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C98="Goal",AM$5&gt;=$F98,AM$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AM$5&gt;=$F98,AM$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AN98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AN$5&gt;=$F98,AN$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AN$5&gt;=$F98,AN$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AO98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AO$5&gt;=$F98,AO$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AO$5&gt;=$F98,AO$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AP98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AP$5&gt;=$F98,AP$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AP$5&gt;=$F98,AP$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AQ$5&gt;=$F98,AQ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AQ$5&gt;=$F98,AQ$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AR98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AR$5&gt;=$F98,AR$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AR$5&gt;=$F98,AR$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AS98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AS$5&gt;=$F98,AS$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AS$5&gt;=$F98,AS$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AT98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AT$5&gt;=$F98,AT$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AT$5&gt;=$F98,AT$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AU98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AU$5&gt;=$F98,AU$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AU$5&gt;=$F98,AU$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AV98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AV$5&gt;=$F98,AV$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AV$5&gt;=$F98,AV$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AW98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C98="Goal",AW$5&gt;=$F98,AW$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AW$5&gt;=$F98,AW$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AX98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",AX$5&gt;=$F98,AX$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AX$5&gt;=$F98,AX$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AY98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",AY$5&gt;=$F98,AY$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AY$5&gt;=$F98,AY$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",AZ$5&gt;=$F98,AZ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AZ$5&gt;=$F98,AZ$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BA98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",BA$5&gt;=$F98,BA$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BA$5&gt;=$F98,BA$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BB98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",BB$5&gt;=$F98,BB$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BB$5&gt;=$F98,BB$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BC98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",BC$5&gt;=$F98,BC$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BC$5&gt;=$F98,BC$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BD98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",BD$5&gt;=$F98,BD$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BD$5&gt;=$F98,BD$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BE98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",BE$5&gt;=$F98,BE$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BE$5&gt;=$F98,BE$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BF98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",BF$5&gt;=$F98,BF$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BF$5&gt;=$F98,BF$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BG98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C98="Goal",BG$5&gt;=$F98,BG$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BG$5&gt;=$F98,BG$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BH98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BH$5&gt;=$F98,BH$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BH$5&gt;=$F98,BH$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BI98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BI$5&gt;=$F98,BI$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BI$5&gt;=$F98,BI$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BJ$5&gt;=$F98,BJ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BJ$5&gt;=$F98,BJ$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BK98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BK$5&gt;=$F98,BK$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BK$5&gt;=$F98,BK$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BL98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BL$5&gt;=$F98,BL$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BL$5&gt;=$F98,BL$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BM98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BM$5&gt;=$F98,BM$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BM$5&gt;=$F98,BM$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BN98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BN$5&gt;=$F98,BN$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BN$5&gt;=$F98,BN$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BO98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BO$5&gt;=$F98,BO$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BO$5&gt;=$F98,BO$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BP98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BP$5&gt;=$F98,BP$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BP$5&gt;=$F98,BP$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BQ98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C98="Goal",BQ$5&gt;=$F98,BQ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BQ$5&gt;=$F98,BQ$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BR98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",BR$5&gt;=$F98,BR$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BR$5&gt;=$F98,BR$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BS98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",BS$5&gt;=$F98,BS$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BS$5&gt;=$F98,BS$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BT98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",BT$5&gt;=$F98,BT$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BT$5&gt;=$F98,BT$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BU98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",BU$5&gt;=$F98,BU$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BU$5&gt;=$F98,BU$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BV98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",BV$5&gt;=$F98,BV$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BV$5&gt;=$F98,BV$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BW98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",BW$5&gt;=$F98,BW$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BW$5&gt;=$F98,BW$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BX98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",BX$5&gt;=$F98,BX$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BX$5&gt;=$F98,BX$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BY98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",BY$5&gt;=$F98,BY$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BY$5&gt;=$F98,BY$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="BZ98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",BZ$5&gt;=$F98,BZ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BZ$5&gt;=$F98,BZ$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
       <c r="CA98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C98="Goal",CA$5&gt;=$F98,CA$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",CA$5&gt;=$F98,CA$5&lt;=$F98+$H98-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -16413,283 +16628,283 @@
       <c r="H99" s="31"/>
       <c r="I99" s="25"/>
       <c r="J99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",J$5&gt;=$F99,J$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",J$5&gt;=$F99,J$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="K99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",K$5&gt;=$F99,K$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",K$5&gt;=$F99,K$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="L99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",L$5&gt;=$F99,L$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",L$5&gt;=$F99,L$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="M99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",M$5&gt;=$F99,M$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",M$5&gt;=$F99,M$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="N99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",N$5&gt;=$F99,N$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",N$5&gt;=$F99,N$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="O99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",O$5&gt;=$F99,O$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",O$5&gt;=$F99,O$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="P99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",P$5&gt;=$F99,P$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",P$5&gt;=$F99,P$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="Q99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",Q$5&gt;=$F99,Q$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",Q$5&gt;=$F99,Q$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="R99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",R$5&gt;=$F99,R$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",R$5&gt;=$F99,R$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="S99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C99="Goal",S$5&gt;=$F99,S$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",S$5&gt;=$F99,S$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="T99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",T$5&gt;=$F99,T$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",T$5&gt;=$F99,T$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="U99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",U$5&gt;=$F99,U$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",U$5&gt;=$F99,U$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="V99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",V$5&gt;=$F99,V$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",V$5&gt;=$F99,V$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="W99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",W$5&gt;=$F99,W$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",W$5&gt;=$F99,W$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="X99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",X$5&gt;=$F99,X$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",X$5&gt;=$F99,X$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="Y99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",Y$5&gt;=$F99,Y$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",Y$5&gt;=$F99,Y$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="Z99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",Z$5&gt;=$F99,Z$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",Z$5&gt;=$F99,Z$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AA99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",AA$5&gt;=$F99,AA$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AA$5&gt;=$F99,AA$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AB99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",AB$5&gt;=$F99,AB$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AB$5&gt;=$F99,AB$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AC99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C99="Goal",AC$5&gt;=$F99,AC$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AC$5&gt;=$F99,AC$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AD99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AD$5&gt;=$F99,AD$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AD$5&gt;=$F99,AD$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AE99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AE$5&gt;=$F99,AE$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AE$5&gt;=$F99,AE$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AF99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AF$5&gt;=$F99,AF$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AF$5&gt;=$F99,AF$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AG99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AG$5&gt;=$F99,AG$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AG$5&gt;=$F99,AG$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AH99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AH$5&gt;=$F99,AH$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AH$5&gt;=$F99,AH$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AI99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AI$5&gt;=$F99,AI$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AI$5&gt;=$F99,AI$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AJ$5&gt;=$F99,AJ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AJ$5&gt;=$F99,AJ$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AK99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AK$5&gt;=$F99,AK$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AK$5&gt;=$F99,AK$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AL99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AL$5&gt;=$F99,AL$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AL$5&gt;=$F99,AL$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AM99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C99="Goal",AM$5&gt;=$F99,AM$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AM$5&gt;=$F99,AM$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AN99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AN$5&gt;=$F99,AN$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AN$5&gt;=$F99,AN$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AO99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AO$5&gt;=$F99,AO$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AO$5&gt;=$F99,AO$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AP99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AP$5&gt;=$F99,AP$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AP$5&gt;=$F99,AP$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AQ$5&gt;=$F99,AQ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AQ$5&gt;=$F99,AQ$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AR99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AR$5&gt;=$F99,AR$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AR$5&gt;=$F99,AR$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AS99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AS$5&gt;=$F99,AS$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AS$5&gt;=$F99,AS$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AT99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AT$5&gt;=$F99,AT$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AT$5&gt;=$F99,AT$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AU99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AU$5&gt;=$F99,AU$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AU$5&gt;=$F99,AU$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AV99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AV$5&gt;=$F99,AV$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AV$5&gt;=$F99,AV$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AW99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C99="Goal",AW$5&gt;=$F99,AW$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AW$5&gt;=$F99,AW$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AX99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",AX$5&gt;=$F99,AX$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AX$5&gt;=$F99,AX$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AY99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",AY$5&gt;=$F99,AY$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AY$5&gt;=$F99,AY$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",AZ$5&gt;=$F99,AZ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AZ$5&gt;=$F99,AZ$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BA99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",BA$5&gt;=$F99,BA$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BA$5&gt;=$F99,BA$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BB99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",BB$5&gt;=$F99,BB$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BB$5&gt;=$F99,BB$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BC99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",BC$5&gt;=$F99,BC$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BC$5&gt;=$F99,BC$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BD99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",BD$5&gt;=$F99,BD$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BD$5&gt;=$F99,BD$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BE99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",BE$5&gt;=$F99,BE$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BE$5&gt;=$F99,BE$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BF99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",BF$5&gt;=$F99,BF$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BF$5&gt;=$F99,BF$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BG99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C99="Goal",BG$5&gt;=$F99,BG$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BG$5&gt;=$F99,BG$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BH99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BH$5&gt;=$F99,BH$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BH$5&gt;=$F99,BH$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BI99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BI$5&gt;=$F99,BI$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BI$5&gt;=$F99,BI$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BJ$5&gt;=$F99,BJ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BJ$5&gt;=$F99,BJ$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BK99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BK$5&gt;=$F99,BK$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BK$5&gt;=$F99,BK$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BL99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BL$5&gt;=$F99,BL$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BL$5&gt;=$F99,BL$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BM99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BM$5&gt;=$F99,BM$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BM$5&gt;=$F99,BM$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BN99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BN$5&gt;=$F99,BN$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BN$5&gt;=$F99,BN$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BO99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BO$5&gt;=$F99,BO$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BO$5&gt;=$F99,BO$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BP99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BP$5&gt;=$F99,BP$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BP$5&gt;=$F99,BP$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BQ99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C99="Goal",BQ$5&gt;=$F99,BQ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BQ$5&gt;=$F99,BQ$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BR99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",BR$5&gt;=$F99,BR$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BR$5&gt;=$F99,BR$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BS99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",BS$5&gt;=$F99,BS$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BS$5&gt;=$F99,BS$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BT99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",BT$5&gt;=$F99,BT$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BT$5&gt;=$F99,BT$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BU99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",BU$5&gt;=$F99,BU$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BU$5&gt;=$F99,BU$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BV99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",BV$5&gt;=$F99,BV$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BV$5&gt;=$F99,BV$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BW99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",BW$5&gt;=$F99,BW$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BW$5&gt;=$F99,BW$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BX99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",BX$5&gt;=$F99,BX$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BX$5&gt;=$F99,BX$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BY99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",BY$5&gt;=$F99,BY$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BY$5&gt;=$F99,BY$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="BZ99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",BZ$5&gt;=$F99,BZ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BZ$5&gt;=$F99,BZ$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
       <c r="CA99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C99="Goal",CA$5&gt;=$F99,CA$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",CA$5&gt;=$F99,CA$5&lt;=$F99+$H99-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -16706,283 +16921,283 @@
       <c r="H100" s="31"/>
       <c r="I100" s="25"/>
       <c r="J100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",J$5&gt;=$F100,J$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",J$5&gt;=$F100,J$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="K100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",K$5&gt;=$F100,K$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",K$5&gt;=$F100,K$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="L100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",L$5&gt;=$F100,L$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",L$5&gt;=$F100,L$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="M100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",M$5&gt;=$F100,M$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",M$5&gt;=$F100,M$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="N100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",N$5&gt;=$F100,N$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",N$5&gt;=$F100,N$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="O100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",O$5&gt;=$F100,O$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",O$5&gt;=$F100,O$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="P100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",P$5&gt;=$F100,P$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",P$5&gt;=$F100,P$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="Q100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",Q$5&gt;=$F100,Q$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",Q$5&gt;=$F100,Q$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="R100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",R$5&gt;=$F100,R$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",R$5&gt;=$F100,R$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="S100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f ca="1">IF(AND($C100="Goal",S$5&gt;=$F100,S$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",S$5&gt;=$F100,S$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="T100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",T$5&gt;=$F100,T$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",T$5&gt;=$F100,T$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="U100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",U$5&gt;=$F100,U$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",U$5&gt;=$F100,U$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="V100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",V$5&gt;=$F100,V$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",V$5&gt;=$F100,V$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="W100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",W$5&gt;=$F100,W$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",W$5&gt;=$F100,W$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="X100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",X$5&gt;=$F100,X$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",X$5&gt;=$F100,X$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="Y100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",Y$5&gt;=$F100,Y$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",Y$5&gt;=$F100,Y$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="Z100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",Z$5&gt;=$F100,Z$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",Z$5&gt;=$F100,Z$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AA100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",AA$5&gt;=$F100,AA$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AA$5&gt;=$F100,AA$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AB100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",AB$5&gt;=$F100,AB$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AB$5&gt;=$F100,AB$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AC100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f ca="1">IF(AND($C100="Goal",AC$5&gt;=$F100,AC$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AC$5&gt;=$F100,AC$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AD100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AD$5&gt;=$F100,AD$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AD$5&gt;=$F100,AD$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AE100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AE$5&gt;=$F100,AE$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AE$5&gt;=$F100,AE$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AF100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AF$5&gt;=$F100,AF$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AF$5&gt;=$F100,AF$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AG100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AG$5&gt;=$F100,AG$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AG$5&gt;=$F100,AG$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AH100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AH$5&gt;=$F100,AH$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AH$5&gt;=$F100,AH$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AI100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AI$5&gt;=$F100,AI$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AI$5&gt;=$F100,AI$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AJ$5&gt;=$F100,AJ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AJ$5&gt;=$F100,AJ$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AK100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AK$5&gt;=$F100,AK$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AK$5&gt;=$F100,AK$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AL100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AL$5&gt;=$F100,AL$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AL$5&gt;=$F100,AL$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AM100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f ca="1">IF(AND($C100="Goal",AM$5&gt;=$F100,AM$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AM$5&gt;=$F100,AM$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AN100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AN$5&gt;=$F100,AN$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AN$5&gt;=$F100,AN$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AO100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AO$5&gt;=$F100,AO$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AO$5&gt;=$F100,AO$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AP100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AP$5&gt;=$F100,AP$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AP$5&gt;=$F100,AP$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AQ$5&gt;=$F100,AQ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AQ$5&gt;=$F100,AQ$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AR100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AR$5&gt;=$F100,AR$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AR$5&gt;=$F100,AR$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AS100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AS$5&gt;=$F100,AS$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AS$5&gt;=$F100,AS$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AT100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AT$5&gt;=$F100,AT$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AT$5&gt;=$F100,AT$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AU100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AU$5&gt;=$F100,AU$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AU$5&gt;=$F100,AU$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AV100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AV$5&gt;=$F100,AV$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AV$5&gt;=$F100,AV$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AW100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f ca="1">IF(AND($C100="Goal",AW$5&gt;=$F100,AW$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AW$5&gt;=$F100,AW$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AX100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",AX$5&gt;=$F100,AX$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AX$5&gt;=$F100,AX$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AY100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",AY$5&gt;=$F100,AY$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AY$5&gt;=$F100,AY$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",AZ$5&gt;=$F100,AZ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AZ$5&gt;=$F100,AZ$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BA100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",BA$5&gt;=$F100,BA$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BA$5&gt;=$F100,BA$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BB100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",BB$5&gt;=$F100,BB$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BB$5&gt;=$F100,BB$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BC100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",BC$5&gt;=$F100,BC$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BC$5&gt;=$F100,BC$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BD100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",BD$5&gt;=$F100,BD$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BD$5&gt;=$F100,BD$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BE100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",BE$5&gt;=$F100,BE$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BE$5&gt;=$F100,BE$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BF100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",BF$5&gt;=$F100,BF$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BF$5&gt;=$F100,BF$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BG100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f ca="1">IF(AND($C100="Goal",BG$5&gt;=$F100,BG$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BG$5&gt;=$F100,BG$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BH100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BH$5&gt;=$F100,BH$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BH$5&gt;=$F100,BH$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BI100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BI$5&gt;=$F100,BI$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BI$5&gt;=$F100,BI$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BJ$5&gt;=$F100,BJ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BJ$5&gt;=$F100,BJ$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BK100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BK$5&gt;=$F100,BK$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BK$5&gt;=$F100,BK$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BL100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BL$5&gt;=$F100,BL$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BL$5&gt;=$F100,BL$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BM100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BM$5&gt;=$F100,BM$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BM$5&gt;=$F100,BM$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BN100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BN$5&gt;=$F100,BN$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BN$5&gt;=$F100,BN$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BO100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BO$5&gt;=$F100,BO$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BO$5&gt;=$F100,BO$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BP100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BP$5&gt;=$F100,BP$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BP$5&gt;=$F100,BP$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BQ100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f ca="1">IF(AND($C100="Goal",BQ$5&gt;=$F100,BQ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BQ$5&gt;=$F100,BQ$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BR100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",BR$5&gt;=$F100,BR$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BR$5&gt;=$F100,BR$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BS100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",BS$5&gt;=$F100,BS$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BS$5&gt;=$F100,BS$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BT100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",BT$5&gt;=$F100,BT$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BT$5&gt;=$F100,BT$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BU100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",BU$5&gt;=$F100,BU$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BU$5&gt;=$F100,BU$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BV100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",BV$5&gt;=$F100,BV$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BV$5&gt;=$F100,BV$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BW100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",BW$5&gt;=$F100,BW$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BW$5&gt;=$F100,BW$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BX100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",BX$5&gt;=$F100,BX$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BX$5&gt;=$F100,BX$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BY100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",BY$5&gt;=$F100,BY$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BY$5&gt;=$F100,BY$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="BZ100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",BZ$5&gt;=$F100,BZ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BZ$5&gt;=$F100,BZ$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
       <c r="CA100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f ca="1">IF(AND($C100="Goal",CA$5&gt;=$F100,CA$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",CA$5&gt;=$F100,CA$5&lt;=$F100+$H100-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -17112,39 +17327,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J92:BZ93 J26:BZ33 J21:BZ24 J39:BZ83">
-    <cfRule type="expression" dxfId="36" priority="344">
+    <cfRule type="expression" dxfId="42" priority="344">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="35" priority="350">
+    <cfRule type="expression" dxfId="41" priority="350">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="34" priority="346">
+    <cfRule type="expression" dxfId="40" priority="346">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="33" priority="345">
+    <cfRule type="expression" dxfId="39" priority="345">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:CA11 J13:CA100">
-    <cfRule type="expression" dxfId="32" priority="367" stopIfTrue="1">
+  <conditionalFormatting sqref="J8:CA11 J13:CA67 J76:CA100">
+    <cfRule type="expression" dxfId="38" priority="367" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="386" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="404" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="405" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="406" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17191,7 +17406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA23:CA24 CA92:CA93 CA33">
-    <cfRule type="expression" dxfId="27" priority="465">
+    <cfRule type="expression" dxfId="33" priority="465">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17210,12 +17425,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="26" priority="254">
+    <cfRule type="expression" dxfId="32" priority="254">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA83">
-    <cfRule type="expression" dxfId="25" priority="261">
+    <cfRule type="expression" dxfId="31" priority="261">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17262,29 +17477,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="24" priority="235">
+    <cfRule type="expression" dxfId="30" priority="235">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="23" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="237" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="238" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="239" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="240" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="241" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="18" priority="242">
+    <cfRule type="expression" dxfId="24" priority="242">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17303,12 +17518,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="17" priority="226">
+    <cfRule type="expression" dxfId="23" priority="226">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="16" priority="232">
+    <cfRule type="expression" dxfId="22" priority="232">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17327,12 +17542,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J84:BZ84">
-    <cfRule type="expression" dxfId="15" priority="197">
+    <cfRule type="expression" dxfId="21" priority="197">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA84">
-    <cfRule type="expression" dxfId="14" priority="198">
+    <cfRule type="expression" dxfId="20" priority="198">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17351,52 +17566,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="13" priority="143">
+    <cfRule type="expression" dxfId="19" priority="143">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="12" priority="144">
+    <cfRule type="expression" dxfId="18" priority="144">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="11" priority="120">
+    <cfRule type="expression" dxfId="17" priority="120">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="10" priority="119">
+    <cfRule type="expression" dxfId="16" priority="119">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J85:BZ91">
-    <cfRule type="expression" dxfId="9" priority="80">
+    <cfRule type="expression" dxfId="15" priority="80">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA85:CA91">
-    <cfRule type="expression" dxfId="8" priority="79">
+    <cfRule type="expression" dxfId="14" priority="79">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94:BZ100">
-    <cfRule type="expression" dxfId="7" priority="72">
+    <cfRule type="expression" dxfId="13" priority="72">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA94:CA100">
-    <cfRule type="expression" dxfId="6" priority="71">
+    <cfRule type="expression" dxfId="12" priority="71">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="5" priority="41">
+    <cfRule type="expression" dxfId="11" priority="41">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA18:CA20">
-    <cfRule type="expression" dxfId="4" priority="42">
+    <cfRule type="expression" dxfId="10" priority="42">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17484,7 +17699,41 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
+  <conditionalFormatting sqref="J68:CA71">
+    <cfRule type="expression" dxfId="9" priority="875" stopIfTrue="1">
+      <formula>AND($C72="Low",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="876" stopIfTrue="1">
+      <formula>AND($C72="High",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="877" stopIfTrue="1">
+      <formula>AND($C72="On Track",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="878" stopIfTrue="1">
+      <formula>AND($C72="Med",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="879" stopIfTrue="1">
+      <formula>AND(LEN($C72)=0,J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72:CA75">
+    <cfRule type="expression" dxfId="4" priority="892" stopIfTrue="1">
+      <formula>AND($C68="Low",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="893" stopIfTrue="1">
+      <formula>AND($C68="High",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="894" stopIfTrue="1">
+      <formula>AND($C68="On Track",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="895" stopIfTrue="1">
+      <formula>AND($C68="Med",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="896" stopIfTrue="1">
+      <formula>AND(LEN($C68)=0,J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
@@ -17524,7 +17773,7 @@
                     <xdr:col>104</xdr:col>
                     <xdr:colOff>469127</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>238539</xdr:rowOff>
+                    <xdr:rowOff>246490</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{ADF57E22-35E7-C94A-9F55-95C72B30850F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2894200F-9F49-421F-BAD0-9E31EBF701CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35727D86-F25F-43B9-A84A-50AD980EC616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36213" yWindow="526" windowWidth="11820" windowHeight="11883" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="119">
   <si>
     <t>About This Template</t>
   </si>
@@ -180,9 +180,6 @@
     <t>End Term Presentation (Winter)</t>
   </si>
   <si>
-    <t>End Term Presentation (Spring)</t>
-  </si>
-  <si>
     <t>Project Presentations</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>Med</t>
-  </si>
-  <si>
-    <t>Low</t>
   </si>
   <si>
     <t>Milestone</t>
@@ -274,21 +268,6 @@
   </si>
   <si>
     <t>Test Approach and Constraints</t>
-  </si>
-  <si>
-    <t>Debugging</t>
-  </si>
-  <si>
-    <t>Automated Testing</t>
-  </si>
-  <si>
-    <t>Internal Testing</t>
-  </si>
-  <si>
-    <t>Alpha Testing</t>
-  </si>
-  <si>
-    <t>Beta Testing</t>
   </si>
   <si>
     <t>Aparna/Brandin</t>
@@ -424,6 +403,18 @@
   </si>
   <si>
     <t>Drill Visualization</t>
+  </si>
+  <si>
+    <t>Final Project Presentation (Spring)</t>
+  </si>
+  <si>
+    <t>System Test Plan Document</t>
+  </si>
+  <si>
+    <t>Testing/Debugging</t>
+  </si>
+  <si>
+    <t>Sensor Implementation</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1057,41 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2068,20 +2093,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="58"/>
-      <tableStyleElement type="headerRow" dxfId="57"/>
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
+      <tableStyleElement type="wholeTable" dxfId="60"/>
+      <tableStyleElement type="headerRow" dxfId="59"/>
+      <tableStyleElement type="firstRowStripe" dxfId="58"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="55"/>
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="totalRow" dxfId="53"/>
-      <tableStyleElement type="firstColumn" dxfId="52"/>
-      <tableStyleElement type="lastColumn" dxfId="51"/>
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-      <tableStyleElement type="secondRowStripe" dxfId="49"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="48"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="47"/>
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="totalRow" dxfId="55"/>
+      <tableStyleElement type="firstColumn" dxfId="54"/>
+      <tableStyleElement type="lastColumn" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="secondRowStripe" dxfId="51"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="50"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="49"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2193,7 +2218,7 @@
           <xdr:col>104</xdr:col>
           <xdr:colOff>469127</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>238539</xdr:rowOff>
+          <xdr:rowOff>246490</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2234,8 +2259,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H100" totalsRowShown="0">
-  <autoFilter ref="B7:H100" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H101" totalsRowShown="0">
+  <autoFilter ref="B7:H101" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2245,12 +2270,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="46"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Completion"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="43" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="45" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2528,10 +2553,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE193"/>
+  <dimension ref="A1:CE194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2608,7 +2633,7 @@
       <c r="N2" s="80"/>
       <c r="O2" s="80"/>
       <c r="Q2" s="81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R2" s="81"/>
       <c r="S2" s="81"/>
@@ -2616,7 +2641,7 @@
       <c r="U2" s="81"/>
       <c r="V2" s="81"/>
       <c r="X2" s="82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="82"/>
       <c r="Z2" s="82"/>
@@ -3158,7 +3183,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>7</v>
@@ -4045,7 +4070,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>30</v>
@@ -4952,10 +4977,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E13" s="29">
         <v>1</v>
@@ -5258,10 +5283,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E14" s="29">
         <v>1</v>
@@ -5351,13 +5376,13 @@
     <row r="15" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="36" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E15" s="29">
         <v>1</v>
@@ -5657,7 +5682,7 @@
     <row r="16" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
@@ -5740,7 +5765,7 @@
     <row r="17" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="37" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="54"/>
@@ -5823,13 +5848,13 @@
     <row r="18" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E18" s="29">
         <v>1</v>
@@ -6129,13 +6154,13 @@
     <row r="19" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="61" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E19" s="29">
         <v>1</v>
@@ -6225,13 +6250,13 @@
     <row r="20" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="62" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
@@ -6321,13 +6346,13 @@
     <row r="21" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="36" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E21" s="29">
         <v>1</v>
@@ -6627,13 +6652,13 @@
     <row r="22" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E22" s="29">
         <v>1</v>
@@ -6723,13 +6748,13 @@
     <row r="23" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E23" s="29">
         <v>1</v>
@@ -7325,7 +7350,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>30</v>
@@ -7418,13 +7443,13 @@
     <row r="26" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E26" s="29">
         <v>1</v>
@@ -7514,13 +7539,13 @@
     <row r="27" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E27" s="29">
         <v>1</v>
@@ -7820,13 +7845,13 @@
     <row r="28" spans="1:79" s="2" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E28" s="29">
         <v>1</v>
@@ -7916,13 +7941,13 @@
     <row r="29" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E29" s="29">
         <v>1</v>
@@ -8012,13 +8037,13 @@
     <row r="30" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E30" s="29">
         <v>1</v>
@@ -8108,13 +8133,13 @@
     <row r="31" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E31" s="29">
         <v>1</v>
@@ -8204,7 +8229,7 @@
     <row r="32" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="48" t="s">
         <v>5</v>
@@ -8510,7 +8535,7 @@
     <row r="33" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
@@ -8803,13 +8828,13 @@
     <row r="34" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E34" s="29">
         <v>1</v>
@@ -8899,13 +8924,13 @@
     <row r="35" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
@@ -8995,13 +9020,13 @@
     <row r="36" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E36" s="29">
         <v>1</v>
@@ -9091,13 +9116,13 @@
     <row r="37" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E37" s="29">
         <v>1</v>
@@ -9187,7 +9212,7 @@
     <row r="38" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="49" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
@@ -9270,10 +9295,10 @@
     <row r="39" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="55" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>30</v>
@@ -9366,13 +9391,13 @@
     <row r="40" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E40" s="29">
         <v>1</v>
@@ -9462,13 +9487,13 @@
     <row r="41" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="55" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E41" s="29">
         <v>1</v>
@@ -9558,10 +9583,10 @@
     <row r="42" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="55" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="48" t="s">
         <v>30</v>
@@ -9654,13 +9679,13 @@
     <row r="43" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="55" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E43" s="29">
         <v>1</v>
@@ -9750,13 +9775,13 @@
     <row r="44" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E44" s="29">
         <v>1</v>
@@ -9846,13 +9871,13 @@
     <row r="45" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="55" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E45" s="29">
         <v>1</v>
@@ -9942,13 +9967,13 @@
     <row r="46" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
@@ -10038,7 +10063,7 @@
     <row r="47" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="49" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C47" s="50"/>
       <c r="D47" s="50"/>
@@ -10121,7 +10146,7 @@
     <row r="48" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="37" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
@@ -10204,13 +10229,13 @@
     <row r="49" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="55" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E49" s="56">
         <v>1</v>
@@ -10300,13 +10325,13 @@
     <row r="50" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="55" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E50" s="56">
         <v>1</v>
@@ -10396,13 +10421,13 @@
     <row r="51" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E51" s="56">
         <v>1</v>
@@ -10702,13 +10727,13 @@
     <row r="52" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="55" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="54" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E52" s="56">
         <v>1</v>
@@ -10798,13 +10823,13 @@
     <row r="53" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="70" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E53" s="67">
         <v>0</v>
@@ -10894,13 +10919,13 @@
     <row r="54" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E54" s="56">
         <v>0.8</v>
@@ -10990,10 +11015,10 @@
     <row r="55" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="70" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="66" t="s">
         <v>30</v>
@@ -11086,10 +11111,10 @@
     <row r="56" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="37" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="48" t="s">
         <v>30</v>
@@ -11183,13 +11208,13 @@
     <row r="57" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="55" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E57" s="56">
         <v>1</v>
@@ -11279,13 +11304,13 @@
     <row r="58" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E58" s="56">
         <v>1</v>
@@ -11375,13 +11400,13 @@
     <row r="59" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="55" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E59" s="56">
         <v>1</v>
@@ -11471,10 +11496,10 @@
     <row r="60" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="37" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60" s="48" t="s">
         <v>30</v>
@@ -11568,13 +11593,13 @@
     <row r="61" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="55" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" s="54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E61" s="56">
         <v>1</v>
@@ -11664,13 +11689,13 @@
     <row r="62" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E62" s="56">
         <v>1</v>
@@ -11760,13 +11785,13 @@
     <row r="63" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="55" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E63" s="56">
         <v>1</v>
@@ -11856,10 +11881,10 @@
     <row r="64" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C64" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D64" s="48" t="s">
         <v>30</v>
@@ -11952,13 +11977,13 @@
     <row r="65" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="55" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D65" s="54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E65" s="56">
         <v>1</v>
@@ -12048,13 +12073,13 @@
     <row r="66" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C66" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66" s="54" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E66" s="56">
         <v>1</v>
@@ -12144,13 +12169,13 @@
     <row r="67" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="55" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C67" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D67" s="54" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E67" s="56">
         <v>1</v>
@@ -12240,10 +12265,10 @@
     <row r="68" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="37" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C68" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" s="48" t="s">
         <v>30</v>
@@ -12336,13 +12361,13 @@
     <row r="69" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="55" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C69" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D69" s="54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E69" s="56">
         <v>1</v>
@@ -12432,13 +12457,13 @@
     <row r="70" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C70" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E70" s="56">
         <v>1</v>
@@ -12528,13 +12553,13 @@
     <row r="71" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="55" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C71" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D71" s="54" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E71" s="56">
         <v>1</v>
@@ -12624,10 +12649,10 @@
     <row r="72" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="64" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C72" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D72" s="66" t="s">
         <v>30</v>
@@ -12720,16 +12745,16 @@
     <row r="73" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D73" s="65" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E73" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="68">
         <v>44286</v>
@@ -12816,16 +12841,16 @@
     <row r="74" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="70" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C74" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74" s="65" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E74" s="67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F74" s="68">
         <v>44286</v>
@@ -12912,13 +12937,13 @@
     <row r="75" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="70" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C75" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D75" s="65" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E75" s="67">
         <v>1</v>
@@ -13008,10 +13033,10 @@
     <row r="76" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="64" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" s="66" t="s">
         <v>30</v>
@@ -13021,10 +13046,10 @@
         <v>0</v>
       </c>
       <c r="F76" s="68">
-        <v>44286</v>
+        <v>44293</v>
       </c>
       <c r="G76" s="68">
-        <v>44292</v>
+        <v>44299</v>
       </c>
       <c r="H76" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
@@ -13105,22 +13130,22 @@
     <row r="77" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C77" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77" s="65" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E77" s="67">
         <v>0</v>
       </c>
       <c r="F77" s="68">
-        <v>44286</v>
+        <v>44293</v>
       </c>
       <c r="G77" s="68">
-        <v>44292</v>
+        <v>44299</v>
       </c>
       <c r="H77" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
@@ -13201,22 +13226,22 @@
     <row r="78" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="70" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" s="65" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E78" s="67">
         <v>0</v>
       </c>
       <c r="F78" s="68">
-        <v>44286</v>
+        <v>44293</v>
       </c>
       <c r="G78" s="68">
-        <v>44292</v>
+        <v>44299</v>
       </c>
       <c r="H78" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
@@ -13297,22 +13322,22 @@
     <row r="79" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="70" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C79" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E79" s="67">
         <v>0</v>
       </c>
       <c r="F79" s="68">
-        <v>44286</v>
+        <v>44293</v>
       </c>
       <c r="G79" s="68">
-        <v>44292</v>
+        <v>44299</v>
       </c>
       <c r="H79" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
@@ -13393,10 +13418,10 @@
     <row r="80" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="64" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D80" s="66" t="s">
         <v>30</v>
@@ -13409,11 +13434,11 @@
         <v>44293</v>
       </c>
       <c r="G80" s="68">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="H80" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I80" s="25"/>
       <c r="J80" s="34"/>
@@ -13490,13 +13515,13 @@
     <row r="81" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E81" s="67">
         <v>0</v>
@@ -13505,11 +13530,11 @@
         <v>44293</v>
       </c>
       <c r="G81" s="68">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="H81" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I81" s="25"/>
       <c r="J81" s="34"/>
@@ -13586,13 +13611,13 @@
     <row r="82" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="70" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D82" s="65" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E82" s="67">
         <v>0</v>
@@ -13601,11 +13626,11 @@
         <v>44293</v>
       </c>
       <c r="G82" s="68">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="H82" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I82" s="25"/>
       <c r="J82" s="34"/>
@@ -13682,13 +13707,13 @@
     <row r="83" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="70" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C83" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D83" s="65" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E83" s="67">
         <v>0</v>
@@ -13697,11 +13722,11 @@
         <v>44293</v>
       </c>
       <c r="G83" s="68">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="H83" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I83" s="25"/>
       <c r="J83" s="34"/>
@@ -13777,15 +13802,29 @@
     </row>
     <row r="84" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
-      <c r="B84" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="53"/>
+      <c r="B84" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="67">
+        <f>SUM(E85:E87)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="68">
+        <v>44293</v>
+      </c>
+      <c r="G84" s="68">
+        <v>44313</v>
+      </c>
+      <c r="H84" s="69">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>21</v>
+      </c>
       <c r="I84" s="25"/>
       <c r="J84" s="34"/>
       <c r="K84" s="34"/>
@@ -13861,328 +13900,122 @@
     <row r="85" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" s="66"/>
+        <v>105</v>
+      </c>
+      <c r="C85" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="65" t="s">
+        <v>101</v>
+      </c>
       <c r="E85" s="67">
         <v>0</v>
       </c>
       <c r="F85" s="68">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="G85" s="68">
-        <v>44348</v>
+        <v>44313</v>
       </c>
       <c r="H85" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I85" s="25"/>
-      <c r="J85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",J$5&gt;=$F85,J$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",K$5&gt;=$F85,K$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",K$5&gt;=$F85,K$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",L$5&gt;=$F85,L$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",L$5&gt;=$F85,L$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",M$5&gt;=$F85,M$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",M$5&gt;=$F85,M$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",N$5&gt;=$F85,N$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",N$5&gt;=$F85,N$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",O$5&gt;=$F85,O$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",O$5&gt;=$F85,O$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="P85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",P$5&gt;=$F85,P$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",P$5&gt;=$F85,P$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Q85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",Q$5&gt;=$F85,Q$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",Q$5&gt;=$F85,Q$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="R85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",R$5&gt;=$F85,R$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",R$5&gt;=$F85,R$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="S85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",S$5&gt;=$F85,S$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",S$5&gt;=$F85,S$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="T85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",T$5&gt;=$F85,T$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",T$5&gt;=$F85,T$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",U$5&gt;=$F85,U$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",U$5&gt;=$F85,U$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="V85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",V$5&gt;=$F85,V$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",V$5&gt;=$F85,V$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",W$5&gt;=$F85,W$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",W$5&gt;=$F85,W$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",X$5&gt;=$F85,X$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",X$5&gt;=$F85,X$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",Y$5&gt;=$F85,Y$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",Y$5&gt;=$F85,Y$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",Z$5&gt;=$F85,Z$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",Z$5&gt;=$F85,Z$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AA85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AA$5&gt;=$F85,AA$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AA$5&gt;=$F85,AA$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AB85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AB$5&gt;=$F85,AB$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AB$5&gt;=$F85,AB$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AC$5&gt;=$F85,AC$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AC$5&gt;=$F85,AC$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AD85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AD$5&gt;=$F85,AD$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AD$5&gt;=$F85,AD$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AE$5&gt;=$F85,AE$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AE$5&gt;=$F85,AE$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AF85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AF$5&gt;=$F85,AF$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AF$5&gt;=$F85,AF$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AG85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AG$5&gt;=$F85,AG$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AG$5&gt;=$F85,AG$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AH85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AH$5&gt;=$F85,AH$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AH$5&gt;=$F85,AH$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AI85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AI$5&gt;=$F85,AI$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AI$5&gt;=$F85,AI$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AJ85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AJ$5&gt;=$F85,AJ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AJ$5&gt;=$F85,AJ$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AK85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AK$5&gt;=$F85,AK$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AK$5&gt;=$F85,AK$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AL85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AL$5&gt;=$F85,AL$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AL$5&gt;=$F85,AL$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AM85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AM$5&gt;=$F85,AM$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AM$5&gt;=$F85,AM$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AN85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AN$5&gt;=$F85,AN$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AN$5&gt;=$F85,AN$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AO$5&gt;=$F85,AO$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AO$5&gt;=$F85,AO$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AP$5&gt;=$F85,AP$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AQ$5&gt;=$F85,AQ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AQ$5&gt;=$F85,AQ$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AR85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AR$5&gt;=$F85,AR$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AR$5&gt;=$F85,AR$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AS85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AS$5&gt;=$F85,AS$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AS$5&gt;=$F85,AS$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AT85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AT$5&gt;=$F85,AT$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AT$5&gt;=$F85,AT$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AU85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AU$5&gt;=$F85,AU$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AU$5&gt;=$F85,AU$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AV85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AV$5&gt;=$F85,AV$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AV$5&gt;=$F85,AV$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AW85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AW$5&gt;=$F85,AW$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AW$5&gt;=$F85,AW$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AX$5&gt;=$F85,AX$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AX$5&gt;=$F85,AX$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AY$5&gt;=$F85,AY$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AY$5&gt;=$F85,AY$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AZ85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",AZ$5&gt;=$F85,AZ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",AZ$5&gt;=$F85,AZ$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BA85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BA$5&gt;=$F85,BA$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BA$5&gt;=$F85,BA$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BB85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BB$5&gt;=$F85,BB$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BB$5&gt;=$F85,BB$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BC85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BC$5&gt;=$F85,BC$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BC$5&gt;=$F85,BC$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BD85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BD$5&gt;=$F85,BD$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BD$5&gt;=$F85,BD$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BE$5&gt;=$F85,BE$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BE$5&gt;=$F85,BE$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BF85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BF$5&gt;=$F85,BF$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BF$5&gt;=$F85,BF$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BG85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BG$5&gt;=$F85,BG$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BG$5&gt;=$F85,BG$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BH$5&gt;=$F85,BH$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BH$5&gt;=$F85,BH$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BI$5&gt;=$F85,BI$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BI$5&gt;=$F85,BI$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BJ85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BJ$5&gt;=$F85,BJ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BJ$5&gt;=$F85,BJ$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BK85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BK$5&gt;=$F85,BK$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BK$5&gt;=$F85,BK$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BL85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BL$5&gt;=$F85,BL$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BL$5&gt;=$F85,BL$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BM85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BM$5&gt;=$F85,BM$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BM$5&gt;=$F85,BM$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BN85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BN$5&gt;=$F85,BN$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BN$5&gt;=$F85,BN$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BO85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BO$5&gt;=$F85,BO$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BO$5&gt;=$F85,BO$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BP85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BP$5&gt;=$F85,BP$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BP$5&gt;=$F85,BP$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BQ85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BQ$5&gt;=$F85,BQ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BQ$5&gt;=$F85,BQ$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BR85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BR$5&gt;=$F85,BR$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BR$5&gt;=$F85,BR$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BS85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BS$5&gt;=$F85,BS$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BS$5&gt;=$F85,BS$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BT85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BT$5&gt;=$F85,BT$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BT$5&gt;=$F85,BT$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BU85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BU$5&gt;=$F85,BU$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BU$5&gt;=$F85,BU$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BV85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BV$5&gt;=$F85,BV$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BW85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BW$5&gt;=$F85,BW$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BW$5&gt;=$F85,BW$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BX85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BX$5&gt;=$F85,BX$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BX$5&gt;=$F85,BX$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BY85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BY$5&gt;=$F85,BY$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BY$5&gt;=$F85,BY$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BZ85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",BZ$5&gt;=$F85,BZ$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",BZ$5&gt;=$F85,BZ$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="CA85" s="34" t="str">
-        <f ca="1">IF(AND($C85="Goal",CA$5&gt;=$F85,CA$5&lt;=$F85+$H85-1),2,IF(AND($C85="Milestone",CA$5&gt;=$F85,CA$5&lt;=$F85+$H85-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="34"/>
+      <c r="U85" s="34"/>
+      <c r="V85" s="34"/>
+      <c r="W85" s="34"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
+      <c r="AB85" s="34"/>
+      <c r="AC85" s="34"/>
+      <c r="AD85" s="34"/>
+      <c r="AE85" s="34"/>
+      <c r="AF85" s="34"/>
+      <c r="AG85" s="34"/>
+      <c r="AH85" s="34"/>
+      <c r="AI85" s="34"/>
+      <c r="AJ85" s="34"/>
+      <c r="AK85" s="34"/>
+      <c r="AL85" s="34"/>
+      <c r="AM85" s="34"/>
+      <c r="AN85" s="34"/>
+      <c r="AO85" s="34"/>
+      <c r="AP85" s="34"/>
+      <c r="AQ85" s="34"/>
+      <c r="AR85" s="34"/>
+      <c r="AS85" s="34"/>
+      <c r="AT85" s="34"/>
+      <c r="AU85" s="34"/>
+      <c r="AV85" s="34"/>
+      <c r="AW85" s="34"/>
+      <c r="AX85" s="34"/>
+      <c r="AY85" s="34"/>
+      <c r="AZ85" s="34"/>
+      <c r="BA85" s="34"/>
+      <c r="BB85" s="34"/>
+      <c r="BC85" s="34"/>
+      <c r="BD85" s="34"/>
+      <c r="BE85" s="34"/>
+      <c r="BF85" s="34"/>
+      <c r="BG85" s="34"/>
+      <c r="BH85" s="34"/>
+      <c r="BI85" s="34"/>
+      <c r="BJ85" s="34"/>
+      <c r="BK85" s="34"/>
+      <c r="BL85" s="34"/>
+      <c r="BM85" s="34"/>
+      <c r="BN85" s="34"/>
+      <c r="BO85" s="34"/>
+      <c r="BP85" s="34"/>
+      <c r="BQ85" s="34"/>
+      <c r="BR85" s="34"/>
+      <c r="BS85" s="34"/>
+      <c r="BT85" s="34"/>
+      <c r="BU85" s="34"/>
+      <c r="BV85" s="34"/>
+      <c r="BW85" s="34"/>
+      <c r="BX85" s="34"/>
+      <c r="BY85" s="34"/>
+      <c r="BZ85" s="34"/>
+      <c r="CA85" s="34"/>
     </row>
     <row r="86" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C86" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" s="66"/>
+        <v>107</v>
+      </c>
+      <c r="C86" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="65" t="s">
+        <v>103</v>
+      </c>
       <c r="E86" s="67">
         <v>0</v>
       </c>
       <c r="F86" s="68">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="G86" s="68">
-        <v>44348</v>
+        <v>44313</v>
       </c>
       <c r="H86" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I86" s="25"/>
       <c r="J86" s="34"/>
@@ -14259,24 +14092,26 @@
     <row r="87" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D87" s="66"/>
+        <v>106</v>
+      </c>
+      <c r="C87" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="65" t="s">
+        <v>102</v>
+      </c>
       <c r="E87" s="67">
         <v>0</v>
       </c>
       <c r="F87" s="68">
-        <v>44300</v>
+        <v>44293</v>
       </c>
       <c r="G87" s="68">
-        <v>44348</v>
+        <v>44313</v>
       </c>
       <c r="H87" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I87" s="25"/>
       <c r="J87" s="34"/>
@@ -14352,26 +14187,15 @@
     </row>
     <row r="88" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
-      <c r="B88" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D88" s="66"/>
-      <c r="E88" s="67">
-        <v>0</v>
-      </c>
-      <c r="F88" s="68">
-        <v>44300</v>
-      </c>
-      <c r="G88" s="68">
-        <v>44348</v>
-      </c>
-      <c r="H88" s="69">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>49</v>
-      </c>
+      <c r="B88" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="53"/>
       <c r="I88" s="25"/>
       <c r="J88" s="34"/>
       <c r="K88" s="34"/>
@@ -14447,10 +14271,10 @@
     <row r="89" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="70" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C89" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D89" s="66"/>
       <c r="E89" s="67">
@@ -14460,91 +14284,301 @@
         <v>44300</v>
       </c>
       <c r="G89" s="68">
-        <v>44348</v>
+        <v>44313</v>
       </c>
       <c r="H89" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I89" s="25"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
-      <c r="U89" s="34"/>
-      <c r="V89" s="34"/>
-      <c r="W89" s="34"/>
-      <c r="X89" s="34"/>
-      <c r="Y89" s="34"/>
-      <c r="Z89" s="34"/>
-      <c r="AA89" s="34"/>
-      <c r="AB89" s="34"/>
-      <c r="AC89" s="34"/>
-      <c r="AD89" s="34"/>
-      <c r="AE89" s="34"/>
-      <c r="AF89" s="34"/>
-      <c r="AG89" s="34"/>
-      <c r="AH89" s="34"/>
-      <c r="AI89" s="34"/>
-      <c r="AJ89" s="34"/>
-      <c r="AK89" s="34"/>
-      <c r="AL89" s="34"/>
-      <c r="AM89" s="34"/>
-      <c r="AN89" s="34"/>
-      <c r="AO89" s="34"/>
-      <c r="AP89" s="34"/>
-      <c r="AQ89" s="34"/>
-      <c r="AR89" s="34"/>
-      <c r="AS89" s="34"/>
-      <c r="AT89" s="34"/>
-      <c r="AU89" s="34"/>
-      <c r="AV89" s="34"/>
-      <c r="AW89" s="34"/>
-      <c r="AX89" s="34"/>
-      <c r="AY89" s="34"/>
-      <c r="AZ89" s="34"/>
-      <c r="BA89" s="34"/>
-      <c r="BB89" s="34"/>
-      <c r="BC89" s="34"/>
-      <c r="BD89" s="34"/>
-      <c r="BE89" s="34"/>
-      <c r="BF89" s="34"/>
-      <c r="BG89" s="34"/>
-      <c r="BH89" s="34"/>
-      <c r="BI89" s="34"/>
-      <c r="BJ89" s="34"/>
-      <c r="BK89" s="34"/>
-      <c r="BL89" s="34"/>
-      <c r="BM89" s="34"/>
-      <c r="BN89" s="34"/>
-      <c r="BO89" s="34"/>
-      <c r="BP89" s="34"/>
-      <c r="BQ89" s="34"/>
-      <c r="BR89" s="34"/>
-      <c r="BS89" s="34"/>
-      <c r="BT89" s="34"/>
-      <c r="BU89" s="34"/>
-      <c r="BV89" s="34"/>
-      <c r="BW89" s="34"/>
-      <c r="BX89" s="34"/>
-      <c r="BY89" s="34"/>
-      <c r="BZ89" s="34"/>
-      <c r="CA89" s="34"/>
+      <c r="J89" s="34" t="str">
+        <f t="shared" ref="J89:AO90" ca="1" si="54">IF(AND($C89="Goal",J$5&gt;=$F89,J$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",J$5&gt;=$F89,J$5&lt;=$F89+$H89-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="L89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="M89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="N89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="O89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="P89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Q89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="R89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="S89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="T89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="U89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="V89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="W89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="X89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Y89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Z89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AA89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AB89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AC89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AD89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AE89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AF89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AG89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AH89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AI89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AJ89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AK89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AL89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AM89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AN89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO89" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP89" s="34" t="str">
+        <f t="shared" ref="AP89:BU90" ca="1" si="55">IF(AND($C89="Goal",AP$5&gt;=$F89,AP$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",AP$5&gt;=$F89,AP$5&lt;=$F89+$H89-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AR89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AS89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AT89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AU89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AV89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AW89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AX89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BI89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BJ89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BK89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BL89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BM89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BN89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BO89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BP89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BQ89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BR89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BS89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BT89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BU89" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BV89" s="34" t="str">
+        <f t="shared" ref="BV89:CA90" ca="1" si="56">IF(AND($C89="Goal",BV$5&gt;=$F89,BV$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",BV$5&gt;=$F89,BV$5&lt;=$F89+$H89-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BW89" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BX89" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BY89" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BZ89" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="CA89" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
     </row>
     <row r="90" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="70" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C90" s="66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D90" s="66"/>
       <c r="E90" s="67">
@@ -14554,91 +14588,301 @@
         <v>44300</v>
       </c>
       <c r="G90" s="68">
-        <v>44348</v>
+        <v>44313</v>
       </c>
       <c r="H90" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I90" s="25"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-      <c r="T90" s="34"/>
-      <c r="U90" s="34"/>
-      <c r="V90" s="34"/>
-      <c r="W90" s="34"/>
-      <c r="X90" s="34"/>
-      <c r="Y90" s="34"/>
-      <c r="Z90" s="34"/>
-      <c r="AA90" s="34"/>
-      <c r="AB90" s="34"/>
-      <c r="AC90" s="34"/>
-      <c r="AD90" s="34"/>
-      <c r="AE90" s="34"/>
-      <c r="AF90" s="34"/>
-      <c r="AG90" s="34"/>
-      <c r="AH90" s="34"/>
-      <c r="AI90" s="34"/>
-      <c r="AJ90" s="34"/>
-      <c r="AK90" s="34"/>
-      <c r="AL90" s="34"/>
-      <c r="AM90" s="34"/>
-      <c r="AN90" s="34"/>
-      <c r="AO90" s="34"/>
-      <c r="AP90" s="34"/>
-      <c r="AQ90" s="34"/>
-      <c r="AR90" s="34"/>
-      <c r="AS90" s="34"/>
-      <c r="AT90" s="34"/>
-      <c r="AU90" s="34"/>
-      <c r="AV90" s="34"/>
-      <c r="AW90" s="34"/>
-      <c r="AX90" s="34"/>
-      <c r="AY90" s="34"/>
-      <c r="AZ90" s="34"/>
-      <c r="BA90" s="34"/>
-      <c r="BB90" s="34"/>
-      <c r="BC90" s="34"/>
-      <c r="BD90" s="34"/>
-      <c r="BE90" s="34"/>
-      <c r="BF90" s="34"/>
-      <c r="BG90" s="34"/>
-      <c r="BH90" s="34"/>
-      <c r="BI90" s="34"/>
-      <c r="BJ90" s="34"/>
-      <c r="BK90" s="34"/>
-      <c r="BL90" s="34"/>
-      <c r="BM90" s="34"/>
-      <c r="BN90" s="34"/>
-      <c r="BO90" s="34"/>
-      <c r="BP90" s="34"/>
-      <c r="BQ90" s="34"/>
-      <c r="BR90" s="34"/>
-      <c r="BS90" s="34"/>
-      <c r="BT90" s="34"/>
-      <c r="BU90" s="34"/>
-      <c r="BV90" s="34"/>
-      <c r="BW90" s="34"/>
-      <c r="BX90" s="34"/>
-      <c r="BY90" s="34"/>
-      <c r="BZ90" s="34"/>
-      <c r="CA90" s="34"/>
+      <c r="J90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="K90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="L90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="M90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="N90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="O90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="P90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Q90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="R90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="S90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="T90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="U90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="V90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="W90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="X90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Y90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Z90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AA90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AB90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AC90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AD90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AE90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AF90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AG90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AH90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AI90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AJ90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AK90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AL90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AM90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AN90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO90" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AQ90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AR90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AS90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AT90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AU90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AV90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AW90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AX90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BI90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BJ90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BK90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BL90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BM90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BN90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BO90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BP90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BQ90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BR90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BS90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BT90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BU90" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BV90" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BW90" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BX90" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BY90" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BZ90" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="CA90" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
     </row>
     <row r="91" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="70" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C91" s="66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D91" s="66"/>
       <c r="E91" s="67">
@@ -14648,11 +14892,11 @@
         <v>44300</v>
       </c>
       <c r="G91" s="68">
-        <v>44348</v>
+        <v>44313</v>
       </c>
       <c r="H91" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I91" s="25"/>
       <c r="J91" s="34"/>
@@ -14727,2489 +14971,2584 @@
       <c r="CA91" s="34"/>
     </row>
     <row r="92" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="53"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="66"/>
+      <c r="E92" s="67">
+        <v>0</v>
+      </c>
+      <c r="F92" s="68">
+        <v>44313</v>
+      </c>
+      <c r="G92" s="68">
+        <v>44330</v>
+      </c>
+      <c r="H92" s="69">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>18</v>
+      </c>
       <c r="I92" s="25"/>
-      <c r="J92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",K$5&gt;=$F92,K$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",K$5&gt;=$F92,K$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",L$5&gt;=$F92,L$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",L$5&gt;=$F92,L$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",M$5&gt;=$F92,M$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",M$5&gt;=$F92,M$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",N$5&gt;=$F92,N$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",N$5&gt;=$F92,N$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",O$5&gt;=$F92,O$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",O$5&gt;=$F92,O$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="P92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",P$5&gt;=$F92,P$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",P$5&gt;=$F92,P$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Q92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",Q$5&gt;=$F92,Q$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",Q$5&gt;=$F92,Q$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="R92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",R$5&gt;=$F92,R$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",R$5&gt;=$F92,R$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="S92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",S$5&gt;=$F92,S$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",S$5&gt;=$F92,S$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="T92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",T$5&gt;=$F92,T$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",T$5&gt;=$F92,T$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",U$5&gt;=$F92,U$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",U$5&gt;=$F92,U$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="V92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",V$5&gt;=$F92,V$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",V$5&gt;=$F92,V$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",W$5&gt;=$F92,W$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",W$5&gt;=$F92,W$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",X$5&gt;=$F92,X$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",X$5&gt;=$F92,X$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",Y$5&gt;=$F92,Y$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",Y$5&gt;=$F92,Y$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",Z$5&gt;=$F92,Z$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",Z$5&gt;=$F92,Z$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AA92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AA$5&gt;=$F92,AA$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AA$5&gt;=$F92,AA$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AB92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AB$5&gt;=$F92,AB$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AB$5&gt;=$F92,AB$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AC$5&gt;=$F92,AC$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AC$5&gt;=$F92,AC$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AD92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AD$5&gt;=$F92,AD$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AD$5&gt;=$F92,AD$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AE$5&gt;=$F92,AE$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AE$5&gt;=$F92,AE$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AF92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AF$5&gt;=$F92,AF$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AF$5&gt;=$F92,AF$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AG92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AG$5&gt;=$F92,AG$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AG$5&gt;=$F92,AG$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AH92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AH$5&gt;=$F92,AH$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AH$5&gt;=$F92,AH$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AI92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AI$5&gt;=$F92,AI$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AI$5&gt;=$F92,AI$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AJ92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AJ$5&gt;=$F92,AJ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AJ$5&gt;=$F92,AJ$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AK92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AK$5&gt;=$F92,AK$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AK$5&gt;=$F92,AK$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AL92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AL$5&gt;=$F92,AL$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AL$5&gt;=$F92,AL$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AM92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AM$5&gt;=$F92,AM$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AM$5&gt;=$F92,AM$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AN92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AN$5&gt;=$F92,AN$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AN$5&gt;=$F92,AN$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AO$5&gt;=$F92,AO$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AO$5&gt;=$F92,AO$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AP$5&gt;=$F92,AP$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AQ$5&gt;=$F92,AQ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AQ$5&gt;=$F92,AQ$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AR92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AR$5&gt;=$F92,AR$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AR$5&gt;=$F92,AR$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AS92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AS$5&gt;=$F92,AS$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AS$5&gt;=$F92,AS$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AT92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AT$5&gt;=$F92,AT$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AT$5&gt;=$F92,AT$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AU92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AU$5&gt;=$F92,AU$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AU$5&gt;=$F92,AU$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AV92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AV$5&gt;=$F92,AV$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AV$5&gt;=$F92,AV$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AW92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AW$5&gt;=$F92,AW$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AW$5&gt;=$F92,AW$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AX$5&gt;=$F92,AX$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AX$5&gt;=$F92,AX$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AY$5&gt;=$F92,AY$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AY$5&gt;=$F92,AY$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AZ92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",AZ$5&gt;=$F92,AZ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",AZ$5&gt;=$F92,AZ$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BA92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BA$5&gt;=$F92,BA$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BA$5&gt;=$F92,BA$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BB92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BB$5&gt;=$F92,BB$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BB$5&gt;=$F92,BB$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BC92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BC$5&gt;=$F92,BC$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BC$5&gt;=$F92,BC$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BD92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BD$5&gt;=$F92,BD$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BD$5&gt;=$F92,BD$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BE$5&gt;=$F92,BE$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BE$5&gt;=$F92,BE$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BF92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BF$5&gt;=$F92,BF$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BF$5&gt;=$F92,BF$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BG92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BG$5&gt;=$F92,BG$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BG$5&gt;=$F92,BG$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BH$5&gt;=$F92,BH$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BH$5&gt;=$F92,BH$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BI$5&gt;=$F92,BI$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BI$5&gt;=$F92,BI$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BJ92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BJ$5&gt;=$F92,BJ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BJ$5&gt;=$F92,BJ$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BK92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BK$5&gt;=$F92,BK$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BK$5&gt;=$F92,BK$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BL92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BL$5&gt;=$F92,BL$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BL$5&gt;=$F92,BL$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BM92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BM$5&gt;=$F92,BM$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BM$5&gt;=$F92,BM$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BN92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BN$5&gt;=$F92,BN$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BN$5&gt;=$F92,BN$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BO92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BO$5&gt;=$F92,BO$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BO$5&gt;=$F92,BO$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BP92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BP$5&gt;=$F92,BP$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BP$5&gt;=$F92,BP$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BQ92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BQ$5&gt;=$F92,BQ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BQ$5&gt;=$F92,BQ$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BR92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BR$5&gt;=$F92,BR$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BR$5&gt;=$F92,BR$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BS92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BS$5&gt;=$F92,BS$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BS$5&gt;=$F92,BS$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BT92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BT$5&gt;=$F92,BT$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BT$5&gt;=$F92,BT$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BU92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BU$5&gt;=$F92,BU$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BU$5&gt;=$F92,BU$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BV92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BV$5&gt;=$F92,BV$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BW92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BW$5&gt;=$F92,BW$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BW$5&gt;=$F92,BW$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BX92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BX$5&gt;=$F92,BX$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BX$5&gt;=$F92,BX$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BY92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BY$5&gt;=$F92,BY$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BY$5&gt;=$F92,BY$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BZ92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",BZ$5&gt;=$F92,BZ$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",BZ$5&gt;=$F92,BZ$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="CA92" s="34" t="str">
-        <f ca="1">IF(AND($C92="Goal",CA$5&gt;=$F92,CA$5&lt;=$F92+$H92-1),2,IF(AND($C92="Milestone",CA$5&gt;=$F92,CA$5&lt;=$F92+$H92-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
+      <c r="T92" s="34"/>
+      <c r="U92" s="34"/>
+      <c r="V92" s="34"/>
+      <c r="W92" s="34"/>
+      <c r="X92" s="34"/>
+      <c r="Y92" s="34"/>
+      <c r="Z92" s="34"/>
+      <c r="AA92" s="34"/>
+      <c r="AB92" s="34"/>
+      <c r="AC92" s="34"/>
+      <c r="AD92" s="34"/>
+      <c r="AE92" s="34"/>
+      <c r="AF92" s="34"/>
+      <c r="AG92" s="34"/>
+      <c r="AH92" s="34"/>
+      <c r="AI92" s="34"/>
+      <c r="AJ92" s="34"/>
+      <c r="AK92" s="34"/>
+      <c r="AL92" s="34"/>
+      <c r="AM92" s="34"/>
+      <c r="AN92" s="34"/>
+      <c r="AO92" s="34"/>
+      <c r="AP92" s="34"/>
+      <c r="AQ92" s="34"/>
+      <c r="AR92" s="34"/>
+      <c r="AS92" s="34"/>
+      <c r="AT92" s="34"/>
+      <c r="AU92" s="34"/>
+      <c r="AV92" s="34"/>
+      <c r="AW92" s="34"/>
+      <c r="AX92" s="34"/>
+      <c r="AY92" s="34"/>
+      <c r="AZ92" s="34"/>
+      <c r="BA92" s="34"/>
+      <c r="BB92" s="34"/>
+      <c r="BC92" s="34"/>
+      <c r="BD92" s="34"/>
+      <c r="BE92" s="34"/>
+      <c r="BF92" s="34"/>
+      <c r="BG92" s="34"/>
+      <c r="BH92" s="34"/>
+      <c r="BI92" s="34"/>
+      <c r="BJ92" s="34"/>
+      <c r="BK92" s="34"/>
+      <c r="BL92" s="34"/>
+      <c r="BM92" s="34"/>
+      <c r="BN92" s="34"/>
+      <c r="BO92" s="34"/>
+      <c r="BP92" s="34"/>
+      <c r="BQ92" s="34"/>
+      <c r="BR92" s="34"/>
+      <c r="BS92" s="34"/>
+      <c r="BT92" s="34"/>
+      <c r="BU92" s="34"/>
+      <c r="BV92" s="34"/>
+      <c r="BW92" s="34"/>
+      <c r="BX92" s="34"/>
+      <c r="BY92" s="34"/>
+      <c r="BZ92" s="34"/>
+      <c r="CA92" s="34"/>
     </row>
     <row r="93" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
-      <c r="B93" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="31"/>
+      <c r="B93" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="53"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="34"/>
-      <c r="O93" s="34"/>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="34"/>
-      <c r="R93" s="34"/>
-      <c r="S93" s="34"/>
-      <c r="T93" s="34"/>
-      <c r="U93" s="34"/>
-      <c r="V93" s="34"/>
-      <c r="W93" s="34"/>
-      <c r="X93" s="34"/>
-      <c r="Y93" s="34"/>
-      <c r="Z93" s="34"/>
-      <c r="AA93" s="34"/>
-      <c r="AB93" s="34"/>
-      <c r="AC93" s="34"/>
-      <c r="AD93" s="34"/>
-      <c r="AE93" s="34"/>
-      <c r="AF93" s="34"/>
-      <c r="AG93" s="34"/>
-      <c r="AH93" s="34"/>
-      <c r="AI93" s="34"/>
-      <c r="AJ93" s="34"/>
-      <c r="AK93" s="34"/>
-      <c r="AL93" s="34"/>
-      <c r="AM93" s="34"/>
-      <c r="AN93" s="34"/>
-      <c r="AO93" s="34"/>
-      <c r="AP93" s="34"/>
-      <c r="AQ93" s="34"/>
-      <c r="AR93" s="34"/>
-      <c r="AS93" s="34"/>
-      <c r="AT93" s="34"/>
-      <c r="AU93" s="34"/>
-      <c r="AV93" s="34"/>
-      <c r="AW93" s="34"/>
-      <c r="AX93" s="34"/>
-      <c r="AY93" s="34"/>
-      <c r="AZ93" s="34"/>
-      <c r="BA93" s="34"/>
-      <c r="BB93" s="34"/>
-      <c r="BC93" s="34"/>
-      <c r="BD93" s="34"/>
-      <c r="BE93" s="34"/>
-      <c r="BF93" s="34"/>
-      <c r="BG93" s="34"/>
-      <c r="BH93" s="34"/>
-      <c r="BI93" s="34"/>
-      <c r="BJ93" s="34"/>
-      <c r="BK93" s="34"/>
-      <c r="BL93" s="34"/>
-      <c r="BM93" s="34"/>
-      <c r="BN93" s="34"/>
-      <c r="BO93" s="34"/>
-      <c r="BP93" s="34"/>
-      <c r="BQ93" s="34"/>
-      <c r="BR93" s="34"/>
-      <c r="BS93" s="34"/>
-      <c r="BT93" s="34"/>
-      <c r="BU93" s="34"/>
-      <c r="BV93" s="34"/>
-      <c r="BW93" s="34"/>
-      <c r="BX93" s="34"/>
-      <c r="BY93" s="34"/>
-      <c r="BZ93" s="34"/>
-      <c r="CA93" s="34"/>
+      <c r="J93" s="34" t="str">
+        <f t="shared" ref="J93:AO93" ca="1" si="57">IF(AND($C93="Goal",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="L93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="M93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="N93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="O93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="P93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="Q93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="R93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="S93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="T93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="U93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="V93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="W93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="X93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="Y93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="Z93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AA93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AB93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AC93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AD93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AE93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AF93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AG93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AH93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AI93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AJ93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AK93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AL93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AM93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AN93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AO93" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AP93" s="34" t="str">
+        <f t="shared" ref="AP93:BU93" ca="1" si="58">IF(AND($C93="Goal",AP$5&gt;=$F93,AP$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",AP$5&gt;=$F93,AP$5&lt;=$F93+$H93-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AR93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AS93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AT93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AU93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AV93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AW93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AX93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AY93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AZ93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BA93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BB93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BC93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BD93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BE93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BF93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BG93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BH93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BI93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BJ93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BK93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BL93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BM93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BN93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BO93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BP93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BQ93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BR93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BS93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BT93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BU93" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BV93" s="34" t="str">
+        <f t="shared" ref="BV93:CA93" ca="1" si="59">IF(AND($C93="Goal",BV$5&gt;=$F93,BV$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",BV$5&gt;=$F93,BV$5&lt;=$F93+$H93-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BW93" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BX93" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BY93" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BZ93" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="CA93" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
     </row>
     <row r="94" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14"/>
-      <c r="B94" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="E94" s="29">
-        <v>1</v>
-      </c>
-      <c r="F94" s="57">
-        <v>44146</v>
-      </c>
-      <c r="G94" s="57">
-        <v>44166</v>
-      </c>
-      <c r="H94" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
-      </c>
+      <c r="A94" s="15"/>
+      <c r="B94" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="31"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",J$5&gt;=$F94,J$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",K$5&gt;=$F94,K$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",K$5&gt;=$F94,K$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="L94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",L$5&gt;=$F94,L$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",L$5&gt;=$F94,L$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="M94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",M$5&gt;=$F94,M$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",M$5&gt;=$F94,M$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="N94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",N$5&gt;=$F94,N$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",N$5&gt;=$F94,N$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="O94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",O$5&gt;=$F94,O$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",O$5&gt;=$F94,O$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="P94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",P$5&gt;=$F94,P$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",P$5&gt;=$F94,P$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Q94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",Q$5&gt;=$F94,Q$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",Q$5&gt;=$F94,Q$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="R94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",R$5&gt;=$F94,R$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",R$5&gt;=$F94,R$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="S94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",S$5&gt;=$F94,S$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",S$5&gt;=$F94,S$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="T94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",T$5&gt;=$F94,T$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="U94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",U$5&gt;=$F94,U$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",U$5&gt;=$F94,U$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="V94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",V$5&gt;=$F94,V$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",V$5&gt;=$F94,V$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="W94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",W$5&gt;=$F94,W$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",W$5&gt;=$F94,W$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="X94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",X$5&gt;=$F94,X$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",X$5&gt;=$F94,X$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",Y$5&gt;=$F94,Y$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",Y$5&gt;=$F94,Y$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",Z$5&gt;=$F94,Z$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",Z$5&gt;=$F94,Z$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AA94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AA$5&gt;=$F94,AA$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AA$5&gt;=$F94,AA$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AB94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AB$5&gt;=$F94,AB$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AB$5&gt;=$F94,AB$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AC$5&gt;=$F94,AC$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AC$5&gt;=$F94,AC$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AD94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AD$5&gt;=$F94,AD$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AE$5&gt;=$F94,AE$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AE$5&gt;=$F94,AE$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AF94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AF$5&gt;=$F94,AF$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AF$5&gt;=$F94,AF$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AG94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AG$5&gt;=$F94,AG$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AG$5&gt;=$F94,AG$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AH94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AH$5&gt;=$F94,AH$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AH$5&gt;=$F94,AH$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AI94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AI$5&gt;=$F94,AI$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AI$5&gt;=$F94,AI$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AJ94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AJ$5&gt;=$F94,AJ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AJ$5&gt;=$F94,AJ$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AK94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AK$5&gt;=$F94,AK$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AK$5&gt;=$F94,AK$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AL94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",AL$5&gt;=$F94,AL$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AL$5&gt;=$F94,AL$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AM94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AM$5&gt;=$F94,AM$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AM$5&gt;=$F94,AM$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AN94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AN$5&gt;=$F94,AN$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AO94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AO$5&gt;=$F94,AO$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AO$5&gt;=$F94,AO$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AP94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AP$5&gt;=$F94,AP$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AP$5&gt;=$F94,AP$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AQ94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AQ$5&gt;=$F94,AQ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AQ$5&gt;=$F94,AQ$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AR94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AR$5&gt;=$F94,AR$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AR$5&gt;=$F94,AR$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AS94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AS$5&gt;=$F94,AS$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AS$5&gt;=$F94,AS$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AT94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AT$5&gt;=$F94,AT$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AT$5&gt;=$F94,AT$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AU94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AU$5&gt;=$F94,AU$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AU$5&gt;=$F94,AU$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AV94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AV$5&gt;=$F94,AV$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AV$5&gt;=$F94,AV$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AW94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AW$5&gt;=$F94,AW$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AW$5&gt;=$F94,AW$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AX94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AX$5&gt;=$F94,AX$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AY94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AY$5&gt;=$F94,AY$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AY$5&gt;=$F94,AY$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AZ94" s="34">
-        <f ca="1">IF(AND($C94="Goal",AZ$5&gt;=$F94,AZ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",AZ$5&gt;=$F94,AZ$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BA94" s="34">
-        <f ca="1">IF(AND($C94="Goal",BA$5&gt;=$F94,BA$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BA$5&gt;=$F94,BA$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BB94" s="34">
-        <f ca="1">IF(AND($C94="Goal",BB$5&gt;=$F94,BB$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BB$5&gt;=$F94,BB$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BC94" s="34">
-        <f ca="1">IF(AND($C94="Goal",BC$5&gt;=$F94,BC$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BC$5&gt;=$F94,BC$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BD94" s="34">
-        <f ca="1">IF(AND($C94="Goal",BD$5&gt;=$F94,BD$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BD$5&gt;=$F94,BD$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BE94" s="34">
-        <f ca="1">IF(AND($C94="Goal",BE$5&gt;=$F94,BE$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BE$5&gt;=$F94,BE$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BF94" s="34">
-        <f ca="1">IF(AND($C94="Goal",BF$5&gt;=$F94,BF$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BF$5&gt;=$F94,BF$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BG94" s="34">
-        <f ca="1">IF(AND($C94="Goal",BG$5&gt;=$F94,BG$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BG$5&gt;=$F94,BG$5&lt;=$F94+$H94-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="BH94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BH$5&gt;=$F94,BH$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BI$5&gt;=$F94,BI$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BI$5&gt;=$F94,BI$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BJ94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BJ$5&gt;=$F94,BJ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BJ$5&gt;=$F94,BJ$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BK94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BK$5&gt;=$F94,BK$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BK$5&gt;=$F94,BK$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BL94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BL$5&gt;=$F94,BL$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BL$5&gt;=$F94,BL$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BM94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BM$5&gt;=$F94,BM$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BM$5&gt;=$F94,BM$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BN94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BN$5&gt;=$F94,BN$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BN$5&gt;=$F94,BN$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BO94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BO$5&gt;=$F94,BO$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BO$5&gt;=$F94,BO$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BP94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BP$5&gt;=$F94,BP$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BP$5&gt;=$F94,BP$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BQ94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BQ$5&gt;=$F94,BQ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BQ$5&gt;=$F94,BQ$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BR94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BR$5&gt;=$F94,BR$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BS94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BS$5&gt;=$F94,BS$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BS$5&gt;=$F94,BS$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BT94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BT$5&gt;=$F94,BT$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BT$5&gt;=$F94,BT$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BU94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BU$5&gt;=$F94,BU$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BU$5&gt;=$F94,BU$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BV94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BV$5&gt;=$F94,BV$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BV$5&gt;=$F94,BV$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BW94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BW$5&gt;=$F94,BW$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BW$5&gt;=$F94,BW$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BX94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BX$5&gt;=$F94,BX$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BX$5&gt;=$F94,BX$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BY94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BY$5&gt;=$F94,BY$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BY$5&gt;=$F94,BY$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BZ94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",BZ$5&gt;=$F94,BZ$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",BZ$5&gt;=$F94,BZ$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="CA94" s="34" t="str">
-        <f ca="1">IF(AND($C94="Goal",CA$5&gt;=$F94,CA$5&lt;=$F94+$H94-1),2,IF(AND($C94="Milestone",CA$5&gt;=$F94,CA$5&lt;=$F94+$H94-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="34"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="34"/>
+      <c r="S94" s="34"/>
+      <c r="T94" s="34"/>
+      <c r="U94" s="34"/>
+      <c r="V94" s="34"/>
+      <c r="W94" s="34"/>
+      <c r="X94" s="34"/>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="34"/>
+      <c r="AA94" s="34"/>
+      <c r="AB94" s="34"/>
+      <c r="AC94" s="34"/>
+      <c r="AD94" s="34"/>
+      <c r="AE94" s="34"/>
+      <c r="AF94" s="34"/>
+      <c r="AG94" s="34"/>
+      <c r="AH94" s="34"/>
+      <c r="AI94" s="34"/>
+      <c r="AJ94" s="34"/>
+      <c r="AK94" s="34"/>
+      <c r="AL94" s="34"/>
+      <c r="AM94" s="34"/>
+      <c r="AN94" s="34"/>
+      <c r="AO94" s="34"/>
+      <c r="AP94" s="34"/>
+      <c r="AQ94" s="34"/>
+      <c r="AR94" s="34"/>
+      <c r="AS94" s="34"/>
+      <c r="AT94" s="34"/>
+      <c r="AU94" s="34"/>
+      <c r="AV94" s="34"/>
+      <c r="AW94" s="34"/>
+      <c r="AX94" s="34"/>
+      <c r="AY94" s="34"/>
+      <c r="AZ94" s="34"/>
+      <c r="BA94" s="34"/>
+      <c r="BB94" s="34"/>
+      <c r="BC94" s="34"/>
+      <c r="BD94" s="34"/>
+      <c r="BE94" s="34"/>
+      <c r="BF94" s="34"/>
+      <c r="BG94" s="34"/>
+      <c r="BH94" s="34"/>
+      <c r="BI94" s="34"/>
+      <c r="BJ94" s="34"/>
+      <c r="BK94" s="34"/>
+      <c r="BL94" s="34"/>
+      <c r="BM94" s="34"/>
+      <c r="BN94" s="34"/>
+      <c r="BO94" s="34"/>
+      <c r="BP94" s="34"/>
+      <c r="BQ94" s="34"/>
+      <c r="BR94" s="34"/>
+      <c r="BS94" s="34"/>
+      <c r="BT94" s="34"/>
+      <c r="BU94" s="34"/>
+      <c r="BV94" s="34"/>
+      <c r="BW94" s="34"/>
+      <c r="BX94" s="34"/>
+      <c r="BY94" s="34"/>
+      <c r="BZ94" s="34"/>
+      <c r="CA94" s="34"/>
     </row>
     <row r="95" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="48" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E95" s="29">
         <v>1</v>
       </c>
       <c r="F95" s="57">
-        <v>44251</v>
+        <v>44146</v>
       </c>
       <c r="G95" s="57">
-        <v>44264</v>
+        <v>44166</v>
       </c>
       <c r="H95" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I95" s="25"/>
       <c r="J95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",J$5&gt;=$F95,J$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",J$5&gt;=$F95,J$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ref="J95:S101" ca="1" si="60">IF(AND($C95="Goal",J$5&gt;=$F95,J$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",J$5&gt;=$F95,J$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="K95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",K$5&gt;=$F95,K$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",K$5&gt;=$F95,K$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",L$5&gt;=$F95,L$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",L$5&gt;=$F95,L$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",M$5&gt;=$F95,M$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",M$5&gt;=$F95,M$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",N$5&gt;=$F95,N$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",N$5&gt;=$F95,N$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",O$5&gt;=$F95,O$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",O$5&gt;=$F95,O$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",P$5&gt;=$F95,P$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",P$5&gt;=$F95,P$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",Q$5&gt;=$F95,Q$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",Q$5&gt;=$F95,Q$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",R$5&gt;=$F95,R$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",R$5&gt;=$F95,R$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",S$5&gt;=$F95,S$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",S$5&gt;=$F95,S$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",T$5&gt;=$F95,T$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",T$5&gt;=$F95,T$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ref="T95:AC101" ca="1" si="61">IF(AND($C95="Goal",T$5&gt;=$F95,T$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",T$5&gt;=$F95,T$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="U95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",U$5&gt;=$F95,U$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",U$5&gt;=$F95,U$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",V$5&gt;=$F95,V$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",V$5&gt;=$F95,V$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",W$5&gt;=$F95,W$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",W$5&gt;=$F95,W$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",X$5&gt;=$F95,X$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",X$5&gt;=$F95,X$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",Y$5&gt;=$F95,Y$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",Y$5&gt;=$F95,Y$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",Z$5&gt;=$F95,Z$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",Z$5&gt;=$F95,Z$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AA$5&gt;=$F95,AA$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AA$5&gt;=$F95,AA$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AB$5&gt;=$F95,AB$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AB$5&gt;=$F95,AB$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AC$5&gt;=$F95,AC$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AC$5&gt;=$F95,AC$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AD$5&gt;=$F95,AD$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AD$5&gt;=$F95,AD$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ref="AD95:AM101" ca="1" si="62">IF(AND($C95="Goal",AD$5&gt;=$F95,AD$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AD$5&gt;=$F95,AD$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="AE95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AE$5&gt;=$F95,AE$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AE$5&gt;=$F95,AE$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AF$5&gt;=$F95,AF$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AF$5&gt;=$F95,AF$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AG$5&gt;=$F95,AG$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AG$5&gt;=$F95,AG$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AH$5&gt;=$F95,AH$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AH$5&gt;=$F95,AH$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AI$5&gt;=$F95,AI$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AI$5&gt;=$F95,AI$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AJ$5&gt;=$F95,AJ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AJ$5&gt;=$F95,AJ$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AK$5&gt;=$F95,AK$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AK$5&gt;=$F95,AK$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AL$5&gt;=$F95,AL$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AL$5&gt;=$F95,AL$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AM95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AM$5&gt;=$F95,AM$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AM$5&gt;=$F95,AM$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AN95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AN$5&gt;=$F95,AN$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AN$5&gt;=$F95,AN$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AO95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AO$5&gt;=$F95,AO$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AO$5&gt;=$F95,AO$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AP$5&gt;=$F95,AP$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AP$5&gt;=$F95,AP$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AQ$5&gt;=$F95,AQ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AQ$5&gt;=$F95,AQ$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AR95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AR$5&gt;=$F95,AR$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AR$5&gt;=$F95,AR$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AS95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AS$5&gt;=$F95,AS$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AS$5&gt;=$F95,AS$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AT95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AT$5&gt;=$F95,AT$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AT$5&gt;=$F95,AT$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AU95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AU$5&gt;=$F95,AU$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AU$5&gt;=$F95,AU$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AV95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AV$5&gt;=$F95,AV$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AV$5&gt;=$F95,AV$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AW95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AW$5&gt;=$F95,AW$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AW$5&gt;=$F95,AW$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AX$5&gt;=$F95,AX$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AX$5&gt;=$F95,AX$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AY$5&gt;=$F95,AY$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AY$5&gt;=$F95,AY$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AZ95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",AZ$5&gt;=$F95,AZ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AZ$5&gt;=$F95,AZ$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BA95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BA$5&gt;=$F95,BA$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BA$5&gt;=$F95,BA$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BB95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BB$5&gt;=$F95,BB$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BB$5&gt;=$F95,BB$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BC95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BC$5&gt;=$F95,BC$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BC$5&gt;=$F95,BC$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BD95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BD$5&gt;=$F95,BD$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BD$5&gt;=$F95,BD$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BE$5&gt;=$F95,BE$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BE$5&gt;=$F95,BE$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BF95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BF$5&gt;=$F95,BF$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BF$5&gt;=$F95,BF$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BG95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BG$5&gt;=$F95,BG$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BG$5&gt;=$F95,BG$5&lt;=$F95+$H95-1),1,""))</f>
-        <v/>
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AM95" s="34">
+        <f t="shared" ca="1" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="AN95" s="34">
+        <f t="shared" ref="AN95:AW101" ca="1" si="63">IF(AND($C95="Goal",AN$5&gt;=$F95,AN$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AN$5&gt;=$F95,AN$5&lt;=$F95+$H95-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AO95" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AP95" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AQ95" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AR95" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AS95" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AT95" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AU95" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AV95" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AW95" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AX95" s="34">
+        <f t="shared" ref="AX95:BG101" ca="1" si="64">IF(AND($C95="Goal",AX$5&gt;=$F95,AX$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AX$5&gt;=$F95,AX$5&lt;=$F95+$H95-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AY95" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="AZ95" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BA95" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BB95" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BC95" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BD95" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BE95" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BF95" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BG95" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
       </c>
       <c r="BH95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BH$5&gt;=$F95,BH$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BH$5&gt;=$F95,BH$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ref="BH95:BQ101" ca="1" si="65">IF(AND($C95="Goal",BH$5&gt;=$F95,BH$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BH$5&gt;=$F95,BH$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BI95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BI$5&gt;=$F95,BI$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BI$5&gt;=$F95,BI$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BJ$5&gt;=$F95,BJ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BJ$5&gt;=$F95,BJ$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BK$5&gt;=$F95,BK$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BK$5&gt;=$F95,BK$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BL$5&gt;=$F95,BL$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BL$5&gt;=$F95,BL$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BM$5&gt;=$F95,BM$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BM$5&gt;=$F95,BM$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BN$5&gt;=$F95,BN$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BN$5&gt;=$F95,BN$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BO$5&gt;=$F95,BO$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BO$5&gt;=$F95,BO$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BP$5&gt;=$F95,BP$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BP$5&gt;=$F95,BP$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BQ$5&gt;=$F95,BQ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BQ$5&gt;=$F95,BQ$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BR$5&gt;=$F95,BR$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BR$5&gt;=$F95,BR$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ref="BR95:CA101" ca="1" si="66">IF(AND($C95="Goal",BR$5&gt;=$F95,BR$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BR$5&gt;=$F95,BR$5&lt;=$F95+$H95-1),1,""))</f>
         <v/>
       </c>
       <c r="BS95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BS$5&gt;=$F95,BS$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BS$5&gt;=$F95,BS$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BT$5&gt;=$F95,BT$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BT$5&gt;=$F95,BT$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BU$5&gt;=$F95,BU$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BU$5&gt;=$F95,BU$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BV$5&gt;=$F95,BV$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BV$5&gt;=$F95,BV$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BW$5&gt;=$F95,BW$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BW$5&gt;=$F95,BW$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BX$5&gt;=$F95,BX$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BX$5&gt;=$F95,BX$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BY$5&gt;=$F95,BY$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BY$5&gt;=$F95,BY$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",BZ$5&gt;=$F95,BZ$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BZ$5&gt;=$F95,BZ$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA95" s="34" t="str">
-        <f ca="1">IF(AND($C95="Goal",CA$5&gt;=$F95,CA$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",CA$5&gt;=$F95,CA$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
-      <c r="B96" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C96" s="66" t="s">
+      <c r="B96" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="66"/>
-      <c r="E96" s="71">
-        <v>0</v>
-      </c>
-      <c r="F96" s="68">
-        <v>44317</v>
-      </c>
-      <c r="G96" s="68">
-        <v>44348</v>
-      </c>
-      <c r="H96" s="69">
+      <c r="D96" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E96" s="29">
+        <v>1</v>
+      </c>
+      <c r="F96" s="57">
+        <v>44251</v>
+      </c>
+      <c r="G96" s="57">
+        <v>44264</v>
+      </c>
+      <c r="H96" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I96" s="25"/>
       <c r="J96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",J$5&gt;=$F96,J$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",J$5&gt;=$F96,J$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",K$5&gt;=$F96,K$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",K$5&gt;=$F96,K$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",L$5&gt;=$F96,L$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",L$5&gt;=$F96,L$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",M$5&gt;=$F96,M$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",M$5&gt;=$F96,M$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",N$5&gt;=$F96,N$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",N$5&gt;=$F96,N$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",O$5&gt;=$F96,O$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",O$5&gt;=$F96,O$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",P$5&gt;=$F96,P$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",P$5&gt;=$F96,P$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",Q$5&gt;=$F96,Q$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",Q$5&gt;=$F96,Q$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",R$5&gt;=$F96,R$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",R$5&gt;=$F96,R$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",S$5&gt;=$F96,S$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",S$5&gt;=$F96,S$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",T$5&gt;=$F96,T$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",T$5&gt;=$F96,T$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",U$5&gt;=$F96,U$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",U$5&gt;=$F96,U$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",V$5&gt;=$F96,V$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",V$5&gt;=$F96,V$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",W$5&gt;=$F96,W$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",W$5&gt;=$F96,W$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",X$5&gt;=$F96,X$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",X$5&gt;=$F96,X$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",Y$5&gt;=$F96,Y$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",Y$5&gt;=$F96,Y$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",Z$5&gt;=$F96,Z$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",Z$5&gt;=$F96,Z$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AA$5&gt;=$F96,AA$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AA$5&gt;=$F96,AA$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AB$5&gt;=$F96,AB$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AB$5&gt;=$F96,AB$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AC$5&gt;=$F96,AC$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AC$5&gt;=$F96,AC$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AD$5&gt;=$F96,AD$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AD$5&gt;=$F96,AD$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AE$5&gt;=$F96,AE$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AE$5&gt;=$F96,AE$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AF$5&gt;=$F96,AF$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AF$5&gt;=$F96,AF$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AG$5&gt;=$F96,AG$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AG$5&gt;=$F96,AG$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AH$5&gt;=$F96,AH$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AH$5&gt;=$F96,AH$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AI$5&gt;=$F96,AI$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AI$5&gt;=$F96,AI$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AJ$5&gt;=$F96,AJ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AJ$5&gt;=$F96,AJ$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AK$5&gt;=$F96,AK$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AK$5&gt;=$F96,AK$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AL$5&gt;=$F96,AL$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AL$5&gt;=$F96,AL$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AM$5&gt;=$F96,AM$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AM$5&gt;=$F96,AM$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AN$5&gt;=$F96,AN$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AN$5&gt;=$F96,AN$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AO$5&gt;=$F96,AO$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AO$5&gt;=$F96,AO$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AP$5&gt;=$F96,AP$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AP$5&gt;=$F96,AP$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AQ$5&gt;=$F96,AQ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AQ$5&gt;=$F96,AQ$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AR$5&gt;=$F96,AR$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AR$5&gt;=$F96,AR$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AS$5&gt;=$F96,AS$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AS$5&gt;=$F96,AS$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AT$5&gt;=$F96,AT$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AT$5&gt;=$F96,AT$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AU$5&gt;=$F96,AU$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AU$5&gt;=$F96,AU$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AV$5&gt;=$F96,AV$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AV$5&gt;=$F96,AV$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AW$5&gt;=$F96,AW$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AW$5&gt;=$F96,AW$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AX$5&gt;=$F96,AX$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AX$5&gt;=$F96,AX$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AY$5&gt;=$F96,AY$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AY$5&gt;=$F96,AY$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",AZ$5&gt;=$F96,AZ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",AZ$5&gt;=$F96,AZ$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BA$5&gt;=$F96,BA$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BA$5&gt;=$F96,BA$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BB$5&gt;=$F96,BB$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BB$5&gt;=$F96,BB$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BC$5&gt;=$F96,BC$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BC$5&gt;=$F96,BC$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BD$5&gt;=$F96,BD$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BD$5&gt;=$F96,BD$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BE$5&gt;=$F96,BE$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BE$5&gt;=$F96,BE$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BF$5&gt;=$F96,BF$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BF$5&gt;=$F96,BF$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BG$5&gt;=$F96,BG$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BG$5&gt;=$F96,BG$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BH$5&gt;=$F96,BH$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BH$5&gt;=$F96,BH$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BI$5&gt;=$F96,BI$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BI$5&gt;=$F96,BI$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BJ$5&gt;=$F96,BJ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BJ$5&gt;=$F96,BJ$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BK$5&gt;=$F96,BK$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BK$5&gt;=$F96,BK$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BL$5&gt;=$F96,BL$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BL$5&gt;=$F96,BL$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BM$5&gt;=$F96,BM$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BM$5&gt;=$F96,BM$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BN$5&gt;=$F96,BN$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BN$5&gt;=$F96,BN$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BO$5&gt;=$F96,BO$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BO$5&gt;=$F96,BO$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BP$5&gt;=$F96,BP$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BP$5&gt;=$F96,BP$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BQ$5&gt;=$F96,BQ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BQ$5&gt;=$F96,BQ$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BR$5&gt;=$F96,BR$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BR$5&gt;=$F96,BR$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BS$5&gt;=$F96,BS$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BS$5&gt;=$F96,BS$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BT$5&gt;=$F96,BT$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BT$5&gt;=$F96,BT$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BU$5&gt;=$F96,BU$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BU$5&gt;=$F96,BU$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BV$5&gt;=$F96,BV$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BV$5&gt;=$F96,BV$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BW$5&gt;=$F96,BW$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BW$5&gt;=$F96,BW$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BX$5&gt;=$F96,BX$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BX$5&gt;=$F96,BX$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BY$5&gt;=$F96,BY$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BY$5&gt;=$F96,BY$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",BZ$5&gt;=$F96,BZ$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",BZ$5&gt;=$F96,BZ$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA96" s="34" t="str">
-        <f ca="1">IF(AND($C96="Goal",CA$5&gt;=$F96,CA$5&lt;=$F96+$H96-1),2,IF(AND($C96="Milestone",CA$5&gt;=$F96,CA$5&lt;=$F96+$H96-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
-      <c r="B97" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="31"/>
+      <c r="B97" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E97" s="71">
+        <v>0</v>
+      </c>
+      <c r="F97" s="68">
+        <v>44321</v>
+      </c>
+      <c r="G97" s="68">
+        <v>44334</v>
+      </c>
+      <c r="H97" s="69">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>14</v>
+      </c>
       <c r="I97" s="25"/>
       <c r="J97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",J$5&gt;=$F97,J$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",J$5&gt;=$F97,J$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",K$5&gt;=$F97,K$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",K$5&gt;=$F97,K$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",L$5&gt;=$F97,L$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",L$5&gt;=$F97,L$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",M$5&gt;=$F97,M$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",M$5&gt;=$F97,M$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",N$5&gt;=$F97,N$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",N$5&gt;=$F97,N$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",O$5&gt;=$F97,O$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",O$5&gt;=$F97,O$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",P$5&gt;=$F97,P$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",P$5&gt;=$F97,P$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",Q$5&gt;=$F97,Q$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",Q$5&gt;=$F97,Q$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",R$5&gt;=$F97,R$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",R$5&gt;=$F97,R$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",S$5&gt;=$F97,S$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",S$5&gt;=$F97,S$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",T$5&gt;=$F97,T$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",T$5&gt;=$F97,T$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",U$5&gt;=$F97,U$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",U$5&gt;=$F97,U$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",V$5&gt;=$F97,V$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",V$5&gt;=$F97,V$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",W$5&gt;=$F97,W$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",W$5&gt;=$F97,W$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",X$5&gt;=$F97,X$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",X$5&gt;=$F97,X$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",Y$5&gt;=$F97,Y$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",Y$5&gt;=$F97,Y$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",Z$5&gt;=$F97,Z$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",Z$5&gt;=$F97,Z$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AA$5&gt;=$F97,AA$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AA$5&gt;=$F97,AA$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AB$5&gt;=$F97,AB$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AB$5&gt;=$F97,AB$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AC$5&gt;=$F97,AC$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AC$5&gt;=$F97,AC$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AD$5&gt;=$F97,AD$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AD$5&gt;=$F97,AD$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AE$5&gt;=$F97,AE$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AE$5&gt;=$F97,AE$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AF$5&gt;=$F97,AF$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AF$5&gt;=$F97,AF$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AG$5&gt;=$F97,AG$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AG$5&gt;=$F97,AG$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AH$5&gt;=$F97,AH$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AH$5&gt;=$F97,AH$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AI$5&gt;=$F97,AI$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AI$5&gt;=$F97,AI$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AJ$5&gt;=$F97,AJ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AJ$5&gt;=$F97,AJ$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AK$5&gt;=$F97,AK$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AK$5&gt;=$F97,AK$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AL$5&gt;=$F97,AL$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AL$5&gt;=$F97,AL$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AM$5&gt;=$F97,AM$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AM$5&gt;=$F97,AM$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AN$5&gt;=$F97,AN$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AN$5&gt;=$F97,AN$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AO$5&gt;=$F97,AO$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AO$5&gt;=$F97,AO$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AP$5&gt;=$F97,AP$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AP$5&gt;=$F97,AP$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AQ$5&gt;=$F97,AQ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AQ$5&gt;=$F97,AQ$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AR$5&gt;=$F97,AR$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AR$5&gt;=$F97,AR$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AS$5&gt;=$F97,AS$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AS$5&gt;=$F97,AS$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AT$5&gt;=$F97,AT$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AT$5&gt;=$F97,AT$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AU$5&gt;=$F97,AU$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AU$5&gt;=$F97,AU$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AV$5&gt;=$F97,AV$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AV$5&gt;=$F97,AV$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AW$5&gt;=$F97,AW$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AW$5&gt;=$F97,AW$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AX$5&gt;=$F97,AX$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AX$5&gt;=$F97,AX$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AY$5&gt;=$F97,AY$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AY$5&gt;=$F97,AY$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",AZ$5&gt;=$F97,AZ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",AZ$5&gt;=$F97,AZ$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BA$5&gt;=$F97,BA$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BA$5&gt;=$F97,BA$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BB$5&gt;=$F97,BB$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BB$5&gt;=$F97,BB$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BC$5&gt;=$F97,BC$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BC$5&gt;=$F97,BC$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BD$5&gt;=$F97,BD$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BD$5&gt;=$F97,BD$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BE$5&gt;=$F97,BE$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BE$5&gt;=$F97,BE$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BF$5&gt;=$F97,BF$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BF$5&gt;=$F97,BF$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BG$5&gt;=$F97,BG$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BG$5&gt;=$F97,BG$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BH$5&gt;=$F97,BH$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BH$5&gt;=$F97,BH$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BI$5&gt;=$F97,BI$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BI$5&gt;=$F97,BI$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BJ$5&gt;=$F97,BJ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BJ$5&gt;=$F97,BJ$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BK$5&gt;=$F97,BK$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BK$5&gt;=$F97,BK$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BL$5&gt;=$F97,BL$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BL$5&gt;=$F97,BL$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BM$5&gt;=$F97,BM$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BM$5&gt;=$F97,BM$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BN$5&gt;=$F97,BN$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BN$5&gt;=$F97,BN$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BO$5&gt;=$F97,BO$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BO$5&gt;=$F97,BO$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BP$5&gt;=$F97,BP$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BP$5&gt;=$F97,BP$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BQ$5&gt;=$F97,BQ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BQ$5&gt;=$F97,BQ$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BR$5&gt;=$F97,BR$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BR$5&gt;=$F97,BR$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BS$5&gt;=$F97,BS$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BS$5&gt;=$F97,BS$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BT$5&gt;=$F97,BT$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BT$5&gt;=$F97,BT$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BU$5&gt;=$F97,BU$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BU$5&gt;=$F97,BU$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BV$5&gt;=$F97,BV$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BV$5&gt;=$F97,BV$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BW$5&gt;=$F97,BW$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BW$5&gt;=$F97,BW$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BX$5&gt;=$F97,BX$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BX$5&gt;=$F97,BX$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BY$5&gt;=$F97,BY$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BY$5&gt;=$F97,BY$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",BZ$5&gt;=$F97,BZ$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",BZ$5&gt;=$F97,BZ$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA97" s="34" t="str">
-        <f ca="1">IF(AND($C97="Goal",CA$5&gt;=$F97,CA$5&lt;=$F97+$H97-1),2,IF(AND($C97="Milestone",CA$5&gt;=$F97,CA$5&lt;=$F97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
-      <c r="B98" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="E98" s="29">
-        <v>1</v>
-      </c>
-      <c r="F98" s="57">
-        <v>44117</v>
-      </c>
-      <c r="G98" s="57">
-        <v>44117</v>
-      </c>
-      <c r="H98" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
+      <c r="B98" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="31"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="34">
-        <f ca="1">IF(AND($C98="Goal",J$5&gt;=$F98,J$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",J$5&gt;=$F98,J$5&lt;=$F98+$H98-1),1,""))</f>
-        <v>2</v>
+      <c r="J98" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
       </c>
       <c r="K98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",K$5&gt;=$F98,K$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",K$5&gt;=$F98,K$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",L$5&gt;=$F98,L$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",L$5&gt;=$F98,L$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",M$5&gt;=$F98,M$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",M$5&gt;=$F98,M$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",N$5&gt;=$F98,N$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",N$5&gt;=$F98,N$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",O$5&gt;=$F98,O$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",O$5&gt;=$F98,O$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",P$5&gt;=$F98,P$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",P$5&gt;=$F98,P$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",Q$5&gt;=$F98,Q$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",Q$5&gt;=$F98,Q$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",R$5&gt;=$F98,R$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",R$5&gt;=$F98,R$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",S$5&gt;=$F98,S$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",S$5&gt;=$F98,S$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",T$5&gt;=$F98,T$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",T$5&gt;=$F98,T$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",U$5&gt;=$F98,U$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",U$5&gt;=$F98,U$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",V$5&gt;=$F98,V$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",V$5&gt;=$F98,V$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",W$5&gt;=$F98,W$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",W$5&gt;=$F98,W$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",X$5&gt;=$F98,X$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",X$5&gt;=$F98,X$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",Y$5&gt;=$F98,Y$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",Y$5&gt;=$F98,Y$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",Z$5&gt;=$F98,Z$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",Z$5&gt;=$F98,Z$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AA$5&gt;=$F98,AA$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AA$5&gt;=$F98,AA$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AB$5&gt;=$F98,AB$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AB$5&gt;=$F98,AB$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AC$5&gt;=$F98,AC$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AC$5&gt;=$F98,AC$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AD$5&gt;=$F98,AD$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AD$5&gt;=$F98,AD$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AE$5&gt;=$F98,AE$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AE$5&gt;=$F98,AE$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AF$5&gt;=$F98,AF$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AF$5&gt;=$F98,AF$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AG$5&gt;=$F98,AG$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AG$5&gt;=$F98,AG$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AH$5&gt;=$F98,AH$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AH$5&gt;=$F98,AH$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AI$5&gt;=$F98,AI$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AI$5&gt;=$F98,AI$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AJ$5&gt;=$F98,AJ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AJ$5&gt;=$F98,AJ$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AK$5&gt;=$F98,AK$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AK$5&gt;=$F98,AK$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AL$5&gt;=$F98,AL$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AL$5&gt;=$F98,AL$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AM$5&gt;=$F98,AM$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AM$5&gt;=$F98,AM$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AN$5&gt;=$F98,AN$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AN$5&gt;=$F98,AN$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AO$5&gt;=$F98,AO$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AO$5&gt;=$F98,AO$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AP$5&gt;=$F98,AP$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AP$5&gt;=$F98,AP$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AQ$5&gt;=$F98,AQ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AQ$5&gt;=$F98,AQ$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AR$5&gt;=$F98,AR$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AR$5&gt;=$F98,AR$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AS$5&gt;=$F98,AS$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AS$5&gt;=$F98,AS$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AT$5&gt;=$F98,AT$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AT$5&gt;=$F98,AT$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AU$5&gt;=$F98,AU$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AU$5&gt;=$F98,AU$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AV$5&gt;=$F98,AV$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AV$5&gt;=$F98,AV$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AW$5&gt;=$F98,AW$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AW$5&gt;=$F98,AW$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AX$5&gt;=$F98,AX$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AX$5&gt;=$F98,AX$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AY$5&gt;=$F98,AY$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AY$5&gt;=$F98,AY$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",AZ$5&gt;=$F98,AZ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",AZ$5&gt;=$F98,AZ$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BA$5&gt;=$F98,BA$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BA$5&gt;=$F98,BA$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BB$5&gt;=$F98,BB$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BB$5&gt;=$F98,BB$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BC$5&gt;=$F98,BC$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BC$5&gt;=$F98,BC$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BD$5&gt;=$F98,BD$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BD$5&gt;=$F98,BD$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BE$5&gt;=$F98,BE$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BE$5&gt;=$F98,BE$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BF$5&gt;=$F98,BF$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BF$5&gt;=$F98,BF$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BG$5&gt;=$F98,BG$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BG$5&gt;=$F98,BG$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BH$5&gt;=$F98,BH$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BH$5&gt;=$F98,BH$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BI$5&gt;=$F98,BI$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BI$5&gt;=$F98,BI$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BJ$5&gt;=$F98,BJ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BJ$5&gt;=$F98,BJ$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BK$5&gt;=$F98,BK$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BK$5&gt;=$F98,BK$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BL$5&gt;=$F98,BL$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BL$5&gt;=$F98,BL$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BM$5&gt;=$F98,BM$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BM$5&gt;=$F98,BM$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BN$5&gt;=$F98,BN$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BN$5&gt;=$F98,BN$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BO$5&gt;=$F98,BO$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BO$5&gt;=$F98,BO$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BP$5&gt;=$F98,BP$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BP$5&gt;=$F98,BP$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BQ$5&gt;=$F98,BQ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BQ$5&gt;=$F98,BQ$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BR$5&gt;=$F98,BR$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BR$5&gt;=$F98,BR$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BS$5&gt;=$F98,BS$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BS$5&gt;=$F98,BS$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BT$5&gt;=$F98,BT$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BT$5&gt;=$F98,BT$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BU$5&gt;=$F98,BU$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BU$5&gt;=$F98,BU$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BV$5&gt;=$F98,BV$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BV$5&gt;=$F98,BV$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BW$5&gt;=$F98,BW$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BW$5&gt;=$F98,BW$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BX$5&gt;=$F98,BX$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BX$5&gt;=$F98,BX$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BY$5&gt;=$F98,BY$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BY$5&gt;=$F98,BY$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",BZ$5&gt;=$F98,BZ$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",BZ$5&gt;=$F98,BZ$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA98" s="34" t="str">
-        <f ca="1">IF(AND($C98="Goal",CA$5&gt;=$F98,CA$5&lt;=$F98+$H98-1),2,IF(AND($C98="Milestone",CA$5&gt;=$F98,CA$5&lt;=$F98+$H98-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="31"/>
+      <c r="B99" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="29">
+        <v>1</v>
+      </c>
+      <c r="F99" s="57">
+        <v>44117</v>
+      </c>
+      <c r="G99" s="57">
+        <v>44117</v>
+      </c>
+      <c r="H99" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>1</v>
+      </c>
       <c r="I99" s="25"/>
-      <c r="J99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",J$5&gt;=$F99,J$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",J$5&gt;=$F99,J$5&lt;=$F99+$H99-1),1,""))</f>
-        <v/>
+      <c r="J99" s="34">
+        <f t="shared" ca="1" si="60"/>
+        <v>2</v>
       </c>
       <c r="K99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",K$5&gt;=$F99,K$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",K$5&gt;=$F99,K$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",L$5&gt;=$F99,L$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",L$5&gt;=$F99,L$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",M$5&gt;=$F99,M$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",M$5&gt;=$F99,M$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",N$5&gt;=$F99,N$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",N$5&gt;=$F99,N$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",O$5&gt;=$F99,O$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",O$5&gt;=$F99,O$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",P$5&gt;=$F99,P$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",P$5&gt;=$F99,P$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",Q$5&gt;=$F99,Q$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",Q$5&gt;=$F99,Q$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",R$5&gt;=$F99,R$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",R$5&gt;=$F99,R$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",S$5&gt;=$F99,S$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",S$5&gt;=$F99,S$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",T$5&gt;=$F99,T$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",T$5&gt;=$F99,T$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",U$5&gt;=$F99,U$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",U$5&gt;=$F99,U$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",V$5&gt;=$F99,V$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",V$5&gt;=$F99,V$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",W$5&gt;=$F99,W$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",W$5&gt;=$F99,W$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",X$5&gt;=$F99,X$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",X$5&gt;=$F99,X$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",Y$5&gt;=$F99,Y$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",Y$5&gt;=$F99,Y$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",Z$5&gt;=$F99,Z$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",Z$5&gt;=$F99,Z$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AA$5&gt;=$F99,AA$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AA$5&gt;=$F99,AA$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AB$5&gt;=$F99,AB$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AB$5&gt;=$F99,AB$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AC$5&gt;=$F99,AC$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AC$5&gt;=$F99,AC$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AD$5&gt;=$F99,AD$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AD$5&gt;=$F99,AD$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AE$5&gt;=$F99,AE$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AE$5&gt;=$F99,AE$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AF$5&gt;=$F99,AF$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AF$5&gt;=$F99,AF$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AG$5&gt;=$F99,AG$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AG$5&gt;=$F99,AG$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AH$5&gt;=$F99,AH$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AH$5&gt;=$F99,AH$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AI$5&gt;=$F99,AI$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AI$5&gt;=$F99,AI$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AJ$5&gt;=$F99,AJ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AJ$5&gt;=$F99,AJ$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AK$5&gt;=$F99,AK$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AK$5&gt;=$F99,AK$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AL$5&gt;=$F99,AL$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AL$5&gt;=$F99,AL$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AM$5&gt;=$F99,AM$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AM$5&gt;=$F99,AM$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AN$5&gt;=$F99,AN$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AN$5&gt;=$F99,AN$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AO$5&gt;=$F99,AO$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AO$5&gt;=$F99,AO$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AP$5&gt;=$F99,AP$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AP$5&gt;=$F99,AP$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AQ$5&gt;=$F99,AQ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AQ$5&gt;=$F99,AQ$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AR$5&gt;=$F99,AR$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AR$5&gt;=$F99,AR$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AS$5&gt;=$F99,AS$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AS$5&gt;=$F99,AS$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AT$5&gt;=$F99,AT$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AT$5&gt;=$F99,AT$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AU$5&gt;=$F99,AU$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AU$5&gt;=$F99,AU$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AV$5&gt;=$F99,AV$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AV$5&gt;=$F99,AV$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AW$5&gt;=$F99,AW$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AW$5&gt;=$F99,AW$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AX$5&gt;=$F99,AX$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AX$5&gt;=$F99,AX$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AY$5&gt;=$F99,AY$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AY$5&gt;=$F99,AY$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",AZ$5&gt;=$F99,AZ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",AZ$5&gt;=$F99,AZ$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BA$5&gt;=$F99,BA$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BA$5&gt;=$F99,BA$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BB$5&gt;=$F99,BB$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BB$5&gt;=$F99,BB$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BC$5&gt;=$F99,BC$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BC$5&gt;=$F99,BC$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BD$5&gt;=$F99,BD$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BD$5&gt;=$F99,BD$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BE$5&gt;=$F99,BE$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BE$5&gt;=$F99,BE$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BF$5&gt;=$F99,BF$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BF$5&gt;=$F99,BF$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BG$5&gt;=$F99,BG$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BG$5&gt;=$F99,BG$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BH$5&gt;=$F99,BH$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BH$5&gt;=$F99,BH$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BI$5&gt;=$F99,BI$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BI$5&gt;=$F99,BI$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BJ$5&gt;=$F99,BJ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BJ$5&gt;=$F99,BJ$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BK$5&gt;=$F99,BK$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BK$5&gt;=$F99,BK$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BL$5&gt;=$F99,BL$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BL$5&gt;=$F99,BL$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BM$5&gt;=$F99,BM$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BM$5&gt;=$F99,BM$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BN$5&gt;=$F99,BN$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BN$5&gt;=$F99,BN$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BO$5&gt;=$F99,BO$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BO$5&gt;=$F99,BO$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BP$5&gt;=$F99,BP$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BP$5&gt;=$F99,BP$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BQ$5&gt;=$F99,BQ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BQ$5&gt;=$F99,BQ$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BR$5&gt;=$F99,BR$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BR$5&gt;=$F99,BR$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BS$5&gt;=$F99,BS$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BS$5&gt;=$F99,BS$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BT$5&gt;=$F99,BT$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BT$5&gt;=$F99,BT$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BU$5&gt;=$F99,BU$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BU$5&gt;=$F99,BU$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BV$5&gt;=$F99,BV$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BV$5&gt;=$F99,BV$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BW$5&gt;=$F99,BW$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BW$5&gt;=$F99,BW$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BX$5&gt;=$F99,BX$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BX$5&gt;=$F99,BX$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BY$5&gt;=$F99,BY$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BY$5&gt;=$F99,BY$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",BZ$5&gt;=$F99,BZ$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",BZ$5&gt;=$F99,BZ$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA99" s="34" t="str">
-        <f ca="1">IF(AND($C99="Goal",CA$5&gt;=$F99,CA$5&lt;=$F99+$H99-1),2,IF(AND($C99="Milestone",CA$5&gt;=$F99,CA$5&lt;=$F99+$H99-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="30"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="60"/>
       <c r="G100" s="30"/>
       <c r="H100" s="31"/>
       <c r="I100" s="25"/>
       <c r="J100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",J$5&gt;=$F100,J$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",J$5&gt;=$F100,J$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",K$5&gt;=$F100,K$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",K$5&gt;=$F100,K$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",L$5&gt;=$F100,L$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",L$5&gt;=$F100,L$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",M$5&gt;=$F100,M$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",M$5&gt;=$F100,M$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",N$5&gt;=$F100,N$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",N$5&gt;=$F100,N$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",O$5&gt;=$F100,O$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",O$5&gt;=$F100,O$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",P$5&gt;=$F100,P$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",P$5&gt;=$F100,P$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",Q$5&gt;=$F100,Q$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",Q$5&gt;=$F100,Q$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",R$5&gt;=$F100,R$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",R$5&gt;=$F100,R$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",S$5&gt;=$F100,S$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",S$5&gt;=$F100,S$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",T$5&gt;=$F100,T$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",T$5&gt;=$F100,T$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",U$5&gt;=$F100,U$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",U$5&gt;=$F100,U$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",V$5&gt;=$F100,V$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",V$5&gt;=$F100,V$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",W$5&gt;=$F100,W$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",W$5&gt;=$F100,W$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",X$5&gt;=$F100,X$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",X$5&gt;=$F100,X$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",Y$5&gt;=$F100,Y$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",Y$5&gt;=$F100,Y$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",Z$5&gt;=$F100,Z$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",Z$5&gt;=$F100,Z$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AA$5&gt;=$F100,AA$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AA$5&gt;=$F100,AA$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AB$5&gt;=$F100,AB$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AB$5&gt;=$F100,AB$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AC$5&gt;=$F100,AC$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AC$5&gt;=$F100,AC$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AD$5&gt;=$F100,AD$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AD$5&gt;=$F100,AD$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AE$5&gt;=$F100,AE$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AE$5&gt;=$F100,AE$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AF$5&gt;=$F100,AF$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AF$5&gt;=$F100,AF$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AG$5&gt;=$F100,AG$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AG$5&gt;=$F100,AG$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AH$5&gt;=$F100,AH$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AH$5&gt;=$F100,AH$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AI$5&gt;=$F100,AI$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AI$5&gt;=$F100,AI$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AJ$5&gt;=$F100,AJ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AJ$5&gt;=$F100,AJ$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AK$5&gt;=$F100,AK$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AK$5&gt;=$F100,AK$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AL$5&gt;=$F100,AL$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AL$5&gt;=$F100,AL$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AM$5&gt;=$F100,AM$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AM$5&gt;=$F100,AM$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AN$5&gt;=$F100,AN$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AN$5&gt;=$F100,AN$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AO$5&gt;=$F100,AO$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AO$5&gt;=$F100,AO$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AP$5&gt;=$F100,AP$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AP$5&gt;=$F100,AP$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AQ$5&gt;=$F100,AQ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AQ$5&gt;=$F100,AQ$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AR$5&gt;=$F100,AR$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AR$5&gt;=$F100,AR$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AS$5&gt;=$F100,AS$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AS$5&gt;=$F100,AS$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AT$5&gt;=$F100,AT$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AT$5&gt;=$F100,AT$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AU$5&gt;=$F100,AU$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AU$5&gt;=$F100,AU$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AV$5&gt;=$F100,AV$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AV$5&gt;=$F100,AV$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AW$5&gt;=$F100,AW$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AW$5&gt;=$F100,AW$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AX$5&gt;=$F100,AX$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AX$5&gt;=$F100,AX$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AY$5&gt;=$F100,AY$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AY$5&gt;=$F100,AY$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",AZ$5&gt;=$F100,AZ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",AZ$5&gt;=$F100,AZ$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BA$5&gt;=$F100,BA$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BA$5&gt;=$F100,BA$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BB$5&gt;=$F100,BB$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BB$5&gt;=$F100,BB$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BC$5&gt;=$F100,BC$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BC$5&gt;=$F100,BC$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BD$5&gt;=$F100,BD$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BD$5&gt;=$F100,BD$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BE$5&gt;=$F100,BE$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BE$5&gt;=$F100,BE$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BF$5&gt;=$F100,BF$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BF$5&gt;=$F100,BF$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BG$5&gt;=$F100,BG$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BG$5&gt;=$F100,BG$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BH$5&gt;=$F100,BH$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BH$5&gt;=$F100,BH$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BI$5&gt;=$F100,BI$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BI$5&gt;=$F100,BI$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BJ$5&gt;=$F100,BJ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BJ$5&gt;=$F100,BJ$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BK$5&gt;=$F100,BK$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BK$5&gt;=$F100,BK$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BL$5&gt;=$F100,BL$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BL$5&gt;=$F100,BL$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BM$5&gt;=$F100,BM$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BM$5&gt;=$F100,BM$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BN$5&gt;=$F100,BN$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BN$5&gt;=$F100,BN$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BO$5&gt;=$F100,BO$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BO$5&gt;=$F100,BO$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BP$5&gt;=$F100,BP$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BP$5&gt;=$F100,BP$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BQ$5&gt;=$F100,BQ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BQ$5&gt;=$F100,BQ$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BR$5&gt;=$F100,BR$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BR$5&gt;=$F100,BR$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BS$5&gt;=$F100,BS$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BS$5&gt;=$F100,BS$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BT$5&gt;=$F100,BT$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BT$5&gt;=$F100,BT$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BU$5&gt;=$F100,BU$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BU$5&gt;=$F100,BU$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BV$5&gt;=$F100,BV$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BV$5&gt;=$F100,BV$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BW$5&gt;=$F100,BW$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BW$5&gt;=$F100,BW$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BX$5&gt;=$F100,BX$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BX$5&gt;=$F100,BX$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BY$5&gt;=$F100,BY$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BY$5&gt;=$F100,BY$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",BZ$5&gt;=$F100,BZ$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",BZ$5&gt;=$F100,BZ$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA100" s="34" t="str">
-        <f ca="1">IF(AND($C100="Goal",CA$5&gt;=$F100,CA$5&lt;=$F100+$H100-1),2,IF(AND($C100="Milestone",CA$5&gt;=$F100,CA$5&lt;=$F100+$H100-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="5"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="4"/>
+    <row r="101" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="36"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="K101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="L101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="M101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="N101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="O101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="P101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="Q101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="R101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="S101" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="T101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="U101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="V101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="W101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="X101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Y101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Z101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AA101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AB101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AC101" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AD101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AE101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AF101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AG101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AH101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AI101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AJ101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AK101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AL101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AM101" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AN101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AO101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AP101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AQ101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AR101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AS101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AT101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AU101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AV101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AW101" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AX101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AY101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AZ101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BA101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BB101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BC101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BD101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BE101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BF101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BG101" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BH101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BI101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BJ101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BK101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BL101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BM101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BN101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BO101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BP101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BQ101" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BR101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BS101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BT101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BU101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BV101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BW101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BX101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BY101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BZ101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="CA101" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
     </row>
     <row r="102" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="6"/>
+      <c r="D102" s="5"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="6"/>
+    </row>
     <row r="104" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17300,6 +17639,7 @@
     <row r="191" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="192" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="193" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AE2:AJ2"/>
@@ -17312,8 +17652,8 @@
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="X2:AC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E11 E17 E13 E92:E93 E100 E33 E97 E15 E47:E83">
-    <cfRule type="dataBar" priority="351">
+  <conditionalFormatting sqref="E7:E11 E17 E13 E93:E94 E101 E33 E98 E15 E47:E87">
+    <cfRule type="dataBar" priority="369">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17326,45 +17666,45 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J92:BZ93 J26:BZ33 J21:BZ24 J39:BZ83">
-    <cfRule type="expression" dxfId="42" priority="344">
+  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J93:BZ94 J26:BZ33 J21:BZ24 J39:BZ87">
+    <cfRule type="expression" dxfId="44" priority="362">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="41" priority="350">
+    <cfRule type="expression" dxfId="43" priority="368">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="40" priority="346">
+    <cfRule type="expression" dxfId="42" priority="364">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="39" priority="345">
+    <cfRule type="expression" dxfId="41" priority="363">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:CA11 J13:CA67 J76:CA100">
-    <cfRule type="expression" dxfId="38" priority="367" stopIfTrue="1">
+  <conditionalFormatting sqref="J8:CA11 J13:CA67 J76:CA101">
+    <cfRule type="expression" dxfId="40" priority="385" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="404" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="422" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="423" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="424" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="dataBar" priority="320">
+  <conditionalFormatting sqref="E93">
+    <cfRule type="dataBar" priority="338">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17377,8 +17717,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="dataBar" priority="312">
+  <conditionalFormatting sqref="E98">
+    <cfRule type="dataBar" priority="330">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17392,7 +17732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="dataBar" priority="288">
+    <cfRule type="dataBar" priority="306">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17405,13 +17745,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA23:CA24 CA92:CA93 CA33">
-    <cfRule type="expression" dxfId="33" priority="465">
+  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA23:CA24 CA93:CA94 CA33">
+    <cfRule type="expression" dxfId="35" priority="483">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="dataBar" priority="255">
+    <cfRule type="dataBar" priority="273">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17425,17 +17765,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="32" priority="254">
+    <cfRule type="expression" dxfId="34" priority="272">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA83">
-    <cfRule type="expression" dxfId="31" priority="261">
+  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA87">
+    <cfRule type="expression" dxfId="33" priority="279">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="dataBar" priority="246">
+    <cfRule type="dataBar" priority="264">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17449,7 +17789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="dataBar" priority="244">
+    <cfRule type="dataBar" priority="262">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17463,7 +17803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="dataBar" priority="236">
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17477,34 +17817,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="30" priority="235">
+    <cfRule type="expression" dxfId="32" priority="253">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="29" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="255" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="256" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="257" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="258" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="259" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="24" priority="242">
+    <cfRule type="expression" dxfId="26" priority="260">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="dataBar" priority="234">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="dataBar" priority="252">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17518,17 +17858,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="23" priority="226">
+    <cfRule type="expression" dxfId="25" priority="244">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="22" priority="232">
+    <cfRule type="expression" dxfId="24" priority="250">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="dataBar" priority="225">
+    <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17541,18 +17881,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J84:BZ84">
-    <cfRule type="expression" dxfId="21" priority="197">
+  <conditionalFormatting sqref="J88:BZ88">
+    <cfRule type="expression" dxfId="23" priority="215">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA84">
-    <cfRule type="expression" dxfId="20" priority="198">
+  <conditionalFormatting sqref="CA88">
+    <cfRule type="expression" dxfId="22" priority="216">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="dataBar" priority="196">
+  <conditionalFormatting sqref="E88">
+    <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17566,57 +17906,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="19" priority="143">
+    <cfRule type="expression" dxfId="21" priority="161">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="18" priority="144">
+    <cfRule type="expression" dxfId="20" priority="162">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="17" priority="120">
+    <cfRule type="expression" dxfId="19" priority="138">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="16" priority="119">
+    <cfRule type="expression" dxfId="18" priority="137">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J85:BZ91">
-    <cfRule type="expression" dxfId="15" priority="80">
+  <conditionalFormatting sqref="J90:BZ92">
+    <cfRule type="expression" dxfId="17" priority="98">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA85:CA91">
-    <cfRule type="expression" dxfId="14" priority="79">
+  <conditionalFormatting sqref="CA90:CA92">
+    <cfRule type="expression" dxfId="16" priority="97">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J94:BZ100">
-    <cfRule type="expression" dxfId="13" priority="72">
+  <conditionalFormatting sqref="J95:BZ101">
+    <cfRule type="expression" dxfId="15" priority="90">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA94:CA100">
-    <cfRule type="expression" dxfId="12" priority="71">
+  <conditionalFormatting sqref="CA95:CA101">
+    <cfRule type="expression" dxfId="14" priority="89">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="11" priority="41">
+    <cfRule type="expression" dxfId="13" priority="59">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA18:CA20">
-    <cfRule type="expression" dxfId="10" priority="42">
+    <cfRule type="expression" dxfId="12" priority="60">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E32">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17629,8 +17969,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="E99">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17643,8 +17983,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94:E96">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="E95:E97">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17658,7 +17998,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E37">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17672,7 +18012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17686,7 +18026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E46">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17700,50 +18040,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:CA71">
-    <cfRule type="expression" dxfId="9" priority="875" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="893" stopIfTrue="1">
       <formula>AND($C72="Low",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="876" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="894" stopIfTrue="1">
       <formula>AND($C72="High",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="877" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="895" stopIfTrue="1">
       <formula>AND($C72="On Track",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="878" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="896" stopIfTrue="1">
       <formula>AND($C72="Med",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="879" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="897" stopIfTrue="1">
       <formula>AND(LEN($C72)=0,J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:CA75">
-    <cfRule type="expression" dxfId="4" priority="892" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="910" stopIfTrue="1">
       <formula>AND($C68="Low",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="893" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="911" stopIfTrue="1">
       <formula>AND($C68="High",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="894" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="912" stopIfTrue="1">
       <formula>AND($C68="On Track",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="895" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="913" stopIfTrue="1">
       <formula>AND($C68="Med",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="896" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="914" stopIfTrue="1">
       <formula>AND(LEN($C68)=0,J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <conditionalFormatting sqref="CA89">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89:BZ89">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E87">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC281499-CEF0-48F9-975F-A9E15B05D39B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9 C12" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
       <formula1>"Goal,Milestone,On Track, Low Priority, Med Priority High Risk, High Priority"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C92:C100" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C93:C101" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C99" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C79 C80:C100" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
       <formula1>"Goal,Milestone,On Track, Low, Med, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17802,7 +18166,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E11 E17 E13 E92:E93 E100 E33 E97 E15 E47:E83</xm:sqref>
+          <xm:sqref>E7:E11 E17 E13 E93:E94 E101 E33 E98 E15 E47:E87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36922C6F-F55A-8F49-86CD-B382086C6C9E}">
@@ -17817,7 +18181,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E92</xm:sqref>
+          <xm:sqref>E93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CFA0F17-6347-3E4A-87FC-DD2694821F83}">
@@ -17832,7 +18196,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E97</xm:sqref>
+          <xm:sqref>E98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2D0729C-0866-8942-B08E-D5C757399A18}">
@@ -17922,7 +18286,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E93</xm:sqref>
+          <xm:sqref>E94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D79EBD87-5F64-3440-B8E6-BE18D3A97878}">
@@ -17952,7 +18316,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E84</xm:sqref>
+          <xm:sqref>E88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{366133D0-FF9F-A54A-B853-B640570739BE}">
@@ -17982,7 +18346,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E98</xm:sqref>
+          <xm:sqref>E99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C1D15CD-08F7-4E4C-AEF0-0399341BEE1B}">
@@ -17997,7 +18361,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E94:E96</xm:sqref>
+          <xm:sqref>E95:E97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70BD8D54-5CD7-4341-8332-FE6663A466EA}">
@@ -18045,7 +18409,7 @@
           <xm:sqref>E39:E46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="485" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
+          <x14:cfRule type="iconSet" priority="503" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18064,7 +18428,7 @@
           <xm:sqref>J24:CA24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="491" id="{B0AA1351-A225-3942-89A5-F80CB96A7148}">
+          <x14:cfRule type="iconSet" priority="509" id="{B0AA1351-A225-3942-89A5-F80CB96A7148}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18080,10 +18444,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J92:CA93</xm:sqref>
+          <xm:sqref>J93:CA94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="505" id="{82FEFA3B-0957-5746-B989-0137642BE052}">
+          <x14:cfRule type="iconSet" priority="523" id="{82FEFA3B-0957-5746-B989-0137642BE052}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18102,7 +18466,7 @@
           <xm:sqref>J33:CA33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="243" id="{480D9390-1284-8F4E-81C3-076195976C87}">
+          <x14:cfRule type="iconSet" priority="261" id="{480D9390-1284-8F4E-81C3-076195976C87}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18121,7 +18485,7 @@
           <xm:sqref>J12:CA12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="224" id="{CBAF9D01-052E-9E4F-80FB-7E0BFADD2A5B}">
+          <x14:cfRule type="iconSet" priority="242" id="{CBAF9D01-052E-9E4F-80FB-7E0BFADD2A5B}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18140,7 +18504,7 @@
           <xm:sqref>J47:CA47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="199" id="{CA248EBF-FA81-2845-83C1-432BD56BCD91}">
+          <x14:cfRule type="iconSet" priority="217" id="{CA248EBF-FA81-2845-83C1-432BD56BCD91}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18156,10 +18520,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J84:CA84</xm:sqref>
+          <xm:sqref>J88:CA88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="145" id="{C3E335A3-845A-8149-8FBF-06975DBEFFEA}">
+          <x14:cfRule type="iconSet" priority="163" id="{C3E335A3-845A-8149-8FBF-06975DBEFFEA}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18178,7 +18542,7 @@
           <xm:sqref>J25:CA25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="657" id="{1330B30D-F36E-3E4A-B43F-867C3A53D852}">
+          <x14:cfRule type="iconSet" priority="675" id="{1330B30D-F36E-3E4A-B43F-867C3A53D852}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18197,7 +18561,7 @@
           <xm:sqref>J26:CA32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="126" id="{F57842D6-BB31-8E45-8661-495D5FB4ED92}">
+          <x14:cfRule type="iconSet" priority="144" id="{F57842D6-BB31-8E45-8661-495D5FB4ED92}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18216,7 +18580,7 @@
           <xm:sqref>J34:CA37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="94" id="{A47E4274-CF1C-0D44-B1B9-E7AA50A018A2}">
+          <x14:cfRule type="iconSet" priority="112" id="{A47E4274-CF1C-0D44-B1B9-E7AA50A018A2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18235,7 +18599,7 @@
           <xm:sqref>J54:CA54 J51:CA51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="86" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
+          <x14:cfRule type="iconSet" priority="96" id="{EE280A5C-AAE2-BA43-A153-612158E3BF59}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18251,29 +18615,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J85:CA91</xm:sqref>
+          <xm:sqref>J95:CA101</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="78" id="{EE280A5C-AAE2-BA43-A153-612158E3BF59}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J94:CA100</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{FAD2EEE5-A059-C248-816C-8DFF237F9CAC}">
+          <x14:cfRule type="iconSet" priority="61" id="{FAD2EEE5-A059-C248-816C-8DFF237F9CAC}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18292,7 +18637,7 @@
           <xm:sqref>J18:CA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="687" id="{E21A14E8-7E31-1341-941E-2AA1E8D36C21}">
+          <x14:cfRule type="iconSet" priority="705" id="{E21A14E8-7E31-1341-941E-2AA1E8D36C21}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18311,7 +18656,7 @@
           <xm:sqref>J21:CA22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="706" id="{18426B84-97F7-A84C-A50B-414C27DFC764}">
+          <x14:cfRule type="iconSet" priority="724" id="{18426B84-97F7-A84C-A50B-414C27DFC764}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18330,7 +18675,7 @@
           <xm:sqref>J39:CA46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="720" id="{445139A2-0E25-9B43-9EF0-2DABE3D5C767}">
+          <x14:cfRule type="iconSet" priority="738" id="{445139A2-0E25-9B43-9EF0-2DABE3D5C767}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18349,7 +18694,7 @@
           <xm:sqref>J38:CA38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="799" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="817" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18368,7 +18713,7 @@
           <xm:sqref>J23:CA23 J8:CA11 J13:CA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="867" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
+          <x14:cfRule type="iconSet" priority="885" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18384,7 +18729,60 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J52:CA53 J55:CA83 J48:CA50</xm:sqref>
+          <xm:sqref>J52:CA53 J55:CA87 J48:CA50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{D1F0323A-13A8-42A6-A917-4F310B1AD20C}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J89:CA89</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="925" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J90:CA92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC281499-CEF0-48F9-975F-A9E15B05D39B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E84:E87</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35727D86-F25F-43B9-A84A-50AD980EC616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8ADE0A-8086-48B2-9C95-04B1B43700FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36213" yWindow="526" windowWidth="11820" windowHeight="11883" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="1340" windowWidth="11820" windowHeight="11883" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1060,6 +1060,39 @@
   <dxfs count="61">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="0"/>
@@ -1916,39 +1949,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2270,12 +2270,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Completion"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="45" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="0" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2555,8 +2555,8 @@
   </sheetPr>
   <dimension ref="A1:CE194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B68" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13816,14 +13816,14 @@
         <v>0</v>
       </c>
       <c r="F84" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G84" s="68">
         <v>44313</v>
       </c>
       <c r="H84" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I84" s="25"/>
       <c r="J84" s="34"/>
@@ -13912,14 +13912,14 @@
         <v>0</v>
       </c>
       <c r="F85" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G85" s="68">
         <v>44313</v>
       </c>
       <c r="H85" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I85" s="25"/>
       <c r="J85" s="34"/>
@@ -14008,14 +14008,14 @@
         <v>0</v>
       </c>
       <c r="F86" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G86" s="68">
         <v>44313</v>
       </c>
       <c r="H86" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I86" s="25"/>
       <c r="J86" s="34"/>
@@ -14104,14 +14104,14 @@
         <v>0</v>
       </c>
       <c r="F87" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G87" s="68">
         <v>44313</v>
       </c>
       <c r="H87" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I87" s="25"/>
       <c r="J87" s="34"/>
@@ -17667,39 +17667,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J93:BZ94 J26:BZ33 J21:BZ24 J39:BZ87">
-    <cfRule type="expression" dxfId="44" priority="362">
+    <cfRule type="expression" dxfId="48" priority="362">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="43" priority="368">
+    <cfRule type="expression" dxfId="47" priority="368">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="42" priority="364">
+    <cfRule type="expression" dxfId="46" priority="364">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="41" priority="363">
+    <cfRule type="expression" dxfId="45" priority="363">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:CA11 J13:CA67 J76:CA101">
-    <cfRule type="expression" dxfId="40" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="385" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="404" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="422" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="423" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="424" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17746,7 +17746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA23:CA24 CA93:CA94 CA33">
-    <cfRule type="expression" dxfId="35" priority="483">
+    <cfRule type="expression" dxfId="39" priority="483">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17765,12 +17765,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="34" priority="272">
+    <cfRule type="expression" dxfId="38" priority="272">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA87">
-    <cfRule type="expression" dxfId="33" priority="279">
+    <cfRule type="expression" dxfId="37" priority="279">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17817,29 +17817,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="32" priority="253">
+    <cfRule type="expression" dxfId="36" priority="253">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="31" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="255" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="256" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="257" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="258" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="259" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="26" priority="260">
+    <cfRule type="expression" dxfId="30" priority="260">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17858,12 +17858,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="25" priority="244">
+    <cfRule type="expression" dxfId="29" priority="244">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="24" priority="250">
+    <cfRule type="expression" dxfId="28" priority="250">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17882,12 +17882,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88:BZ88">
-    <cfRule type="expression" dxfId="23" priority="215">
+    <cfRule type="expression" dxfId="27" priority="215">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA88">
-    <cfRule type="expression" dxfId="22" priority="216">
+    <cfRule type="expression" dxfId="26" priority="216">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17906,52 +17906,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="21" priority="161">
+    <cfRule type="expression" dxfId="25" priority="161">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="20" priority="162">
+    <cfRule type="expression" dxfId="24" priority="162">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="19" priority="138">
+    <cfRule type="expression" dxfId="23" priority="138">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="18" priority="137">
+    <cfRule type="expression" dxfId="22" priority="137">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J90:BZ92">
-    <cfRule type="expression" dxfId="17" priority="98">
+    <cfRule type="expression" dxfId="21" priority="98">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA90:CA92">
-    <cfRule type="expression" dxfId="16" priority="97">
+    <cfRule type="expression" dxfId="20" priority="97">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J95:BZ101">
-    <cfRule type="expression" dxfId="15" priority="90">
+    <cfRule type="expression" dxfId="19" priority="90">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA95:CA101">
-    <cfRule type="expression" dxfId="14" priority="89">
+    <cfRule type="expression" dxfId="18" priority="89">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="13" priority="59">
+    <cfRule type="expression" dxfId="17" priority="59">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA18:CA20">
-    <cfRule type="expression" dxfId="12" priority="60">
+    <cfRule type="expression" dxfId="16" priority="60">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18040,46 +18040,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:CA71">
-    <cfRule type="expression" dxfId="11" priority="893" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="893" stopIfTrue="1">
       <formula>AND($C72="Low",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="894" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="894" stopIfTrue="1">
       <formula>AND($C72="High",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="895" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="895" stopIfTrue="1">
       <formula>AND($C72="On Track",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="896" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="896" stopIfTrue="1">
       <formula>AND($C72="Med",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="897" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="897" stopIfTrue="1">
       <formula>AND(LEN($C72)=0,J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:CA75">
-    <cfRule type="expression" dxfId="6" priority="910" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="910" stopIfTrue="1">
       <formula>AND($C68="Low",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="911" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="911" stopIfTrue="1">
       <formula>AND($C68="High",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="912" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="912" stopIfTrue="1">
       <formula>AND($C68="On Track",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="913" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="913" stopIfTrue="1">
       <formula>AND($C68="Med",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="914" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="914" stopIfTrue="1">
       <formula>AND(LEN($C68)=0,J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA89">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J89:BZ89">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18107,7 +18107,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C93:C101" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C79 C80:C100" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C100" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
       <formula1>"Goal,Milestone,On Track, Low, Med, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18407,6 +18407,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E39:E46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC281499-CEF0-48F9-975F-A9E15B05D39B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E84:E87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="503" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
@@ -18769,21 +18784,6 @@
           </x14:cfRule>
           <xm:sqref>J90:CA92</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC281499-CEF0-48F9-975F-A9E15B05D39B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E84:E87</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8ADE0A-8086-48B2-9C95-04B1B43700FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6656CD3-9186-41AC-819D-6CFAA39F4C46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7125" yWindow="1340" windowWidth="11820" windowHeight="11883" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="119">
   <si>
     <t>About This Template</t>
   </si>
@@ -1060,39 +1060,6 @@
   <dxfs count="61">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color theme="0"/>
@@ -1949,6 +1916,39 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2259,8 +2259,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H101" totalsRowShown="0">
-  <autoFilter ref="B7:H101" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H99" totalsRowShown="0">
+  <autoFilter ref="B7:H99" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2270,12 +2270,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="46"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Completion"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="0" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="45" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2553,10 +2553,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE194"/>
+  <dimension ref="A1:CE192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B68" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13042,8 +13042,8 @@
         <v>30</v>
       </c>
       <c r="E76" s="67">
-        <f>SUM(E77:E79)/3</f>
-        <v>0</v>
+        <f>SUM(E77:E77)</f>
+        <v>1</v>
       </c>
       <c r="F76" s="68">
         <v>44293</v>
@@ -13139,7 +13139,7 @@
         <v>101</v>
       </c>
       <c r="E77" s="67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="68">
         <v>44293</v>
@@ -13225,27 +13225,28 @@
     </row>
     <row r="78" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
-      <c r="B78" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="65" t="s">
-        <v>103</v>
+      <c r="B78" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="66" t="s">
+        <v>30</v>
       </c>
       <c r="E78" s="67">
+        <f>SUM(E79:E81)/3</f>
         <v>0</v>
       </c>
       <c r="F78" s="68">
         <v>44293</v>
       </c>
       <c r="G78" s="68">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="H78" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I78" s="25"/>
       <c r="J78" s="34"/>
@@ -13322,13 +13323,13 @@
     <row r="79" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C79" s="65" t="s">
-        <v>51</v>
+        <v>105</v>
+      </c>
+      <c r="C79" s="66" t="s">
+        <v>50</v>
       </c>
       <c r="D79" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E79" s="67">
         <v>0</v>
@@ -13337,11 +13338,11 @@
         <v>44293</v>
       </c>
       <c r="G79" s="68">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="H79" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I79" s="25"/>
       <c r="J79" s="34"/>
@@ -13417,17 +13418,16 @@
     </row>
     <row r="80" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
-      <c r="B80" s="64" t="s">
-        <v>90</v>
+      <c r="B80" s="70" t="s">
+        <v>107</v>
       </c>
       <c r="C80" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="66" t="s">
-        <v>30</v>
+      <c r="D80" s="65" t="s">
+        <v>103</v>
       </c>
       <c r="E80" s="67">
-        <f>SUM(E81:E83)/3</f>
         <v>0</v>
       </c>
       <c r="F80" s="68">
@@ -13515,13 +13515,13 @@
     <row r="81" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C81" s="66" t="s">
         <v>50</v>
       </c>
       <c r="D81" s="65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E81" s="67">
         <v>0</v>
@@ -13610,23 +13610,24 @@
     </row>
     <row r="82" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
-      <c r="B82" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="66" t="s">
+      <c r="B82" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="65" t="s">
-        <v>103</v>
+      <c r="D82" s="66" t="s">
+        <v>30</v>
       </c>
       <c r="E82" s="67">
+        <f>SUM(E83:E85)/3</f>
         <v>0</v>
       </c>
       <c r="F82" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G82" s="68">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="H82" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
@@ -13707,22 +13708,22 @@
     <row r="83" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C83" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="65" t="s">
         <v>50</v>
       </c>
       <c r="D83" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E83" s="67">
         <v>0</v>
       </c>
       <c r="F83" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G83" s="68">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="H83" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
@@ -13802,17 +13803,16 @@
     </row>
     <row r="84" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
-      <c r="B84" s="64" t="s">
-        <v>118</v>
+      <c r="B84" s="70" t="s">
+        <v>107</v>
       </c>
       <c r="C84" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D84" s="66" t="s">
-        <v>30</v>
+      <c r="D84" s="65" t="s">
+        <v>103</v>
       </c>
       <c r="E84" s="67">
-        <f>SUM(E85:E87)/3</f>
         <v>0</v>
       </c>
       <c r="F84" s="68">
@@ -13900,13 +13900,13 @@
     <row r="85" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C85" s="65" t="s">
         <v>50</v>
       </c>
       <c r="D85" s="65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E85" s="67">
         <v>0</v>
@@ -13995,28 +13995,15 @@
     </row>
     <row r="86" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
-      <c r="B86" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="E86" s="67">
-        <v>0</v>
-      </c>
-      <c r="F86" s="68">
-        <v>44300</v>
-      </c>
-      <c r="G86" s="68">
-        <v>44313</v>
-      </c>
-      <c r="H86" s="69">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
-      </c>
+      <c r="B86" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="53"/>
       <c r="I86" s="25"/>
       <c r="J86" s="34"/>
       <c r="K86" s="34"/>
@@ -14092,14 +14079,12 @@
     <row r="87" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D87" s="65" t="s">
-        <v>102</v>
-      </c>
+      <c r="D87" s="66"/>
       <c r="E87" s="67">
         <v>0</v>
       </c>
@@ -14114,164 +14099,595 @@
         <v>14</v>
       </c>
       <c r="I87" s="25"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="34"/>
-      <c r="X87" s="34"/>
-      <c r="Y87" s="34"/>
-      <c r="Z87" s="34"/>
-      <c r="AA87" s="34"/>
-      <c r="AB87" s="34"/>
-      <c r="AC87" s="34"/>
-      <c r="AD87" s="34"/>
-      <c r="AE87" s="34"/>
-      <c r="AF87" s="34"/>
-      <c r="AG87" s="34"/>
-      <c r="AH87" s="34"/>
-      <c r="AI87" s="34"/>
-      <c r="AJ87" s="34"/>
-      <c r="AK87" s="34"/>
-      <c r="AL87" s="34"/>
-      <c r="AM87" s="34"/>
-      <c r="AN87" s="34"/>
-      <c r="AO87" s="34"/>
-      <c r="AP87" s="34"/>
-      <c r="AQ87" s="34"/>
-      <c r="AR87" s="34"/>
-      <c r="AS87" s="34"/>
-      <c r="AT87" s="34"/>
-      <c r="AU87" s="34"/>
-      <c r="AV87" s="34"/>
-      <c r="AW87" s="34"/>
-      <c r="AX87" s="34"/>
-      <c r="AY87" s="34"/>
-      <c r="AZ87" s="34"/>
-      <c r="BA87" s="34"/>
-      <c r="BB87" s="34"/>
-      <c r="BC87" s="34"/>
-      <c r="BD87" s="34"/>
-      <c r="BE87" s="34"/>
-      <c r="BF87" s="34"/>
-      <c r="BG87" s="34"/>
-      <c r="BH87" s="34"/>
-      <c r="BI87" s="34"/>
-      <c r="BJ87" s="34"/>
-      <c r="BK87" s="34"/>
-      <c r="BL87" s="34"/>
-      <c r="BM87" s="34"/>
-      <c r="BN87" s="34"/>
-      <c r="BO87" s="34"/>
-      <c r="BP87" s="34"/>
-      <c r="BQ87" s="34"/>
-      <c r="BR87" s="34"/>
-      <c r="BS87" s="34"/>
-      <c r="BT87" s="34"/>
-      <c r="BU87" s="34"/>
-      <c r="BV87" s="34"/>
-      <c r="BW87" s="34"/>
-      <c r="BX87" s="34"/>
-      <c r="BY87" s="34"/>
-      <c r="BZ87" s="34"/>
-      <c r="CA87" s="34"/>
+      <c r="J87" s="34" t="str">
+        <f t="shared" ref="J87:AO88" ca="1" si="54">IF(AND($C87="Goal",J$5&gt;=$F87,J$5&lt;=$F87+$H87-1),2,IF(AND($C87="Milestone",J$5&gt;=$F87,J$5&lt;=$F87+$H87-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="L87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="M87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="N87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="O87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="P87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Q87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="R87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="S87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="T87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="U87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="V87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="W87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="X87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Y87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Z87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AA87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AB87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AC87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AD87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AE87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AF87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AG87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AH87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AI87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AJ87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AK87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AL87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AM87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AN87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO87" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP87" s="34" t="str">
+        <f t="shared" ref="AP87:BU88" ca="1" si="55">IF(AND($C87="Goal",AP$5&gt;=$F87,AP$5&lt;=$F87+$H87-1),2,IF(AND($C87="Milestone",AP$5&gt;=$F87,AP$5&lt;=$F87+$H87-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AR87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AS87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AT87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AU87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AV87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AW87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AX87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BI87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BJ87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BK87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BL87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BM87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BN87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BO87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BP87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BQ87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BR87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BS87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BT87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BU87" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BV87" s="34" t="str">
+        <f t="shared" ref="BV87:CA88" ca="1" si="56">IF(AND($C87="Goal",BV$5&gt;=$F87,BV$5&lt;=$F87+$H87-1),2,IF(AND($C87="Milestone",BV$5&gt;=$F87,BV$5&lt;=$F87+$H87-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BW87" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BX87" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BY87" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BZ87" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="CA87" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
     </row>
     <row r="88" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
-      <c r="B88" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="53"/>
+      <c r="B88" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="66"/>
+      <c r="E88" s="67">
+        <v>0</v>
+      </c>
+      <c r="F88" s="68">
+        <v>44300</v>
+      </c>
+      <c r="G88" s="68">
+        <v>44313</v>
+      </c>
+      <c r="H88" s="69">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>14</v>
+      </c>
       <c r="I88" s="25"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
-      <c r="U88" s="34"/>
-      <c r="V88" s="34"/>
-      <c r="W88" s="34"/>
-      <c r="X88" s="34"/>
-      <c r="Y88" s="34"/>
-      <c r="Z88" s="34"/>
-      <c r="AA88" s="34"/>
-      <c r="AB88" s="34"/>
-      <c r="AC88" s="34"/>
-      <c r="AD88" s="34"/>
-      <c r="AE88" s="34"/>
-      <c r="AF88" s="34"/>
-      <c r="AG88" s="34"/>
-      <c r="AH88" s="34"/>
-      <c r="AI88" s="34"/>
-      <c r="AJ88" s="34"/>
-      <c r="AK88" s="34"/>
-      <c r="AL88" s="34"/>
-      <c r="AM88" s="34"/>
-      <c r="AN88" s="34"/>
-      <c r="AO88" s="34"/>
-      <c r="AP88" s="34"/>
-      <c r="AQ88" s="34"/>
-      <c r="AR88" s="34"/>
-      <c r="AS88" s="34"/>
-      <c r="AT88" s="34"/>
-      <c r="AU88" s="34"/>
-      <c r="AV88" s="34"/>
-      <c r="AW88" s="34"/>
-      <c r="AX88" s="34"/>
-      <c r="AY88" s="34"/>
-      <c r="AZ88" s="34"/>
-      <c r="BA88" s="34"/>
-      <c r="BB88" s="34"/>
-      <c r="BC88" s="34"/>
-      <c r="BD88" s="34"/>
-      <c r="BE88" s="34"/>
-      <c r="BF88" s="34"/>
-      <c r="BG88" s="34"/>
-      <c r="BH88" s="34"/>
-      <c r="BI88" s="34"/>
-      <c r="BJ88" s="34"/>
-      <c r="BK88" s="34"/>
-      <c r="BL88" s="34"/>
-      <c r="BM88" s="34"/>
-      <c r="BN88" s="34"/>
-      <c r="BO88" s="34"/>
-      <c r="BP88" s="34"/>
-      <c r="BQ88" s="34"/>
-      <c r="BR88" s="34"/>
-      <c r="BS88" s="34"/>
-      <c r="BT88" s="34"/>
-      <c r="BU88" s="34"/>
-      <c r="BV88" s="34"/>
-      <c r="BW88" s="34"/>
-      <c r="BX88" s="34"/>
-      <c r="BY88" s="34"/>
-      <c r="BZ88" s="34"/>
-      <c r="CA88" s="34"/>
+      <c r="J88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="K88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="L88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="M88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="N88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="O88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="P88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Q88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="R88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="S88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="T88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="U88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="V88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="W88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="X88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Y88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Z88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AA88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AB88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AC88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AD88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AE88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AF88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AG88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AH88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AI88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AJ88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AK88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AL88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AM88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AN88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO88" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AQ88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AR88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AS88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AT88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AU88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AV88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AW88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AX88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BI88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BJ88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BK88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BL88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BM88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BN88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BO88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BP88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BQ88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BR88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BS88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BT88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BU88" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BV88" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BW88" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BX88" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BY88" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BZ88" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="CA88" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
     </row>
     <row r="89" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="70" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C89" s="66" t="s">
         <v>50</v>
@@ -14291,291 +14707,81 @@
         <v>14</v>
       </c>
       <c r="I89" s="25"/>
-      <c r="J89" s="34" t="str">
-        <f t="shared" ref="J89:AO90" ca="1" si="54">IF(AND($C89="Goal",J$5&gt;=$F89,J$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",J$5&gt;=$F89,J$5&lt;=$F89+$H89-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="L89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="M89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="N89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="O89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="P89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Q89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="R89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="S89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="T89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="U89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="V89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="W89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="X89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Y89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Z89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AA89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AB89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AC89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AD89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AE89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AF89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AG89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AH89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AI89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AJ89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AK89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AL89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AM89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AN89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AO89" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP89" s="34" t="str">
-        <f t="shared" ref="AP89:BU90" ca="1" si="55">IF(AND($C89="Goal",AP$5&gt;=$F89,AP$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",AP$5&gt;=$F89,AP$5&lt;=$F89+$H89-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AR89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AS89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AT89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AU89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AV89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AW89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AX89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AY89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BI89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BJ89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BK89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BL89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BM89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BN89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BO89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BP89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BQ89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BR89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BS89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BT89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BU89" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BV89" s="34" t="str">
-        <f t="shared" ref="BV89:CA90" ca="1" si="56">IF(AND($C89="Goal",BV$5&gt;=$F89,BV$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",BV$5&gt;=$F89,BV$5&lt;=$F89+$H89-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BW89" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BX89" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BY89" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BZ89" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="CA89" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34"/>
+      <c r="S89" s="34"/>
+      <c r="T89" s="34"/>
+      <c r="U89" s="34"/>
+      <c r="V89" s="34"/>
+      <c r="W89" s="34"/>
+      <c r="X89" s="34"/>
+      <c r="Y89" s="34"/>
+      <c r="Z89" s="34"/>
+      <c r="AA89" s="34"/>
+      <c r="AB89" s="34"/>
+      <c r="AC89" s="34"/>
+      <c r="AD89" s="34"/>
+      <c r="AE89" s="34"/>
+      <c r="AF89" s="34"/>
+      <c r="AG89" s="34"/>
+      <c r="AH89" s="34"/>
+      <c r="AI89" s="34"/>
+      <c r="AJ89" s="34"/>
+      <c r="AK89" s="34"/>
+      <c r="AL89" s="34"/>
+      <c r="AM89" s="34"/>
+      <c r="AN89" s="34"/>
+      <c r="AO89" s="34"/>
+      <c r="AP89" s="34"/>
+      <c r="AQ89" s="34"/>
+      <c r="AR89" s="34"/>
+      <c r="AS89" s="34"/>
+      <c r="AT89" s="34"/>
+      <c r="AU89" s="34"/>
+      <c r="AV89" s="34"/>
+      <c r="AW89" s="34"/>
+      <c r="AX89" s="34"/>
+      <c r="AY89" s="34"/>
+      <c r="AZ89" s="34"/>
+      <c r="BA89" s="34"/>
+      <c r="BB89" s="34"/>
+      <c r="BC89" s="34"/>
+      <c r="BD89" s="34"/>
+      <c r="BE89" s="34"/>
+      <c r="BF89" s="34"/>
+      <c r="BG89" s="34"/>
+      <c r="BH89" s="34"/>
+      <c r="BI89" s="34"/>
+      <c r="BJ89" s="34"/>
+      <c r="BK89" s="34"/>
+      <c r="BL89" s="34"/>
+      <c r="BM89" s="34"/>
+      <c r="BN89" s="34"/>
+      <c r="BO89" s="34"/>
+      <c r="BP89" s="34"/>
+      <c r="BQ89" s="34"/>
+      <c r="BR89" s="34"/>
+      <c r="BS89" s="34"/>
+      <c r="BT89" s="34"/>
+      <c r="BU89" s="34"/>
+      <c r="BV89" s="34"/>
+      <c r="BW89" s="34"/>
+      <c r="BX89" s="34"/>
+      <c r="BY89" s="34"/>
+      <c r="BZ89" s="34"/>
+      <c r="CA89" s="34"/>
     </row>
     <row r="90" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="70" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="C90" s="66" t="s">
         <v>50</v>
@@ -14585,413 +14791,391 @@
         <v>0</v>
       </c>
       <c r="F90" s="68">
-        <v>44300</v>
+        <v>44313</v>
       </c>
       <c r="G90" s="68">
-        <v>44313</v>
+        <v>44330</v>
       </c>
       <c r="H90" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I90" s="25"/>
-      <c r="J90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="K90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="L90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="M90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="N90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="O90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="P90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Q90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="R90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="S90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="T90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="U90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="V90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="W90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="X90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Y90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Z90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AA90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AB90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AC90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AD90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AE90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AF90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AG90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AH90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AI90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AJ90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AK90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AL90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AM90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AN90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AO90" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AQ90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AR90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AS90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AT90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AU90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AV90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AW90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AX90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AY90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BI90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BJ90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BK90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BL90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BM90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BN90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BO90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BP90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BQ90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BR90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BS90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BT90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BU90" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BV90" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BW90" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BX90" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BY90" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BZ90" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="CA90" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="34"/>
+      <c r="U90" s="34"/>
+      <c r="V90" s="34"/>
+      <c r="W90" s="34"/>
+      <c r="X90" s="34"/>
+      <c r="Y90" s="34"/>
+      <c r="Z90" s="34"/>
+      <c r="AA90" s="34"/>
+      <c r="AB90" s="34"/>
+      <c r="AC90" s="34"/>
+      <c r="AD90" s="34"/>
+      <c r="AE90" s="34"/>
+      <c r="AF90" s="34"/>
+      <c r="AG90" s="34"/>
+      <c r="AH90" s="34"/>
+      <c r="AI90" s="34"/>
+      <c r="AJ90" s="34"/>
+      <c r="AK90" s="34"/>
+      <c r="AL90" s="34"/>
+      <c r="AM90" s="34"/>
+      <c r="AN90" s="34"/>
+      <c r="AO90" s="34"/>
+      <c r="AP90" s="34"/>
+      <c r="AQ90" s="34"/>
+      <c r="AR90" s="34"/>
+      <c r="AS90" s="34"/>
+      <c r="AT90" s="34"/>
+      <c r="AU90" s="34"/>
+      <c r="AV90" s="34"/>
+      <c r="AW90" s="34"/>
+      <c r="AX90" s="34"/>
+      <c r="AY90" s="34"/>
+      <c r="AZ90" s="34"/>
+      <c r="BA90" s="34"/>
+      <c r="BB90" s="34"/>
+      <c r="BC90" s="34"/>
+      <c r="BD90" s="34"/>
+      <c r="BE90" s="34"/>
+      <c r="BF90" s="34"/>
+      <c r="BG90" s="34"/>
+      <c r="BH90" s="34"/>
+      <c r="BI90" s="34"/>
+      <c r="BJ90" s="34"/>
+      <c r="BK90" s="34"/>
+      <c r="BL90" s="34"/>
+      <c r="BM90" s="34"/>
+      <c r="BN90" s="34"/>
+      <c r="BO90" s="34"/>
+      <c r="BP90" s="34"/>
+      <c r="BQ90" s="34"/>
+      <c r="BR90" s="34"/>
+      <c r="BS90" s="34"/>
+      <c r="BT90" s="34"/>
+      <c r="BU90" s="34"/>
+      <c r="BV90" s="34"/>
+      <c r="BW90" s="34"/>
+      <c r="BX90" s="34"/>
+      <c r="BY90" s="34"/>
+      <c r="BZ90" s="34"/>
+      <c r="CA90" s="34"/>
     </row>
     <row r="91" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="14"/>
-      <c r="B91" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="67">
-        <v>0</v>
-      </c>
-      <c r="F91" s="68">
-        <v>44300</v>
-      </c>
-      <c r="G91" s="68">
-        <v>44313</v>
-      </c>
-      <c r="H91" s="69">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
-      </c>
+      <c r="A91" s="15"/>
+      <c r="B91" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="53"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-      <c r="T91" s="34"/>
-      <c r="U91" s="34"/>
-      <c r="V91" s="34"/>
-      <c r="W91" s="34"/>
-      <c r="X91" s="34"/>
-      <c r="Y91" s="34"/>
-      <c r="Z91" s="34"/>
-      <c r="AA91" s="34"/>
-      <c r="AB91" s="34"/>
-      <c r="AC91" s="34"/>
-      <c r="AD91" s="34"/>
-      <c r="AE91" s="34"/>
-      <c r="AF91" s="34"/>
-      <c r="AG91" s="34"/>
-      <c r="AH91" s="34"/>
-      <c r="AI91" s="34"/>
-      <c r="AJ91" s="34"/>
-      <c r="AK91" s="34"/>
-      <c r="AL91" s="34"/>
-      <c r="AM91" s="34"/>
-      <c r="AN91" s="34"/>
-      <c r="AO91" s="34"/>
-      <c r="AP91" s="34"/>
-      <c r="AQ91" s="34"/>
-      <c r="AR91" s="34"/>
-      <c r="AS91" s="34"/>
-      <c r="AT91" s="34"/>
-      <c r="AU91" s="34"/>
-      <c r="AV91" s="34"/>
-      <c r="AW91" s="34"/>
-      <c r="AX91" s="34"/>
-      <c r="AY91" s="34"/>
-      <c r="AZ91" s="34"/>
-      <c r="BA91" s="34"/>
-      <c r="BB91" s="34"/>
-      <c r="BC91" s="34"/>
-      <c r="BD91" s="34"/>
-      <c r="BE91" s="34"/>
-      <c r="BF91" s="34"/>
-      <c r="BG91" s="34"/>
-      <c r="BH91" s="34"/>
-      <c r="BI91" s="34"/>
-      <c r="BJ91" s="34"/>
-      <c r="BK91" s="34"/>
-      <c r="BL91" s="34"/>
-      <c r="BM91" s="34"/>
-      <c r="BN91" s="34"/>
-      <c r="BO91" s="34"/>
-      <c r="BP91" s="34"/>
-      <c r="BQ91" s="34"/>
-      <c r="BR91" s="34"/>
-      <c r="BS91" s="34"/>
-      <c r="BT91" s="34"/>
-      <c r="BU91" s="34"/>
-      <c r="BV91" s="34"/>
-      <c r="BW91" s="34"/>
-      <c r="BX91" s="34"/>
-      <c r="BY91" s="34"/>
-      <c r="BZ91" s="34"/>
-      <c r="CA91" s="34"/>
+      <c r="J91" s="34" t="str">
+        <f t="shared" ref="J91:AO91" ca="1" si="57">IF(AND($C91="Goal",J$5&gt;=$F91,J$5&lt;=$F91+$H91-1),2,IF(AND($C91="Milestone",J$5&gt;=$F91,J$5&lt;=$F91+$H91-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="L91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="M91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="N91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="O91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="P91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="Q91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="R91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="S91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="T91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="U91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="V91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="W91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="X91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="Y91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="Z91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AA91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AB91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AC91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AD91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AE91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AF91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AG91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AH91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AI91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AJ91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AK91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AL91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AM91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AN91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AO91" s="34" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AP91" s="34" t="str">
+        <f t="shared" ref="AP91:BU91" ca="1" si="58">IF(AND($C91="Goal",AP$5&gt;=$F91,AP$5&lt;=$F91+$H91-1),2,IF(AND($C91="Milestone",AP$5&gt;=$F91,AP$5&lt;=$F91+$H91-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AR91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AS91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AT91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AU91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AV91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AW91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AX91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AY91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AZ91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BA91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BB91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BC91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BD91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BE91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BF91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BG91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BH91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BI91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BJ91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BK91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BL91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BM91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BN91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BO91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BP91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BQ91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BR91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BS91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BT91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BU91" s="34" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BV91" s="34" t="str">
+        <f t="shared" ref="BV91:CA91" ca="1" si="59">IF(AND($C91="Goal",BV$5&gt;=$F91,BV$5&lt;=$F91+$H91-1),2,IF(AND($C91="Milestone",BV$5&gt;=$F91,BV$5&lt;=$F91+$H91-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BW91" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BX91" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BY91" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BZ91" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="CA91" s="34" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
     </row>
     <row r="92" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="14"/>
-      <c r="B92" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D92" s="66"/>
-      <c r="E92" s="67">
-        <v>0</v>
-      </c>
-      <c r="F92" s="68">
-        <v>44313</v>
-      </c>
-      <c r="G92" s="68">
-        <v>44330</v>
-      </c>
-      <c r="H92" s="69">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>18</v>
-      </c>
+      <c r="A92" s="15"/>
+      <c r="B92" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="31"/>
       <c r="I92" s="25"/>
       <c r="J92" s="34"/>
       <c r="K92" s="34"/>
@@ -15065,408 +15249,644 @@
       <c r="CA92" s="34"/>
     </row>
     <row r="93" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="53"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" s="29">
+        <v>1</v>
+      </c>
+      <c r="F93" s="57">
+        <v>44146</v>
+      </c>
+      <c r="G93" s="57">
+        <v>44166</v>
+      </c>
+      <c r="H93" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>21</v>
+      </c>
       <c r="I93" s="25"/>
       <c r="J93" s="34" t="str">
-        <f t="shared" ref="J93:AO93" ca="1" si="57">IF(AND($C93="Goal",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1),1,""))</f>
+        <f t="shared" ref="J93:S99" ca="1" si="60">IF(AND($C93="Goal",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="K93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ref="T93:AC99" ca="1" si="61">IF(AND($C93="Goal",T$5&gt;=$F93,T$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",T$5&gt;=$F93,T$5&lt;=$F93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="U93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ref="AD93:AM99" ca="1" si="62">IF(AND($C93="Goal",AD$5&gt;=$F93,AD$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",AD$5&gt;=$F93,AD$5&lt;=$F93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="AE93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AM93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AN93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AO93" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AP93" s="34" t="str">
-        <f t="shared" ref="AP93:BU93" ca="1" si="58">IF(AND($C93="Goal",AP$5&gt;=$F93,AP$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",AP$5&gt;=$F93,AP$5&lt;=$F93+$H93-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AR93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AS93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AT93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AU93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AV93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AW93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AX93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AY93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AZ93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BA93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BB93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BC93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BD93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BE93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BF93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BG93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AM93" s="34">
+        <f t="shared" ca="1" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="AN93" s="34">
+        <f t="shared" ref="AN93:AW99" ca="1" si="63">IF(AND($C93="Goal",AN$5&gt;=$F93,AN$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",AN$5&gt;=$F93,AN$5&lt;=$F93+$H93-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AO93" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AP93" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AQ93" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AR93" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AS93" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AT93" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AU93" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AV93" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AW93" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AX93" s="34">
+        <f t="shared" ref="AX93:BG99" ca="1" si="64">IF(AND($C93="Goal",AX$5&gt;=$F93,AX$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",AX$5&gt;=$F93,AX$5&lt;=$F93+$H93-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AY93" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="AZ93" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BA93" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BB93" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BC93" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BD93" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BE93" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BF93" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BG93" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
       </c>
       <c r="BH93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ref="BH93:BQ99" ca="1" si="65">IF(AND($C93="Goal",BH$5&gt;=$F93,BH$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",BH$5&gt;=$F93,BH$5&lt;=$F93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="BI93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ref="BR93:CA99" ca="1" si="66">IF(AND($C93="Goal",BR$5&gt;=$F93,BR$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",BR$5&gt;=$F93,BR$5&lt;=$F93+$H93-1),1,""))</f>
         <v/>
       </c>
       <c r="BS93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU93" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV93" s="34" t="str">
-        <f t="shared" ref="BV93:CA93" ca="1" si="59">IF(AND($C93="Goal",BV$5&gt;=$F93,BV$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",BV$5&gt;=$F93,BV$5&lt;=$F93+$H93-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW93" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX93" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY93" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ93" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA93" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="31"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E94" s="29">
+        <v>1</v>
+      </c>
+      <c r="F94" s="57">
+        <v>44251</v>
+      </c>
+      <c r="G94" s="57">
+        <v>44264</v>
+      </c>
+      <c r="H94" s="31">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>14</v>
+      </c>
       <c r="I94" s="25"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="34"/>
-      <c r="O94" s="34"/>
-      <c r="P94" s="34"/>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="34"/>
-      <c r="S94" s="34"/>
-      <c r="T94" s="34"/>
-      <c r="U94" s="34"/>
-      <c r="V94" s="34"/>
-      <c r="W94" s="34"/>
-      <c r="X94" s="34"/>
-      <c r="Y94" s="34"/>
-      <c r="Z94" s="34"/>
-      <c r="AA94" s="34"/>
-      <c r="AB94" s="34"/>
-      <c r="AC94" s="34"/>
-      <c r="AD94" s="34"/>
-      <c r="AE94" s="34"/>
-      <c r="AF94" s="34"/>
-      <c r="AG94" s="34"/>
-      <c r="AH94" s="34"/>
-      <c r="AI94" s="34"/>
-      <c r="AJ94" s="34"/>
-      <c r="AK94" s="34"/>
-      <c r="AL94" s="34"/>
-      <c r="AM94" s="34"/>
-      <c r="AN94" s="34"/>
-      <c r="AO94" s="34"/>
-      <c r="AP94" s="34"/>
-      <c r="AQ94" s="34"/>
-      <c r="AR94" s="34"/>
-      <c r="AS94" s="34"/>
-      <c r="AT94" s="34"/>
-      <c r="AU94" s="34"/>
-      <c r="AV94" s="34"/>
-      <c r="AW94" s="34"/>
-      <c r="AX94" s="34"/>
-      <c r="AY94" s="34"/>
-      <c r="AZ94" s="34"/>
-      <c r="BA94" s="34"/>
-      <c r="BB94" s="34"/>
-      <c r="BC94" s="34"/>
-      <c r="BD94" s="34"/>
-      <c r="BE94" s="34"/>
-      <c r="BF94" s="34"/>
-      <c r="BG94" s="34"/>
-      <c r="BH94" s="34"/>
-      <c r="BI94" s="34"/>
-      <c r="BJ94" s="34"/>
-      <c r="BK94" s="34"/>
-      <c r="BL94" s="34"/>
-      <c r="BM94" s="34"/>
-      <c r="BN94" s="34"/>
-      <c r="BO94" s="34"/>
-      <c r="BP94" s="34"/>
-      <c r="BQ94" s="34"/>
-      <c r="BR94" s="34"/>
-      <c r="BS94" s="34"/>
-      <c r="BT94" s="34"/>
-      <c r="BU94" s="34"/>
-      <c r="BV94" s="34"/>
-      <c r="BW94" s="34"/>
-      <c r="BX94" s="34"/>
-      <c r="BY94" s="34"/>
-      <c r="BZ94" s="34"/>
-      <c r="CA94" s="34"/>
+      <c r="J94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="K94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="L94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="M94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="N94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="O94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="P94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="Q94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="R94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="S94" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="T94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="U94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="V94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="W94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="X94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Y94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Z94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AA94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AB94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AC94" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AD94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AE94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AF94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AG94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AH94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AI94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AJ94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AK94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AL94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AM94" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AN94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AO94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AP94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AQ94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AR94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AS94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AT94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AU94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AV94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AW94" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AX94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AY94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AZ94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BA94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BB94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BC94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BD94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BE94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BF94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BG94" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BH94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BI94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BJ94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BK94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BL94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BM94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BN94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BO94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BP94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BQ94" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BR94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BS94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BT94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BU94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BV94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BW94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BX94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BY94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BZ94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="CA94" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
     </row>
     <row r="95" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
-      <c r="B95" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" s="48" t="s">
+      <c r="B95" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="48" t="s">
+      <c r="D95" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E95" s="29">
-        <v>1</v>
-      </c>
-      <c r="F95" s="57">
-        <v>44146</v>
-      </c>
-      <c r="G95" s="57">
-        <v>44166</v>
-      </c>
-      <c r="H95" s="31">
+      <c r="E95" s="71">
+        <v>0</v>
+      </c>
+      <c r="F95" s="68">
+        <v>44321</v>
+      </c>
+      <c r="G95" s="68">
+        <v>44334</v>
+      </c>
+      <c r="H95" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I95" s="25"/>
       <c r="J95" s="34" t="str">
-        <f t="shared" ref="J95:S101" ca="1" si="60">IF(AND($C95="Goal",J$5&gt;=$F95,J$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",J$5&gt;=$F95,J$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K95" s="34" t="str">
@@ -15506,7 +15926,7 @@
         <v/>
       </c>
       <c r="T95" s="34" t="str">
-        <f t="shared" ref="T95:AC101" ca="1" si="61">IF(AND($C95="Goal",T$5&gt;=$F95,T$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",T$5&gt;=$F95,T$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U95" s="34" t="str">
@@ -15546,7 +15966,7 @@
         <v/>
       </c>
       <c r="AD95" s="34" t="str">
-        <f t="shared" ref="AD95:AM101" ca="1" si="62">IF(AND($C95="Goal",AD$5&gt;=$F95,AD$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AD$5&gt;=$F95,AD$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE95" s="34" t="str">
@@ -15581,92 +16001,92 @@
         <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
-      <c r="AM95" s="34">
+      <c r="AM95" s="34" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>2</v>
-      </c>
-      <c r="AN95" s="34">
-        <f t="shared" ref="AN95:AW101" ca="1" si="63">IF(AND($C95="Goal",AN$5&gt;=$F95,AN$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AN$5&gt;=$F95,AN$5&lt;=$F95+$H95-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AO95" s="34">
+        <v/>
+      </c>
+      <c r="AN95" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AP95" s="34">
+        <v/>
+      </c>
+      <c r="AO95" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AQ95" s="34">
+        <v/>
+      </c>
+      <c r="AP95" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AR95" s="34">
+        <v/>
+      </c>
+      <c r="AQ95" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AS95" s="34">
+        <v/>
+      </c>
+      <c r="AR95" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AT95" s="34">
+        <v/>
+      </c>
+      <c r="AS95" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AU95" s="34">
+        <v/>
+      </c>
+      <c r="AT95" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AV95" s="34">
+        <v/>
+      </c>
+      <c r="AU95" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AW95" s="34">
+        <v/>
+      </c>
+      <c r="AV95" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AX95" s="34">
-        <f t="shared" ref="AX95:BG101" ca="1" si="64">IF(AND($C95="Goal",AX$5&gt;=$F95,AX$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",AX$5&gt;=$F95,AX$5&lt;=$F95+$H95-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AY95" s="34">
+        <v/>
+      </c>
+      <c r="AW95" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AX95" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="AZ95" s="34">
+        <v/>
+      </c>
+      <c r="AY95" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BA95" s="34">
+        <v/>
+      </c>
+      <c r="AZ95" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BB95" s="34">
+        <v/>
+      </c>
+      <c r="BA95" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BC95" s="34">
+        <v/>
+      </c>
+      <c r="BB95" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BD95" s="34">
+        <v/>
+      </c>
+      <c r="BC95" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BE95" s="34">
+        <v/>
+      </c>
+      <c r="BD95" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BF95" s="34">
+        <v/>
+      </c>
+      <c r="BE95" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BG95" s="34">
+        <v/>
+      </c>
+      <c r="BF95" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
+        <v/>
+      </c>
+      <c r="BG95" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
       </c>
       <c r="BH95" s="34" t="str">
-        <f t="shared" ref="BH95:BQ101" ca="1" si="65">IF(AND($C95="Goal",BH$5&gt;=$F95,BH$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BH$5&gt;=$F95,BH$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI95" s="34" t="str">
@@ -15706,7 +16126,7 @@
         <v/>
       </c>
       <c r="BR95" s="34" t="str">
-        <f t="shared" ref="BR95:CA101" ca="1" si="66">IF(AND($C95="Goal",BR$5&gt;=$F95,BR$5&lt;=$F95+$H95-1),2,IF(AND($C95="Milestone",BR$5&gt;=$F95,BR$5&lt;=$F95+$H95-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS95" s="34" t="str">
@@ -15748,28 +16168,15 @@
     </row>
     <row r="96" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
-      <c r="B96" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" s="29">
-        <v>1</v>
-      </c>
-      <c r="F96" s="57">
-        <v>44251</v>
-      </c>
-      <c r="G96" s="57">
-        <v>44264</v>
-      </c>
-      <c r="H96" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
-      </c>
+      <c r="B96" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="31"/>
       <c r="I96" s="25"/>
       <c r="J96" s="34" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -16054,32 +16461,32 @@
     </row>
     <row r="97" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
-      <c r="B97" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" s="66" t="s">
+      <c r="B97" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97" s="71">
-        <v>0</v>
-      </c>
-      <c r="F97" s="68">
-        <v>44321</v>
-      </c>
-      <c r="G97" s="68">
-        <v>44334</v>
-      </c>
-      <c r="H97" s="69">
+      <c r="D97" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="29">
+        <v>1</v>
+      </c>
+      <c r="F97" s="57">
+        <v>44117</v>
+      </c>
+      <c r="G97" s="57">
+        <v>44117</v>
+      </c>
+      <c r="H97" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I97" s="25"/>
-      <c r="J97" s="34" t="str">
+      <c r="J97" s="34">
         <f t="shared" ca="1" si="60"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K97" s="34" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -16360,13 +16767,11 @@
     </row>
     <row r="98" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
-      <c r="B98" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="30"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="60"/>
       <c r="G98" s="30"/>
       <c r="H98" s="31"/>
       <c r="I98" s="25"/>
@@ -16652,33 +17057,20 @@
       </c>
     </row>
     <row r="99" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="14"/>
-      <c r="B99" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E99" s="29">
-        <v>1</v>
-      </c>
-      <c r="F99" s="57">
-        <v>44117</v>
-      </c>
-      <c r="G99" s="57">
-        <v>44117</v>
-      </c>
-      <c r="H99" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
+      <c r="A99" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="31"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="34">
+      <c r="J99" s="34" t="str">
         <f t="shared" ca="1" si="60"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K99" s="34" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -16957,598 +17349,16 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="14"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="K100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="L100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="M100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="N100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="O100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="P100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="Q100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="R100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="S100" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="T100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="U100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="V100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="W100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="X100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Y100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Z100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AA100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AB100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AC100" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AD100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AE100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AF100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AG100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AH100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AI100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AJ100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AK100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AL100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AM100" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AN100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AO100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AP100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AQ100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AR100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AS100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AT100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AU100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AV100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AW100" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AX100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AY100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AZ100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BA100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BB100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BC100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BD100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BE100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BF100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BG100" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BH100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BI100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BJ100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BK100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BL100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BM100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BN100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BO100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BP100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BQ100" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BR100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BS100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BT100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BU100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BV100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BW100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BX100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BY100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BZ100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="CA100" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
+    <row r="100" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="5"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="36"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="K101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="L101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="M101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="N101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="O101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="P101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="Q101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="R101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="S101" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="T101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="U101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="V101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="W101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="X101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Y101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Z101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AA101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AB101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AC101" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AD101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AE101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AF101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AG101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AH101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AI101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AJ101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AK101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AL101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AM101" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AN101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AO101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AP101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AQ101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AR101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AS101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AT101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AU101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AV101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AW101" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AX101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AY101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AZ101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BA101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BB101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BC101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BD101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BE101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BF101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BG101" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BH101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BI101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BJ101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BK101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BL101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BM101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BN101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BO101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BP101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BQ101" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BR101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BS101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BT101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BU101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BV101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BW101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BX101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BY101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BZ101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="CA101" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
+    <row r="101" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="5"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="6"/>
-    </row>
+    <row r="102" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17638,8 +17448,6 @@
     <row r="190" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="191" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="192" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AE2:AJ2"/>
@@ -17652,7 +17460,7 @@
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="X2:AC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E11 E17 E13 E93:E94 E101 E33 E98 E15 E47:E87">
+  <conditionalFormatting sqref="E7:E11 E17 E13 E91:E92 E99 E33 E96 E15 E47:E85">
     <cfRule type="dataBar" priority="369">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17666,44 +17474,44 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J93:BZ94 J26:BZ33 J21:BZ24 J39:BZ87">
-    <cfRule type="expression" dxfId="48" priority="362">
+  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J91:BZ92 J26:BZ33 J21:BZ24 J39:BZ85">
+    <cfRule type="expression" dxfId="44" priority="362">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="47" priority="368">
+    <cfRule type="expression" dxfId="43" priority="368">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="46" priority="364">
+    <cfRule type="expression" dxfId="42" priority="364">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="45" priority="363">
+    <cfRule type="expression" dxfId="41" priority="363">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:CA11 J13:CA67 J76:CA101">
-    <cfRule type="expression" dxfId="44" priority="385" stopIfTrue="1">
+  <conditionalFormatting sqref="J8:CA11 J13:CA67 J76:CA99">
+    <cfRule type="expression" dxfId="40" priority="385" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="404" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="422" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="423" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="424" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="E91">
     <cfRule type="dataBar" priority="338">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17717,7 +17525,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
+  <conditionalFormatting sqref="E96">
     <cfRule type="dataBar" priority="330">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17745,8 +17553,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA23:CA24 CA93:CA94 CA33">
-    <cfRule type="expression" dxfId="39" priority="483">
+  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA23:CA24 CA91:CA92 CA33">
+    <cfRule type="expression" dxfId="35" priority="483">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17765,12 +17573,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="38" priority="272">
+    <cfRule type="expression" dxfId="34" priority="272">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA87">
-    <cfRule type="expression" dxfId="37" priority="279">
+  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA85">
+    <cfRule type="expression" dxfId="33" priority="279">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17817,33 +17625,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="36" priority="253">
+    <cfRule type="expression" dxfId="32" priority="253">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="35" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="255" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="256" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="257" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="258" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="259" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="30" priority="260">
+    <cfRule type="expression" dxfId="26" priority="260">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="E92">
     <cfRule type="dataBar" priority="252">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17858,12 +17666,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="29" priority="244">
+    <cfRule type="expression" dxfId="25" priority="244">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="28" priority="250">
+    <cfRule type="expression" dxfId="24" priority="250">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17881,17 +17689,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J88:BZ88">
-    <cfRule type="expression" dxfId="27" priority="215">
+  <conditionalFormatting sqref="J86:BZ86">
+    <cfRule type="expression" dxfId="23" priority="215">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA88">
-    <cfRule type="expression" dxfId="26" priority="216">
+  <conditionalFormatting sqref="CA86">
+    <cfRule type="expression" dxfId="22" priority="216">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E86">
     <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17906,52 +17714,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="25" priority="161">
+    <cfRule type="expression" dxfId="21" priority="161">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="24" priority="162">
+    <cfRule type="expression" dxfId="20" priority="162">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="23" priority="138">
+    <cfRule type="expression" dxfId="19" priority="138">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="22" priority="137">
+    <cfRule type="expression" dxfId="18" priority="137">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J90:BZ92">
-    <cfRule type="expression" dxfId="21" priority="98">
+  <conditionalFormatting sqref="J88:BZ90">
+    <cfRule type="expression" dxfId="17" priority="98">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA90:CA92">
-    <cfRule type="expression" dxfId="20" priority="97">
+  <conditionalFormatting sqref="CA88:CA90">
+    <cfRule type="expression" dxfId="16" priority="97">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J95:BZ101">
-    <cfRule type="expression" dxfId="19" priority="90">
+  <conditionalFormatting sqref="J93:BZ99">
+    <cfRule type="expression" dxfId="15" priority="90">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA95:CA101">
-    <cfRule type="expression" dxfId="18" priority="89">
+  <conditionalFormatting sqref="CA93:CA99">
+    <cfRule type="expression" dxfId="14" priority="89">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="17" priority="59">
+    <cfRule type="expression" dxfId="13" priority="59">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA18:CA20">
-    <cfRule type="expression" dxfId="16" priority="60">
+    <cfRule type="expression" dxfId="12" priority="60">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17969,7 +17777,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
+  <conditionalFormatting sqref="E97">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17983,7 +17791,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:E97">
+  <conditionalFormatting sqref="E93:E95">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18040,50 +17848,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:CA71">
-    <cfRule type="expression" dxfId="15" priority="893" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="893" stopIfTrue="1">
       <formula>AND($C72="Low",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="894" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="894" stopIfTrue="1">
       <formula>AND($C72="High",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="895" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="895" stopIfTrue="1">
       <formula>AND($C72="On Track",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="896" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="896" stopIfTrue="1">
       <formula>AND($C72="Med",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="897" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="897" stopIfTrue="1">
       <formula>AND(LEN($C72)=0,J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:CA75">
-    <cfRule type="expression" dxfId="10" priority="910" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="910" stopIfTrue="1">
       <formula>AND($C68="Low",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="911" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="911" stopIfTrue="1">
       <formula>AND($C68="High",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="912" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="912" stopIfTrue="1">
       <formula>AND($C68="On Track",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="913" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="913" stopIfTrue="1">
       <formula>AND($C68="Med",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="914" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="914" stopIfTrue="1">
       <formula>AND(LEN($C68)=0,J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA89">
-    <cfRule type="expression" dxfId="5" priority="2">
+  <conditionalFormatting sqref="CA87">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J89:BZ89">
-    <cfRule type="expression" dxfId="4" priority="3">
+  <conditionalFormatting sqref="J87:BZ87">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E87">
+  <conditionalFormatting sqref="E82:E85">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18104,10 +17912,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9 C12" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
       <formula1>"Goal,Milestone,On Track, Low Priority, Med Priority High Risk, High Priority"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C93:C101" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C91:C99" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C100" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C98" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
       <formula1>"Goal,Milestone,On Track, Low, Med, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18166,7 +17974,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E11 E17 E13 E93:E94 E101 E33 E98 E15 E47:E87</xm:sqref>
+          <xm:sqref>E7:E11 E17 E13 E91:E92 E99 E33 E96 E15 E47:E85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36922C6F-F55A-8F49-86CD-B382086C6C9E}">
@@ -18181,7 +17989,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E93</xm:sqref>
+          <xm:sqref>E91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CFA0F17-6347-3E4A-87FC-DD2694821F83}">
@@ -18196,7 +18004,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E98</xm:sqref>
+          <xm:sqref>E96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2D0729C-0866-8942-B08E-D5C757399A18}">
@@ -18286,7 +18094,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E94</xm:sqref>
+          <xm:sqref>E92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D79EBD87-5F64-3440-B8E6-BE18D3A97878}">
@@ -18316,7 +18124,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E88</xm:sqref>
+          <xm:sqref>E86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{366133D0-FF9F-A54A-B853-B640570739BE}">
@@ -18346,7 +18154,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E99</xm:sqref>
+          <xm:sqref>E97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C1D15CD-08F7-4E4C-AEF0-0399341BEE1B}">
@@ -18361,7 +18169,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E95:E97</xm:sqref>
+          <xm:sqref>E93:E95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70BD8D54-5CD7-4341-8332-FE6663A466EA}">
@@ -18421,7 +18229,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E84:E87</xm:sqref>
+          <xm:sqref>E82:E85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="503" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
@@ -18459,7 +18267,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J93:CA94</xm:sqref>
+          <xm:sqref>J91:CA92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="523" id="{82FEFA3B-0957-5746-B989-0137642BE052}">
@@ -18535,7 +18343,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J88:CA88</xm:sqref>
+          <xm:sqref>J86:CA86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="163" id="{C3E335A3-845A-8149-8FBF-06975DBEFFEA}">
@@ -18630,7 +18438,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J95:CA101</xm:sqref>
+          <xm:sqref>J93:CA99</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="61" id="{FAD2EEE5-A059-C248-816C-8DFF237F9CAC}">
@@ -18728,25 +18536,6 @@
           <xm:sqref>J23:CA23 J8:CA11 J13:CA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="885" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J52:CA53 J55:CA87 J48:CA50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{D1F0323A-13A8-42A6-A917-4F310B1AD20C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -18763,7 +18552,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J89:CA89</xm:sqref>
+          <xm:sqref>J87:CA87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="925" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
@@ -18782,7 +18571,26 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J90:CA92</xm:sqref>
+          <xm:sqref>J88:CA90</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="959" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J52:CA53 J55:CA85 J48:CA50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6656CD3-9186-41AC-819D-6CFAA39F4C46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813930FD-3FB3-462A-9600-E7C3D6229769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="1340" windowWidth="11820" windowHeight="11883" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="119">
   <si>
     <t>About This Template</t>
   </si>
@@ -414,7 +414,7 @@
     <t>Testing/Debugging</t>
   </si>
   <si>
-    <t>Sensor Implementation</t>
+    <t>User Documentation</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,293 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2093,20 +2379,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="60"/>
-      <tableStyleElement type="headerRow" dxfId="59"/>
-      <tableStyleElement type="firstRowStripe" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="74"/>
+      <tableStyleElement type="headerRow" dxfId="73"/>
+      <tableStyleElement type="firstRowStripe" dxfId="72"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="totalRow" dxfId="55"/>
-      <tableStyleElement type="firstColumn" dxfId="54"/>
-      <tableStyleElement type="lastColumn" dxfId="53"/>
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="secondRowStripe" dxfId="51"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="50"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="71"/>
+      <tableStyleElement type="headerRow" dxfId="70"/>
+      <tableStyleElement type="totalRow" dxfId="69"/>
+      <tableStyleElement type="firstColumn" dxfId="68"/>
+      <tableStyleElement type="lastColumn" dxfId="67"/>
+      <tableStyleElement type="firstRowStripe" dxfId="66"/>
+      <tableStyleElement type="secondRowStripe" dxfId="65"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="64"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="63"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2259,8 +2545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H99" totalsRowShown="0">
-  <autoFilter ref="B7:H99" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:H97" totalsRowShown="0">
+  <autoFilter ref="B7:H97" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2270,12 +2556,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="60"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Completion"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="45" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{FFB4566D-F84D-4445-98D2-EC6DB0387316}" name="End" dataDxfId="59" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2553,10 +2839,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CE192"/>
+  <dimension ref="A1:CE190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B68" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13239,14 +13525,14 @@
         <v>0</v>
       </c>
       <c r="F78" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G78" s="68">
         <v>44306</v>
       </c>
       <c r="H78" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I78" s="25"/>
       <c r="J78" s="34"/>
@@ -13335,14 +13621,14 @@
         <v>0</v>
       </c>
       <c r="F79" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G79" s="68">
         <v>44306</v>
       </c>
       <c r="H79" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I79" s="25"/>
       <c r="J79" s="34"/>
@@ -13431,14 +13717,14 @@
         <v>0</v>
       </c>
       <c r="F80" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G80" s="68">
         <v>44306</v>
       </c>
       <c r="H80" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I80" s="25"/>
       <c r="J80" s="34"/>
@@ -13527,14 +13813,14 @@
         <v>0</v>
       </c>
       <c r="F81" s="68">
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="G81" s="68">
         <v>44306</v>
       </c>
       <c r="H81" s="69">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I81" s="25"/>
       <c r="J81" s="34"/>
@@ -13610,29 +13896,15 @@
     </row>
     <row r="82" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
-      <c r="B82" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D82" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="67">
-        <f>SUM(E83:E85)/3</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="68">
-        <v>44300</v>
-      </c>
-      <c r="G82" s="68">
-        <v>44313</v>
-      </c>
-      <c r="H82" s="69">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
-      </c>
+      <c r="B82" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="53"/>
       <c r="I82" s="25"/>
       <c r="J82" s="34"/>
       <c r="K82" s="34"/>
@@ -13708,14 +13980,12 @@
     <row r="83" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="65" t="s">
-        <v>101</v>
-      </c>
+      <c r="D83" s="66"/>
       <c r="E83" s="67">
         <v>0</v>
       </c>
@@ -13730,88 +14000,296 @@
         <v>14</v>
       </c>
       <c r="I83" s="25"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="34"/>
-      <c r="O83" s="34"/>
-      <c r="P83" s="34"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="34"/>
-      <c r="W83" s="34"/>
-      <c r="X83" s="34"/>
-      <c r="Y83" s="34"/>
-      <c r="Z83" s="34"/>
-      <c r="AA83" s="34"/>
-      <c r="AB83" s="34"/>
-      <c r="AC83" s="34"/>
-      <c r="AD83" s="34"/>
-      <c r="AE83" s="34"/>
-      <c r="AF83" s="34"/>
-      <c r="AG83" s="34"/>
-      <c r="AH83" s="34"/>
-      <c r="AI83" s="34"/>
-      <c r="AJ83" s="34"/>
-      <c r="AK83" s="34"/>
-      <c r="AL83" s="34"/>
-      <c r="AM83" s="34"/>
-      <c r="AN83" s="34"/>
-      <c r="AO83" s="34"/>
-      <c r="AP83" s="34"/>
-      <c r="AQ83" s="34"/>
-      <c r="AR83" s="34"/>
-      <c r="AS83" s="34"/>
-      <c r="AT83" s="34"/>
-      <c r="AU83" s="34"/>
-      <c r="AV83" s="34"/>
-      <c r="AW83" s="34"/>
-      <c r="AX83" s="34"/>
-      <c r="AY83" s="34"/>
-      <c r="AZ83" s="34"/>
-      <c r="BA83" s="34"/>
-      <c r="BB83" s="34"/>
-      <c r="BC83" s="34"/>
-      <c r="BD83" s="34"/>
-      <c r="BE83" s="34"/>
-      <c r="BF83" s="34"/>
-      <c r="BG83" s="34"/>
-      <c r="BH83" s="34"/>
-      <c r="BI83" s="34"/>
-      <c r="BJ83" s="34"/>
-      <c r="BK83" s="34"/>
-      <c r="BL83" s="34"/>
-      <c r="BM83" s="34"/>
-      <c r="BN83" s="34"/>
-      <c r="BO83" s="34"/>
-      <c r="BP83" s="34"/>
-      <c r="BQ83" s="34"/>
-      <c r="BR83" s="34"/>
-      <c r="BS83" s="34"/>
-      <c r="BT83" s="34"/>
-      <c r="BU83" s="34"/>
-      <c r="BV83" s="34"/>
-      <c r="BW83" s="34"/>
-      <c r="BX83" s="34"/>
-      <c r="BY83" s="34"/>
-      <c r="BZ83" s="34"/>
-      <c r="CA83" s="34"/>
+      <c r="J83" s="34" t="str">
+        <f t="shared" ref="J83:AO84" ca="1" si="54">IF(AND($C83="Goal",J$5&gt;=$F83,J$5&lt;=$F83+$H83-1),2,IF(AND($C83="Milestone",J$5&gt;=$F83,J$5&lt;=$F83+$H83-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="L83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="M83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="N83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="O83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="P83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Q83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="R83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="S83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="T83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="U83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="V83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="W83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="X83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Y83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Z83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AA83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AB83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AC83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AD83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AE83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AF83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AG83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AH83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AI83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AJ83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AK83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AL83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AM83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AN83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO83" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP83" s="34" t="str">
+        <f t="shared" ref="AP83:BU84" ca="1" si="55">IF(AND($C83="Goal",AP$5&gt;=$F83,AP$5&lt;=$F83+$H83-1),2,IF(AND($C83="Milestone",AP$5&gt;=$F83,AP$5&lt;=$F83+$H83-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AR83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AS83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AT83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AU83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AV83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AW83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AX83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BI83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BJ83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BK83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BL83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BM83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BN83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BO83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BP83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BQ83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BR83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BS83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BT83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BU83" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BV83" s="34" t="str">
+        <f t="shared" ref="BV83:CA84" ca="1" si="56">IF(AND($C83="Goal",BV$5&gt;=$F83,BV$5&lt;=$F83+$H83-1),2,IF(AND($C83="Milestone",BV$5&gt;=$F83,BV$5&lt;=$F83+$H83-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BW83" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BX83" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BY83" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BZ83" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="CA83" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
     </row>
     <row r="84" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D84" s="65" t="s">
-        <v>103</v>
-      </c>
+      <c r="D84" s="66"/>
       <c r="E84" s="67">
         <v>0</v>
       </c>
@@ -13826,88 +14304,296 @@
         <v>14</v>
       </c>
       <c r="I84" s="25"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="34"/>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
-      <c r="AB84" s="34"/>
-      <c r="AC84" s="34"/>
-      <c r="AD84" s="34"/>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="34"/>
-      <c r="AG84" s="34"/>
-      <c r="AH84" s="34"/>
-      <c r="AI84" s="34"/>
-      <c r="AJ84" s="34"/>
-      <c r="AK84" s="34"/>
-      <c r="AL84" s="34"/>
-      <c r="AM84" s="34"/>
-      <c r="AN84" s="34"/>
-      <c r="AO84" s="34"/>
-      <c r="AP84" s="34"/>
-      <c r="AQ84" s="34"/>
-      <c r="AR84" s="34"/>
-      <c r="AS84" s="34"/>
-      <c r="AT84" s="34"/>
-      <c r="AU84" s="34"/>
-      <c r="AV84" s="34"/>
-      <c r="AW84" s="34"/>
-      <c r="AX84" s="34"/>
-      <c r="AY84" s="34"/>
-      <c r="AZ84" s="34"/>
-      <c r="BA84" s="34"/>
-      <c r="BB84" s="34"/>
-      <c r="BC84" s="34"/>
-      <c r="BD84" s="34"/>
-      <c r="BE84" s="34"/>
-      <c r="BF84" s="34"/>
-      <c r="BG84" s="34"/>
-      <c r="BH84" s="34"/>
-      <c r="BI84" s="34"/>
-      <c r="BJ84" s="34"/>
-      <c r="BK84" s="34"/>
-      <c r="BL84" s="34"/>
-      <c r="BM84" s="34"/>
-      <c r="BN84" s="34"/>
-      <c r="BO84" s="34"/>
-      <c r="BP84" s="34"/>
-      <c r="BQ84" s="34"/>
-      <c r="BR84" s="34"/>
-      <c r="BS84" s="34"/>
-      <c r="BT84" s="34"/>
-      <c r="BU84" s="34"/>
-      <c r="BV84" s="34"/>
-      <c r="BW84" s="34"/>
-      <c r="BX84" s="34"/>
-      <c r="BY84" s="34"/>
-      <c r="BZ84" s="34"/>
-      <c r="CA84" s="34"/>
+      <c r="J84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="K84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="L84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="M84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="N84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="O84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="P84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Q84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="R84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="S84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="T84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="U84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="V84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="W84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="X84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Y84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Z84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AA84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AB84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AC84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AD84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AE84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AF84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AG84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AH84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AI84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AJ84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AK84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AL84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AM84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AN84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AO84" s="34" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="AP84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AQ84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AR84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AS84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AT84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AU84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AV84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AW84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AX84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AY84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AZ84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BA84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BB84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BC84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BD84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BE84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BF84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BG84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BH84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BI84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BJ84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BK84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BL84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BM84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BN84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BO84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BP84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BQ84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BR84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BS84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BT84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BU84" s="34" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="BV84" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BW84" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BX84" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BY84" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="BZ84" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="CA84" s="34" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
     </row>
     <row r="85" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="65" t="s">
-        <v>102</v>
-      </c>
+      <c r="D85" s="66"/>
       <c r="E85" s="67">
         <v>0</v>
       </c>
@@ -13995,15 +14681,26 @@
     </row>
     <row r="86" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
-      <c r="B86" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="53"/>
+      <c r="B86" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="66"/>
+      <c r="E86" s="67">
+        <v>0</v>
+      </c>
+      <c r="F86" s="68">
+        <v>44313</v>
+      </c>
+      <c r="G86" s="68">
+        <v>44330</v>
+      </c>
+      <c r="H86" s="69">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>18</v>
+      </c>
       <c r="I86" s="25"/>
       <c r="J86" s="34"/>
       <c r="K86" s="34"/>
@@ -14077,1091 +14774,1296 @@
       <c r="CA86" s="34"/>
     </row>
     <row r="87" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="66"/>
-      <c r="E87" s="67">
-        <v>0</v>
-      </c>
-      <c r="F87" s="68">
-        <v>44300</v>
-      </c>
-      <c r="G87" s="68">
-        <v>44313</v>
-      </c>
-      <c r="H87" s="69">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
-      </c>
+      <c r="A87" s="15"/>
+      <c r="B87" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="53"/>
       <c r="I87" s="25"/>
       <c r="J87" s="34" t="str">
-        <f t="shared" ref="J87:AO88" ca="1" si="54">IF(AND($C87="Goal",J$5&gt;=$F87,J$5&lt;=$F87+$H87-1),2,IF(AND($C87="Milestone",J$5&gt;=$F87,J$5&lt;=$F87+$H87-1),1,""))</f>
+        <f t="shared" ref="J87:AO87" ca="1" si="57">IF(AND($C87="Goal",J$5&gt;=$F87,J$5&lt;=$F87+$H87-1),2,IF(AND($C87="Milestone",J$5&gt;=$F87,J$5&lt;=$F87+$H87-1),1,""))</f>
         <v/>
       </c>
       <c r="K87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="L87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="M87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="N87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="O87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="P87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="Q87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="R87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="S87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="T87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="U87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="V87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="W87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="X87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="Y87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="Z87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AA87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AB87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AC87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AD87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AE87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AF87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AG87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AH87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AI87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AJ87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AK87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AL87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AM87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AN87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AO87" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AP87" s="34" t="str">
-        <f t="shared" ref="AP87:BU88" ca="1" si="55">IF(AND($C87="Goal",AP$5&gt;=$F87,AP$5&lt;=$F87+$H87-1),2,IF(AND($C87="Milestone",AP$5&gt;=$F87,AP$5&lt;=$F87+$H87-1),1,""))</f>
+        <f t="shared" ref="AP87:BU87" ca="1" si="58">IF(AND($C87="Goal",AP$5&gt;=$F87,AP$5&lt;=$F87+$H87-1),2,IF(AND($C87="Milestone",AP$5&gt;=$F87,AP$5&lt;=$F87+$H87-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AR87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AS87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AT87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AU87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AV87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AW87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AX87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AY87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AZ87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BA87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BB87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BC87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BD87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BE87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BF87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BG87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BH87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BI87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BJ87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BK87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BL87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BM87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BN87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BO87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BP87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BQ87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BR87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BS87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BT87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BU87" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="BV87" s="34" t="str">
-        <f t="shared" ref="BV87:CA88" ca="1" si="56">IF(AND($C87="Goal",BV$5&gt;=$F87,BV$5&lt;=$F87+$H87-1),2,IF(AND($C87="Milestone",BV$5&gt;=$F87,BV$5&lt;=$F87+$H87-1),1,""))</f>
+        <f t="shared" ref="BV87:CA87" ca="1" si="59">IF(AND($C87="Goal",BV$5&gt;=$F87,BV$5&lt;=$F87+$H87-1),2,IF(AND($C87="Milestone",BV$5&gt;=$F87,BV$5&lt;=$F87+$H87-1),1,""))</f>
         <v/>
       </c>
       <c r="BW87" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="BX87" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="BY87" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="BZ87" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="CA87" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" s="66"/>
-      <c r="E88" s="67">
-        <v>0</v>
-      </c>
-      <c r="F88" s="68">
-        <v>44300</v>
-      </c>
-      <c r="G88" s="68">
-        <v>44313</v>
-      </c>
-      <c r="H88" s="69">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
-      </c>
+      <c r="A88" s="15"/>
+      <c r="B88" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="31"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="K88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="L88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="M88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="N88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="O88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="P88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Q88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="R88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="S88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="T88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="U88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="V88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="W88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="X88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Y88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Z88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AA88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AB88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AC88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AD88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AE88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AF88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AG88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AH88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AI88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AJ88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AK88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AL88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AM88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AN88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AO88" s="34" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="AP88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AQ88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AR88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AS88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AT88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AU88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AV88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AW88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AX88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AY88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AZ88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BA88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BB88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BC88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BD88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BE88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BF88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BG88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BH88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BI88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BJ88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BK88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BL88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BM88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BN88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BO88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BP88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BQ88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BR88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BS88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BT88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BU88" s="34" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="BV88" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BW88" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BX88" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BY88" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="BZ88" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="CA88" s="34" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="34"/>
+      <c r="V88" s="34"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
+      <c r="AB88" s="34"/>
+      <c r="AC88" s="34"/>
+      <c r="AD88" s="34"/>
+      <c r="AE88" s="34"/>
+      <c r="AF88" s="34"/>
+      <c r="AG88" s="34"/>
+      <c r="AH88" s="34"/>
+      <c r="AI88" s="34"/>
+      <c r="AJ88" s="34"/>
+      <c r="AK88" s="34"/>
+      <c r="AL88" s="34"/>
+      <c r="AM88" s="34"/>
+      <c r="AN88" s="34"/>
+      <c r="AO88" s="34"/>
+      <c r="AP88" s="34"/>
+      <c r="AQ88" s="34"/>
+      <c r="AR88" s="34"/>
+      <c r="AS88" s="34"/>
+      <c r="AT88" s="34"/>
+      <c r="AU88" s="34"/>
+      <c r="AV88" s="34"/>
+      <c r="AW88" s="34"/>
+      <c r="AX88" s="34"/>
+      <c r="AY88" s="34"/>
+      <c r="AZ88" s="34"/>
+      <c r="BA88" s="34"/>
+      <c r="BB88" s="34"/>
+      <c r="BC88" s="34"/>
+      <c r="BD88" s="34"/>
+      <c r="BE88" s="34"/>
+      <c r="BF88" s="34"/>
+      <c r="BG88" s="34"/>
+      <c r="BH88" s="34"/>
+      <c r="BI88" s="34"/>
+      <c r="BJ88" s="34"/>
+      <c r="BK88" s="34"/>
+      <c r="BL88" s="34"/>
+      <c r="BM88" s="34"/>
+      <c r="BN88" s="34"/>
+      <c r="BO88" s="34"/>
+      <c r="BP88" s="34"/>
+      <c r="BQ88" s="34"/>
+      <c r="BR88" s="34"/>
+      <c r="BS88" s="34"/>
+      <c r="BT88" s="34"/>
+      <c r="BU88" s="34"/>
+      <c r="BV88" s="34"/>
+      <c r="BW88" s="34"/>
+      <c r="BX88" s="34"/>
+      <c r="BY88" s="34"/>
+      <c r="BZ88" s="34"/>
+      <c r="CA88" s="34"/>
     </row>
     <row r="89" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
-      <c r="B89" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="66"/>
-      <c r="E89" s="67">
-        <v>0</v>
-      </c>
-      <c r="F89" s="68">
-        <v>44300</v>
-      </c>
-      <c r="G89" s="68">
-        <v>44313</v>
-      </c>
-      <c r="H89" s="69">
+      <c r="B89" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="29">
+        <v>1</v>
+      </c>
+      <c r="F89" s="57">
+        <v>44146</v>
+      </c>
+      <c r="G89" s="57">
+        <v>44166</v>
+      </c>
+      <c r="H89" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I89" s="25"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
-      <c r="U89" s="34"/>
-      <c r="V89" s="34"/>
-      <c r="W89" s="34"/>
-      <c r="X89" s="34"/>
-      <c r="Y89" s="34"/>
-      <c r="Z89" s="34"/>
-      <c r="AA89" s="34"/>
-      <c r="AB89" s="34"/>
-      <c r="AC89" s="34"/>
-      <c r="AD89" s="34"/>
-      <c r="AE89" s="34"/>
-      <c r="AF89" s="34"/>
-      <c r="AG89" s="34"/>
-      <c r="AH89" s="34"/>
-      <c r="AI89" s="34"/>
-      <c r="AJ89" s="34"/>
-      <c r="AK89" s="34"/>
-      <c r="AL89" s="34"/>
-      <c r="AM89" s="34"/>
-      <c r="AN89" s="34"/>
-      <c r="AO89" s="34"/>
-      <c r="AP89" s="34"/>
-      <c r="AQ89" s="34"/>
-      <c r="AR89" s="34"/>
-      <c r="AS89" s="34"/>
-      <c r="AT89" s="34"/>
-      <c r="AU89" s="34"/>
-      <c r="AV89" s="34"/>
-      <c r="AW89" s="34"/>
-      <c r="AX89" s="34"/>
-      <c r="AY89" s="34"/>
-      <c r="AZ89" s="34"/>
-      <c r="BA89" s="34"/>
-      <c r="BB89" s="34"/>
-      <c r="BC89" s="34"/>
-      <c r="BD89" s="34"/>
-      <c r="BE89" s="34"/>
-      <c r="BF89" s="34"/>
-      <c r="BG89" s="34"/>
-      <c r="BH89" s="34"/>
-      <c r="BI89" s="34"/>
-      <c r="BJ89" s="34"/>
-      <c r="BK89" s="34"/>
-      <c r="BL89" s="34"/>
-      <c r="BM89" s="34"/>
-      <c r="BN89" s="34"/>
-      <c r="BO89" s="34"/>
-      <c r="BP89" s="34"/>
-      <c r="BQ89" s="34"/>
-      <c r="BR89" s="34"/>
-      <c r="BS89" s="34"/>
-      <c r="BT89" s="34"/>
-      <c r="BU89" s="34"/>
-      <c r="BV89" s="34"/>
-      <c r="BW89" s="34"/>
-      <c r="BX89" s="34"/>
-      <c r="BY89" s="34"/>
-      <c r="BZ89" s="34"/>
-      <c r="CA89" s="34"/>
+      <c r="J89" s="34" t="str">
+        <f t="shared" ref="J89:S97" ca="1" si="60">IF(AND($C89="Goal",J$5&gt;=$F89,J$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",J$5&gt;=$F89,J$5&lt;=$F89+$H89-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K89" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="L89" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="M89" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="N89" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="O89" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="P89" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="Q89" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="R89" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="S89" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="T89" s="34" t="str">
+        <f t="shared" ref="T89:AC97" ca="1" si="61">IF(AND($C89="Goal",T$5&gt;=$F89,T$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",T$5&gt;=$F89,T$5&lt;=$F89+$H89-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U89" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="V89" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="W89" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="X89" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Y89" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Z89" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AA89" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AB89" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AC89" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AD89" s="34" t="str">
+        <f t="shared" ref="AD89:AM97" ca="1" si="62">IF(AND($C89="Goal",AD$5&gt;=$F89,AD$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",AD$5&gt;=$F89,AD$5&lt;=$F89+$H89-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE89" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AF89" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AG89" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AH89" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AI89" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AJ89" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AK89" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AL89" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AM89" s="34">
+        <f t="shared" ca="1" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="AN89" s="34">
+        <f t="shared" ref="AN89:AW97" ca="1" si="63">IF(AND($C89="Goal",AN$5&gt;=$F89,AN$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",AN$5&gt;=$F89,AN$5&lt;=$F89+$H89-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AO89" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AP89" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AQ89" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AR89" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AS89" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AT89" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AU89" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AV89" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AW89" s="34">
+        <f t="shared" ca="1" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="AX89" s="34">
+        <f t="shared" ref="AX89:BG97" ca="1" si="64">IF(AND($C89="Goal",AX$5&gt;=$F89,AX$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",AX$5&gt;=$F89,AX$5&lt;=$F89+$H89-1),1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="AY89" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="AZ89" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BA89" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BB89" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BC89" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BD89" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BE89" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BF89" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BG89" s="34">
+        <f t="shared" ca="1" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="BH89" s="34" t="str">
+        <f t="shared" ref="BH89:BQ97" ca="1" si="65">IF(AND($C89="Goal",BH$5&gt;=$F89,BH$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",BH$5&gt;=$F89,BH$5&lt;=$F89+$H89-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI89" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BJ89" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BK89" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BL89" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BM89" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BN89" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BO89" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BP89" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BQ89" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BR89" s="34" t="str">
+        <f t="shared" ref="BR89:CA97" ca="1" si="66">IF(AND($C89="Goal",BR$5&gt;=$F89,BR$5&lt;=$F89+$H89-1),2,IF(AND($C89="Milestone",BR$5&gt;=$F89,BR$5&lt;=$F89+$H89-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BS89" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BT89" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BU89" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BV89" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BW89" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BX89" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BY89" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BZ89" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="CA89" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
     </row>
     <row r="90" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
-      <c r="B90" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="C90" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" s="66"/>
-      <c r="E90" s="67">
-        <v>0</v>
-      </c>
-      <c r="F90" s="68">
-        <v>44313</v>
-      </c>
-      <c r="G90" s="68">
-        <v>44330</v>
-      </c>
-      <c r="H90" s="69">
+      <c r="B90" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E90" s="29">
+        <v>1</v>
+      </c>
+      <c r="F90" s="57">
+        <v>44251</v>
+      </c>
+      <c r="G90" s="57">
+        <v>44264</v>
+      </c>
+      <c r="H90" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I90" s="25"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-      <c r="T90" s="34"/>
-      <c r="U90" s="34"/>
-      <c r="V90" s="34"/>
-      <c r="W90" s="34"/>
-      <c r="X90" s="34"/>
-      <c r="Y90" s="34"/>
-      <c r="Z90" s="34"/>
-      <c r="AA90" s="34"/>
-      <c r="AB90" s="34"/>
-      <c r="AC90" s="34"/>
-      <c r="AD90" s="34"/>
-      <c r="AE90" s="34"/>
-      <c r="AF90" s="34"/>
-      <c r="AG90" s="34"/>
-      <c r="AH90" s="34"/>
-      <c r="AI90" s="34"/>
-      <c r="AJ90" s="34"/>
-      <c r="AK90" s="34"/>
-      <c r="AL90" s="34"/>
-      <c r="AM90" s="34"/>
-      <c r="AN90" s="34"/>
-      <c r="AO90" s="34"/>
-      <c r="AP90" s="34"/>
-      <c r="AQ90" s="34"/>
-      <c r="AR90" s="34"/>
-      <c r="AS90" s="34"/>
-      <c r="AT90" s="34"/>
-      <c r="AU90" s="34"/>
-      <c r="AV90" s="34"/>
-      <c r="AW90" s="34"/>
-      <c r="AX90" s="34"/>
-      <c r="AY90" s="34"/>
-      <c r="AZ90" s="34"/>
-      <c r="BA90" s="34"/>
-      <c r="BB90" s="34"/>
-      <c r="BC90" s="34"/>
-      <c r="BD90" s="34"/>
-      <c r="BE90" s="34"/>
-      <c r="BF90" s="34"/>
-      <c r="BG90" s="34"/>
-      <c r="BH90" s="34"/>
-      <c r="BI90" s="34"/>
-      <c r="BJ90" s="34"/>
-      <c r="BK90" s="34"/>
-      <c r="BL90" s="34"/>
-      <c r="BM90" s="34"/>
-      <c r="BN90" s="34"/>
-      <c r="BO90" s="34"/>
-      <c r="BP90" s="34"/>
-      <c r="BQ90" s="34"/>
-      <c r="BR90" s="34"/>
-      <c r="BS90" s="34"/>
-      <c r="BT90" s="34"/>
-      <c r="BU90" s="34"/>
-      <c r="BV90" s="34"/>
-      <c r="BW90" s="34"/>
-      <c r="BX90" s="34"/>
-      <c r="BY90" s="34"/>
-      <c r="BZ90" s="34"/>
-      <c r="CA90" s="34"/>
+      <c r="J90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="K90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="L90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="M90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="N90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="O90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="P90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="Q90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="R90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="S90" s="34" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="T90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="U90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="V90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="W90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="X90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Y90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="Z90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AA90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AB90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AC90" s="34" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AD90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AE90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AF90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AG90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AH90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AI90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AJ90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AK90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AL90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AM90" s="34" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="AN90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AO90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AP90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AQ90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AR90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AS90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AT90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AU90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AV90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AW90" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AX90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AY90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AZ90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BA90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BB90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BC90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BD90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BE90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BF90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BG90" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="BH90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BI90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BJ90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BK90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BL90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BM90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BN90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BO90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BP90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BQ90" s="34" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="BR90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BS90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BT90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BU90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BV90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BW90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BX90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BY90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BZ90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="CA90" s="34" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
     </row>
     <row r="91" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
-      <c r="B91" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="53"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="71">
+        <v>0</v>
+      </c>
+      <c r="F91" s="68">
+        <v>44321</v>
+      </c>
+      <c r="G91" s="68">
+        <v>44334</v>
+      </c>
+      <c r="H91" s="69">
+        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
+        <v>14</v>
+      </c>
       <c r="I91" s="25"/>
       <c r="J91" s="34" t="str">
-        <f t="shared" ref="J91:AO91" ca="1" si="57">IF(AND($C91="Goal",J$5&gt;=$F91,J$5&lt;=$F91+$H91-1),2,IF(AND($C91="Milestone",J$5&gt;=$F91,J$5&lt;=$F91+$H91-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="V91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="W91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="X91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Y91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="Z91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AA91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AB91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AC91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AD91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AO91" s="34" t="str">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AP91" s="34" t="str">
-        <f t="shared" ref="AP91:BU91" ca="1" si="58">IF(AND($C91="Goal",AP$5&gt;=$F91,AP$5&lt;=$F91+$H91-1),2,IF(AND($C91="Milestone",AP$5&gt;=$F91,AP$5&lt;=$F91+$H91-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AQ91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AY91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AZ91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BA91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BB91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BC91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BD91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BE91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BF91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BG91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="BH91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BN91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BO91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BP91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BQ91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BR91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BT91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BU91" s="34" t="str">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BV91" s="34" t="str">
-        <f t="shared" ref="BV91:CA91" ca="1" si="59">IF(AND($C91="Goal",BV$5&gt;=$F91,BV$5&lt;=$F91+$H91-1),2,IF(AND($C91="Milestone",BV$5&gt;=$F91,BV$5&lt;=$F91+$H91-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BW91" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BX91" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BY91" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BZ91" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="CA91" s="34" t="str">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
     </row>
@@ -15251,30 +16153,30 @@
     <row r="93" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="55" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C93" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E93" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="57">
-        <v>44146</v>
+        <v>44321</v>
       </c>
       <c r="G93" s="57">
-        <v>44166</v>
+        <v>44334</v>
       </c>
       <c r="H93" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I93" s="25"/>
       <c r="J93" s="34" t="str">
-        <f t="shared" ref="J93:S99" ca="1" si="60">IF(AND($C93="Goal",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="K93" s="34" t="str">
@@ -15314,7 +16216,7 @@
         <v/>
       </c>
       <c r="T93" s="34" t="str">
-        <f t="shared" ref="T93:AC99" ca="1" si="61">IF(AND($C93="Goal",T$5&gt;=$F93,T$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",T$5&gt;=$F93,T$5&lt;=$F93+$H93-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="U93" s="34" t="str">
@@ -15354,7 +16256,7 @@
         <v/>
       </c>
       <c r="AD93" s="34" t="str">
-        <f t="shared" ref="AD93:AM99" ca="1" si="62">IF(AND($C93="Goal",AD$5&gt;=$F93,AD$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",AD$5&gt;=$F93,AD$5&lt;=$F93+$H93-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE93" s="34" t="str">
@@ -15389,92 +16291,92 @@
         <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
-      <c r="AM93" s="34">
+      <c r="AM93" s="34" t="str">
         <f t="shared" ca="1" si="62"/>
-        <v>2</v>
-      </c>
-      <c r="AN93" s="34">
-        <f t="shared" ref="AN93:AW99" ca="1" si="63">IF(AND($C93="Goal",AN$5&gt;=$F93,AN$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",AN$5&gt;=$F93,AN$5&lt;=$F93+$H93-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AO93" s="34">
+        <v/>
+      </c>
+      <c r="AN93" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AP93" s="34">
+        <v/>
+      </c>
+      <c r="AO93" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AQ93" s="34">
+        <v/>
+      </c>
+      <c r="AP93" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AR93" s="34">
+        <v/>
+      </c>
+      <c r="AQ93" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AS93" s="34">
+        <v/>
+      </c>
+      <c r="AR93" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AT93" s="34">
+        <v/>
+      </c>
+      <c r="AS93" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AU93" s="34">
+        <v/>
+      </c>
+      <c r="AT93" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AV93" s="34">
+        <v/>
+      </c>
+      <c r="AU93" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AW93" s="34">
+        <v/>
+      </c>
+      <c r="AV93" s="34" t="str">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AX93" s="34">
-        <f t="shared" ref="AX93:BG99" ca="1" si="64">IF(AND($C93="Goal",AX$5&gt;=$F93,AX$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",AX$5&gt;=$F93,AX$5&lt;=$F93+$H93-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AY93" s="34">
+        <v/>
+      </c>
+      <c r="AW93" s="34" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AX93" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="AZ93" s="34">
+        <v/>
+      </c>
+      <c r="AY93" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BA93" s="34">
+        <v/>
+      </c>
+      <c r="AZ93" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BB93" s="34">
+        <v/>
+      </c>
+      <c r="BA93" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BC93" s="34">
+        <v/>
+      </c>
+      <c r="BB93" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BD93" s="34">
+        <v/>
+      </c>
+      <c r="BC93" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BE93" s="34">
+        <v/>
+      </c>
+      <c r="BD93" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BF93" s="34">
+        <v/>
+      </c>
+      <c r="BE93" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="BG93" s="34">
+        <v/>
+      </c>
+      <c r="BF93" s="34" t="str">
         <f t="shared" ca="1" si="64"/>
-        <v>2</v>
+        <v/>
+      </c>
+      <c r="BG93" s="34" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
       </c>
       <c r="BH93" s="34" t="str">
-        <f t="shared" ref="BH93:BQ99" ca="1" si="65">IF(AND($C93="Goal",BH$5&gt;=$F93,BH$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",BH$5&gt;=$F93,BH$5&lt;=$F93+$H93-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI93" s="34" t="str">
@@ -15514,7 +16416,7 @@
         <v/>
       </c>
       <c r="BR93" s="34" t="str">
-        <f t="shared" ref="BR93:CA99" ca="1" si="66">IF(AND($C93="Goal",BR$5&gt;=$F93,BR$5&lt;=$F93+$H93-1),2,IF(AND($C93="Milestone",BR$5&gt;=$F93,BR$5&lt;=$F93+$H93-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="BS93" s="34" t="str">
@@ -15556,28 +16458,15 @@
     </row>
     <row r="94" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
-      <c r="B94" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="29">
-        <v>1</v>
-      </c>
-      <c r="F94" s="57">
-        <v>44251</v>
-      </c>
-      <c r="G94" s="57">
-        <v>44264</v>
-      </c>
-      <c r="H94" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
-      </c>
+      <c r="B94" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="31"/>
       <c r="I94" s="25"/>
       <c r="J94" s="34" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -15862,32 +16751,32 @@
     </row>
     <row r="95" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
-      <c r="B95" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="66" t="s">
+      <c r="B95" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="71">
-        <v>0</v>
-      </c>
-      <c r="F95" s="68">
-        <v>44321</v>
-      </c>
-      <c r="G95" s="68">
-        <v>44334</v>
-      </c>
-      <c r="H95" s="69">
+      <c r="D95" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" s="29">
+        <v>1</v>
+      </c>
+      <c r="F95" s="57">
+        <v>44117</v>
+      </c>
+      <c r="G95" s="57">
+        <v>44117</v>
+      </c>
+      <c r="H95" s="31">
         <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I95" s="25"/>
-      <c r="J95" s="34" t="str">
+      <c r="J95" s="34">
         <f t="shared" ca="1" si="60"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K95" s="34" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -16168,13 +17057,11 @@
     </row>
     <row r="96" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
-      <c r="B96" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="30"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="60"/>
       <c r="G96" s="30"/>
       <c r="H96" s="31"/>
       <c r="I96" s="25"/>
@@ -16460,33 +17347,20 @@
       </c>
     </row>
     <row r="97" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="14"/>
-      <c r="B97" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E97" s="29">
-        <v>1</v>
-      </c>
-      <c r="F97" s="57">
-        <v>44117</v>
-      </c>
-      <c r="G97" s="57">
-        <v>44117</v>
-      </c>
-      <c r="H97" s="31">
-        <f>Milestones[[#This Row],[End]]-Milestones[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
+      <c r="A97" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="31"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="34">
+      <c r="J97" s="34" t="str">
         <f t="shared" ca="1" si="60"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K97" s="34" t="str">
         <f t="shared" ca="1" si="60"/>
@@ -16765,598 +17639,16 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="14"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="K98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="L98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="M98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="N98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="O98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="P98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="Q98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="R98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="S98" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="T98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="U98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="V98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="W98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="X98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Y98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Z98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AA98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AB98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AC98" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AD98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AE98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AF98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AG98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AH98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AI98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AJ98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AK98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AL98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AM98" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AN98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AO98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AP98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AQ98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AR98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AS98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AT98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AU98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AV98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AW98" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AX98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AY98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AZ98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BA98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BB98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BC98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BD98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BE98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BF98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BG98" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BH98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BI98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BJ98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BK98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BL98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BM98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BN98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BO98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BP98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BQ98" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BR98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BS98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BT98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BU98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BV98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BW98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BX98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BY98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BZ98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="CA98" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
+    <row r="98" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="5"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:79" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="K99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="L99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="M99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="N99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="O99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="P99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="Q99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="R99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="S99" s="34" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="T99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="U99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="V99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="W99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="X99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Y99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="Z99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AA99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AB99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AC99" s="34" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AD99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AE99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AF99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AG99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AH99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AI99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AJ99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AK99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AL99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AM99" s="34" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="AN99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AO99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AP99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AQ99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AR99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AS99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AT99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AU99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AV99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AW99" s="34" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AX99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AY99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AZ99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BA99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BB99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BC99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BD99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BE99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BF99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BG99" s="34" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="BH99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BI99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BJ99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BK99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BL99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BM99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BN99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BO99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BP99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BQ99" s="34" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="BR99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BS99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BT99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BU99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BV99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BW99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BX99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BY99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BZ99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="CA99" s="34" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
+    <row r="99" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="5"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="6"/>
-    </row>
+    <row r="100" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17446,8 +17738,6 @@
     <row r="188" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="189" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="190" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="AE2:AJ2"/>
@@ -17460,8 +17750,8 @@
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="X2:AC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E11 E17 E13 E91:E92 E99 E33 E96 E15 E47:E85">
-    <cfRule type="dataBar" priority="369">
+  <conditionalFormatting sqref="E7:E11 E17 E13 E87:E88 E97 E33 E94 E15 E47:E81">
+    <cfRule type="dataBar" priority="397">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17474,45 +17764,45 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J91:BZ92 J26:BZ33 J21:BZ24 J39:BZ85">
-    <cfRule type="expression" dxfId="44" priority="362">
+  <conditionalFormatting sqref="J5:BZ11 J13:BZ17 J87:BZ88 J26:BZ33 J21:BZ24 J39:BZ81">
+    <cfRule type="expression" dxfId="58" priority="390">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="43" priority="368">
+    <cfRule type="expression" dxfId="57" priority="396">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:CA4">
-    <cfRule type="expression" dxfId="42" priority="364">
+    <cfRule type="expression" dxfId="56" priority="392">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:CA4">
-    <cfRule type="expression" dxfId="41" priority="363">
+    <cfRule type="expression" dxfId="55" priority="391">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:CA11 J13:CA67 J76:CA99">
-    <cfRule type="expression" dxfId="40" priority="385" stopIfTrue="1">
+  <conditionalFormatting sqref="J8:CA11 J13:CA67 J76:CA91 J94:CA97">
+    <cfRule type="expression" dxfId="54" priority="413" stopIfTrue="1">
       <formula>AND($C8="Low",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="432" stopIfTrue="1">
       <formula>AND($C8="High",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="450" stopIfTrue="1">
       <formula>AND($C8="On Track",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="451" stopIfTrue="1">
       <formula>AND($C8="Med",J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="452" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,J$5&gt;=$F8,J$5&lt;=$F8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="dataBar" priority="338">
+  <conditionalFormatting sqref="E87">
+    <cfRule type="dataBar" priority="366">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17525,8 +17815,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="dataBar" priority="330">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="dataBar" priority="358">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17540,7 +17830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="dataBar" priority="306">
+    <cfRule type="dataBar" priority="334">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17553,13 +17843,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA23:CA24 CA91:CA92 CA33">
-    <cfRule type="expression" dxfId="35" priority="483">
+  <conditionalFormatting sqref="CA5:CA11 CA13:CA17 CA23:CA24 CA87:CA88 CA33">
+    <cfRule type="expression" dxfId="49" priority="511">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20">
-    <cfRule type="dataBar" priority="273">
+    <cfRule type="dataBar" priority="301">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17573,17 +17863,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="34" priority="272">
+    <cfRule type="expression" dxfId="48" priority="300">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA85">
-    <cfRule type="expression" dxfId="33" priority="279">
+  <conditionalFormatting sqref="CA26:CA32 CA18:CA22 CA39:CA81">
+    <cfRule type="expression" dxfId="47" priority="307">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="dataBar" priority="264">
+    <cfRule type="dataBar" priority="292">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17597,7 +17887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="dataBar" priority="262">
+    <cfRule type="dataBar" priority="290">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17611,7 +17901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="dataBar" priority="254">
+    <cfRule type="dataBar" priority="282">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17625,34 +17915,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BZ12">
-    <cfRule type="expression" dxfId="32" priority="253">
+    <cfRule type="expression" dxfId="46" priority="281">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:CA12">
-    <cfRule type="expression" dxfId="31" priority="255" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="283" stopIfTrue="1">
       <formula>AND($C12="Low",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="284" stopIfTrue="1">
       <formula>AND($C12="High",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="285" stopIfTrue="1">
       <formula>AND($C12="On Track",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="286" stopIfTrue="1">
       <formula>AND($C12="Med",J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="287" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,J$5&gt;=$F12,J$5&lt;=$F12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA12">
-    <cfRule type="expression" dxfId="26" priority="260">
+    <cfRule type="expression" dxfId="40" priority="288">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="dataBar" priority="252">
+  <conditionalFormatting sqref="E88">
+    <cfRule type="dataBar" priority="280">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17666,17 +17956,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BZ38">
-    <cfRule type="expression" dxfId="25" priority="244">
+    <cfRule type="expression" dxfId="39" priority="272">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA38">
-    <cfRule type="expression" dxfId="24" priority="250">
+    <cfRule type="expression" dxfId="38" priority="278">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="dataBar" priority="243">
+    <cfRule type="dataBar" priority="271">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17689,18 +17979,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J86:BZ86">
-    <cfRule type="expression" dxfId="23" priority="215">
+  <conditionalFormatting sqref="J82:BZ82">
+    <cfRule type="expression" dxfId="37" priority="243">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA86">
-    <cfRule type="expression" dxfId="22" priority="216">
+  <conditionalFormatting sqref="CA82">
+    <cfRule type="expression" dxfId="36" priority="244">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="dataBar" priority="214">
+  <conditionalFormatting sqref="E82">
+    <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17714,57 +18004,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BZ25">
-    <cfRule type="expression" dxfId="21" priority="161">
+    <cfRule type="expression" dxfId="35" priority="189">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA25">
-    <cfRule type="expression" dxfId="20" priority="162">
+    <cfRule type="expression" dxfId="34" priority="190">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BZ37">
-    <cfRule type="expression" dxfId="19" priority="138">
+    <cfRule type="expression" dxfId="33" priority="166">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA34:CA37">
-    <cfRule type="expression" dxfId="18" priority="137">
+    <cfRule type="expression" dxfId="32" priority="165">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J88:BZ90">
-    <cfRule type="expression" dxfId="17" priority="98">
+  <conditionalFormatting sqref="J84:BZ86">
+    <cfRule type="expression" dxfId="31" priority="126">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA88:CA90">
-    <cfRule type="expression" dxfId="16" priority="97">
+  <conditionalFormatting sqref="CA84:CA86">
+    <cfRule type="expression" dxfId="30" priority="125">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J93:BZ99">
-    <cfRule type="expression" dxfId="15" priority="90">
+  <conditionalFormatting sqref="J89:BZ91 J94:BZ97">
+    <cfRule type="expression" dxfId="29" priority="118">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA93:CA99">
-    <cfRule type="expression" dxfId="14" priority="89">
+  <conditionalFormatting sqref="CA89:CA91 CA94:CA97">
+    <cfRule type="expression" dxfId="28" priority="117">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BZ20">
-    <cfRule type="expression" dxfId="13" priority="59">
+    <cfRule type="expression" dxfId="27" priority="87">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA18:CA20">
-    <cfRule type="expression" dxfId="12" priority="60">
+    <cfRule type="expression" dxfId="26" priority="88">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E32">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17777,8 +18067,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="dataBar" priority="29">
+  <conditionalFormatting sqref="E95">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17791,8 +18081,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:E95">
-    <cfRule type="dataBar" priority="28">
+  <conditionalFormatting sqref="E89:E91">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17806,7 +18096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E37">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17820,7 +18110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17834,7 +18124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E46">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17848,51 +18138,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:CA71">
-    <cfRule type="expression" dxfId="11" priority="893" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="921" stopIfTrue="1">
       <formula>AND($C72="Low",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="894" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="922" stopIfTrue="1">
       <formula>AND($C72="High",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="895" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="923" stopIfTrue="1">
       <formula>AND($C72="On Track",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="896" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="924" stopIfTrue="1">
       <formula>AND($C72="Med",J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="897" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="925" stopIfTrue="1">
       <formula>AND(LEN($C72)=0,J$5&gt;=$F72,J$5&lt;=$F72+$H72-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72:CA75">
-    <cfRule type="expression" dxfId="6" priority="910" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="938" stopIfTrue="1">
       <formula>AND($C68="Low",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="911" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="939" stopIfTrue="1">
       <formula>AND($C68="High",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="912" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="940" stopIfTrue="1">
       <formula>AND($C68="On Track",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="913" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="941" stopIfTrue="1">
       <formula>AND($C68="Med",J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="914" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="942" stopIfTrue="1">
       <formula>AND(LEN($C68)=0,J$5&gt;=$F68,J$5&lt;=$F68+$H68-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA87">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="CA83">
+    <cfRule type="expression" dxfId="15" priority="30">
       <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J87:BZ87">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="J83:BZ83">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E85">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="E92">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17900,22 +18190,104 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC281499-CEF0-48F9-975F-A9E15B05D39B}</x14:id>
+          <x14:id>{AA01F260-4589-4627-A696-0525684524A7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
+  <conditionalFormatting sqref="J92:BZ92">
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92:CA92">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
+      <formula>AND($C92="Low",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
+      <formula>AND($C92="High",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+      <formula>AND($C92="On Track",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="25" stopIfTrue="1">
+      <formula>AND($C92="Med",J$5&gt;=$F92,J$5&lt;=$F92+$H92-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="26" stopIfTrue="1">
+      <formula>AND(LEN($C92)=0,J$5&gt;=$F92,J$5&lt;=$F92+$H92-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA92">
+    <cfRule type="expression" dxfId="7" priority="27">
+      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{939D7B40-475F-42CA-A3E9-8C1D3A564FE1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93:CA93">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+      <formula>AND($C93="Low",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="15" stopIfTrue="1">
+      <formula>AND($C93="High",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="16" stopIfTrue="1">
+      <formula>AND($C93="On Track",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
+      <formula>AND($C93="Med",J$5&gt;=$F93,J$5&lt;=$F93+$H93-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="18" stopIfTrue="1">
+      <formula>AND(LEN($C93)=0,J$5&gt;=$F93,J$5&lt;=$F93+$H93-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93:BZ93">
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA93">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>AND(TODAY()&gt;=CA$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EC89F448-3F37-4D01-B2D8-AEC7C83FD2FA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4:G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9 C12" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
       <formula1>"Goal,Milestone,On Track, Low Priority, Med Priority High Risk, High Priority"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C91:C99" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C87:C97" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C98" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C11 C13:C21 C23:C96" xr:uid="{C54791BD-0508-1C44-9D7B-41219AE73EF5}">
       <formula1>"Goal,Milestone,On Track, Low, Med, High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17974,7 +18346,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E11 E17 E13 E91:E92 E99 E33 E96 E15 E47:E85</xm:sqref>
+          <xm:sqref>E7:E11 E17 E13 E87:E88 E97 E33 E94 E15 E47:E81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{36922C6F-F55A-8F49-86CD-B382086C6C9E}">
@@ -17989,7 +18361,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E91</xm:sqref>
+          <xm:sqref>E87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8CFA0F17-6347-3E4A-87FC-DD2694821F83}">
@@ -18004,7 +18376,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E96</xm:sqref>
+          <xm:sqref>E94</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2D0729C-0866-8942-B08E-D5C757399A18}">
@@ -18094,7 +18466,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E92</xm:sqref>
+          <xm:sqref>E88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D79EBD87-5F64-3440-B8E6-BE18D3A97878}">
@@ -18124,7 +18496,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E86</xm:sqref>
+          <xm:sqref>E82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{366133D0-FF9F-A54A-B853-B640570739BE}">
@@ -18154,7 +18526,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E97</xm:sqref>
+          <xm:sqref>E95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C1D15CD-08F7-4E4C-AEF0-0399341BEE1B}">
@@ -18169,7 +18541,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E93:E95</xm:sqref>
+          <xm:sqref>E89:E91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{70BD8D54-5CD7-4341-8332-FE6663A466EA}">
@@ -18217,22 +18589,7 @@
           <xm:sqref>E39:E46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC281499-CEF0-48F9-975F-A9E15B05D39B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E82:E85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="503" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
+          <x14:cfRule type="iconSet" priority="531" id="{1F256D49-E95F-EA41-82A2-0ECE7B977932}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18251,7 +18608,7 @@
           <xm:sqref>J24:CA24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="509" id="{B0AA1351-A225-3942-89A5-F80CB96A7148}">
+          <x14:cfRule type="iconSet" priority="537" id="{B0AA1351-A225-3942-89A5-F80CB96A7148}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18267,10 +18624,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J91:CA92</xm:sqref>
+          <xm:sqref>J87:CA88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="523" id="{82FEFA3B-0957-5746-B989-0137642BE052}">
+          <x14:cfRule type="iconSet" priority="551" id="{82FEFA3B-0957-5746-B989-0137642BE052}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18289,7 +18646,7 @@
           <xm:sqref>J33:CA33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="261" id="{480D9390-1284-8F4E-81C3-076195976C87}">
+          <x14:cfRule type="iconSet" priority="289" id="{480D9390-1284-8F4E-81C3-076195976C87}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18308,7 +18665,7 @@
           <xm:sqref>J12:CA12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="242" id="{CBAF9D01-052E-9E4F-80FB-7E0BFADD2A5B}">
+          <x14:cfRule type="iconSet" priority="270" id="{CBAF9D01-052E-9E4F-80FB-7E0BFADD2A5B}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18327,7 +18684,7 @@
           <xm:sqref>J47:CA47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="217" id="{CA248EBF-FA81-2845-83C1-432BD56BCD91}">
+          <x14:cfRule type="iconSet" priority="245" id="{CA248EBF-FA81-2845-83C1-432BD56BCD91}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18343,10 +18700,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J86:CA86</xm:sqref>
+          <xm:sqref>J82:CA82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="163" id="{C3E335A3-845A-8149-8FBF-06975DBEFFEA}">
+          <x14:cfRule type="iconSet" priority="191" id="{C3E335A3-845A-8149-8FBF-06975DBEFFEA}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18365,7 +18722,7 @@
           <xm:sqref>J25:CA25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="675" id="{1330B30D-F36E-3E4A-B43F-867C3A53D852}">
+          <x14:cfRule type="iconSet" priority="703" id="{1330B30D-F36E-3E4A-B43F-867C3A53D852}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18384,7 +18741,7 @@
           <xm:sqref>J26:CA32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="144" id="{F57842D6-BB31-8E45-8661-495D5FB4ED92}">
+          <x14:cfRule type="iconSet" priority="172" id="{F57842D6-BB31-8E45-8661-495D5FB4ED92}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18403,7 +18760,7 @@
           <xm:sqref>J34:CA37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="112" id="{A47E4274-CF1C-0D44-B1B9-E7AA50A018A2}">
+          <x14:cfRule type="iconSet" priority="140" id="{A47E4274-CF1C-0D44-B1B9-E7AA50A018A2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18422,7 +18779,7 @@
           <xm:sqref>J54:CA54 J51:CA51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="96" id="{EE280A5C-AAE2-BA43-A153-612158E3BF59}">
+          <x14:cfRule type="iconSet" priority="124" id="{EE280A5C-AAE2-BA43-A153-612158E3BF59}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18438,10 +18795,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J93:CA99</xm:sqref>
+          <xm:sqref>J94:CA97 J89:CA91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="61" id="{FAD2EEE5-A059-C248-816C-8DFF237F9CAC}">
+          <x14:cfRule type="iconSet" priority="89" id="{FAD2EEE5-A059-C248-816C-8DFF237F9CAC}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18460,7 +18817,7 @@
           <xm:sqref>J18:CA20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="705" id="{E21A14E8-7E31-1341-941E-2AA1E8D36C21}">
+          <x14:cfRule type="iconSet" priority="733" id="{E21A14E8-7E31-1341-941E-2AA1E8D36C21}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18479,7 +18836,7 @@
           <xm:sqref>J21:CA22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="724" id="{18426B84-97F7-A84C-A50B-414C27DFC764}">
+          <x14:cfRule type="iconSet" priority="752" id="{18426B84-97F7-A84C-A50B-414C27DFC764}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18498,7 +18855,7 @@
           <xm:sqref>J39:CA46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="738" id="{445139A2-0E25-9B43-9EF0-2DABE3D5C767}">
+          <x14:cfRule type="iconSet" priority="766" id="{445139A2-0E25-9B43-9EF0-2DABE3D5C767}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18517,7 +18874,7 @@
           <xm:sqref>J38:CA38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="817" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="845" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18536,7 +18893,7 @@
           <xm:sqref>J23:CA23 J8:CA11 J13:CA17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{D1F0323A-13A8-42A6-A917-4F310B1AD20C}">
+          <x14:cfRule type="iconSet" priority="32" id="{D1F0323A-13A8-42A6-A917-4F310B1AD20C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18552,10 +18909,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J87:CA87</xm:sqref>
+          <xm:sqref>J83:CA83</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="925" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
+          <x14:cfRule type="iconSet" priority="953" id="{6DB192B8-C84E-5D48-B11E-01EBECF9E79C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18571,10 +18928,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J88:CA90</xm:sqref>
+          <xm:sqref>J84:CA86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="959" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
+          <x14:cfRule type="iconSet" priority="998" id="{8B0DF21F-B541-564D-9F10-31FF8CBFA98C}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18590,7 +18947,90 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J52:CA53 J55:CA85 J48:CA50</xm:sqref>
+          <xm:sqref>J52:CA53 J55:CA81 J48:CA50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AA01F260-4589-4627-A696-0525684524A7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{939D7B40-475F-42CA-A3E9-8C1D3A564FE1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="28" id="{FC34A91D-DA3C-42BE-9C6F-CE2A54064095}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J92:CA92</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EC89F448-3F37-4D01-B2D8-AEC7C83FD2FA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E93</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="13" id="{5E3150D6-9E54-47DD-B5DE-24D9DE2ABD28}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J93:CA93</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Documents/Meeting Updates/Marching Masters Schedule.xlsx
+++ b/Documents/Meeting Updates/Marching Masters Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813930FD-3FB3-462A-9600-E7C3D6229769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D5530D-922D-41D9-BB5D-5EAA8C30DB4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23929" yWindow="-113" windowWidth="24267" windowHeight="13749" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28211" yWindow="363" windowWidth="11821" windowHeight="11883" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1058,6 +1058,39 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="75">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2202,39 +2235,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2556,12 +2556,12 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Completion"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-